--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="STAT" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t xml:space="preserve">User ID</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +662,12 @@
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -717,7 +732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,6 +790,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,7 +856,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -863,7 +882,7 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
@@ -874,7 +893,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="1" width="5.89"/>
@@ -1266,9 +1285,9 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,13 +1357,13 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16"/>
   </cols>
@@ -1521,12 +1540,12 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,7 +1633,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.45"/>
@@ -1685,7 +1704,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.89"/>
   </cols>
@@ -1738,7 +1757,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1757,17 +1776,17 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.56"/>
   </cols>
   <sheetData>
@@ -2000,6 +2019,21 @@
       </c>
       <c r="I19" s="0" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
   <si>
     <t xml:space="preserve">User ID</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Airtightness reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement location description</t>
   </si>
   <si>
     <t xml:space="preserve">Fresh air supply</t>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">AMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambient</t>
   </si>
   <si>
     <t xml:space="preserve">Through occupant operated window only</t>
@@ -376,6 +382,9 @@
     <t xml:space="preserve">BED</t>
   </si>
   <si>
+    <t xml:space="preserve">Bedroom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Through automatic operated window</t>
   </si>
   <si>
@@ -414,6 +423,9 @@
     <t xml:space="preserve">LIV</t>
   </si>
   <si>
+    <t xml:space="preserve">Living room</t>
+  </si>
+  <si>
     <t xml:space="preserve">Through permanent opening to the exterior (grille, …)</t>
   </si>
   <si>
@@ -429,6 +441,9 @@
     <t xml:space="preserve">BAT</t>
   </si>
   <si>
+    <t xml:space="preserve">Bathroom</t>
+  </si>
+  <si>
     <t xml:space="preserve">UFP</t>
   </si>
   <si>
@@ -441,6 +456,9 @@
     <t xml:space="preserve">KIT</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitchen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Through mechanically driven overflow (or recirculated air) from adjacent zones</t>
   </si>
   <si>
@@ -465,6 +483,9 @@
     <t xml:space="preserve">CCO</t>
   </si>
   <si>
+    <t xml:space="preserve">Central corridor</t>
+  </si>
+  <si>
     <t xml:space="preserve">PM10</t>
   </si>
   <si>
@@ -478,6 +499,9 @@
   </si>
   <si>
     <t xml:space="preserve">HOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home office</t>
   </si>
   <si>
     <t xml:space="preserve">NO2</t>
@@ -619,7 +643,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +688,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
@@ -732,7 +762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -793,7 +823,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,7 +887,7 @@
       <rgbColor rgb="FF9DC3E6"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -893,7 +927,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="1" width="5.89"/>
@@ -1285,7 +1319,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
   </cols>
@@ -1357,7 +1391,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
@@ -1540,12 +1574,12 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1638,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3" type="list">
-      <formula1>Definitions!$G$2:$G$8</formula1>
+      <formula1>Definitions!$H$2:$H$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3" type="list">
@@ -1633,7 +1667,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.45"/>
@@ -1679,7 +1713,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
-      <formula1>Definitions!$H$2:$H$20</formula1>
+      <formula1>Definitions!$I$2:$I$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1704,7 +1738,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.89"/>
   </cols>
@@ -1757,7 +1791,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1774,23 +1808,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>82</v>
@@ -1804,239 +1839,271 @@
       <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="0" t="s">
-        <v>130</v>
-      </c>
+      <c r="I11" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="0" t="s">
-        <v>131</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0" t="s">
-        <v>118</v>
-      </c>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>124</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="STAT" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,87 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
-  <si>
-    <t xml:space="preserve">User ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pollutant ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Commit ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P97.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eCDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typ. SI (Sample intervall)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% with Typ. SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># NA's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Min cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Max cut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORCID</t>
   </si>
   <si>
     <t xml:space="preserve">Year(s)</t>
@@ -643,7 +571,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,24 +581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFE2F0D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
@@ -678,6 +588,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
         <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -695,7 +611,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -771,6 +687,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -783,51 +703,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,7 +777,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -871,7 +799,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -914,12 +842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -937,86 +863,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="1" width="11.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="1" s="2" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1313,62 +1161,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9" t="n">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="n">
         <v>2012</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1387,127 +1242,131 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>30</v>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.6</v>
@@ -1515,23 +1374,23 @@
       <c r="J3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="13" t="n">
+      <c r="K3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>65</v>
+      <c r="N3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>2008</v>
@@ -1570,65 +1429,66 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="60.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>69</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1661,55 +1521,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
@@ -1732,43 +1592,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="38.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1787,11 +1644,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1810,11 +1667,11 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -1826,282 +1683,282 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>87</v>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="16" t="s">
-        <v>145</v>
+      <c r="I20" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="16" t="s">
-        <v>146</v>
+      <c r="I21" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="16" t="s">
-        <v>147</v>
+      <c r="I22" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="STAT" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+  <si>
+    <t xml:space="preserve">NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annex_write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the data in here</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -687,7 +711,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,10 +866,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +887,32 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="1" width="11.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="2" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1167,7 +1216,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.78"/>
@@ -1177,25 +1226,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,17 +1258,17 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="n">
         <v>2012</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1246,11 +1295,11 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="32.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="32.99"/>
@@ -1263,80 +1312,80 @@
   <sheetData>
     <row r="1" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="6"/>
       <c r="M2" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1345,28 +1394,28 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.6</v>
@@ -1375,22 +1424,22 @@
         <v>50</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M3" s="11" t="n">
         <v>70</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>2008</v>
@@ -1433,7 +1482,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.27"/>
@@ -1444,22 +1493,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,26 +1516,26 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1527,29 +1576,29 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,13 +1610,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1594,26 +1643,26 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="38.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="38.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1672,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1697,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1671,7 +1720,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -1685,280 +1734,280 @@
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="19" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I21" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="19" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="STAT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="META-Study" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="META-Home" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="META-Room" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="META-Pollutant" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="META-Period" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="META-Time" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Definitions" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="STAT" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="META-Study" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="META-Home" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="META-Room" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="META-Pollutant" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="META-Period" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="META-Time" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Definitions" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,30 +28,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annex_write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don’t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manipulate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the data in here</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+  <si>
+    <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document contains a standardized Annex86 data set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please do not:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Delete or rename sheets (except this one if needed) or add new custom sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Rename columns or change the order of the columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Manipulate the ‘Definitions’ table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Modify any data generated by the annex package except if asked for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The file can be validated using annex_validate() to check if the content of the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matches the expected format and whether or not all required META data has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been properly entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More information about the R package ‘annex’ can be found on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iea-ebc-annex86.github.io/annex/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: This shee will be automatically filled by annex_write_stats(); no need for manual changes/interaction.</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -502,7 +521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -552,6 +571,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="32"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -698,32 +732,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,7 +781,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,7 +789,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,11 +801,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,7 +813,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,7 +821,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -861,56 +907,174 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2104920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Bild 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="277560"/>
+          <a:ext cx="1830600" cy="2114280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.22"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" display="https://iea-ebc-annex86.github.io/annex/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;KffffffSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="1" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="16.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="3" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="15.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="3" width="11.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+    <row r="1" s="5" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1205,18 +1369,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.78"/>
@@ -1225,53 +1389,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="n">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1284,18 +1448,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
@@ -1311,135 +1475,135 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="11" t="n">
+      <c r="K3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>49</v>
+      <c r="N3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>2008</v>
@@ -1471,18 +1635,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.27"/>
@@ -1492,52 +1656,52 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1565,58 +1729,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>60</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1636,69 +1800,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="18" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>53</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1714,13 +1855,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -1732,282 +1896,282 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>71</v>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="19" t="s">
-        <v>129</v>
+      <c r="I20" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="19" t="s">
-        <v>130</v>
+      <c r="I21" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="19" t="s">
-        <v>131</v>
+      <c r="I22" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -69,6 +69,36 @@
     <t xml:space="preserve">https://iea-ebc-annex86.github.io/annex/</t>
   </si>
   <si>
+    <t xml:space="preserve">Color scheme used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ec6904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#c6c6c6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fca05a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e0e0e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2a3349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fedabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fbfbfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffffff</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note: This shee will be automatically filled by annex_write_stats(); no need for manual changes/interaction.</t>
   </si>
   <si>
@@ -90,99 +120,87 @@
     <t xml:space="preserve">Links</t>
   </si>
   <si>
+    <t xml:space="preserve">Additional information/comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Rojas,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi:…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location: Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location: City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment Vent. Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation rate (entire home; [l/s])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method of vent. rate determination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment vent. Rate determination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airtightn. [xx]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airtightness ref press [Pa]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airtightness normalization value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of home / TFA [m^2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Occupants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constr. type / building materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of contruction / major renovation (four digit year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innsbruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical ventilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central MVHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-hood / anemometer measurement (in context of study)</t>
+  </si>
+  <si>
     <t xml:space="preserve">…</t>
   </si>
   <si>
-    <t xml:space="preserve">GR-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Rojas,…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi:…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location: Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location: City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventilation type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Vent. Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventilation rate (entire home)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method of vent. rate determination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment vent. Rate determination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtightn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtightness ref press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtightness normalization value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size of home / TFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Occupants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constr. type / building materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year of contruction / major renovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 3166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[l/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[xx]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Pa]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[m²]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innsbruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanical ventilation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">central MVHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-hood / anemometer measurement (in context of study)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Building volume specific [1/h]</t>
   </si>
   <si>
@@ -204,7 +222,7 @@
     <t xml:space="preserve">Fresh air supply in measurement location</t>
   </si>
   <si>
-    <t xml:space="preserve">Ventilation rate (room)</t>
+    <t xml:space="preserve">Ventilation rate (room; [l/s])</t>
   </si>
   <si>
     <t xml:space="preserve">Comments</t>
@@ -262,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pollutants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollution: Additional information required</t>
   </si>
   <si>
     <t xml:space="preserve">Window airing (not designed)</t>
@@ -466,9 +487,6 @@
     <t xml:space="preserve">PMOther</t>
   </si>
   <si>
-    <t xml:space="preserve">add info reqd</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOO</t>
   </si>
   <si>
@@ -518,10 +536,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -583,7 +602,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -593,13 +628,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -629,7 +657,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,42 +666,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FF8FAADC"/>
+        <fgColor rgb="FFEC6904"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFC6C6C6"/>
+        <bgColor rgb="FFE0E0E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <fgColor rgb="FFFCA05A"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF2A3349"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEDABE"/>
+        <bgColor rgb="FFE0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFB"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFBFBFB"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -687,6 +733,15 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEC6904"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +787,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -753,27 +808,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,15 +868,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,15 +876,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,19 +888,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,7 +914,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFBFBFB"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -860,16 +927,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFC6C6C6"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFCA05A"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE0E0E0"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -880,18 +947,18 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF9DC3E6"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FFFEDABE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFEC6904"/>
       <rgbColor rgb="FF44546A"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -901,7 +968,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF2A3349"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -918,9 +985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2104920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:colOff>2103480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -933,8 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274320" y="277560"/>
-          <a:ext cx="1830600" cy="2114280"/>
+          <a:off x="274320" y="290160"/>
+          <a:ext cx="1829160" cy="2112840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,16 +1021,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:B19"/>
+  <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,47 +1039,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>11</v>
       </c>
@@ -1029,6 +1097,53 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1051,10 +1166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,10 +1187,16 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="3" width="11.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" s="14" customFormat="true" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1374,69 +1495,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.92"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>20</v>
+    <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="n">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
+      <c r="E2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1455,172 +1569,144 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="32.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="32.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="17" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="14" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="G2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="14" t="n">
+      <c r="K2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="0" t="n">
+      <c r="N2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="0" t="n">
         <v>2008</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2" type="list">
       <formula1>Definitions!$C$2:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="list">
       <formula1>Definitions!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2" type="list">
       <formula1>Definitions!B2:B5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1642,79 +1728,70 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="60.26"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>59</v>
+    <row r="1" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="14" t="n">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
+      <c r="E2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
       <formula1>Definitions!$F$2:$F$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2" type="list">
       <formula1>Definitions!$H$2:$H$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2" type="list">
       <formula1>Definitions!$C$2:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1734,13 +1811,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -1748,44 +1825,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>66</v>
+    <row r="1" s="17" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
+      <c r="A2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
       <formula1>Definitions!$I$2:$I$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1805,40 +1876,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="18" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>59</v>
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
+      <c r="A2" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1857,11 +1924,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1880,11 +1947,11 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -1893,288 +1960,354 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>77</v>
+      <c r="A1" s="13"/>
+      <c r="B1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="J3" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="J4" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="J5" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="J6" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="J7" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="J8" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="J9" s="24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="J10" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="J11" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="J12" s="24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="J13" s="24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="J14" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="J15" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="J16" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="J17" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="J18" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="J19" s="24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="22" t="s">
-        <v>135</v>
+      <c r="I20" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="22" t="s">
-        <v>136</v>
+      <c r="I21" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="22" t="s">
-        <v>137</v>
+      <c r="I22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="24" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFDDDDDD"/>
+        <color rgb="FFFCA05A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -13,8 +13,8 @@
     <sheet name="META-Study" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="META-Home" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="META-Room" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="META-Pollutant" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="META-Period" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="META-Variable" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="META-Season" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="META-Time" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Definitions" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="143">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -237,13 +237,13 @@
     <t xml:space="preserve">Through mechanically driven supply air (no recirculated air)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollutant Name</t>
+    <t xml:space="preserve">Variable Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollutant unit</t>
+    <t xml:space="preserve">Variable unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollutant: add. Info</t>
+    <t xml:space="preserve">Variable: additional Info</t>
   </si>
   <si>
     <t xml:space="preserve">Measurement device</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">GR-01-01-BR-CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">PM other (add. info reqd)</t>
+    <t xml:space="preserve">PMOther</t>
   </si>
   <si>
     <t xml:space="preserve">ppm</t>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">EHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMOther</t>
   </si>
   <si>
     <t xml:space="preserve">HOO</t>
@@ -976,9 +973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2102760</xdr:colOff>
+      <xdr:colOff>2101680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="305280"/>
-          <a:ext cx="1828440" cy="2292480"/>
+          <a:ext cx="1827360" cy="2291400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,13 +1012,13 @@
   <dimension ref="B3:K38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.3"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="3" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="15.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="3" width="11.42"/>
@@ -1206,9 +1203,9 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.15"/>
@@ -1277,19 +1274,19 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.41"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19758,7 +19755,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
@@ -27825,10 +27822,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="33.57"/>
   </cols>
@@ -31881,9 +31878,9 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.57"/>
   </cols>
@@ -31926,7 +31923,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -31949,10 +31946,10 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
@@ -32180,7 +32177,7 @@
         <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="J9" s="24" t="n">
         <f aca="false">TRUE()</f>
@@ -32189,13 +32186,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="J10" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32204,13 +32201,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>121</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32219,7 +32216,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="24" t="n">
         <f aca="false">TRUE()</f>
@@ -32228,7 +32225,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="24" t="n">
         <f aca="false">TRUE()</f>
@@ -32237,7 +32234,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32246,7 +32243,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32255,7 +32252,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32264,7 +32261,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J17" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32273,7 +32270,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32291,7 +32288,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32300,7 +32297,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I21" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J21" s="24" t="n">
         <f aca="false">FALSE()</f>
@@ -32309,7 +32306,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="24" t="n">
         <f aca="false">FALSE()</f>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,9 +14,7 @@
     <sheet name="META-Home" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="META-Room" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="META-Variable" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="META-Season" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="META-Time" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Definitions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Definitions" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -258,12 +256,6 @@
     <t xml:space="preserve">ppm</t>
   </si>
   <si>
-    <t xml:space="preserve">Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR-01-01-BR-CO2-All</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vent type</t>
   </si>
   <si>
@@ -283,6 +275,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pollution: Additional information required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper bound</t>
   </si>
   <si>
     <t xml:space="preserve">Window airing (not designed)</t>
@@ -779,7 +777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,10 +868,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -973,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2101680</xdr:colOff>
+      <xdr:colOff>2100960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -989,7 +983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="305280"/>
-          <a:ext cx="1827360" cy="2291400"/>
+          <a:ext cx="1826640" cy="2290680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1011,11 +1005,11 @@
   </sheetPr>
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.3"/>
@@ -1141,8 +1135,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;KffffffSeite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffSeite &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1203,7 +1197,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
@@ -1274,7 +1268,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
@@ -19752,10 +19746,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
@@ -19768,7 +19762,7 @@
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -27822,7 +27816,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.4"/>
@@ -31872,81 +31866,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -31962,30 +31888,36 @@
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13"/>
       <c r="B1" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -32014,12 +31946,18 @@
       <c r="I2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="24" t="n">
+      <c r="J2" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>93</v>
       </c>
@@ -32044,12 +31982,18 @@
       <c r="I3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>101</v>
       </c>
@@ -32074,12 +32018,18 @@
       <c r="I4" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="24" t="n">
+      <c r="J4" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>53</v>
       </c>
@@ -32101,12 +32051,18 @@
       <c r="I5" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="24" t="n">
+      <c r="J5" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>113</v>
       </c>
@@ -32125,12 +32081,18 @@
       <c r="I6" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
         <v>119</v>
       </c>
@@ -32146,12 +32108,18 @@
       <c r="I7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="24" t="n">
+      <c r="J7" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
         <v>123</v>
       </c>
@@ -32164,12 +32132,18 @@
       <c r="I8" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
         <v>127</v>
       </c>
@@ -32179,12 +32153,12 @@
       <c r="I9" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="24" t="n">
+      <c r="J9" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
         <v>128</v>
       </c>
@@ -32194,12 +32168,18 @@
       <c r="I10" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
         <v>131</v>
       </c>
@@ -32209,108 +32189,180 @@
       <c r="I11" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="24" t="n">
+      <c r="J11" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="24" t="n">
+      <c r="J12" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="24" t="n">
+      <c r="J13" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="24" t="n">
+      <c r="J15" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="24" t="n">
+      <c r="J16" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="24" t="n">
+      <c r="J17" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J18" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="24" t="n">
+      <c r="J19" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="25" t="s">
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="24" t="n">
+      <c r="J20" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="24" t="n">
+      <c r="J21" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1100</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="24" t="n">
+      <c r="J22" s="23" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -1062,9 +1062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2094120</xdr:colOff>
+      <xdr:colOff>2093760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1078,7 +1078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="305280"/>
-          <a:ext cx="1819800" cy="2015640"/>
+          <a:ext cx="1819440" cy="2015280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,7 +1104,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.3"/>
@@ -1310,7 +1310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
@@ -1383,7 +1383,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -19864,7 +19864,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="29.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -29937,7 +29937,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="26.63"/>
@@ -32995,7 +32995,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -33086,7 +33086,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\A86\R_DAP_git\annex\inst\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA193E1-201B-4EFC-ACDF-62C2A872FC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824CBA63-42BA-4257-A866-8CBE6E1A24F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="160">
   <si>
     <t>IEA EBC Annex86 Dataset</t>
   </si>
@@ -579,6 +579,9 @@
   <si>
     <t>Light</t>
   </si>
+  <si>
+    <t>unknown</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +603,7 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -614,7 +617,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -20053,7 +20056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30116,14 +30121,11 @@
           </x14:formula2>
           <xm:sqref>G2:G1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{7281A8AD-2F30-436E-82C4-A12F0F660B58}">
           <x14:formula1>
-            <xm:f>Definitions!$F$2:$F$6</xm:f>
+            <xm:f>Definitions!$F$2:$F$7</xm:f>
           </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C2:C875</xm:sqref>
+          <xm:sqref>C2:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30135,7 +30137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33183,7 +33187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33276,7 +33282,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -33315,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -33354,7 +33360,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -33390,7 +33396,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -33399,6 +33405,9 @@
       </c>
       <c r="D6" t="s">
         <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
       </c>
       <c r="G6" t="s">
         <v>125</v>
@@ -33420,7 +33429,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -33447,7 +33456,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -33471,7 +33480,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -33507,7 +33516,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -33528,7 +33537,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -33543,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -33558,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -33573,7 +33582,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -33606,7 +33615,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.25">
@@ -33621,7 +33630,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.25">
@@ -33636,7 +33645,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.25">
@@ -33651,7 +33660,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.25">

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="177">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t xml:space="preserve">#/cm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhaust air</t>
   </si>
   <si>
     <t xml:space="preserve">Design values (from ventilation system design)</t>
@@ -1104,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2092680</xdr:colOff>
+      <xdr:colOff>2092320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1120,7 +1123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1818360" cy="1918800"/>
+          <a:ext cx="1818000" cy="1918440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,7 +1149,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.33"/>
@@ -1351,7 +1354,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.66"/>
@@ -1424,7 +1427,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.44"/>
@@ -1545,18 +1548,18 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19880,7 +19883,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1000" type="list">
-      <formula1>Definitions!$B$2:$B$5</formula1>
+      <formula1>Definitions!$B$2:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -19905,7 +19908,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.11"/>
@@ -29978,7 +29981,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="31.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="26.56"/>
@@ -33030,11 +33033,11 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
@@ -33255,26 +33258,29 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>131</v>
       </c>
+      <c r="I6" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="J6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33287,24 +33293,24 @@
         <v>10000</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33317,21 +33323,21 @@
         <v>10000</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33344,18 +33350,18 @@
         <v>10000</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K9" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -33365,13 +33371,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33384,18 +33390,18 @@
         <v>10000</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33408,18 +33414,18 @@
         <v>10000</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K12" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -33432,18 +33438,18 @@
         <v>10000</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K13" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -33456,18 +33462,18 @@
         <v>10000</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33485,7 +33491,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33498,12 +33504,12 @@
         <v>105</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K16" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33516,12 +33522,12 @@
         <v>10000</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33534,12 +33540,12 @@
         <v>1000000000</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33552,12 +33558,12 @@
         <v>1000000000</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -33566,7 +33572,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33579,12 +33585,12 @@
         <v>50</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K21" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33597,12 +33603,12 @@
         <v>1100</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K22" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -33615,12 +33621,12 @@
         <v>1500</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K23" s="30" t="n">
         <f aca="false">FALSE()</f>
@@ -33633,7 +33639,7 @@
         <v>500</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -1107,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2092320</xdr:colOff>
+      <xdr:colOff>2091960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1123,7 +1123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1818000" cy="1918440"/>
+          <a:ext cx="1817640" cy="1918080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,7 +1149,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.33"/>
@@ -1354,7 +1354,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.66"/>
@@ -1427,7 +1427,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.44"/>
@@ -1514,7 +1514,7 @@
       <c r="F2" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="27" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -1548,41 +1548,111 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="27"/>
+    </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
@@ -1590,7 +1660,7 @@
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
@@ -1609,7 +1679,7 @@
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -1628,7 +1698,7 @@
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
@@ -1647,7 +1717,7 @@
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
@@ -1666,7 +1736,7 @@
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
@@ -1685,7 +1755,7 @@
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
@@ -1704,7 +1774,7 @@
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
@@ -1723,7 +1793,7 @@
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
@@ -1742,7 +1812,7 @@
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -1761,7 +1831,7 @@
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
@@ -1780,7 +1850,7 @@
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
@@ -1799,7 +1869,7 @@
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
@@ -1818,7 +1888,7 @@
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
@@ -1837,7 +1907,7 @@
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
@@ -1856,7 +1926,7 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
@@ -1875,7 +1945,7 @@
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
@@ -1894,7 +1964,7 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
@@ -1913,7 +1983,7 @@
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -1932,7 +2002,7 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -1951,7 +2021,7 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
@@ -1970,7 +2040,7 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
@@ -1989,7 +2059,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
@@ -2008,7 +2078,7 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
@@ -2027,7 +2097,7 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
@@ -2046,7 +2116,7 @@
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
@@ -2065,7 +2135,7 @@
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
@@ -2084,7 +2154,7 @@
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -2103,7 +2173,7 @@
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -2122,7 +2192,7 @@
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
@@ -2141,7 +2211,7 @@
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
@@ -2160,7 +2230,7 @@
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
@@ -2179,7 +2249,7 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
@@ -2198,7 +2268,7 @@
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
@@ -2217,7 +2287,7 @@
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
@@ -2236,7 +2306,7 @@
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
@@ -2255,7 +2325,7 @@
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
@@ -2274,7 +2344,7 @@
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
@@ -2293,7 +2363,7 @@
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
@@ -2312,7 +2382,7 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
@@ -2331,7 +2401,7 @@
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
@@ -2350,7 +2420,7 @@
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
@@ -2369,7 +2439,7 @@
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
@@ -2388,7 +2458,7 @@
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
@@ -2407,7 +2477,7 @@
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
@@ -2426,7 +2496,7 @@
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
@@ -2445,7 +2515,7 @@
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
@@ -2464,7 +2534,7 @@
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
@@ -2483,7 +2553,7 @@
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
@@ -2502,7 +2572,7 @@
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
@@ -2521,7 +2591,7 @@
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
@@ -2540,7 +2610,7 @@
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
@@ -2559,7 +2629,7 @@
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
@@ -2578,7 +2648,7 @@
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
@@ -2597,7 +2667,7 @@
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
@@ -2616,7 +2686,7 @@
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
@@ -2635,7 +2705,7 @@
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
@@ -2654,7 +2724,7 @@
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="G94" s="27"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
@@ -2673,7 +2743,7 @@
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+      <c r="G95" s="27"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
@@ -2692,7 +2762,7 @@
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
@@ -2711,7 +2781,7 @@
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+      <c r="G97" s="27"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
@@ -2730,7 +2800,7 @@
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+      <c r="G98" s="27"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
@@ -2749,7 +2819,7 @@
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
+      <c r="G99" s="27"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
@@ -2768,7 +2838,7 @@
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="27"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
@@ -2787,7 +2857,7 @@
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+      <c r="G101" s="27"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
@@ -2806,7 +2876,7 @@
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+      <c r="G102" s="27"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -2825,7 +2895,7 @@
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="27"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -2844,7 +2914,7 @@
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="27"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
@@ -2863,7 +2933,7 @@
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="27"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
@@ -2882,7 +2952,7 @@
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+      <c r="G106" s="27"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
@@ -2901,7 +2971,7 @@
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+      <c r="G107" s="27"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
@@ -2920,7 +2990,7 @@
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
+      <c r="G108" s="27"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
@@ -2939,7 +3009,7 @@
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
+      <c r="G109" s="27"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
@@ -2958,7 +3028,7 @@
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+      <c r="G110" s="27"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
@@ -2977,7 +3047,7 @@
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+      <c r="G111" s="27"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
@@ -2996,7 +3066,7 @@
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+      <c r="G112" s="27"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
@@ -3015,7 +3085,7 @@
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
+      <c r="G113" s="27"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
@@ -3034,7 +3104,7 @@
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
+      <c r="G114" s="27"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
@@ -3053,7 +3123,7 @@
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
+      <c r="G115" s="27"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
@@ -3072,7 +3142,7 @@
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
+      <c r="G116" s="27"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
@@ -3091,7 +3161,7 @@
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
+      <c r="G117" s="27"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
@@ -3110,7 +3180,7 @@
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
+      <c r="G118" s="27"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
@@ -3129,7 +3199,7 @@
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
+      <c r="G119" s="27"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
@@ -3148,7 +3218,7 @@
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
+      <c r="G120" s="27"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
@@ -3167,7 +3237,7 @@
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
+      <c r="G121" s="27"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
@@ -3186,7 +3256,7 @@
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
+      <c r="G122" s="27"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
@@ -3205,7 +3275,7 @@
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
+      <c r="G123" s="27"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
@@ -3224,7 +3294,7 @@
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
+      <c r="G124" s="27"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
@@ -3243,7 +3313,7 @@
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
+      <c r="G125" s="27"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
@@ -3262,7 +3332,7 @@
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
+      <c r="G126" s="27"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
@@ -3281,7 +3351,7 @@
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
+      <c r="G127" s="27"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
@@ -3300,7 +3370,7 @@
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
       <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
+      <c r="G128" s="27"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
@@ -3319,7 +3389,7 @@
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
+      <c r="G129" s="27"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
@@ -3338,7 +3408,7 @@
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
+      <c r="G130" s="27"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
@@ -3357,7 +3427,7 @@
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
+      <c r="G131" s="27"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
@@ -3376,7 +3446,7 @@
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
+      <c r="G132" s="27"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
@@ -3395,7 +3465,7 @@
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
+      <c r="G133" s="27"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
@@ -3414,7 +3484,7 @@
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
+      <c r="G134" s="27"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
@@ -3433,7 +3503,7 @@
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
+      <c r="G135" s="27"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
@@ -3452,7 +3522,7 @@
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
+      <c r="G136" s="27"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
@@ -3471,7 +3541,7 @@
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
+      <c r="G137" s="27"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
@@ -3490,7 +3560,7 @@
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
+      <c r="G138" s="27"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
@@ -3509,7 +3579,7 @@
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
+      <c r="G139" s="27"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
@@ -3528,7 +3598,7 @@
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
+      <c r="G140" s="27"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
@@ -3547,7 +3617,7 @@
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
+      <c r="G141" s="27"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
@@ -3566,7 +3636,7 @@
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
+      <c r="G142" s="27"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
@@ -3585,7 +3655,7 @@
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
+      <c r="G143" s="27"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
@@ -3604,7 +3674,7 @@
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
+      <c r="G144" s="27"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
@@ -3623,7 +3693,7 @@
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
+      <c r="G145" s="27"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
@@ -3642,7 +3712,7 @@
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
+      <c r="G146" s="27"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
@@ -3661,7 +3731,7 @@
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
+      <c r="G147" s="27"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
@@ -3680,7 +3750,7 @@
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
+      <c r="G148" s="27"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
@@ -3699,7 +3769,7 @@
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
+      <c r="G149" s="27"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
@@ -3718,7 +3788,7 @@
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
+      <c r="G150" s="27"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -3737,7 +3807,7 @@
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
+      <c r="G151" s="27"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -3756,7 +3826,7 @@
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
+      <c r="G152" s="27"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -3775,7 +3845,7 @@
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
+      <c r="G153" s="27"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
@@ -3794,7 +3864,7 @@
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
+      <c r="G154" s="27"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
@@ -3813,7 +3883,7 @@
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
+      <c r="G155" s="27"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
@@ -3832,7 +3902,7 @@
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
+      <c r="G156" s="27"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
@@ -3851,7 +3921,7 @@
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
+      <c r="G157" s="27"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
@@ -3870,7 +3940,7 @@
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
+      <c r="G158" s="27"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
@@ -3889,7 +3959,7 @@
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
+      <c r="G159" s="27"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
@@ -3908,7 +3978,7 @@
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
+      <c r="G160" s="27"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
@@ -3927,7 +3997,7 @@
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
+      <c r="G161" s="27"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
@@ -3946,7 +4016,7 @@
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
+      <c r="G162" s="27"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
@@ -3965,7 +4035,7 @@
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="27"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
@@ -3984,7 +4054,7 @@
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
+      <c r="G164" s="27"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
@@ -4003,7 +4073,7 @@
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
+      <c r="G165" s="27"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
@@ -4022,7 +4092,7 @@
       <c r="D166" s="25"/>
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
+      <c r="G166" s="27"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
@@ -4041,7 +4111,7 @@
       <c r="D167" s="25"/>
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
+      <c r="G167" s="27"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
@@ -4060,7 +4130,7 @@
       <c r="D168" s="25"/>
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
+      <c r="G168" s="27"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
@@ -4079,7 +4149,7 @@
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
+      <c r="G169" s="27"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
@@ -4098,7 +4168,7 @@
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
+      <c r="G170" s="27"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
@@ -4117,7 +4187,7 @@
       <c r="D171" s="25"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
+      <c r="G171" s="27"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
@@ -4136,7 +4206,7 @@
       <c r="D172" s="25"/>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
+      <c r="G172" s="27"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
@@ -4155,7 +4225,7 @@
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
+      <c r="G173" s="27"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
@@ -4174,7 +4244,7 @@
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
-      <c r="G174" s="25"/>
+      <c r="G174" s="27"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
@@ -4193,7 +4263,7 @@
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
+      <c r="G175" s="27"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
@@ -4212,7 +4282,7 @@
       <c r="D176" s="25"/>
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
-      <c r="G176" s="25"/>
+      <c r="G176" s="27"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
@@ -4231,7 +4301,7 @@
       <c r="D177" s="25"/>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
+      <c r="G177" s="27"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
@@ -4250,7 +4320,7 @@
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
+      <c r="G178" s="27"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
@@ -4269,7 +4339,7 @@
       <c r="D179" s="25"/>
       <c r="E179" s="25"/>
       <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
+      <c r="G179" s="27"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
@@ -4288,7 +4358,7 @@
       <c r="D180" s="25"/>
       <c r="E180" s="25"/>
       <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
+      <c r="G180" s="27"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
@@ -4307,7 +4377,7 @@
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
+      <c r="G181" s="27"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
@@ -4326,7 +4396,7 @@
       <c r="D182" s="25"/>
       <c r="E182" s="25"/>
       <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
+      <c r="G182" s="27"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -4345,7 +4415,7 @@
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
       <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
+      <c r="G183" s="27"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
@@ -4364,7 +4434,7 @@
       <c r="D184" s="25"/>
       <c r="E184" s="25"/>
       <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
+      <c r="G184" s="27"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
@@ -4383,7 +4453,7 @@
       <c r="D185" s="25"/>
       <c r="E185" s="25"/>
       <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
+      <c r="G185" s="27"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
@@ -4402,7 +4472,7 @@
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
       <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
+      <c r="G186" s="27"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -4421,7 +4491,7 @@
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
       <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
+      <c r="G187" s="27"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
@@ -4440,7 +4510,7 @@
       <c r="D188" s="25"/>
       <c r="E188" s="25"/>
       <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
+      <c r="G188" s="27"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
@@ -4459,7 +4529,7 @@
       <c r="D189" s="25"/>
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
-      <c r="G189" s="25"/>
+      <c r="G189" s="27"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
@@ -4478,7 +4548,7 @@
       <c r="D190" s="25"/>
       <c r="E190" s="25"/>
       <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
+      <c r="G190" s="27"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
@@ -4497,7 +4567,7 @@
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
       <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
+      <c r="G191" s="27"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
@@ -4516,7 +4586,7 @@
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
+      <c r="G192" s="27"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
@@ -4535,7 +4605,7 @@
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
+      <c r="G193" s="27"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
@@ -4554,7 +4624,7 @@
       <c r="D194" s="25"/>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
-      <c r="G194" s="25"/>
+      <c r="G194" s="27"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
@@ -4573,7 +4643,7 @@
       <c r="D195" s="25"/>
       <c r="E195" s="25"/>
       <c r="F195" s="25"/>
-      <c r="G195" s="25"/>
+      <c r="G195" s="27"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
@@ -4592,7 +4662,7 @@
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
-      <c r="G196" s="25"/>
+      <c r="G196" s="27"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
@@ -4611,7 +4681,7 @@
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
       <c r="F197" s="25"/>
-      <c r="G197" s="25"/>
+      <c r="G197" s="27"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
@@ -4630,7 +4700,7 @@
       <c r="D198" s="25"/>
       <c r="E198" s="25"/>
       <c r="F198" s="25"/>
-      <c r="G198" s="25"/>
+      <c r="G198" s="27"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
@@ -4649,7 +4719,7 @@
       <c r="D199" s="25"/>
       <c r="E199" s="25"/>
       <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
+      <c r="G199" s="27"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
@@ -4668,7 +4738,7 @@
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
-      <c r="G200" s="25"/>
+      <c r="G200" s="27"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
@@ -4687,7 +4757,7 @@
       <c r="D201" s="25"/>
       <c r="E201" s="25"/>
       <c r="F201" s="25"/>
-      <c r="G201" s="25"/>
+      <c r="G201" s="27"/>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
@@ -4706,7 +4776,7 @@
       <c r="D202" s="25"/>
       <c r="E202" s="25"/>
       <c r="F202" s="25"/>
-      <c r="G202" s="25"/>
+      <c r="G202" s="27"/>
       <c r="H202" s="25"/>
       <c r="I202" s="25"/>
       <c r="J202" s="25"/>
@@ -4725,7 +4795,7 @@
       <c r="D203" s="25"/>
       <c r="E203" s="25"/>
       <c r="F203" s="25"/>
-      <c r="G203" s="25"/>
+      <c r="G203" s="27"/>
       <c r="H203" s="25"/>
       <c r="I203" s="25"/>
       <c r="J203" s="25"/>
@@ -4744,7 +4814,7 @@
       <c r="D204" s="25"/>
       <c r="E204" s="25"/>
       <c r="F204" s="25"/>
-      <c r="G204" s="25"/>
+      <c r="G204" s="27"/>
       <c r="H204" s="25"/>
       <c r="I204" s="25"/>
       <c r="J204" s="25"/>
@@ -4763,7 +4833,7 @@
       <c r="D205" s="25"/>
       <c r="E205" s="25"/>
       <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
+      <c r="G205" s="27"/>
       <c r="H205" s="25"/>
       <c r="I205" s="25"/>
       <c r="J205" s="25"/>
@@ -4782,7 +4852,7 @@
       <c r="D206" s="25"/>
       <c r="E206" s="25"/>
       <c r="F206" s="25"/>
-      <c r="G206" s="25"/>
+      <c r="G206" s="27"/>
       <c r="H206" s="25"/>
       <c r="I206" s="25"/>
       <c r="J206" s="25"/>
@@ -4801,7 +4871,7 @@
       <c r="D207" s="25"/>
       <c r="E207" s="25"/>
       <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
+      <c r="G207" s="27"/>
       <c r="H207" s="25"/>
       <c r="I207" s="25"/>
       <c r="J207" s="25"/>
@@ -4820,7 +4890,7 @@
       <c r="D208" s="25"/>
       <c r="E208" s="25"/>
       <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
+      <c r="G208" s="27"/>
       <c r="H208" s="25"/>
       <c r="I208" s="25"/>
       <c r="J208" s="25"/>
@@ -4839,7 +4909,7 @@
       <c r="D209" s="25"/>
       <c r="E209" s="25"/>
       <c r="F209" s="25"/>
-      <c r="G209" s="25"/>
+      <c r="G209" s="27"/>
       <c r="H209" s="25"/>
       <c r="I209" s="25"/>
       <c r="J209" s="25"/>
@@ -4858,7 +4928,7 @@
       <c r="D210" s="25"/>
       <c r="E210" s="25"/>
       <c r="F210" s="25"/>
-      <c r="G210" s="25"/>
+      <c r="G210" s="27"/>
       <c r="H210" s="25"/>
       <c r="I210" s="25"/>
       <c r="J210" s="25"/>
@@ -4877,7 +4947,7 @@
       <c r="D211" s="25"/>
       <c r="E211" s="25"/>
       <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
+      <c r="G211" s="27"/>
       <c r="H211" s="25"/>
       <c r="I211" s="25"/>
       <c r="J211" s="25"/>
@@ -4896,7 +4966,7 @@
       <c r="D212" s="25"/>
       <c r="E212" s="25"/>
       <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
+      <c r="G212" s="27"/>
       <c r="H212" s="25"/>
       <c r="I212" s="25"/>
       <c r="J212" s="25"/>
@@ -4915,7 +4985,7 @@
       <c r="D213" s="25"/>
       <c r="E213" s="25"/>
       <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
+      <c r="G213" s="27"/>
       <c r="H213" s="25"/>
       <c r="I213" s="25"/>
       <c r="J213" s="25"/>
@@ -4934,7 +5004,7 @@
       <c r="D214" s="25"/>
       <c r="E214" s="25"/>
       <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
+      <c r="G214" s="27"/>
       <c r="H214" s="25"/>
       <c r="I214" s="25"/>
       <c r="J214" s="25"/>
@@ -4953,7 +5023,7 @@
       <c r="D215" s="25"/>
       <c r="E215" s="25"/>
       <c r="F215" s="25"/>
-      <c r="G215" s="25"/>
+      <c r="G215" s="27"/>
       <c r="H215" s="25"/>
       <c r="I215" s="25"/>
       <c r="J215" s="25"/>
@@ -4972,7 +5042,7 @@
       <c r="D216" s="25"/>
       <c r="E216" s="25"/>
       <c r="F216" s="25"/>
-      <c r="G216" s="25"/>
+      <c r="G216" s="27"/>
       <c r="H216" s="25"/>
       <c r="I216" s="25"/>
       <c r="J216" s="25"/>
@@ -4991,7 +5061,7 @@
       <c r="D217" s="25"/>
       <c r="E217" s="25"/>
       <c r="F217" s="25"/>
-      <c r="G217" s="25"/>
+      <c r="G217" s="27"/>
       <c r="H217" s="25"/>
       <c r="I217" s="25"/>
       <c r="J217" s="25"/>
@@ -5010,7 +5080,7 @@
       <c r="D218" s="25"/>
       <c r="E218" s="25"/>
       <c r="F218" s="25"/>
-      <c r="G218" s="25"/>
+      <c r="G218" s="27"/>
       <c r="H218" s="25"/>
       <c r="I218" s="25"/>
       <c r="J218" s="25"/>
@@ -5029,7 +5099,7 @@
       <c r="D219" s="25"/>
       <c r="E219" s="25"/>
       <c r="F219" s="25"/>
-      <c r="G219" s="25"/>
+      <c r="G219" s="27"/>
       <c r="H219" s="25"/>
       <c r="I219" s="25"/>
       <c r="J219" s="25"/>
@@ -5048,7 +5118,7 @@
       <c r="D220" s="25"/>
       <c r="E220" s="25"/>
       <c r="F220" s="25"/>
-      <c r="G220" s="25"/>
+      <c r="G220" s="27"/>
       <c r="H220" s="25"/>
       <c r="I220" s="25"/>
       <c r="J220" s="25"/>
@@ -5067,7 +5137,7 @@
       <c r="D221" s="25"/>
       <c r="E221" s="25"/>
       <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
+      <c r="G221" s="27"/>
       <c r="H221" s="25"/>
       <c r="I221" s="25"/>
       <c r="J221" s="25"/>
@@ -5086,7 +5156,7 @@
       <c r="D222" s="25"/>
       <c r="E222" s="25"/>
       <c r="F222" s="25"/>
-      <c r="G222" s="25"/>
+      <c r="G222" s="27"/>
       <c r="H222" s="25"/>
       <c r="I222" s="25"/>
       <c r="J222" s="25"/>
@@ -5105,7 +5175,7 @@
       <c r="D223" s="25"/>
       <c r="E223" s="25"/>
       <c r="F223" s="25"/>
-      <c r="G223" s="25"/>
+      <c r="G223" s="27"/>
       <c r="H223" s="25"/>
       <c r="I223" s="25"/>
       <c r="J223" s="25"/>
@@ -5124,7 +5194,7 @@
       <c r="D224" s="25"/>
       <c r="E224" s="25"/>
       <c r="F224" s="25"/>
-      <c r="G224" s="25"/>
+      <c r="G224" s="27"/>
       <c r="H224" s="25"/>
       <c r="I224" s="25"/>
       <c r="J224" s="25"/>
@@ -5143,7 +5213,7 @@
       <c r="D225" s="25"/>
       <c r="E225" s="25"/>
       <c r="F225" s="25"/>
-      <c r="G225" s="25"/>
+      <c r="G225" s="27"/>
       <c r="H225" s="25"/>
       <c r="I225" s="25"/>
       <c r="J225" s="25"/>
@@ -5162,7 +5232,7 @@
       <c r="D226" s="25"/>
       <c r="E226" s="25"/>
       <c r="F226" s="25"/>
-      <c r="G226" s="25"/>
+      <c r="G226" s="27"/>
       <c r="H226" s="25"/>
       <c r="I226" s="25"/>
       <c r="J226" s="25"/>
@@ -5181,7 +5251,7 @@
       <c r="D227" s="25"/>
       <c r="E227" s="25"/>
       <c r="F227" s="25"/>
-      <c r="G227" s="25"/>
+      <c r="G227" s="27"/>
       <c r="H227" s="25"/>
       <c r="I227" s="25"/>
       <c r="J227" s="25"/>
@@ -5200,7 +5270,7 @@
       <c r="D228" s="25"/>
       <c r="E228" s="25"/>
       <c r="F228" s="25"/>
-      <c r="G228" s="25"/>
+      <c r="G228" s="27"/>
       <c r="H228" s="25"/>
       <c r="I228" s="25"/>
       <c r="J228" s="25"/>
@@ -5219,7 +5289,7 @@
       <c r="D229" s="25"/>
       <c r="E229" s="25"/>
       <c r="F229" s="25"/>
-      <c r="G229" s="25"/>
+      <c r="G229" s="27"/>
       <c r="H229" s="25"/>
       <c r="I229" s="25"/>
       <c r="J229" s="25"/>
@@ -5238,7 +5308,7 @@
       <c r="D230" s="25"/>
       <c r="E230" s="25"/>
       <c r="F230" s="25"/>
-      <c r="G230" s="25"/>
+      <c r="G230" s="27"/>
       <c r="H230" s="25"/>
       <c r="I230" s="25"/>
       <c r="J230" s="25"/>
@@ -5257,7 +5327,7 @@
       <c r="D231" s="25"/>
       <c r="E231" s="25"/>
       <c r="F231" s="25"/>
-      <c r="G231" s="25"/>
+      <c r="G231" s="27"/>
       <c r="H231" s="25"/>
       <c r="I231" s="25"/>
       <c r="J231" s="25"/>
@@ -5276,7 +5346,7 @@
       <c r="D232" s="25"/>
       <c r="E232" s="25"/>
       <c r="F232" s="25"/>
-      <c r="G232" s="25"/>
+      <c r="G232" s="27"/>
       <c r="H232" s="25"/>
       <c r="I232" s="25"/>
       <c r="J232" s="25"/>
@@ -5295,7 +5365,7 @@
       <c r="D233" s="25"/>
       <c r="E233" s="25"/>
       <c r="F233" s="25"/>
-      <c r="G233" s="25"/>
+      <c r="G233" s="27"/>
       <c r="H233" s="25"/>
       <c r="I233" s="25"/>
       <c r="J233" s="25"/>
@@ -5314,7 +5384,7 @@
       <c r="D234" s="25"/>
       <c r="E234" s="25"/>
       <c r="F234" s="25"/>
-      <c r="G234" s="25"/>
+      <c r="G234" s="27"/>
       <c r="H234" s="25"/>
       <c r="I234" s="25"/>
       <c r="J234" s="25"/>
@@ -5333,7 +5403,7 @@
       <c r="D235" s="25"/>
       <c r="E235" s="25"/>
       <c r="F235" s="25"/>
-      <c r="G235" s="25"/>
+      <c r="G235" s="27"/>
       <c r="H235" s="25"/>
       <c r="I235" s="25"/>
       <c r="J235" s="25"/>
@@ -5352,7 +5422,7 @@
       <c r="D236" s="25"/>
       <c r="E236" s="25"/>
       <c r="F236" s="25"/>
-      <c r="G236" s="25"/>
+      <c r="G236" s="27"/>
       <c r="H236" s="25"/>
       <c r="I236" s="25"/>
       <c r="J236" s="25"/>
@@ -5371,7 +5441,7 @@
       <c r="D237" s="25"/>
       <c r="E237" s="25"/>
       <c r="F237" s="25"/>
-      <c r="G237" s="25"/>
+      <c r="G237" s="27"/>
       <c r="H237" s="25"/>
       <c r="I237" s="25"/>
       <c r="J237" s="25"/>
@@ -5390,7 +5460,7 @@
       <c r="D238" s="25"/>
       <c r="E238" s="25"/>
       <c r="F238" s="25"/>
-      <c r="G238" s="25"/>
+      <c r="G238" s="27"/>
       <c r="H238" s="25"/>
       <c r="I238" s="25"/>
       <c r="J238" s="25"/>
@@ -5409,7 +5479,7 @@
       <c r="D239" s="25"/>
       <c r="E239" s="25"/>
       <c r="F239" s="25"/>
-      <c r="G239" s="25"/>
+      <c r="G239" s="27"/>
       <c r="H239" s="25"/>
       <c r="I239" s="25"/>
       <c r="J239" s="25"/>
@@ -5428,7 +5498,7 @@
       <c r="D240" s="25"/>
       <c r="E240" s="25"/>
       <c r="F240" s="25"/>
-      <c r="G240" s="25"/>
+      <c r="G240" s="27"/>
       <c r="H240" s="25"/>
       <c r="I240" s="25"/>
       <c r="J240" s="25"/>
@@ -5447,7 +5517,7 @@
       <c r="D241" s="25"/>
       <c r="E241" s="25"/>
       <c r="F241" s="25"/>
-      <c r="G241" s="25"/>
+      <c r="G241" s="27"/>
       <c r="H241" s="25"/>
       <c r="I241" s="25"/>
       <c r="J241" s="25"/>
@@ -5466,7 +5536,7 @@
       <c r="D242" s="25"/>
       <c r="E242" s="25"/>
       <c r="F242" s="25"/>
-      <c r="G242" s="25"/>
+      <c r="G242" s="27"/>
       <c r="H242" s="25"/>
       <c r="I242" s="25"/>
       <c r="J242" s="25"/>
@@ -5485,7 +5555,7 @@
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
       <c r="F243" s="25"/>
-      <c r="G243" s="25"/>
+      <c r="G243" s="27"/>
       <c r="H243" s="25"/>
       <c r="I243" s="25"/>
       <c r="J243" s="25"/>
@@ -5504,7 +5574,7 @@
       <c r="D244" s="25"/>
       <c r="E244" s="25"/>
       <c r="F244" s="25"/>
-      <c r="G244" s="25"/>
+      <c r="G244" s="27"/>
       <c r="H244" s="25"/>
       <c r="I244" s="25"/>
       <c r="J244" s="25"/>
@@ -5523,7 +5593,7 @@
       <c r="D245" s="25"/>
       <c r="E245" s="25"/>
       <c r="F245" s="25"/>
-      <c r="G245" s="25"/>
+      <c r="G245" s="27"/>
       <c r="H245" s="25"/>
       <c r="I245" s="25"/>
       <c r="J245" s="25"/>
@@ -5542,7 +5612,7 @@
       <c r="D246" s="25"/>
       <c r="E246" s="25"/>
       <c r="F246" s="25"/>
-      <c r="G246" s="25"/>
+      <c r="G246" s="27"/>
       <c r="H246" s="25"/>
       <c r="I246" s="25"/>
       <c r="J246" s="25"/>
@@ -5561,7 +5631,7 @@
       <c r="D247" s="25"/>
       <c r="E247" s="25"/>
       <c r="F247" s="25"/>
-      <c r="G247" s="25"/>
+      <c r="G247" s="27"/>
       <c r="H247" s="25"/>
       <c r="I247" s="25"/>
       <c r="J247" s="25"/>
@@ -5580,7 +5650,7 @@
       <c r="D248" s="25"/>
       <c r="E248" s="25"/>
       <c r="F248" s="25"/>
-      <c r="G248" s="25"/>
+      <c r="G248" s="27"/>
       <c r="H248" s="25"/>
       <c r="I248" s="25"/>
       <c r="J248" s="25"/>
@@ -5599,7 +5669,7 @@
       <c r="D249" s="25"/>
       <c r="E249" s="25"/>
       <c r="F249" s="25"/>
-      <c r="G249" s="25"/>
+      <c r="G249" s="27"/>
       <c r="H249" s="25"/>
       <c r="I249" s="25"/>
       <c r="J249" s="25"/>
@@ -5618,7 +5688,7 @@
       <c r="D250" s="25"/>
       <c r="E250" s="25"/>
       <c r="F250" s="25"/>
-      <c r="G250" s="25"/>
+      <c r="G250" s="27"/>
       <c r="H250" s="25"/>
       <c r="I250" s="25"/>
       <c r="J250" s="25"/>
@@ -5637,7 +5707,7 @@
       <c r="D251" s="25"/>
       <c r="E251" s="25"/>
       <c r="F251" s="25"/>
-      <c r="G251" s="25"/>
+      <c r="G251" s="27"/>
       <c r="H251" s="25"/>
       <c r="I251" s="25"/>
       <c r="J251" s="25"/>
@@ -5656,7 +5726,7 @@
       <c r="D252" s="25"/>
       <c r="E252" s="25"/>
       <c r="F252" s="25"/>
-      <c r="G252" s="25"/>
+      <c r="G252" s="27"/>
       <c r="H252" s="25"/>
       <c r="I252" s="25"/>
       <c r="J252" s="25"/>
@@ -5675,7 +5745,7 @@
       <c r="D253" s="25"/>
       <c r="E253" s="25"/>
       <c r="F253" s="25"/>
-      <c r="G253" s="25"/>
+      <c r="G253" s="27"/>
       <c r="H253" s="25"/>
       <c r="I253" s="25"/>
       <c r="J253" s="25"/>
@@ -5694,7 +5764,7 @@
       <c r="D254" s="25"/>
       <c r="E254" s="25"/>
       <c r="F254" s="25"/>
-      <c r="G254" s="25"/>
+      <c r="G254" s="27"/>
       <c r="H254" s="25"/>
       <c r="I254" s="25"/>
       <c r="J254" s="25"/>
@@ -5713,7 +5783,7 @@
       <c r="D255" s="25"/>
       <c r="E255" s="25"/>
       <c r="F255" s="25"/>
-      <c r="G255" s="25"/>
+      <c r="G255" s="27"/>
       <c r="H255" s="25"/>
       <c r="I255" s="25"/>
       <c r="J255" s="25"/>
@@ -5732,7 +5802,7 @@
       <c r="D256" s="25"/>
       <c r="E256" s="25"/>
       <c r="F256" s="25"/>
-      <c r="G256" s="25"/>
+      <c r="G256" s="27"/>
       <c r="H256" s="25"/>
       <c r="I256" s="25"/>
       <c r="J256" s="25"/>
@@ -5751,7 +5821,7 @@
       <c r="D257" s="25"/>
       <c r="E257" s="25"/>
       <c r="F257" s="25"/>
-      <c r="G257" s="25"/>
+      <c r="G257" s="27"/>
       <c r="H257" s="25"/>
       <c r="I257" s="25"/>
       <c r="J257" s="25"/>
@@ -5770,7 +5840,7 @@
       <c r="D258" s="25"/>
       <c r="E258" s="25"/>
       <c r="F258" s="25"/>
-      <c r="G258" s="25"/>
+      <c r="G258" s="27"/>
       <c r="H258" s="25"/>
       <c r="I258" s="25"/>
       <c r="J258" s="25"/>
@@ -5789,7 +5859,7 @@
       <c r="D259" s="25"/>
       <c r="E259" s="25"/>
       <c r="F259" s="25"/>
-      <c r="G259" s="25"/>
+      <c r="G259" s="27"/>
       <c r="H259" s="25"/>
       <c r="I259" s="25"/>
       <c r="J259" s="25"/>
@@ -5808,7 +5878,7 @@
       <c r="D260" s="25"/>
       <c r="E260" s="25"/>
       <c r="F260" s="25"/>
-      <c r="G260" s="25"/>
+      <c r="G260" s="27"/>
       <c r="H260" s="25"/>
       <c r="I260" s="25"/>
       <c r="J260" s="25"/>
@@ -5827,7 +5897,7 @@
       <c r="D261" s="25"/>
       <c r="E261" s="25"/>
       <c r="F261" s="25"/>
-      <c r="G261" s="25"/>
+      <c r="G261" s="27"/>
       <c r="H261" s="25"/>
       <c r="I261" s="25"/>
       <c r="J261" s="25"/>
@@ -5846,7 +5916,7 @@
       <c r="D262" s="25"/>
       <c r="E262" s="25"/>
       <c r="F262" s="25"/>
-      <c r="G262" s="25"/>
+      <c r="G262" s="27"/>
       <c r="H262" s="25"/>
       <c r="I262" s="25"/>
       <c r="J262" s="25"/>
@@ -5865,7 +5935,7 @@
       <c r="D263" s="25"/>
       <c r="E263" s="25"/>
       <c r="F263" s="25"/>
-      <c r="G263" s="25"/>
+      <c r="G263" s="27"/>
       <c r="H263" s="25"/>
       <c r="I263" s="25"/>
       <c r="J263" s="25"/>
@@ -5884,7 +5954,7 @@
       <c r="D264" s="25"/>
       <c r="E264" s="25"/>
       <c r="F264" s="25"/>
-      <c r="G264" s="25"/>
+      <c r="G264" s="27"/>
       <c r="H264" s="25"/>
       <c r="I264" s="25"/>
       <c r="J264" s="25"/>
@@ -5903,7 +5973,7 @@
       <c r="D265" s="25"/>
       <c r="E265" s="25"/>
       <c r="F265" s="25"/>
-      <c r="G265" s="25"/>
+      <c r="G265" s="27"/>
       <c r="H265" s="25"/>
       <c r="I265" s="25"/>
       <c r="J265" s="25"/>
@@ -5922,7 +5992,7 @@
       <c r="D266" s="25"/>
       <c r="E266" s="25"/>
       <c r="F266" s="25"/>
-      <c r="G266" s="25"/>
+      <c r="G266" s="27"/>
       <c r="H266" s="25"/>
       <c r="I266" s="25"/>
       <c r="J266" s="25"/>
@@ -5941,7 +6011,7 @@
       <c r="D267" s="25"/>
       <c r="E267" s="25"/>
       <c r="F267" s="25"/>
-      <c r="G267" s="25"/>
+      <c r="G267" s="27"/>
       <c r="H267" s="25"/>
       <c r="I267" s="25"/>
       <c r="J267" s="25"/>
@@ -5960,7 +6030,7 @@
       <c r="D268" s="25"/>
       <c r="E268" s="25"/>
       <c r="F268" s="25"/>
-      <c r="G268" s="25"/>
+      <c r="G268" s="27"/>
       <c r="H268" s="25"/>
       <c r="I268" s="25"/>
       <c r="J268" s="25"/>
@@ -5979,7 +6049,7 @@
       <c r="D269" s="25"/>
       <c r="E269" s="25"/>
       <c r="F269" s="25"/>
-      <c r="G269" s="25"/>
+      <c r="G269" s="27"/>
       <c r="H269" s="25"/>
       <c r="I269" s="25"/>
       <c r="J269" s="25"/>
@@ -5998,7 +6068,7 @@
       <c r="D270" s="25"/>
       <c r="E270" s="25"/>
       <c r="F270" s="25"/>
-      <c r="G270" s="25"/>
+      <c r="G270" s="27"/>
       <c r="H270" s="25"/>
       <c r="I270" s="25"/>
       <c r="J270" s="25"/>
@@ -6017,7 +6087,7 @@
       <c r="D271" s="25"/>
       <c r="E271" s="25"/>
       <c r="F271" s="25"/>
-      <c r="G271" s="25"/>
+      <c r="G271" s="27"/>
       <c r="H271" s="25"/>
       <c r="I271" s="25"/>
       <c r="J271" s="25"/>
@@ -6036,7 +6106,7 @@
       <c r="D272" s="25"/>
       <c r="E272" s="25"/>
       <c r="F272" s="25"/>
-      <c r="G272" s="25"/>
+      <c r="G272" s="27"/>
       <c r="H272" s="25"/>
       <c r="I272" s="25"/>
       <c r="J272" s="25"/>
@@ -6055,7 +6125,7 @@
       <c r="D273" s="25"/>
       <c r="E273" s="25"/>
       <c r="F273" s="25"/>
-      <c r="G273" s="25"/>
+      <c r="G273" s="27"/>
       <c r="H273" s="25"/>
       <c r="I273" s="25"/>
       <c r="J273" s="25"/>
@@ -6074,7 +6144,7 @@
       <c r="D274" s="25"/>
       <c r="E274" s="25"/>
       <c r="F274" s="25"/>
-      <c r="G274" s="25"/>
+      <c r="G274" s="27"/>
       <c r="H274" s="25"/>
       <c r="I274" s="25"/>
       <c r="J274" s="25"/>
@@ -6093,7 +6163,7 @@
       <c r="D275" s="25"/>
       <c r="E275" s="25"/>
       <c r="F275" s="25"/>
-      <c r="G275" s="25"/>
+      <c r="G275" s="27"/>
       <c r="H275" s="25"/>
       <c r="I275" s="25"/>
       <c r="J275" s="25"/>
@@ -6112,7 +6182,7 @@
       <c r="D276" s="25"/>
       <c r="E276" s="25"/>
       <c r="F276" s="25"/>
-      <c r="G276" s="25"/>
+      <c r="G276" s="27"/>
       <c r="H276" s="25"/>
       <c r="I276" s="25"/>
       <c r="J276" s="25"/>
@@ -6131,7 +6201,7 @@
       <c r="D277" s="25"/>
       <c r="E277" s="25"/>
       <c r="F277" s="25"/>
-      <c r="G277" s="25"/>
+      <c r="G277" s="27"/>
       <c r="H277" s="25"/>
       <c r="I277" s="25"/>
       <c r="J277" s="25"/>
@@ -6150,7 +6220,7 @@
       <c r="D278" s="25"/>
       <c r="E278" s="25"/>
       <c r="F278" s="25"/>
-      <c r="G278" s="25"/>
+      <c r="G278" s="27"/>
       <c r="H278" s="25"/>
       <c r="I278" s="25"/>
       <c r="J278" s="25"/>
@@ -6169,7 +6239,7 @@
       <c r="D279" s="25"/>
       <c r="E279" s="25"/>
       <c r="F279" s="25"/>
-      <c r="G279" s="25"/>
+      <c r="G279" s="27"/>
       <c r="H279" s="25"/>
       <c r="I279" s="25"/>
       <c r="J279" s="25"/>
@@ -6188,7 +6258,7 @@
       <c r="D280" s="25"/>
       <c r="E280" s="25"/>
       <c r="F280" s="25"/>
-      <c r="G280" s="25"/>
+      <c r="G280" s="27"/>
       <c r="H280" s="25"/>
       <c r="I280" s="25"/>
       <c r="J280" s="25"/>
@@ -6207,7 +6277,7 @@
       <c r="D281" s="25"/>
       <c r="E281" s="25"/>
       <c r="F281" s="25"/>
-      <c r="G281" s="25"/>
+      <c r="G281" s="27"/>
       <c r="H281" s="25"/>
       <c r="I281" s="25"/>
       <c r="J281" s="25"/>
@@ -6226,7 +6296,7 @@
       <c r="D282" s="25"/>
       <c r="E282" s="25"/>
       <c r="F282" s="25"/>
-      <c r="G282" s="25"/>
+      <c r="G282" s="27"/>
       <c r="H282" s="25"/>
       <c r="I282" s="25"/>
       <c r="J282" s="25"/>
@@ -6245,7 +6315,7 @@
       <c r="D283" s="25"/>
       <c r="E283" s="25"/>
       <c r="F283" s="25"/>
-      <c r="G283" s="25"/>
+      <c r="G283" s="27"/>
       <c r="H283" s="25"/>
       <c r="I283" s="25"/>
       <c r="J283" s="25"/>
@@ -6264,7 +6334,7 @@
       <c r="D284" s="25"/>
       <c r="E284" s="25"/>
       <c r="F284" s="25"/>
-      <c r="G284" s="25"/>
+      <c r="G284" s="27"/>
       <c r="H284" s="25"/>
       <c r="I284" s="25"/>
       <c r="J284" s="25"/>
@@ -6283,7 +6353,7 @@
       <c r="D285" s="25"/>
       <c r="E285" s="25"/>
       <c r="F285" s="25"/>
-      <c r="G285" s="25"/>
+      <c r="G285" s="27"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
       <c r="J285" s="25"/>
@@ -6302,7 +6372,7 @@
       <c r="D286" s="25"/>
       <c r="E286" s="25"/>
       <c r="F286" s="25"/>
-      <c r="G286" s="25"/>
+      <c r="G286" s="27"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
       <c r="J286" s="25"/>
@@ -6321,7 +6391,7 @@
       <c r="D287" s="25"/>
       <c r="E287" s="25"/>
       <c r="F287" s="25"/>
-      <c r="G287" s="25"/>
+      <c r="G287" s="27"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
       <c r="J287" s="25"/>
@@ -6340,7 +6410,7 @@
       <c r="D288" s="25"/>
       <c r="E288" s="25"/>
       <c r="F288" s="25"/>
-      <c r="G288" s="25"/>
+      <c r="G288" s="27"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
       <c r="J288" s="25"/>
@@ -6359,7 +6429,7 @@
       <c r="D289" s="25"/>
       <c r="E289" s="25"/>
       <c r="F289" s="25"/>
-      <c r="G289" s="25"/>
+      <c r="G289" s="27"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
       <c r="J289" s="25"/>
@@ -6378,7 +6448,7 @@
       <c r="D290" s="25"/>
       <c r="E290" s="25"/>
       <c r="F290" s="25"/>
-      <c r="G290" s="25"/>
+      <c r="G290" s="27"/>
       <c r="H290" s="25"/>
       <c r="I290" s="25"/>
       <c r="J290" s="25"/>
@@ -6397,7 +6467,7 @@
       <c r="D291" s="25"/>
       <c r="E291" s="25"/>
       <c r="F291" s="25"/>
-      <c r="G291" s="25"/>
+      <c r="G291" s="27"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
       <c r="J291" s="25"/>
@@ -6416,7 +6486,7 @@
       <c r="D292" s="25"/>
       <c r="E292" s="25"/>
       <c r="F292" s="25"/>
-      <c r="G292" s="25"/>
+      <c r="G292" s="27"/>
       <c r="H292" s="25"/>
       <c r="I292" s="25"/>
       <c r="J292" s="25"/>
@@ -6435,7 +6505,7 @@
       <c r="D293" s="25"/>
       <c r="E293" s="25"/>
       <c r="F293" s="25"/>
-      <c r="G293" s="25"/>
+      <c r="G293" s="27"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
       <c r="J293" s="25"/>
@@ -6454,7 +6524,7 @@
       <c r="D294" s="25"/>
       <c r="E294" s="25"/>
       <c r="F294" s="25"/>
-      <c r="G294" s="25"/>
+      <c r="G294" s="27"/>
       <c r="H294" s="25"/>
       <c r="I294" s="25"/>
       <c r="J294" s="25"/>
@@ -6473,7 +6543,7 @@
       <c r="D295" s="25"/>
       <c r="E295" s="25"/>
       <c r="F295" s="25"/>
-      <c r="G295" s="25"/>
+      <c r="G295" s="27"/>
       <c r="H295" s="25"/>
       <c r="I295" s="25"/>
       <c r="J295" s="25"/>
@@ -6492,7 +6562,7 @@
       <c r="D296" s="25"/>
       <c r="E296" s="25"/>
       <c r="F296" s="25"/>
-      <c r="G296" s="25"/>
+      <c r="G296" s="27"/>
       <c r="H296" s="25"/>
       <c r="I296" s="25"/>
       <c r="J296" s="25"/>
@@ -6511,7 +6581,7 @@
       <c r="D297" s="25"/>
       <c r="E297" s="25"/>
       <c r="F297" s="25"/>
-      <c r="G297" s="25"/>
+      <c r="G297" s="27"/>
       <c r="H297" s="25"/>
       <c r="I297" s="25"/>
       <c r="J297" s="25"/>
@@ -6530,7 +6600,7 @@
       <c r="D298" s="25"/>
       <c r="E298" s="25"/>
       <c r="F298" s="25"/>
-      <c r="G298" s="25"/>
+      <c r="G298" s="27"/>
       <c r="H298" s="25"/>
       <c r="I298" s="25"/>
       <c r="J298" s="25"/>
@@ -6549,7 +6619,7 @@
       <c r="D299" s="25"/>
       <c r="E299" s="25"/>
       <c r="F299" s="25"/>
-      <c r="G299" s="25"/>
+      <c r="G299" s="27"/>
       <c r="H299" s="25"/>
       <c r="I299" s="25"/>
       <c r="J299" s="25"/>
@@ -6568,7 +6638,7 @@
       <c r="D300" s="25"/>
       <c r="E300" s="25"/>
       <c r="F300" s="25"/>
-      <c r="G300" s="25"/>
+      <c r="G300" s="27"/>
       <c r="H300" s="25"/>
       <c r="I300" s="25"/>
       <c r="J300" s="25"/>
@@ -6587,7 +6657,7 @@
       <c r="D301" s="25"/>
       <c r="E301" s="25"/>
       <c r="F301" s="25"/>
-      <c r="G301" s="25"/>
+      <c r="G301" s="27"/>
       <c r="H301" s="25"/>
       <c r="I301" s="25"/>
       <c r="J301" s="25"/>
@@ -6606,7 +6676,7 @@
       <c r="D302" s="25"/>
       <c r="E302" s="25"/>
       <c r="F302" s="25"/>
-      <c r="G302" s="25"/>
+      <c r="G302" s="27"/>
       <c r="H302" s="25"/>
       <c r="I302" s="25"/>
       <c r="J302" s="25"/>
@@ -6625,7 +6695,7 @@
       <c r="D303" s="25"/>
       <c r="E303" s="25"/>
       <c r="F303" s="25"/>
-      <c r="G303" s="25"/>
+      <c r="G303" s="27"/>
       <c r="H303" s="25"/>
       <c r="I303" s="25"/>
       <c r="J303" s="25"/>
@@ -6644,7 +6714,7 @@
       <c r="D304" s="25"/>
       <c r="E304" s="25"/>
       <c r="F304" s="25"/>
-      <c r="G304" s="25"/>
+      <c r="G304" s="27"/>
       <c r="H304" s="25"/>
       <c r="I304" s="25"/>
       <c r="J304" s="25"/>
@@ -6663,7 +6733,7 @@
       <c r="D305" s="25"/>
       <c r="E305" s="25"/>
       <c r="F305" s="25"/>
-      <c r="G305" s="25"/>
+      <c r="G305" s="27"/>
       <c r="H305" s="25"/>
       <c r="I305" s="25"/>
       <c r="J305" s="25"/>
@@ -6682,7 +6752,7 @@
       <c r="D306" s="25"/>
       <c r="E306" s="25"/>
       <c r="F306" s="25"/>
-      <c r="G306" s="25"/>
+      <c r="G306" s="27"/>
       <c r="H306" s="25"/>
       <c r="I306" s="25"/>
       <c r="J306" s="25"/>
@@ -6701,7 +6771,7 @@
       <c r="D307" s="25"/>
       <c r="E307" s="25"/>
       <c r="F307" s="25"/>
-      <c r="G307" s="25"/>
+      <c r="G307" s="27"/>
       <c r="H307" s="25"/>
       <c r="I307" s="25"/>
       <c r="J307" s="25"/>
@@ -6720,7 +6790,7 @@
       <c r="D308" s="25"/>
       <c r="E308" s="25"/>
       <c r="F308" s="25"/>
-      <c r="G308" s="25"/>
+      <c r="G308" s="27"/>
       <c r="H308" s="25"/>
       <c r="I308" s="25"/>
       <c r="J308" s="25"/>
@@ -6739,7 +6809,7 @@
       <c r="D309" s="25"/>
       <c r="E309" s="25"/>
       <c r="F309" s="25"/>
-      <c r="G309" s="25"/>
+      <c r="G309" s="27"/>
       <c r="H309" s="25"/>
       <c r="I309" s="25"/>
       <c r="J309" s="25"/>
@@ -6758,7 +6828,7 @@
       <c r="D310" s="25"/>
       <c r="E310" s="25"/>
       <c r="F310" s="25"/>
-      <c r="G310" s="25"/>
+      <c r="G310" s="27"/>
       <c r="H310" s="25"/>
       <c r="I310" s="25"/>
       <c r="J310" s="25"/>
@@ -6777,7 +6847,7 @@
       <c r="D311" s="25"/>
       <c r="E311" s="25"/>
       <c r="F311" s="25"/>
-      <c r="G311" s="25"/>
+      <c r="G311" s="27"/>
       <c r="H311" s="25"/>
       <c r="I311" s="25"/>
       <c r="J311" s="25"/>
@@ -6796,7 +6866,7 @@
       <c r="D312" s="25"/>
       <c r="E312" s="25"/>
       <c r="F312" s="25"/>
-      <c r="G312" s="25"/>
+      <c r="G312" s="27"/>
       <c r="H312" s="25"/>
       <c r="I312" s="25"/>
       <c r="J312" s="25"/>
@@ -6815,7 +6885,7 @@
       <c r="D313" s="25"/>
       <c r="E313" s="25"/>
       <c r="F313" s="25"/>
-      <c r="G313" s="25"/>
+      <c r="G313" s="27"/>
       <c r="H313" s="25"/>
       <c r="I313" s="25"/>
       <c r="J313" s="25"/>
@@ -6834,7 +6904,7 @@
       <c r="D314" s="25"/>
       <c r="E314" s="25"/>
       <c r="F314" s="25"/>
-      <c r="G314" s="25"/>
+      <c r="G314" s="27"/>
       <c r="H314" s="25"/>
       <c r="I314" s="25"/>
       <c r="J314" s="25"/>
@@ -6853,7 +6923,7 @@
       <c r="D315" s="25"/>
       <c r="E315" s="25"/>
       <c r="F315" s="25"/>
-      <c r="G315" s="25"/>
+      <c r="G315" s="27"/>
       <c r="H315" s="25"/>
       <c r="I315" s="25"/>
       <c r="J315" s="25"/>
@@ -6872,7 +6942,7 @@
       <c r="D316" s="25"/>
       <c r="E316" s="25"/>
       <c r="F316" s="25"/>
-      <c r="G316" s="25"/>
+      <c r="G316" s="27"/>
       <c r="H316" s="25"/>
       <c r="I316" s="25"/>
       <c r="J316" s="25"/>
@@ -6891,7 +6961,7 @@
       <c r="D317" s="25"/>
       <c r="E317" s="25"/>
       <c r="F317" s="25"/>
-      <c r="G317" s="25"/>
+      <c r="G317" s="27"/>
       <c r="H317" s="25"/>
       <c r="I317" s="25"/>
       <c r="J317" s="25"/>
@@ -6910,7 +6980,7 @@
       <c r="D318" s="25"/>
       <c r="E318" s="25"/>
       <c r="F318" s="25"/>
-      <c r="G318" s="25"/>
+      <c r="G318" s="27"/>
       <c r="H318" s="25"/>
       <c r="I318" s="25"/>
       <c r="J318" s="25"/>
@@ -6929,7 +6999,7 @@
       <c r="D319" s="25"/>
       <c r="E319" s="25"/>
       <c r="F319" s="25"/>
-      <c r="G319" s="25"/>
+      <c r="G319" s="27"/>
       <c r="H319" s="25"/>
       <c r="I319" s="25"/>
       <c r="J319" s="25"/>
@@ -6948,7 +7018,7 @@
       <c r="D320" s="25"/>
       <c r="E320" s="25"/>
       <c r="F320" s="25"/>
-      <c r="G320" s="25"/>
+      <c r="G320" s="27"/>
       <c r="H320" s="25"/>
       <c r="I320" s="25"/>
       <c r="J320" s="25"/>
@@ -6967,7 +7037,7 @@
       <c r="D321" s="25"/>
       <c r="E321" s="25"/>
       <c r="F321" s="25"/>
-      <c r="G321" s="25"/>
+      <c r="G321" s="27"/>
       <c r="H321" s="25"/>
       <c r="I321" s="25"/>
       <c r="J321" s="25"/>
@@ -6986,7 +7056,7 @@
       <c r="D322" s="25"/>
       <c r="E322" s="25"/>
       <c r="F322" s="25"/>
-      <c r="G322" s="25"/>
+      <c r="G322" s="27"/>
       <c r="H322" s="25"/>
       <c r="I322" s="25"/>
       <c r="J322" s="25"/>
@@ -7005,7 +7075,7 @@
       <c r="D323" s="25"/>
       <c r="E323" s="25"/>
       <c r="F323" s="25"/>
-      <c r="G323" s="25"/>
+      <c r="G323" s="27"/>
       <c r="H323" s="25"/>
       <c r="I323" s="25"/>
       <c r="J323" s="25"/>
@@ -7024,7 +7094,7 @@
       <c r="D324" s="25"/>
       <c r="E324" s="25"/>
       <c r="F324" s="25"/>
-      <c r="G324" s="25"/>
+      <c r="G324" s="27"/>
       <c r="H324" s="25"/>
       <c r="I324" s="25"/>
       <c r="J324" s="25"/>
@@ -7043,7 +7113,7 @@
       <c r="D325" s="25"/>
       <c r="E325" s="25"/>
       <c r="F325" s="25"/>
-      <c r="G325" s="25"/>
+      <c r="G325" s="27"/>
       <c r="H325" s="25"/>
       <c r="I325" s="25"/>
       <c r="J325" s="25"/>
@@ -7062,7 +7132,7 @@
       <c r="D326" s="25"/>
       <c r="E326" s="25"/>
       <c r="F326" s="25"/>
-      <c r="G326" s="25"/>
+      <c r="G326" s="27"/>
       <c r="H326" s="25"/>
       <c r="I326" s="25"/>
       <c r="J326" s="25"/>
@@ -7081,7 +7151,7 @@
       <c r="D327" s="25"/>
       <c r="E327" s="25"/>
       <c r="F327" s="25"/>
-      <c r="G327" s="25"/>
+      <c r="G327" s="27"/>
       <c r="H327" s="25"/>
       <c r="I327" s="25"/>
       <c r="J327" s="25"/>
@@ -7100,7 +7170,7 @@
       <c r="D328" s="25"/>
       <c r="E328" s="25"/>
       <c r="F328" s="25"/>
-      <c r="G328" s="25"/>
+      <c r="G328" s="27"/>
       <c r="H328" s="25"/>
       <c r="I328" s="25"/>
       <c r="J328" s="25"/>
@@ -7119,7 +7189,7 @@
       <c r="D329" s="25"/>
       <c r="E329" s="25"/>
       <c r="F329" s="25"/>
-      <c r="G329" s="25"/>
+      <c r="G329" s="27"/>
       <c r="H329" s="25"/>
       <c r="I329" s="25"/>
       <c r="J329" s="25"/>
@@ -7138,7 +7208,7 @@
       <c r="D330" s="25"/>
       <c r="E330" s="25"/>
       <c r="F330" s="25"/>
-      <c r="G330" s="25"/>
+      <c r="G330" s="27"/>
       <c r="H330" s="25"/>
       <c r="I330" s="25"/>
       <c r="J330" s="25"/>
@@ -7157,7 +7227,7 @@
       <c r="D331" s="25"/>
       <c r="E331" s="25"/>
       <c r="F331" s="25"/>
-      <c r="G331" s="25"/>
+      <c r="G331" s="27"/>
       <c r="H331" s="25"/>
       <c r="I331" s="25"/>
       <c r="J331" s="25"/>
@@ -7176,7 +7246,7 @@
       <c r="D332" s="25"/>
       <c r="E332" s="25"/>
       <c r="F332" s="25"/>
-      <c r="G332" s="25"/>
+      <c r="G332" s="27"/>
       <c r="H332" s="25"/>
       <c r="I332" s="25"/>
       <c r="J332" s="25"/>
@@ -7195,7 +7265,7 @@
       <c r="D333" s="25"/>
       <c r="E333" s="25"/>
       <c r="F333" s="25"/>
-      <c r="G333" s="25"/>
+      <c r="G333" s="27"/>
       <c r="H333" s="25"/>
       <c r="I333" s="25"/>
       <c r="J333" s="25"/>
@@ -7214,7 +7284,7 @@
       <c r="D334" s="25"/>
       <c r="E334" s="25"/>
       <c r="F334" s="25"/>
-      <c r="G334" s="25"/>
+      <c r="G334" s="27"/>
       <c r="H334" s="25"/>
       <c r="I334" s="25"/>
       <c r="J334" s="25"/>
@@ -7233,7 +7303,7 @@
       <c r="D335" s="25"/>
       <c r="E335" s="25"/>
       <c r="F335" s="25"/>
-      <c r="G335" s="25"/>
+      <c r="G335" s="27"/>
       <c r="H335" s="25"/>
       <c r="I335" s="25"/>
       <c r="J335" s="25"/>
@@ -7252,7 +7322,7 @@
       <c r="D336" s="25"/>
       <c r="E336" s="25"/>
       <c r="F336" s="25"/>
-      <c r="G336" s="25"/>
+      <c r="G336" s="27"/>
       <c r="H336" s="25"/>
       <c r="I336" s="25"/>
       <c r="J336" s="25"/>
@@ -7271,7 +7341,7 @@
       <c r="D337" s="25"/>
       <c r="E337" s="25"/>
       <c r="F337" s="25"/>
-      <c r="G337" s="25"/>
+      <c r="G337" s="27"/>
       <c r="H337" s="25"/>
       <c r="I337" s="25"/>
       <c r="J337" s="25"/>
@@ -7290,7 +7360,7 @@
       <c r="D338" s="25"/>
       <c r="E338" s="25"/>
       <c r="F338" s="25"/>
-      <c r="G338" s="25"/>
+      <c r="G338" s="27"/>
       <c r="H338" s="25"/>
       <c r="I338" s="25"/>
       <c r="J338" s="25"/>
@@ -7309,7 +7379,7 @@
       <c r="D339" s="25"/>
       <c r="E339" s="25"/>
       <c r="F339" s="25"/>
-      <c r="G339" s="25"/>
+      <c r="G339" s="27"/>
       <c r="H339" s="25"/>
       <c r="I339" s="25"/>
       <c r="J339" s="25"/>
@@ -7328,7 +7398,7 @@
       <c r="D340" s="25"/>
       <c r="E340" s="25"/>
       <c r="F340" s="25"/>
-      <c r="G340" s="25"/>
+      <c r="G340" s="27"/>
       <c r="H340" s="25"/>
       <c r="I340" s="25"/>
       <c r="J340" s="25"/>
@@ -7347,7 +7417,7 @@
       <c r="D341" s="25"/>
       <c r="E341" s="25"/>
       <c r="F341" s="25"/>
-      <c r="G341" s="25"/>
+      <c r="G341" s="27"/>
       <c r="H341" s="25"/>
       <c r="I341" s="25"/>
       <c r="J341" s="25"/>
@@ -7366,7 +7436,7 @@
       <c r="D342" s="25"/>
       <c r="E342" s="25"/>
       <c r="F342" s="25"/>
-      <c r="G342" s="25"/>
+      <c r="G342" s="27"/>
       <c r="H342" s="25"/>
       <c r="I342" s="25"/>
       <c r="J342" s="25"/>
@@ -7385,7 +7455,7 @@
       <c r="D343" s="25"/>
       <c r="E343" s="25"/>
       <c r="F343" s="25"/>
-      <c r="G343" s="25"/>
+      <c r="G343" s="27"/>
       <c r="H343" s="25"/>
       <c r="I343" s="25"/>
       <c r="J343" s="25"/>
@@ -7404,7 +7474,7 @@
       <c r="D344" s="25"/>
       <c r="E344" s="25"/>
       <c r="F344" s="25"/>
-      <c r="G344" s="25"/>
+      <c r="G344" s="27"/>
       <c r="H344" s="25"/>
       <c r="I344" s="25"/>
       <c r="J344" s="25"/>
@@ -7423,7 +7493,7 @@
       <c r="D345" s="25"/>
       <c r="E345" s="25"/>
       <c r="F345" s="25"/>
-      <c r="G345" s="25"/>
+      <c r="G345" s="27"/>
       <c r="H345" s="25"/>
       <c r="I345" s="25"/>
       <c r="J345" s="25"/>
@@ -7442,7 +7512,7 @@
       <c r="D346" s="25"/>
       <c r="E346" s="25"/>
       <c r="F346" s="25"/>
-      <c r="G346" s="25"/>
+      <c r="G346" s="27"/>
       <c r="H346" s="25"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -7461,7 +7531,7 @@
       <c r="D347" s="25"/>
       <c r="E347" s="25"/>
       <c r="F347" s="25"/>
-      <c r="G347" s="25"/>
+      <c r="G347" s="27"/>
       <c r="H347" s="25"/>
       <c r="I347" s="25"/>
       <c r="J347" s="25"/>
@@ -7480,7 +7550,7 @@
       <c r="D348" s="25"/>
       <c r="E348" s="25"/>
       <c r="F348" s="25"/>
-      <c r="G348" s="25"/>
+      <c r="G348" s="27"/>
       <c r="H348" s="25"/>
       <c r="I348" s="25"/>
       <c r="J348" s="25"/>
@@ -7499,7 +7569,7 @@
       <c r="D349" s="25"/>
       <c r="E349" s="25"/>
       <c r="F349" s="25"/>
-      <c r="G349" s="25"/>
+      <c r="G349" s="27"/>
       <c r="H349" s="25"/>
       <c r="I349" s="25"/>
       <c r="J349" s="25"/>
@@ -7518,7 +7588,7 @@
       <c r="D350" s="25"/>
       <c r="E350" s="25"/>
       <c r="F350" s="25"/>
-      <c r="G350" s="25"/>
+      <c r="G350" s="27"/>
       <c r="H350" s="25"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -7537,7 +7607,7 @@
       <c r="D351" s="25"/>
       <c r="E351" s="25"/>
       <c r="F351" s="25"/>
-      <c r="G351" s="25"/>
+      <c r="G351" s="27"/>
       <c r="H351" s="25"/>
       <c r="I351" s="25"/>
       <c r="J351" s="25"/>
@@ -7556,7 +7626,7 @@
       <c r="D352" s="25"/>
       <c r="E352" s="25"/>
       <c r="F352" s="25"/>
-      <c r="G352" s="25"/>
+      <c r="G352" s="27"/>
       <c r="H352" s="25"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -7575,7 +7645,7 @@
       <c r="D353" s="25"/>
       <c r="E353" s="25"/>
       <c r="F353" s="25"/>
-      <c r="G353" s="25"/>
+      <c r="G353" s="27"/>
       <c r="H353" s="25"/>
       <c r="I353" s="25"/>
       <c r="J353" s="25"/>
@@ -7594,7 +7664,7 @@
       <c r="D354" s="25"/>
       <c r="E354" s="25"/>
       <c r="F354" s="25"/>
-      <c r="G354" s="25"/>
+      <c r="G354" s="27"/>
       <c r="H354" s="25"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -7613,7 +7683,7 @@
       <c r="D355" s="25"/>
       <c r="E355" s="25"/>
       <c r="F355" s="25"/>
-      <c r="G355" s="25"/>
+      <c r="G355" s="27"/>
       <c r="H355" s="25"/>
       <c r="I355" s="25"/>
       <c r="J355" s="25"/>
@@ -7632,7 +7702,7 @@
       <c r="D356" s="25"/>
       <c r="E356" s="25"/>
       <c r="F356" s="25"/>
-      <c r="G356" s="25"/>
+      <c r="G356" s="27"/>
       <c r="H356" s="25"/>
       <c r="I356" s="25"/>
       <c r="J356" s="25"/>
@@ -7651,7 +7721,7 @@
       <c r="D357" s="25"/>
       <c r="E357" s="25"/>
       <c r="F357" s="25"/>
-      <c r="G357" s="25"/>
+      <c r="G357" s="27"/>
       <c r="H357" s="25"/>
       <c r="I357" s="25"/>
       <c r="J357" s="25"/>
@@ -7670,7 +7740,7 @@
       <c r="D358" s="25"/>
       <c r="E358" s="25"/>
       <c r="F358" s="25"/>
-      <c r="G358" s="25"/>
+      <c r="G358" s="27"/>
       <c r="H358" s="25"/>
       <c r="I358" s="25"/>
       <c r="J358" s="25"/>
@@ -7689,7 +7759,7 @@
       <c r="D359" s="25"/>
       <c r="E359" s="25"/>
       <c r="F359" s="25"/>
-      <c r="G359" s="25"/>
+      <c r="G359" s="27"/>
       <c r="H359" s="25"/>
       <c r="I359" s="25"/>
       <c r="J359" s="25"/>
@@ -7708,7 +7778,7 @@
       <c r="D360" s="25"/>
       <c r="E360" s="25"/>
       <c r="F360" s="25"/>
-      <c r="G360" s="25"/>
+      <c r="G360" s="27"/>
       <c r="H360" s="25"/>
       <c r="I360" s="25"/>
       <c r="J360" s="25"/>
@@ -7727,7 +7797,7 @@
       <c r="D361" s="25"/>
       <c r="E361" s="25"/>
       <c r="F361" s="25"/>
-      <c r="G361" s="25"/>
+      <c r="G361" s="27"/>
       <c r="H361" s="25"/>
       <c r="I361" s="25"/>
       <c r="J361" s="25"/>
@@ -7746,7 +7816,7 @@
       <c r="D362" s="25"/>
       <c r="E362" s="25"/>
       <c r="F362" s="25"/>
-      <c r="G362" s="25"/>
+      <c r="G362" s="27"/>
       <c r="H362" s="25"/>
       <c r="I362" s="25"/>
       <c r="J362" s="25"/>
@@ -7765,7 +7835,7 @@
       <c r="D363" s="25"/>
       <c r="E363" s="25"/>
       <c r="F363" s="25"/>
-      <c r="G363" s="25"/>
+      <c r="G363" s="27"/>
       <c r="H363" s="25"/>
       <c r="I363" s="25"/>
       <c r="J363" s="25"/>
@@ -7784,7 +7854,7 @@
       <c r="D364" s="25"/>
       <c r="E364" s="25"/>
       <c r="F364" s="25"/>
-      <c r="G364" s="25"/>
+      <c r="G364" s="27"/>
       <c r="H364" s="25"/>
       <c r="I364" s="25"/>
       <c r="J364" s="25"/>
@@ -7803,7 +7873,7 @@
       <c r="D365" s="25"/>
       <c r="E365" s="25"/>
       <c r="F365" s="25"/>
-      <c r="G365" s="25"/>
+      <c r="G365" s="27"/>
       <c r="H365" s="25"/>
       <c r="I365" s="25"/>
       <c r="J365" s="25"/>
@@ -7822,7 +7892,7 @@
       <c r="D366" s="25"/>
       <c r="E366" s="25"/>
       <c r="F366" s="25"/>
-      <c r="G366" s="25"/>
+      <c r="G366" s="27"/>
       <c r="H366" s="25"/>
       <c r="I366" s="25"/>
       <c r="J366" s="25"/>
@@ -7841,7 +7911,7 @@
       <c r="D367" s="25"/>
       <c r="E367" s="25"/>
       <c r="F367" s="25"/>
-      <c r="G367" s="25"/>
+      <c r="G367" s="27"/>
       <c r="H367" s="25"/>
       <c r="I367" s="25"/>
       <c r="J367" s="25"/>
@@ -7860,7 +7930,7 @@
       <c r="D368" s="25"/>
       <c r="E368" s="25"/>
       <c r="F368" s="25"/>
-      <c r="G368" s="25"/>
+      <c r="G368" s="27"/>
       <c r="H368" s="25"/>
       <c r="I368" s="25"/>
       <c r="J368" s="25"/>
@@ -7879,7 +7949,7 @@
       <c r="D369" s="25"/>
       <c r="E369" s="25"/>
       <c r="F369" s="25"/>
-      <c r="G369" s="25"/>
+      <c r="G369" s="27"/>
       <c r="H369" s="25"/>
       <c r="I369" s="25"/>
       <c r="J369" s="25"/>
@@ -7898,7 +7968,7 @@
       <c r="D370" s="25"/>
       <c r="E370" s="25"/>
       <c r="F370" s="25"/>
-      <c r="G370" s="25"/>
+      <c r="G370" s="27"/>
       <c r="H370" s="25"/>
       <c r="I370" s="25"/>
       <c r="J370" s="25"/>
@@ -7917,7 +7987,7 @@
       <c r="D371" s="25"/>
       <c r="E371" s="25"/>
       <c r="F371" s="25"/>
-      <c r="G371" s="25"/>
+      <c r="G371" s="27"/>
       <c r="H371" s="25"/>
       <c r="I371" s="25"/>
       <c r="J371" s="25"/>
@@ -7936,7 +8006,7 @@
       <c r="D372" s="25"/>
       <c r="E372" s="25"/>
       <c r="F372" s="25"/>
-      <c r="G372" s="25"/>
+      <c r="G372" s="27"/>
       <c r="H372" s="25"/>
       <c r="I372" s="25"/>
       <c r="J372" s="25"/>
@@ -7955,7 +8025,7 @@
       <c r="D373" s="25"/>
       <c r="E373" s="25"/>
       <c r="F373" s="25"/>
-      <c r="G373" s="25"/>
+      <c r="G373" s="27"/>
       <c r="H373" s="25"/>
       <c r="I373" s="25"/>
       <c r="J373" s="25"/>
@@ -7974,7 +8044,7 @@
       <c r="D374" s="25"/>
       <c r="E374" s="25"/>
       <c r="F374" s="25"/>
-      <c r="G374" s="25"/>
+      <c r="G374" s="27"/>
       <c r="H374" s="25"/>
       <c r="I374" s="25"/>
       <c r="J374" s="25"/>
@@ -7993,7 +8063,7 @@
       <c r="D375" s="25"/>
       <c r="E375" s="25"/>
       <c r="F375" s="25"/>
-      <c r="G375" s="25"/>
+      <c r="G375" s="27"/>
       <c r="H375" s="25"/>
       <c r="I375" s="25"/>
       <c r="J375" s="25"/>
@@ -8012,7 +8082,7 @@
       <c r="D376" s="25"/>
       <c r="E376" s="25"/>
       <c r="F376" s="25"/>
-      <c r="G376" s="25"/>
+      <c r="G376" s="27"/>
       <c r="H376" s="25"/>
       <c r="I376" s="25"/>
       <c r="J376" s="25"/>
@@ -8031,7 +8101,7 @@
       <c r="D377" s="25"/>
       <c r="E377" s="25"/>
       <c r="F377" s="25"/>
-      <c r="G377" s="25"/>
+      <c r="G377" s="27"/>
       <c r="H377" s="25"/>
       <c r="I377" s="25"/>
       <c r="J377" s="25"/>
@@ -8050,7 +8120,7 @@
       <c r="D378" s="25"/>
       <c r="E378" s="25"/>
       <c r="F378" s="25"/>
-      <c r="G378" s="25"/>
+      <c r="G378" s="27"/>
       <c r="H378" s="25"/>
       <c r="I378" s="25"/>
       <c r="J378" s="25"/>
@@ -8069,7 +8139,7 @@
       <c r="D379" s="25"/>
       <c r="E379" s="25"/>
       <c r="F379" s="25"/>
-      <c r="G379" s="25"/>
+      <c r="G379" s="27"/>
       <c r="H379" s="25"/>
       <c r="I379" s="25"/>
       <c r="J379" s="25"/>
@@ -8088,7 +8158,7 @@
       <c r="D380" s="25"/>
       <c r="E380" s="25"/>
       <c r="F380" s="25"/>
-      <c r="G380" s="25"/>
+      <c r="G380" s="27"/>
       <c r="H380" s="25"/>
       <c r="I380" s="25"/>
       <c r="J380" s="25"/>
@@ -8107,7 +8177,7 @@
       <c r="D381" s="25"/>
       <c r="E381" s="25"/>
       <c r="F381" s="25"/>
-      <c r="G381" s="25"/>
+      <c r="G381" s="27"/>
       <c r="H381" s="25"/>
       <c r="I381" s="25"/>
       <c r="J381" s="25"/>
@@ -8126,7 +8196,7 @@
       <c r="D382" s="25"/>
       <c r="E382" s="25"/>
       <c r="F382" s="25"/>
-      <c r="G382" s="25"/>
+      <c r="G382" s="27"/>
       <c r="H382" s="25"/>
       <c r="I382" s="25"/>
       <c r="J382" s="25"/>
@@ -8145,7 +8215,7 @@
       <c r="D383" s="25"/>
       <c r="E383" s="25"/>
       <c r="F383" s="25"/>
-      <c r="G383" s="25"/>
+      <c r="G383" s="27"/>
       <c r="H383" s="25"/>
       <c r="I383" s="25"/>
       <c r="J383" s="25"/>
@@ -8164,7 +8234,7 @@
       <c r="D384" s="25"/>
       <c r="E384" s="25"/>
       <c r="F384" s="25"/>
-      <c r="G384" s="25"/>
+      <c r="G384" s="27"/>
       <c r="H384" s="25"/>
       <c r="I384" s="25"/>
       <c r="J384" s="25"/>
@@ -8183,7 +8253,7 @@
       <c r="D385" s="25"/>
       <c r="E385" s="25"/>
       <c r="F385" s="25"/>
-      <c r="G385" s="25"/>
+      <c r="G385" s="27"/>
       <c r="H385" s="25"/>
       <c r="I385" s="25"/>
       <c r="J385" s="25"/>
@@ -8202,7 +8272,7 @@
       <c r="D386" s="25"/>
       <c r="E386" s="25"/>
       <c r="F386" s="25"/>
-      <c r="G386" s="25"/>
+      <c r="G386" s="27"/>
       <c r="H386" s="25"/>
       <c r="I386" s="25"/>
       <c r="J386" s="25"/>
@@ -8221,7 +8291,7 @@
       <c r="D387" s="25"/>
       <c r="E387" s="25"/>
       <c r="F387" s="25"/>
-      <c r="G387" s="25"/>
+      <c r="G387" s="27"/>
       <c r="H387" s="25"/>
       <c r="I387" s="25"/>
       <c r="J387" s="25"/>
@@ -8240,7 +8310,7 @@
       <c r="D388" s="25"/>
       <c r="E388" s="25"/>
       <c r="F388" s="25"/>
-      <c r="G388" s="25"/>
+      <c r="G388" s="27"/>
       <c r="H388" s="25"/>
       <c r="I388" s="25"/>
       <c r="J388" s="25"/>
@@ -8259,7 +8329,7 @@
       <c r="D389" s="25"/>
       <c r="E389" s="25"/>
       <c r="F389" s="25"/>
-      <c r="G389" s="25"/>
+      <c r="G389" s="27"/>
       <c r="H389" s="25"/>
       <c r="I389" s="25"/>
       <c r="J389" s="25"/>
@@ -8278,7 +8348,7 @@
       <c r="D390" s="25"/>
       <c r="E390" s="25"/>
       <c r="F390" s="25"/>
-      <c r="G390" s="25"/>
+      <c r="G390" s="27"/>
       <c r="H390" s="25"/>
       <c r="I390" s="25"/>
       <c r="J390" s="25"/>
@@ -8297,7 +8367,7 @@
       <c r="D391" s="25"/>
       <c r="E391" s="25"/>
       <c r="F391" s="25"/>
-      <c r="G391" s="25"/>
+      <c r="G391" s="27"/>
       <c r="H391" s="25"/>
       <c r="I391" s="25"/>
       <c r="J391" s="25"/>
@@ -8316,7 +8386,7 @@
       <c r="D392" s="25"/>
       <c r="E392" s="25"/>
       <c r="F392" s="25"/>
-      <c r="G392" s="25"/>
+      <c r="G392" s="27"/>
       <c r="H392" s="25"/>
       <c r="I392" s="25"/>
       <c r="J392" s="25"/>
@@ -8335,7 +8405,7 @@
       <c r="D393" s="25"/>
       <c r="E393" s="25"/>
       <c r="F393" s="25"/>
-      <c r="G393" s="25"/>
+      <c r="G393" s="27"/>
       <c r="H393" s="25"/>
       <c r="I393" s="25"/>
       <c r="J393" s="25"/>
@@ -8354,7 +8424,7 @@
       <c r="D394" s="25"/>
       <c r="E394" s="25"/>
       <c r="F394" s="25"/>
-      <c r="G394" s="25"/>
+      <c r="G394" s="27"/>
       <c r="H394" s="25"/>
       <c r="I394" s="25"/>
       <c r="J394" s="25"/>
@@ -8373,7 +8443,7 @@
       <c r="D395" s="25"/>
       <c r="E395" s="25"/>
       <c r="F395" s="25"/>
-      <c r="G395" s="25"/>
+      <c r="G395" s="27"/>
       <c r="H395" s="25"/>
       <c r="I395" s="25"/>
       <c r="J395" s="25"/>
@@ -8392,7 +8462,7 @@
       <c r="D396" s="25"/>
       <c r="E396" s="25"/>
       <c r="F396" s="25"/>
-      <c r="G396" s="25"/>
+      <c r="G396" s="27"/>
       <c r="H396" s="25"/>
       <c r="I396" s="25"/>
       <c r="J396" s="25"/>
@@ -8411,7 +8481,7 @@
       <c r="D397" s="25"/>
       <c r="E397" s="25"/>
       <c r="F397" s="25"/>
-      <c r="G397" s="25"/>
+      <c r="G397" s="27"/>
       <c r="H397" s="25"/>
       <c r="I397" s="25"/>
       <c r="J397" s="25"/>
@@ -8430,7 +8500,7 @@
       <c r="D398" s="25"/>
       <c r="E398" s="25"/>
       <c r="F398" s="25"/>
-      <c r="G398" s="25"/>
+      <c r="G398" s="27"/>
       <c r="H398" s="25"/>
       <c r="I398" s="25"/>
       <c r="J398" s="25"/>
@@ -8449,7 +8519,7 @@
       <c r="D399" s="25"/>
       <c r="E399" s="25"/>
       <c r="F399" s="25"/>
-      <c r="G399" s="25"/>
+      <c r="G399" s="27"/>
       <c r="H399" s="25"/>
       <c r="I399" s="25"/>
       <c r="J399" s="25"/>
@@ -8468,7 +8538,7 @@
       <c r="D400" s="25"/>
       <c r="E400" s="25"/>
       <c r="F400" s="25"/>
-      <c r="G400" s="25"/>
+      <c r="G400" s="27"/>
       <c r="H400" s="25"/>
       <c r="I400" s="25"/>
       <c r="J400" s="25"/>
@@ -8487,7 +8557,7 @@
       <c r="D401" s="25"/>
       <c r="E401" s="25"/>
       <c r="F401" s="25"/>
-      <c r="G401" s="25"/>
+      <c r="G401" s="27"/>
       <c r="H401" s="25"/>
       <c r="I401" s="25"/>
       <c r="J401" s="25"/>
@@ -8506,7 +8576,7 @@
       <c r="D402" s="25"/>
       <c r="E402" s="25"/>
       <c r="F402" s="25"/>
-      <c r="G402" s="25"/>
+      <c r="G402" s="27"/>
       <c r="H402" s="25"/>
       <c r="I402" s="25"/>
       <c r="J402" s="25"/>
@@ -8525,7 +8595,7 @@
       <c r="D403" s="25"/>
       <c r="E403" s="25"/>
       <c r="F403" s="25"/>
-      <c r="G403" s="25"/>
+      <c r="G403" s="27"/>
       <c r="H403" s="25"/>
       <c r="I403" s="25"/>
       <c r="J403" s="25"/>
@@ -8544,7 +8614,7 @@
       <c r="D404" s="25"/>
       <c r="E404" s="25"/>
       <c r="F404" s="25"/>
-      <c r="G404" s="25"/>
+      <c r="G404" s="27"/>
       <c r="H404" s="25"/>
       <c r="I404" s="25"/>
       <c r="J404" s="25"/>
@@ -8563,7 +8633,7 @@
       <c r="D405" s="25"/>
       <c r="E405" s="25"/>
       <c r="F405" s="25"/>
-      <c r="G405" s="25"/>
+      <c r="G405" s="27"/>
       <c r="H405" s="25"/>
       <c r="I405" s="25"/>
       <c r="J405" s="25"/>
@@ -8582,7 +8652,7 @@
       <c r="D406" s="25"/>
       <c r="E406" s="25"/>
       <c r="F406" s="25"/>
-      <c r="G406" s="25"/>
+      <c r="G406" s="27"/>
       <c r="H406" s="25"/>
       <c r="I406" s="25"/>
       <c r="J406" s="25"/>
@@ -8601,7 +8671,7 @@
       <c r="D407" s="25"/>
       <c r="E407" s="25"/>
       <c r="F407" s="25"/>
-      <c r="G407" s="25"/>
+      <c r="G407" s="27"/>
       <c r="H407" s="25"/>
       <c r="I407" s="25"/>
       <c r="J407" s="25"/>
@@ -8620,7 +8690,7 @@
       <c r="D408" s="25"/>
       <c r="E408" s="25"/>
       <c r="F408" s="25"/>
-      <c r="G408" s="25"/>
+      <c r="G408" s="27"/>
       <c r="H408" s="25"/>
       <c r="I408" s="25"/>
       <c r="J408" s="25"/>
@@ -8639,7 +8709,7 @@
       <c r="D409" s="25"/>
       <c r="E409" s="25"/>
       <c r="F409" s="25"/>
-      <c r="G409" s="25"/>
+      <c r="G409" s="27"/>
       <c r="H409" s="25"/>
       <c r="I409" s="25"/>
       <c r="J409" s="25"/>
@@ -8658,7 +8728,7 @@
       <c r="D410" s="25"/>
       <c r="E410" s="25"/>
       <c r="F410" s="25"/>
-      <c r="G410" s="25"/>
+      <c r="G410" s="27"/>
       <c r="H410" s="25"/>
       <c r="I410" s="25"/>
       <c r="J410" s="25"/>
@@ -8677,7 +8747,7 @@
       <c r="D411" s="25"/>
       <c r="E411" s="25"/>
       <c r="F411" s="25"/>
-      <c r="G411" s="25"/>
+      <c r="G411" s="27"/>
       <c r="H411" s="25"/>
       <c r="I411" s="25"/>
       <c r="J411" s="25"/>
@@ -8696,7 +8766,7 @@
       <c r="D412" s="25"/>
       <c r="E412" s="25"/>
       <c r="F412" s="25"/>
-      <c r="G412" s="25"/>
+      <c r="G412" s="27"/>
       <c r="H412" s="25"/>
       <c r="I412" s="25"/>
       <c r="J412" s="25"/>
@@ -8715,7 +8785,7 @@
       <c r="D413" s="25"/>
       <c r="E413" s="25"/>
       <c r="F413" s="25"/>
-      <c r="G413" s="25"/>
+      <c r="G413" s="27"/>
       <c r="H413" s="25"/>
       <c r="I413" s="25"/>
       <c r="J413" s="25"/>
@@ -8734,7 +8804,7 @@
       <c r="D414" s="25"/>
       <c r="E414" s="25"/>
       <c r="F414" s="25"/>
-      <c r="G414" s="25"/>
+      <c r="G414" s="27"/>
       <c r="H414" s="25"/>
       <c r="I414" s="25"/>
       <c r="J414" s="25"/>
@@ -8753,7 +8823,7 @@
       <c r="D415" s="25"/>
       <c r="E415" s="25"/>
       <c r="F415" s="25"/>
-      <c r="G415" s="25"/>
+      <c r="G415" s="27"/>
       <c r="H415" s="25"/>
       <c r="I415" s="25"/>
       <c r="J415" s="25"/>
@@ -8772,7 +8842,7 @@
       <c r="D416" s="25"/>
       <c r="E416" s="25"/>
       <c r="F416" s="25"/>
-      <c r="G416" s="25"/>
+      <c r="G416" s="27"/>
       <c r="H416" s="25"/>
       <c r="I416" s="25"/>
       <c r="J416" s="25"/>
@@ -8791,7 +8861,7 @@
       <c r="D417" s="25"/>
       <c r="E417" s="25"/>
       <c r="F417" s="25"/>
-      <c r="G417" s="25"/>
+      <c r="G417" s="27"/>
       <c r="H417" s="25"/>
       <c r="I417" s="25"/>
       <c r="J417" s="25"/>
@@ -8810,7 +8880,7 @@
       <c r="D418" s="25"/>
       <c r="E418" s="25"/>
       <c r="F418" s="25"/>
-      <c r="G418" s="25"/>
+      <c r="G418" s="27"/>
       <c r="H418" s="25"/>
       <c r="I418" s="25"/>
       <c r="J418" s="25"/>
@@ -8829,7 +8899,7 @@
       <c r="D419" s="25"/>
       <c r="E419" s="25"/>
       <c r="F419" s="25"/>
-      <c r="G419" s="25"/>
+      <c r="G419" s="27"/>
       <c r="H419" s="25"/>
       <c r="I419" s="25"/>
       <c r="J419" s="25"/>
@@ -8848,7 +8918,7 @@
       <c r="D420" s="25"/>
       <c r="E420" s="25"/>
       <c r="F420" s="25"/>
-      <c r="G420" s="25"/>
+      <c r="G420" s="27"/>
       <c r="H420" s="25"/>
       <c r="I420" s="25"/>
       <c r="J420" s="25"/>
@@ -8867,7 +8937,7 @@
       <c r="D421" s="25"/>
       <c r="E421" s="25"/>
       <c r="F421" s="25"/>
-      <c r="G421" s="25"/>
+      <c r="G421" s="27"/>
       <c r="H421" s="25"/>
       <c r="I421" s="25"/>
       <c r="J421" s="25"/>
@@ -8886,7 +8956,7 @@
       <c r="D422" s="25"/>
       <c r="E422" s="25"/>
       <c r="F422" s="25"/>
-      <c r="G422" s="25"/>
+      <c r="G422" s="27"/>
       <c r="H422" s="25"/>
       <c r="I422" s="25"/>
       <c r="J422" s="25"/>
@@ -8905,7 +8975,7 @@
       <c r="D423" s="25"/>
       <c r="E423" s="25"/>
       <c r="F423" s="25"/>
-      <c r="G423" s="25"/>
+      <c r="G423" s="27"/>
       <c r="H423" s="25"/>
       <c r="I423" s="25"/>
       <c r="J423" s="25"/>
@@ -8924,7 +8994,7 @@
       <c r="D424" s="25"/>
       <c r="E424" s="25"/>
       <c r="F424" s="25"/>
-      <c r="G424" s="25"/>
+      <c r="G424" s="27"/>
       <c r="H424" s="25"/>
       <c r="I424" s="25"/>
       <c r="J424" s="25"/>
@@ -8943,7 +9013,7 @@
       <c r="D425" s="25"/>
       <c r="E425" s="25"/>
       <c r="F425" s="25"/>
-      <c r="G425" s="25"/>
+      <c r="G425" s="27"/>
       <c r="H425" s="25"/>
       <c r="I425" s="25"/>
       <c r="J425" s="25"/>
@@ -8962,7 +9032,7 @@
       <c r="D426" s="25"/>
       <c r="E426" s="25"/>
       <c r="F426" s="25"/>
-      <c r="G426" s="25"/>
+      <c r="G426" s="27"/>
       <c r="H426" s="25"/>
       <c r="I426" s="25"/>
       <c r="J426" s="25"/>
@@ -8981,7 +9051,7 @@
       <c r="D427" s="25"/>
       <c r="E427" s="25"/>
       <c r="F427" s="25"/>
-      <c r="G427" s="25"/>
+      <c r="G427" s="27"/>
       <c r="H427" s="25"/>
       <c r="I427" s="25"/>
       <c r="J427" s="25"/>
@@ -9000,7 +9070,7 @@
       <c r="D428" s="25"/>
       <c r="E428" s="25"/>
       <c r="F428" s="25"/>
-      <c r="G428" s="25"/>
+      <c r="G428" s="27"/>
       <c r="H428" s="25"/>
       <c r="I428" s="25"/>
       <c r="J428" s="25"/>
@@ -9019,7 +9089,7 @@
       <c r="D429" s="25"/>
       <c r="E429" s="25"/>
       <c r="F429" s="25"/>
-      <c r="G429" s="25"/>
+      <c r="G429" s="27"/>
       <c r="H429" s="25"/>
       <c r="I429" s="25"/>
       <c r="J429" s="25"/>
@@ -9038,7 +9108,7 @@
       <c r="D430" s="25"/>
       <c r="E430" s="25"/>
       <c r="F430" s="25"/>
-      <c r="G430" s="25"/>
+      <c r="G430" s="27"/>
       <c r="H430" s="25"/>
       <c r="I430" s="25"/>
       <c r="J430" s="25"/>
@@ -9057,7 +9127,7 @@
       <c r="D431" s="25"/>
       <c r="E431" s="25"/>
       <c r="F431" s="25"/>
-      <c r="G431" s="25"/>
+      <c r="G431" s="27"/>
       <c r="H431" s="25"/>
       <c r="I431" s="25"/>
       <c r="J431" s="25"/>
@@ -9076,7 +9146,7 @@
       <c r="D432" s="25"/>
       <c r="E432" s="25"/>
       <c r="F432" s="25"/>
-      <c r="G432" s="25"/>
+      <c r="G432" s="27"/>
       <c r="H432" s="25"/>
       <c r="I432" s="25"/>
       <c r="J432" s="25"/>
@@ -9095,7 +9165,7 @@
       <c r="D433" s="25"/>
       <c r="E433" s="25"/>
       <c r="F433" s="25"/>
-      <c r="G433" s="25"/>
+      <c r="G433" s="27"/>
       <c r="H433" s="25"/>
       <c r="I433" s="25"/>
       <c r="J433" s="25"/>
@@ -9114,7 +9184,7 @@
       <c r="D434" s="25"/>
       <c r="E434" s="25"/>
       <c r="F434" s="25"/>
-      <c r="G434" s="25"/>
+      <c r="G434" s="27"/>
       <c r="H434" s="25"/>
       <c r="I434" s="25"/>
       <c r="J434" s="25"/>
@@ -9133,7 +9203,7 @@
       <c r="D435" s="25"/>
       <c r="E435" s="25"/>
       <c r="F435" s="25"/>
-      <c r="G435" s="25"/>
+      <c r="G435" s="27"/>
       <c r="H435" s="25"/>
       <c r="I435" s="25"/>
       <c r="J435" s="25"/>
@@ -9152,7 +9222,7 @@
       <c r="D436" s="25"/>
       <c r="E436" s="25"/>
       <c r="F436" s="25"/>
-      <c r="G436" s="25"/>
+      <c r="G436" s="27"/>
       <c r="H436" s="25"/>
       <c r="I436" s="25"/>
       <c r="J436" s="25"/>
@@ -9171,7 +9241,7 @@
       <c r="D437" s="25"/>
       <c r="E437" s="25"/>
       <c r="F437" s="25"/>
-      <c r="G437" s="25"/>
+      <c r="G437" s="27"/>
       <c r="H437" s="25"/>
       <c r="I437" s="25"/>
       <c r="J437" s="25"/>
@@ -9190,7 +9260,7 @@
       <c r="D438" s="25"/>
       <c r="E438" s="25"/>
       <c r="F438" s="25"/>
-      <c r="G438" s="25"/>
+      <c r="G438" s="27"/>
       <c r="H438" s="25"/>
       <c r="I438" s="25"/>
       <c r="J438" s="25"/>
@@ -9209,7 +9279,7 @@
       <c r="D439" s="25"/>
       <c r="E439" s="25"/>
       <c r="F439" s="25"/>
-      <c r="G439" s="25"/>
+      <c r="G439" s="27"/>
       <c r="H439" s="25"/>
       <c r="I439" s="25"/>
       <c r="J439" s="25"/>
@@ -9228,7 +9298,7 @@
       <c r="D440" s="25"/>
       <c r="E440" s="25"/>
       <c r="F440" s="25"/>
-      <c r="G440" s="25"/>
+      <c r="G440" s="27"/>
       <c r="H440" s="25"/>
       <c r="I440" s="25"/>
       <c r="J440" s="25"/>
@@ -9247,7 +9317,7 @@
       <c r="D441" s="25"/>
       <c r="E441" s="25"/>
       <c r="F441" s="25"/>
-      <c r="G441" s="25"/>
+      <c r="G441" s="27"/>
       <c r="H441" s="25"/>
       <c r="I441" s="25"/>
       <c r="J441" s="25"/>
@@ -9266,7 +9336,7 @@
       <c r="D442" s="25"/>
       <c r="E442" s="25"/>
       <c r="F442" s="25"/>
-      <c r="G442" s="25"/>
+      <c r="G442" s="27"/>
       <c r="H442" s="25"/>
       <c r="I442" s="25"/>
       <c r="J442" s="25"/>
@@ -9285,7 +9355,7 @@
       <c r="D443" s="25"/>
       <c r="E443" s="25"/>
       <c r="F443" s="25"/>
-      <c r="G443" s="25"/>
+      <c r="G443" s="27"/>
       <c r="H443" s="25"/>
       <c r="I443" s="25"/>
       <c r="J443" s="25"/>
@@ -9304,7 +9374,7 @@
       <c r="D444" s="25"/>
       <c r="E444" s="25"/>
       <c r="F444" s="25"/>
-      <c r="G444" s="25"/>
+      <c r="G444" s="27"/>
       <c r="H444" s="25"/>
       <c r="I444" s="25"/>
       <c r="J444" s="25"/>
@@ -9323,7 +9393,7 @@
       <c r="D445" s="25"/>
       <c r="E445" s="25"/>
       <c r="F445" s="25"/>
-      <c r="G445" s="25"/>
+      <c r="G445" s="27"/>
       <c r="H445" s="25"/>
       <c r="I445" s="25"/>
       <c r="J445" s="25"/>
@@ -9342,7 +9412,7 @@
       <c r="D446" s="25"/>
       <c r="E446" s="25"/>
       <c r="F446" s="25"/>
-      <c r="G446" s="25"/>
+      <c r="G446" s="27"/>
       <c r="H446" s="25"/>
       <c r="I446" s="25"/>
       <c r="J446" s="25"/>
@@ -9361,7 +9431,7 @@
       <c r="D447" s="25"/>
       <c r="E447" s="25"/>
       <c r="F447" s="25"/>
-      <c r="G447" s="25"/>
+      <c r="G447" s="27"/>
       <c r="H447" s="25"/>
       <c r="I447" s="25"/>
       <c r="J447" s="25"/>
@@ -9380,7 +9450,7 @@
       <c r="D448" s="25"/>
       <c r="E448" s="25"/>
       <c r="F448" s="25"/>
-      <c r="G448" s="25"/>
+      <c r="G448" s="27"/>
       <c r="H448" s="25"/>
       <c r="I448" s="25"/>
       <c r="J448" s="25"/>
@@ -9399,7 +9469,7 @@
       <c r="D449" s="25"/>
       <c r="E449" s="25"/>
       <c r="F449" s="25"/>
-      <c r="G449" s="25"/>
+      <c r="G449" s="27"/>
       <c r="H449" s="25"/>
       <c r="I449" s="25"/>
       <c r="J449" s="25"/>
@@ -9418,7 +9488,7 @@
       <c r="D450" s="25"/>
       <c r="E450" s="25"/>
       <c r="F450" s="25"/>
-      <c r="G450" s="25"/>
+      <c r="G450" s="27"/>
       <c r="H450" s="25"/>
       <c r="I450" s="25"/>
       <c r="J450" s="25"/>
@@ -9437,7 +9507,7 @@
       <c r="D451" s="25"/>
       <c r="E451" s="25"/>
       <c r="F451" s="25"/>
-      <c r="G451" s="25"/>
+      <c r="G451" s="27"/>
       <c r="H451" s="25"/>
       <c r="I451" s="25"/>
       <c r="J451" s="25"/>
@@ -9456,7 +9526,7 @@
       <c r="D452" s="25"/>
       <c r="E452" s="25"/>
       <c r="F452" s="25"/>
-      <c r="G452" s="25"/>
+      <c r="G452" s="27"/>
       <c r="H452" s="25"/>
       <c r="I452" s="25"/>
       <c r="J452" s="25"/>
@@ -9475,7 +9545,7 @@
       <c r="D453" s="25"/>
       <c r="E453" s="25"/>
       <c r="F453" s="25"/>
-      <c r="G453" s="25"/>
+      <c r="G453" s="27"/>
       <c r="H453" s="25"/>
       <c r="I453" s="25"/>
       <c r="J453" s="25"/>
@@ -9494,7 +9564,7 @@
       <c r="D454" s="25"/>
       <c r="E454" s="25"/>
       <c r="F454" s="25"/>
-      <c r="G454" s="25"/>
+      <c r="G454" s="27"/>
       <c r="H454" s="25"/>
       <c r="I454" s="25"/>
       <c r="J454" s="25"/>
@@ -9513,7 +9583,7 @@
       <c r="D455" s="25"/>
       <c r="E455" s="25"/>
       <c r="F455" s="25"/>
-      <c r="G455" s="25"/>
+      <c r="G455" s="27"/>
       <c r="H455" s="25"/>
       <c r="I455" s="25"/>
       <c r="J455" s="25"/>
@@ -9532,7 +9602,7 @@
       <c r="D456" s="25"/>
       <c r="E456" s="25"/>
       <c r="F456" s="25"/>
-      <c r="G456" s="25"/>
+      <c r="G456" s="27"/>
       <c r="H456" s="25"/>
       <c r="I456" s="25"/>
       <c r="J456" s="25"/>
@@ -9551,7 +9621,7 @@
       <c r="D457" s="25"/>
       <c r="E457" s="25"/>
       <c r="F457" s="25"/>
-      <c r="G457" s="25"/>
+      <c r="G457" s="27"/>
       <c r="H457" s="25"/>
       <c r="I457" s="25"/>
       <c r="J457" s="25"/>
@@ -9570,7 +9640,7 @@
       <c r="D458" s="25"/>
       <c r="E458" s="25"/>
       <c r="F458" s="25"/>
-      <c r="G458" s="25"/>
+      <c r="G458" s="27"/>
       <c r="H458" s="25"/>
       <c r="I458" s="25"/>
       <c r="J458" s="25"/>
@@ -9589,7 +9659,7 @@
       <c r="D459" s="25"/>
       <c r="E459" s="25"/>
       <c r="F459" s="25"/>
-      <c r="G459" s="25"/>
+      <c r="G459" s="27"/>
       <c r="H459" s="25"/>
       <c r="I459" s="25"/>
       <c r="J459" s="25"/>
@@ -9608,7 +9678,7 @@
       <c r="D460" s="25"/>
       <c r="E460" s="25"/>
       <c r="F460" s="25"/>
-      <c r="G460" s="25"/>
+      <c r="G460" s="27"/>
       <c r="H460" s="25"/>
       <c r="I460" s="25"/>
       <c r="J460" s="25"/>
@@ -9627,7 +9697,7 @@
       <c r="D461" s="25"/>
       <c r="E461" s="25"/>
       <c r="F461" s="25"/>
-      <c r="G461" s="25"/>
+      <c r="G461" s="27"/>
       <c r="H461" s="25"/>
       <c r="I461" s="25"/>
       <c r="J461" s="25"/>
@@ -9646,7 +9716,7 @@
       <c r="D462" s="25"/>
       <c r="E462" s="25"/>
       <c r="F462" s="25"/>
-      <c r="G462" s="25"/>
+      <c r="G462" s="27"/>
       <c r="H462" s="25"/>
       <c r="I462" s="25"/>
       <c r="J462" s="25"/>
@@ -9665,7 +9735,7 @@
       <c r="D463" s="25"/>
       <c r="E463" s="25"/>
       <c r="F463" s="25"/>
-      <c r="G463" s="25"/>
+      <c r="G463" s="27"/>
       <c r="H463" s="25"/>
       <c r="I463" s="25"/>
       <c r="J463" s="25"/>
@@ -9684,7 +9754,7 @@
       <c r="D464" s="25"/>
       <c r="E464" s="25"/>
       <c r="F464" s="25"/>
-      <c r="G464" s="25"/>
+      <c r="G464" s="27"/>
       <c r="H464" s="25"/>
       <c r="I464" s="25"/>
       <c r="J464" s="25"/>
@@ -9703,7 +9773,7 @@
       <c r="D465" s="25"/>
       <c r="E465" s="25"/>
       <c r="F465" s="25"/>
-      <c r="G465" s="25"/>
+      <c r="G465" s="27"/>
       <c r="H465" s="25"/>
       <c r="I465" s="25"/>
       <c r="J465" s="25"/>
@@ -9722,7 +9792,7 @@
       <c r="D466" s="25"/>
       <c r="E466" s="25"/>
       <c r="F466" s="25"/>
-      <c r="G466" s="25"/>
+      <c r="G466" s="27"/>
       <c r="H466" s="25"/>
       <c r="I466" s="25"/>
       <c r="J466" s="25"/>
@@ -9741,7 +9811,7 @@
       <c r="D467" s="25"/>
       <c r="E467" s="25"/>
       <c r="F467" s="25"/>
-      <c r="G467" s="25"/>
+      <c r="G467" s="27"/>
       <c r="H467" s="25"/>
       <c r="I467" s="25"/>
       <c r="J467" s="25"/>
@@ -9760,7 +9830,7 @@
       <c r="D468" s="25"/>
       <c r="E468" s="25"/>
       <c r="F468" s="25"/>
-      <c r="G468" s="25"/>
+      <c r="G468" s="27"/>
       <c r="H468" s="25"/>
       <c r="I468" s="25"/>
       <c r="J468" s="25"/>
@@ -9779,7 +9849,7 @@
       <c r="D469" s="25"/>
       <c r="E469" s="25"/>
       <c r="F469" s="25"/>
-      <c r="G469" s="25"/>
+      <c r="G469" s="27"/>
       <c r="H469" s="25"/>
       <c r="I469" s="25"/>
       <c r="J469" s="25"/>
@@ -9798,7 +9868,7 @@
       <c r="D470" s="25"/>
       <c r="E470" s="25"/>
       <c r="F470" s="25"/>
-      <c r="G470" s="25"/>
+      <c r="G470" s="27"/>
       <c r="H470" s="25"/>
       <c r="I470" s="25"/>
       <c r="J470" s="25"/>
@@ -9817,7 +9887,7 @@
       <c r="D471" s="25"/>
       <c r="E471" s="25"/>
       <c r="F471" s="25"/>
-      <c r="G471" s="25"/>
+      <c r="G471" s="27"/>
       <c r="H471" s="25"/>
       <c r="I471" s="25"/>
       <c r="J471" s="25"/>
@@ -9836,7 +9906,7 @@
       <c r="D472" s="25"/>
       <c r="E472" s="25"/>
       <c r="F472" s="25"/>
-      <c r="G472" s="25"/>
+      <c r="G472" s="27"/>
       <c r="H472" s="25"/>
       <c r="I472" s="25"/>
       <c r="J472" s="25"/>
@@ -9855,7 +9925,7 @@
       <c r="D473" s="25"/>
       <c r="E473" s="25"/>
       <c r="F473" s="25"/>
-      <c r="G473" s="25"/>
+      <c r="G473" s="27"/>
       <c r="H473" s="25"/>
       <c r="I473" s="25"/>
       <c r="J473" s="25"/>
@@ -9874,7 +9944,7 @@
       <c r="D474" s="25"/>
       <c r="E474" s="25"/>
       <c r="F474" s="25"/>
-      <c r="G474" s="25"/>
+      <c r="G474" s="27"/>
       <c r="H474" s="25"/>
       <c r="I474" s="25"/>
       <c r="J474" s="25"/>
@@ -9893,7 +9963,7 @@
       <c r="D475" s="25"/>
       <c r="E475" s="25"/>
       <c r="F475" s="25"/>
-      <c r="G475" s="25"/>
+      <c r="G475" s="27"/>
       <c r="H475" s="25"/>
       <c r="I475" s="25"/>
       <c r="J475" s="25"/>
@@ -9912,7 +9982,7 @@
       <c r="D476" s="25"/>
       <c r="E476" s="25"/>
       <c r="F476" s="25"/>
-      <c r="G476" s="25"/>
+      <c r="G476" s="27"/>
       <c r="H476" s="25"/>
       <c r="I476" s="25"/>
       <c r="J476" s="25"/>
@@ -9931,7 +10001,7 @@
       <c r="D477" s="25"/>
       <c r="E477" s="25"/>
       <c r="F477" s="25"/>
-      <c r="G477" s="25"/>
+      <c r="G477" s="27"/>
       <c r="H477" s="25"/>
       <c r="I477" s="25"/>
       <c r="J477" s="25"/>
@@ -9950,7 +10020,7 @@
       <c r="D478" s="25"/>
       <c r="E478" s="25"/>
       <c r="F478" s="25"/>
-      <c r="G478" s="25"/>
+      <c r="G478" s="27"/>
       <c r="H478" s="25"/>
       <c r="I478" s="25"/>
       <c r="J478" s="25"/>
@@ -9969,7 +10039,7 @@
       <c r="D479" s="25"/>
       <c r="E479" s="25"/>
       <c r="F479" s="25"/>
-      <c r="G479" s="25"/>
+      <c r="G479" s="27"/>
       <c r="H479" s="25"/>
       <c r="I479" s="25"/>
       <c r="J479" s="25"/>
@@ -9988,7 +10058,7 @@
       <c r="D480" s="25"/>
       <c r="E480" s="25"/>
       <c r="F480" s="25"/>
-      <c r="G480" s="25"/>
+      <c r="G480" s="27"/>
       <c r="H480" s="25"/>
       <c r="I480" s="25"/>
       <c r="J480" s="25"/>
@@ -10007,7 +10077,7 @@
       <c r="D481" s="25"/>
       <c r="E481" s="25"/>
       <c r="F481" s="25"/>
-      <c r="G481" s="25"/>
+      <c r="G481" s="27"/>
       <c r="H481" s="25"/>
       <c r="I481" s="25"/>
       <c r="J481" s="25"/>
@@ -10026,7 +10096,7 @@
       <c r="D482" s="25"/>
       <c r="E482" s="25"/>
       <c r="F482" s="25"/>
-      <c r="G482" s="25"/>
+      <c r="G482" s="27"/>
       <c r="H482" s="25"/>
       <c r="I482" s="25"/>
       <c r="J482" s="25"/>
@@ -10045,7 +10115,7 @@
       <c r="D483" s="25"/>
       <c r="E483" s="25"/>
       <c r="F483" s="25"/>
-      <c r="G483" s="25"/>
+      <c r="G483" s="27"/>
       <c r="H483" s="25"/>
       <c r="I483" s="25"/>
       <c r="J483" s="25"/>
@@ -10064,7 +10134,7 @@
       <c r="D484" s="25"/>
       <c r="E484" s="25"/>
       <c r="F484" s="25"/>
-      <c r="G484" s="25"/>
+      <c r="G484" s="27"/>
       <c r="H484" s="25"/>
       <c r="I484" s="25"/>
       <c r="J484" s="25"/>
@@ -10083,7 +10153,7 @@
       <c r="D485" s="25"/>
       <c r="E485" s="25"/>
       <c r="F485" s="25"/>
-      <c r="G485" s="25"/>
+      <c r="G485" s="27"/>
       <c r="H485" s="25"/>
       <c r="I485" s="25"/>
       <c r="J485" s="25"/>
@@ -10102,7 +10172,7 @@
       <c r="D486" s="25"/>
       <c r="E486" s="25"/>
       <c r="F486" s="25"/>
-      <c r="G486" s="25"/>
+      <c r="G486" s="27"/>
       <c r="H486" s="25"/>
       <c r="I486" s="25"/>
       <c r="J486" s="25"/>
@@ -10121,7 +10191,7 @@
       <c r="D487" s="25"/>
       <c r="E487" s="25"/>
       <c r="F487" s="25"/>
-      <c r="G487" s="25"/>
+      <c r="G487" s="27"/>
       <c r="H487" s="25"/>
       <c r="I487" s="25"/>
       <c r="J487" s="25"/>
@@ -10140,7 +10210,7 @@
       <c r="D488" s="25"/>
       <c r="E488" s="25"/>
       <c r="F488" s="25"/>
-      <c r="G488" s="25"/>
+      <c r="G488" s="27"/>
       <c r="H488" s="25"/>
       <c r="I488" s="25"/>
       <c r="J488" s="25"/>
@@ -10159,7 +10229,7 @@
       <c r="D489" s="25"/>
       <c r="E489" s="25"/>
       <c r="F489" s="25"/>
-      <c r="G489" s="25"/>
+      <c r="G489" s="27"/>
       <c r="H489" s="25"/>
       <c r="I489" s="25"/>
       <c r="J489" s="25"/>
@@ -10178,7 +10248,7 @@
       <c r="D490" s="25"/>
       <c r="E490" s="25"/>
       <c r="F490" s="25"/>
-      <c r="G490" s="25"/>
+      <c r="G490" s="27"/>
       <c r="H490" s="25"/>
       <c r="I490" s="25"/>
       <c r="J490" s="25"/>
@@ -10197,7 +10267,7 @@
       <c r="D491" s="25"/>
       <c r="E491" s="25"/>
       <c r="F491" s="25"/>
-      <c r="G491" s="25"/>
+      <c r="G491" s="27"/>
       <c r="H491" s="25"/>
       <c r="I491" s="25"/>
       <c r="J491" s="25"/>
@@ -10216,7 +10286,7 @@
       <c r="D492" s="25"/>
       <c r="E492" s="25"/>
       <c r="F492" s="25"/>
-      <c r="G492" s="25"/>
+      <c r="G492" s="27"/>
       <c r="H492" s="25"/>
       <c r="I492" s="25"/>
       <c r="J492" s="25"/>
@@ -10235,7 +10305,7 @@
       <c r="D493" s="25"/>
       <c r="E493" s="25"/>
       <c r="F493" s="25"/>
-      <c r="G493" s="25"/>
+      <c r="G493" s="27"/>
       <c r="H493" s="25"/>
       <c r="I493" s="25"/>
       <c r="J493" s="25"/>
@@ -10254,7 +10324,7 @@
       <c r="D494" s="25"/>
       <c r="E494" s="25"/>
       <c r="F494" s="25"/>
-      <c r="G494" s="25"/>
+      <c r="G494" s="27"/>
       <c r="H494" s="25"/>
       <c r="I494" s="25"/>
       <c r="J494" s="25"/>
@@ -10273,7 +10343,7 @@
       <c r="D495" s="25"/>
       <c r="E495" s="25"/>
       <c r="F495" s="25"/>
-      <c r="G495" s="25"/>
+      <c r="G495" s="27"/>
       <c r="H495" s="25"/>
       <c r="I495" s="25"/>
       <c r="J495" s="25"/>
@@ -10292,7 +10362,7 @@
       <c r="D496" s="25"/>
       <c r="E496" s="25"/>
       <c r="F496" s="25"/>
-      <c r="G496" s="25"/>
+      <c r="G496" s="27"/>
       <c r="H496" s="25"/>
       <c r="I496" s="25"/>
       <c r="J496" s="25"/>
@@ -10311,7 +10381,7 @@
       <c r="D497" s="25"/>
       <c r="E497" s="25"/>
       <c r="F497" s="25"/>
-      <c r="G497" s="25"/>
+      <c r="G497" s="27"/>
       <c r="H497" s="25"/>
       <c r="I497" s="25"/>
       <c r="J497" s="25"/>
@@ -10330,7 +10400,7 @@
       <c r="D498" s="25"/>
       <c r="E498" s="25"/>
       <c r="F498" s="25"/>
-      <c r="G498" s="25"/>
+      <c r="G498" s="27"/>
       <c r="H498" s="25"/>
       <c r="I498" s="25"/>
       <c r="J498" s="25"/>
@@ -10349,7 +10419,7 @@
       <c r="D499" s="25"/>
       <c r="E499" s="25"/>
       <c r="F499" s="25"/>
-      <c r="G499" s="25"/>
+      <c r="G499" s="27"/>
       <c r="H499" s="25"/>
       <c r="I499" s="25"/>
       <c r="J499" s="25"/>
@@ -10368,7 +10438,7 @@
       <c r="D500" s="25"/>
       <c r="E500" s="25"/>
       <c r="F500" s="25"/>
-      <c r="G500" s="25"/>
+      <c r="G500" s="27"/>
       <c r="H500" s="25"/>
       <c r="I500" s="25"/>
       <c r="J500" s="25"/>
@@ -10387,7 +10457,7 @@
       <c r="D501" s="25"/>
       <c r="E501" s="25"/>
       <c r="F501" s="25"/>
-      <c r="G501" s="25"/>
+      <c r="G501" s="27"/>
       <c r="H501" s="25"/>
       <c r="I501" s="25"/>
       <c r="J501" s="25"/>
@@ -10406,7 +10476,7 @@
       <c r="D502" s="25"/>
       <c r="E502" s="25"/>
       <c r="F502" s="25"/>
-      <c r="G502" s="25"/>
+      <c r="G502" s="27"/>
       <c r="H502" s="25"/>
       <c r="I502" s="25"/>
       <c r="J502" s="25"/>
@@ -10425,7 +10495,7 @@
       <c r="D503" s="25"/>
       <c r="E503" s="25"/>
       <c r="F503" s="25"/>
-      <c r="G503" s="25"/>
+      <c r="G503" s="27"/>
       <c r="H503" s="25"/>
       <c r="I503" s="25"/>
       <c r="J503" s="25"/>
@@ -10444,7 +10514,7 @@
       <c r="D504" s="25"/>
       <c r="E504" s="25"/>
       <c r="F504" s="25"/>
-      <c r="G504" s="25"/>
+      <c r="G504" s="27"/>
       <c r="H504" s="25"/>
       <c r="I504" s="25"/>
       <c r="J504" s="25"/>
@@ -10463,7 +10533,7 @@
       <c r="D505" s="25"/>
       <c r="E505" s="25"/>
       <c r="F505" s="25"/>
-      <c r="G505" s="25"/>
+      <c r="G505" s="27"/>
       <c r="H505" s="25"/>
       <c r="I505" s="25"/>
       <c r="J505" s="25"/>
@@ -10482,7 +10552,7 @@
       <c r="D506" s="25"/>
       <c r="E506" s="25"/>
       <c r="F506" s="25"/>
-      <c r="G506" s="25"/>
+      <c r="G506" s="27"/>
       <c r="H506" s="25"/>
       <c r="I506" s="25"/>
       <c r="J506" s="25"/>
@@ -10501,7 +10571,7 @@
       <c r="D507" s="25"/>
       <c r="E507" s="25"/>
       <c r="F507" s="25"/>
-      <c r="G507" s="25"/>
+      <c r="G507" s="27"/>
       <c r="H507" s="25"/>
       <c r="I507" s="25"/>
       <c r="J507" s="25"/>
@@ -10520,7 +10590,7 @@
       <c r="D508" s="25"/>
       <c r="E508" s="25"/>
       <c r="F508" s="25"/>
-      <c r="G508" s="25"/>
+      <c r="G508" s="27"/>
       <c r="H508" s="25"/>
       <c r="I508" s="25"/>
       <c r="J508" s="25"/>
@@ -10539,7 +10609,7 @@
       <c r="D509" s="25"/>
       <c r="E509" s="25"/>
       <c r="F509" s="25"/>
-      <c r="G509" s="25"/>
+      <c r="G509" s="27"/>
       <c r="H509" s="25"/>
       <c r="I509" s="25"/>
       <c r="J509" s="25"/>
@@ -10558,7 +10628,7 @@
       <c r="D510" s="25"/>
       <c r="E510" s="25"/>
       <c r="F510" s="25"/>
-      <c r="G510" s="25"/>
+      <c r="G510" s="27"/>
       <c r="H510" s="25"/>
       <c r="I510" s="25"/>
       <c r="J510" s="25"/>
@@ -10577,7 +10647,7 @@
       <c r="D511" s="25"/>
       <c r="E511" s="25"/>
       <c r="F511" s="25"/>
-      <c r="G511" s="25"/>
+      <c r="G511" s="27"/>
       <c r="H511" s="25"/>
       <c r="I511" s="25"/>
       <c r="J511" s="25"/>
@@ -10596,7 +10666,7 @@
       <c r="D512" s="25"/>
       <c r="E512" s="25"/>
       <c r="F512" s="25"/>
-      <c r="G512" s="25"/>
+      <c r="G512" s="27"/>
       <c r="H512" s="25"/>
       <c r="I512" s="25"/>
       <c r="J512" s="25"/>
@@ -10615,7 +10685,7 @@
       <c r="D513" s="25"/>
       <c r="E513" s="25"/>
       <c r="F513" s="25"/>
-      <c r="G513" s="25"/>
+      <c r="G513" s="27"/>
       <c r="H513" s="25"/>
       <c r="I513" s="25"/>
       <c r="J513" s="25"/>
@@ -10634,7 +10704,7 @@
       <c r="D514" s="25"/>
       <c r="E514" s="25"/>
       <c r="F514" s="25"/>
-      <c r="G514" s="25"/>
+      <c r="G514" s="27"/>
       <c r="H514" s="25"/>
       <c r="I514" s="25"/>
       <c r="J514" s="25"/>
@@ -10653,7 +10723,7 @@
       <c r="D515" s="25"/>
       <c r="E515" s="25"/>
       <c r="F515" s="25"/>
-      <c r="G515" s="25"/>
+      <c r="G515" s="27"/>
       <c r="H515" s="25"/>
       <c r="I515" s="25"/>
       <c r="J515" s="25"/>
@@ -10672,7 +10742,7 @@
       <c r="D516" s="25"/>
       <c r="E516" s="25"/>
       <c r="F516" s="25"/>
-      <c r="G516" s="25"/>
+      <c r="G516" s="27"/>
       <c r="H516" s="25"/>
       <c r="I516" s="25"/>
       <c r="J516" s="25"/>
@@ -10691,7 +10761,7 @@
       <c r="D517" s="25"/>
       <c r="E517" s="25"/>
       <c r="F517" s="25"/>
-      <c r="G517" s="25"/>
+      <c r="G517" s="27"/>
       <c r="H517" s="25"/>
       <c r="I517" s="25"/>
       <c r="J517" s="25"/>
@@ -10710,7 +10780,7 @@
       <c r="D518" s="25"/>
       <c r="E518" s="25"/>
       <c r="F518" s="25"/>
-      <c r="G518" s="25"/>
+      <c r="G518" s="27"/>
       <c r="H518" s="25"/>
       <c r="I518" s="25"/>
       <c r="J518" s="25"/>
@@ -10729,7 +10799,7 @@
       <c r="D519" s="25"/>
       <c r="E519" s="25"/>
       <c r="F519" s="25"/>
-      <c r="G519" s="25"/>
+      <c r="G519" s="27"/>
       <c r="H519" s="25"/>
       <c r="I519" s="25"/>
       <c r="J519" s="25"/>
@@ -10748,7 +10818,7 @@
       <c r="D520" s="25"/>
       <c r="E520" s="25"/>
       <c r="F520" s="25"/>
-      <c r="G520" s="25"/>
+      <c r="G520" s="27"/>
       <c r="H520" s="25"/>
       <c r="I520" s="25"/>
       <c r="J520" s="25"/>
@@ -10767,7 +10837,7 @@
       <c r="D521" s="25"/>
       <c r="E521" s="25"/>
       <c r="F521" s="25"/>
-      <c r="G521" s="25"/>
+      <c r="G521" s="27"/>
       <c r="H521" s="25"/>
       <c r="I521" s="25"/>
       <c r="J521" s="25"/>
@@ -10786,7 +10856,7 @@
       <c r="D522" s="25"/>
       <c r="E522" s="25"/>
       <c r="F522" s="25"/>
-      <c r="G522" s="25"/>
+      <c r="G522" s="27"/>
       <c r="H522" s="25"/>
       <c r="I522" s="25"/>
       <c r="J522" s="25"/>
@@ -10805,7 +10875,7 @@
       <c r="D523" s="25"/>
       <c r="E523" s="25"/>
       <c r="F523" s="25"/>
-      <c r="G523" s="25"/>
+      <c r="G523" s="27"/>
       <c r="H523" s="25"/>
       <c r="I523" s="25"/>
       <c r="J523" s="25"/>
@@ -10824,7 +10894,7 @@
       <c r="D524" s="25"/>
       <c r="E524" s="25"/>
       <c r="F524" s="25"/>
-      <c r="G524" s="25"/>
+      <c r="G524" s="27"/>
       <c r="H524" s="25"/>
       <c r="I524" s="25"/>
       <c r="J524" s="25"/>
@@ -10843,7 +10913,7 @@
       <c r="D525" s="25"/>
       <c r="E525" s="25"/>
       <c r="F525" s="25"/>
-      <c r="G525" s="25"/>
+      <c r="G525" s="27"/>
       <c r="H525" s="25"/>
       <c r="I525" s="25"/>
       <c r="J525" s="25"/>
@@ -10862,7 +10932,7 @@
       <c r="D526" s="25"/>
       <c r="E526" s="25"/>
       <c r="F526" s="25"/>
-      <c r="G526" s="25"/>
+      <c r="G526" s="27"/>
       <c r="H526" s="25"/>
       <c r="I526" s="25"/>
       <c r="J526" s="25"/>
@@ -10881,7 +10951,7 @@
       <c r="D527" s="25"/>
       <c r="E527" s="25"/>
       <c r="F527" s="25"/>
-      <c r="G527" s="25"/>
+      <c r="G527" s="27"/>
       <c r="H527" s="25"/>
       <c r="I527" s="25"/>
       <c r="J527" s="25"/>
@@ -10900,7 +10970,7 @@
       <c r="D528" s="25"/>
       <c r="E528" s="25"/>
       <c r="F528" s="25"/>
-      <c r="G528" s="25"/>
+      <c r="G528" s="27"/>
       <c r="H528" s="25"/>
       <c r="I528" s="25"/>
       <c r="J528" s="25"/>
@@ -10919,7 +10989,7 @@
       <c r="D529" s="25"/>
       <c r="E529" s="25"/>
       <c r="F529" s="25"/>
-      <c r="G529" s="25"/>
+      <c r="G529" s="27"/>
       <c r="H529" s="25"/>
       <c r="I529" s="25"/>
       <c r="J529" s="25"/>
@@ -10938,7 +11008,7 @@
       <c r="D530" s="25"/>
       <c r="E530" s="25"/>
       <c r="F530" s="25"/>
-      <c r="G530" s="25"/>
+      <c r="G530" s="27"/>
       <c r="H530" s="25"/>
       <c r="I530" s="25"/>
       <c r="J530" s="25"/>
@@ -10957,7 +11027,7 @@
       <c r="D531" s="25"/>
       <c r="E531" s="25"/>
       <c r="F531" s="25"/>
-      <c r="G531" s="25"/>
+      <c r="G531" s="27"/>
       <c r="H531" s="25"/>
       <c r="I531" s="25"/>
       <c r="J531" s="25"/>
@@ -10976,7 +11046,7 @@
       <c r="D532" s="25"/>
       <c r="E532" s="25"/>
       <c r="F532" s="25"/>
-      <c r="G532" s="25"/>
+      <c r="G532" s="27"/>
       <c r="H532" s="25"/>
       <c r="I532" s="25"/>
       <c r="J532" s="25"/>
@@ -10995,7 +11065,7 @@
       <c r="D533" s="25"/>
       <c r="E533" s="25"/>
       <c r="F533" s="25"/>
-      <c r="G533" s="25"/>
+      <c r="G533" s="27"/>
       <c r="H533" s="25"/>
       <c r="I533" s="25"/>
       <c r="J533" s="25"/>
@@ -11014,7 +11084,7 @@
       <c r="D534" s="25"/>
       <c r="E534" s="25"/>
       <c r="F534" s="25"/>
-      <c r="G534" s="25"/>
+      <c r="G534" s="27"/>
       <c r="H534" s="25"/>
       <c r="I534" s="25"/>
       <c r="J534" s="25"/>
@@ -11033,7 +11103,7 @@
       <c r="D535" s="25"/>
       <c r="E535" s="25"/>
       <c r="F535" s="25"/>
-      <c r="G535" s="25"/>
+      <c r="G535" s="27"/>
       <c r="H535" s="25"/>
       <c r="I535" s="25"/>
       <c r="J535" s="25"/>
@@ -11052,7 +11122,7 @@
       <c r="D536" s="25"/>
       <c r="E536" s="25"/>
       <c r="F536" s="25"/>
-      <c r="G536" s="25"/>
+      <c r="G536" s="27"/>
       <c r="H536" s="25"/>
       <c r="I536" s="25"/>
       <c r="J536" s="25"/>
@@ -11071,7 +11141,7 @@
       <c r="D537" s="25"/>
       <c r="E537" s="25"/>
       <c r="F537" s="25"/>
-      <c r="G537" s="25"/>
+      <c r="G537" s="27"/>
       <c r="H537" s="25"/>
       <c r="I537" s="25"/>
       <c r="J537" s="25"/>
@@ -11090,7 +11160,7 @@
       <c r="D538" s="25"/>
       <c r="E538" s="25"/>
       <c r="F538" s="25"/>
-      <c r="G538" s="25"/>
+      <c r="G538" s="27"/>
       <c r="H538" s="25"/>
       <c r="I538" s="25"/>
       <c r="J538" s="25"/>
@@ -11109,7 +11179,7 @@
       <c r="D539" s="25"/>
       <c r="E539" s="25"/>
       <c r="F539" s="25"/>
-      <c r="G539" s="25"/>
+      <c r="G539" s="27"/>
       <c r="H539" s="25"/>
       <c r="I539" s="25"/>
       <c r="J539" s="25"/>
@@ -11128,7 +11198,7 @@
       <c r="D540" s="25"/>
       <c r="E540" s="25"/>
       <c r="F540" s="25"/>
-      <c r="G540" s="25"/>
+      <c r="G540" s="27"/>
       <c r="H540" s="25"/>
       <c r="I540" s="25"/>
       <c r="J540" s="25"/>
@@ -11147,7 +11217,7 @@
       <c r="D541" s="25"/>
       <c r="E541" s="25"/>
       <c r="F541" s="25"/>
-      <c r="G541" s="25"/>
+      <c r="G541" s="27"/>
       <c r="H541" s="25"/>
       <c r="I541" s="25"/>
       <c r="J541" s="25"/>
@@ -11166,7 +11236,7 @@
       <c r="D542" s="25"/>
       <c r="E542" s="25"/>
       <c r="F542" s="25"/>
-      <c r="G542" s="25"/>
+      <c r="G542" s="27"/>
       <c r="H542" s="25"/>
       <c r="I542" s="25"/>
       <c r="J542" s="25"/>
@@ -11185,7 +11255,7 @@
       <c r="D543" s="25"/>
       <c r="E543" s="25"/>
       <c r="F543" s="25"/>
-      <c r="G543" s="25"/>
+      <c r="G543" s="27"/>
       <c r="H543" s="25"/>
       <c r="I543" s="25"/>
       <c r="J543" s="25"/>
@@ -11204,7 +11274,7 @@
       <c r="D544" s="25"/>
       <c r="E544" s="25"/>
       <c r="F544" s="25"/>
-      <c r="G544" s="25"/>
+      <c r="G544" s="27"/>
       <c r="H544" s="25"/>
       <c r="I544" s="25"/>
       <c r="J544" s="25"/>
@@ -11223,7 +11293,7 @@
       <c r="D545" s="25"/>
       <c r="E545" s="25"/>
       <c r="F545" s="25"/>
-      <c r="G545" s="25"/>
+      <c r="G545" s="27"/>
       <c r="H545" s="25"/>
       <c r="I545" s="25"/>
       <c r="J545" s="25"/>
@@ -11242,7 +11312,7 @@
       <c r="D546" s="25"/>
       <c r="E546" s="25"/>
       <c r="F546" s="25"/>
-      <c r="G546" s="25"/>
+      <c r="G546" s="27"/>
       <c r="H546" s="25"/>
       <c r="I546" s="25"/>
       <c r="J546" s="25"/>
@@ -11261,7 +11331,7 @@
       <c r="D547" s="25"/>
       <c r="E547" s="25"/>
       <c r="F547" s="25"/>
-      <c r="G547" s="25"/>
+      <c r="G547" s="27"/>
       <c r="H547" s="25"/>
       <c r="I547" s="25"/>
       <c r="J547" s="25"/>
@@ -11280,7 +11350,7 @@
       <c r="D548" s="25"/>
       <c r="E548" s="25"/>
       <c r="F548" s="25"/>
-      <c r="G548" s="25"/>
+      <c r="G548" s="27"/>
       <c r="H548" s="25"/>
       <c r="I548" s="25"/>
       <c r="J548" s="25"/>
@@ -11299,7 +11369,7 @@
       <c r="D549" s="25"/>
       <c r="E549" s="25"/>
       <c r="F549" s="25"/>
-      <c r="G549" s="25"/>
+      <c r="G549" s="27"/>
       <c r="H549" s="25"/>
       <c r="I549" s="25"/>
       <c r="J549" s="25"/>
@@ -11318,7 +11388,7 @@
       <c r="D550" s="25"/>
       <c r="E550" s="25"/>
       <c r="F550" s="25"/>
-      <c r="G550" s="25"/>
+      <c r="G550" s="27"/>
       <c r="H550" s="25"/>
       <c r="I550" s="25"/>
       <c r="J550" s="25"/>
@@ -11337,7 +11407,7 @@
       <c r="D551" s="25"/>
       <c r="E551" s="25"/>
       <c r="F551" s="25"/>
-      <c r="G551" s="25"/>
+      <c r="G551" s="27"/>
       <c r="H551" s="25"/>
       <c r="I551" s="25"/>
       <c r="J551" s="25"/>
@@ -11356,7 +11426,7 @@
       <c r="D552" s="25"/>
       <c r="E552" s="25"/>
       <c r="F552" s="25"/>
-      <c r="G552" s="25"/>
+      <c r="G552" s="27"/>
       <c r="H552" s="25"/>
       <c r="I552" s="25"/>
       <c r="J552" s="25"/>
@@ -11375,7 +11445,7 @@
       <c r="D553" s="25"/>
       <c r="E553" s="25"/>
       <c r="F553" s="25"/>
-      <c r="G553" s="25"/>
+      <c r="G553" s="27"/>
       <c r="H553" s="25"/>
       <c r="I553" s="25"/>
       <c r="J553" s="25"/>
@@ -11394,7 +11464,7 @@
       <c r="D554" s="25"/>
       <c r="E554" s="25"/>
       <c r="F554" s="25"/>
-      <c r="G554" s="25"/>
+      <c r="G554" s="27"/>
       <c r="H554" s="25"/>
       <c r="I554" s="25"/>
       <c r="J554" s="25"/>
@@ -11413,7 +11483,7 @@
       <c r="D555" s="25"/>
       <c r="E555" s="25"/>
       <c r="F555" s="25"/>
-      <c r="G555" s="25"/>
+      <c r="G555" s="27"/>
       <c r="H555" s="25"/>
       <c r="I555" s="25"/>
       <c r="J555" s="25"/>
@@ -11432,7 +11502,7 @@
       <c r="D556" s="25"/>
       <c r="E556" s="25"/>
       <c r="F556" s="25"/>
-      <c r="G556" s="25"/>
+      <c r="G556" s="27"/>
       <c r="H556" s="25"/>
       <c r="I556" s="25"/>
       <c r="J556" s="25"/>
@@ -11451,7 +11521,7 @@
       <c r="D557" s="25"/>
       <c r="E557" s="25"/>
       <c r="F557" s="25"/>
-      <c r="G557" s="25"/>
+      <c r="G557" s="27"/>
       <c r="H557" s="25"/>
       <c r="I557" s="25"/>
       <c r="J557" s="25"/>
@@ -11470,7 +11540,7 @@
       <c r="D558" s="25"/>
       <c r="E558" s="25"/>
       <c r="F558" s="25"/>
-      <c r="G558" s="25"/>
+      <c r="G558" s="27"/>
       <c r="H558" s="25"/>
       <c r="I558" s="25"/>
       <c r="J558" s="25"/>
@@ -11489,7 +11559,7 @@
       <c r="D559" s="25"/>
       <c r="E559" s="25"/>
       <c r="F559" s="25"/>
-      <c r="G559" s="25"/>
+      <c r="G559" s="27"/>
       <c r="H559" s="25"/>
       <c r="I559" s="25"/>
       <c r="J559" s="25"/>
@@ -11508,7 +11578,7 @@
       <c r="D560" s="25"/>
       <c r="E560" s="25"/>
       <c r="F560" s="25"/>
-      <c r="G560" s="25"/>
+      <c r="G560" s="27"/>
       <c r="H560" s="25"/>
       <c r="I560" s="25"/>
       <c r="J560" s="25"/>
@@ -11527,7 +11597,7 @@
       <c r="D561" s="25"/>
       <c r="E561" s="25"/>
       <c r="F561" s="25"/>
-      <c r="G561" s="25"/>
+      <c r="G561" s="27"/>
       <c r="H561" s="25"/>
       <c r="I561" s="25"/>
       <c r="J561" s="25"/>
@@ -11546,7 +11616,7 @@
       <c r="D562" s="25"/>
       <c r="E562" s="25"/>
       <c r="F562" s="25"/>
-      <c r="G562" s="25"/>
+      <c r="G562" s="27"/>
       <c r="H562" s="25"/>
       <c r="I562" s="25"/>
       <c r="J562" s="25"/>
@@ -11565,7 +11635,7 @@
       <c r="D563" s="25"/>
       <c r="E563" s="25"/>
       <c r="F563" s="25"/>
-      <c r="G563" s="25"/>
+      <c r="G563" s="27"/>
       <c r="H563" s="25"/>
       <c r="I563" s="25"/>
       <c r="J563" s="25"/>
@@ -11584,7 +11654,7 @@
       <c r="D564" s="25"/>
       <c r="E564" s="25"/>
       <c r="F564" s="25"/>
-      <c r="G564" s="25"/>
+      <c r="G564" s="27"/>
       <c r="H564" s="25"/>
       <c r="I564" s="25"/>
       <c r="J564" s="25"/>
@@ -11603,7 +11673,7 @@
       <c r="D565" s="25"/>
       <c r="E565" s="25"/>
       <c r="F565" s="25"/>
-      <c r="G565" s="25"/>
+      <c r="G565" s="27"/>
       <c r="H565" s="25"/>
       <c r="I565" s="25"/>
       <c r="J565" s="25"/>
@@ -11622,7 +11692,7 @@
       <c r="D566" s="25"/>
       <c r="E566" s="25"/>
       <c r="F566" s="25"/>
-      <c r="G566" s="25"/>
+      <c r="G566" s="27"/>
       <c r="H566" s="25"/>
       <c r="I566" s="25"/>
       <c r="J566" s="25"/>
@@ -11641,7 +11711,7 @@
       <c r="D567" s="25"/>
       <c r="E567" s="25"/>
       <c r="F567" s="25"/>
-      <c r="G567" s="25"/>
+      <c r="G567" s="27"/>
       <c r="H567" s="25"/>
       <c r="I567" s="25"/>
       <c r="J567" s="25"/>
@@ -11660,7 +11730,7 @@
       <c r="D568" s="25"/>
       <c r="E568" s="25"/>
       <c r="F568" s="25"/>
-      <c r="G568" s="25"/>
+      <c r="G568" s="27"/>
       <c r="H568" s="25"/>
       <c r="I568" s="25"/>
       <c r="J568" s="25"/>
@@ -11679,7 +11749,7 @@
       <c r="D569" s="25"/>
       <c r="E569" s="25"/>
       <c r="F569" s="25"/>
-      <c r="G569" s="25"/>
+      <c r="G569" s="27"/>
       <c r="H569" s="25"/>
       <c r="I569" s="25"/>
       <c r="J569" s="25"/>
@@ -11698,7 +11768,7 @@
       <c r="D570" s="25"/>
       <c r="E570" s="25"/>
       <c r="F570" s="25"/>
-      <c r="G570" s="25"/>
+      <c r="G570" s="27"/>
       <c r="H570" s="25"/>
       <c r="I570" s="25"/>
       <c r="J570" s="25"/>
@@ -11717,7 +11787,7 @@
       <c r="D571" s="25"/>
       <c r="E571" s="25"/>
       <c r="F571" s="25"/>
-      <c r="G571" s="25"/>
+      <c r="G571" s="27"/>
       <c r="H571" s="25"/>
       <c r="I571" s="25"/>
       <c r="J571" s="25"/>
@@ -11736,7 +11806,7 @@
       <c r="D572" s="25"/>
       <c r="E572" s="25"/>
       <c r="F572" s="25"/>
-      <c r="G572" s="25"/>
+      <c r="G572" s="27"/>
       <c r="H572" s="25"/>
       <c r="I572" s="25"/>
       <c r="J572" s="25"/>
@@ -11755,7 +11825,7 @@
       <c r="D573" s="25"/>
       <c r="E573" s="25"/>
       <c r="F573" s="25"/>
-      <c r="G573" s="25"/>
+      <c r="G573" s="27"/>
       <c r="H573" s="25"/>
       <c r="I573" s="25"/>
       <c r="J573" s="25"/>
@@ -11774,7 +11844,7 @@
       <c r="D574" s="25"/>
       <c r="E574" s="25"/>
       <c r="F574" s="25"/>
-      <c r="G574" s="25"/>
+      <c r="G574" s="27"/>
       <c r="H574" s="25"/>
       <c r="I574" s="25"/>
       <c r="J574" s="25"/>
@@ -11793,7 +11863,7 @@
       <c r="D575" s="25"/>
       <c r="E575" s="25"/>
       <c r="F575" s="25"/>
-      <c r="G575" s="25"/>
+      <c r="G575" s="27"/>
       <c r="H575" s="25"/>
       <c r="I575" s="25"/>
       <c r="J575" s="25"/>
@@ -11812,7 +11882,7 @@
       <c r="D576" s="25"/>
       <c r="E576" s="25"/>
       <c r="F576" s="25"/>
-      <c r="G576" s="25"/>
+      <c r="G576" s="27"/>
       <c r="H576" s="25"/>
       <c r="I576" s="25"/>
       <c r="J576" s="25"/>
@@ -11831,7 +11901,7 @@
       <c r="D577" s="25"/>
       <c r="E577" s="25"/>
       <c r="F577" s="25"/>
-      <c r="G577" s="25"/>
+      <c r="G577" s="27"/>
       <c r="H577" s="25"/>
       <c r="I577" s="25"/>
       <c r="J577" s="25"/>
@@ -11850,7 +11920,7 @@
       <c r="D578" s="25"/>
       <c r="E578" s="25"/>
       <c r="F578" s="25"/>
-      <c r="G578" s="25"/>
+      <c r="G578" s="27"/>
       <c r="H578" s="25"/>
       <c r="I578" s="25"/>
       <c r="J578" s="25"/>
@@ -11869,7 +11939,7 @@
       <c r="D579" s="25"/>
       <c r="E579" s="25"/>
       <c r="F579" s="25"/>
-      <c r="G579" s="25"/>
+      <c r="G579" s="27"/>
       <c r="H579" s="25"/>
       <c r="I579" s="25"/>
       <c r="J579" s="25"/>
@@ -11888,7 +11958,7 @@
       <c r="D580" s="25"/>
       <c r="E580" s="25"/>
       <c r="F580" s="25"/>
-      <c r="G580" s="25"/>
+      <c r="G580" s="27"/>
       <c r="H580" s="25"/>
       <c r="I580" s="25"/>
       <c r="J580" s="25"/>
@@ -11907,7 +11977,7 @@
       <c r="D581" s="25"/>
       <c r="E581" s="25"/>
       <c r="F581" s="25"/>
-      <c r="G581" s="25"/>
+      <c r="G581" s="27"/>
       <c r="H581" s="25"/>
       <c r="I581" s="25"/>
       <c r="J581" s="25"/>
@@ -11926,7 +11996,7 @@
       <c r="D582" s="25"/>
       <c r="E582" s="25"/>
       <c r="F582" s="25"/>
-      <c r="G582" s="25"/>
+      <c r="G582" s="27"/>
       <c r="H582" s="25"/>
       <c r="I582" s="25"/>
       <c r="J582" s="25"/>
@@ -11945,7 +12015,7 @@
       <c r="D583" s="25"/>
       <c r="E583" s="25"/>
       <c r="F583" s="25"/>
-      <c r="G583" s="25"/>
+      <c r="G583" s="27"/>
       <c r="H583" s="25"/>
       <c r="I583" s="25"/>
       <c r="J583" s="25"/>
@@ -11964,7 +12034,7 @@
       <c r="D584" s="25"/>
       <c r="E584" s="25"/>
       <c r="F584" s="25"/>
-      <c r="G584" s="25"/>
+      <c r="G584" s="27"/>
       <c r="H584" s="25"/>
       <c r="I584" s="25"/>
       <c r="J584" s="25"/>
@@ -11983,7 +12053,7 @@
       <c r="D585" s="25"/>
       <c r="E585" s="25"/>
       <c r="F585" s="25"/>
-      <c r="G585" s="25"/>
+      <c r="G585" s="27"/>
       <c r="H585" s="25"/>
       <c r="I585" s="25"/>
       <c r="J585" s="25"/>
@@ -12002,7 +12072,7 @@
       <c r="D586" s="25"/>
       <c r="E586" s="25"/>
       <c r="F586" s="25"/>
-      <c r="G586" s="25"/>
+      <c r="G586" s="27"/>
       <c r="H586" s="25"/>
       <c r="I586" s="25"/>
       <c r="J586" s="25"/>
@@ -12021,7 +12091,7 @@
       <c r="D587" s="25"/>
       <c r="E587" s="25"/>
       <c r="F587" s="25"/>
-      <c r="G587" s="25"/>
+      <c r="G587" s="27"/>
       <c r="H587" s="25"/>
       <c r="I587" s="25"/>
       <c r="J587" s="25"/>
@@ -12040,7 +12110,7 @@
       <c r="D588" s="25"/>
       <c r="E588" s="25"/>
       <c r="F588" s="25"/>
-      <c r="G588" s="25"/>
+      <c r="G588" s="27"/>
       <c r="H588" s="25"/>
       <c r="I588" s="25"/>
       <c r="J588" s="25"/>
@@ -12059,7 +12129,7 @@
       <c r="D589" s="25"/>
       <c r="E589" s="25"/>
       <c r="F589" s="25"/>
-      <c r="G589" s="25"/>
+      <c r="G589" s="27"/>
       <c r="H589" s="25"/>
       <c r="I589" s="25"/>
       <c r="J589" s="25"/>
@@ -12078,7 +12148,7 @@
       <c r="D590" s="25"/>
       <c r="E590" s="25"/>
       <c r="F590" s="25"/>
-      <c r="G590" s="25"/>
+      <c r="G590" s="27"/>
       <c r="H590" s="25"/>
       <c r="I590" s="25"/>
       <c r="J590" s="25"/>
@@ -12097,7 +12167,7 @@
       <c r="D591" s="25"/>
       <c r="E591" s="25"/>
       <c r="F591" s="25"/>
-      <c r="G591" s="25"/>
+      <c r="G591" s="27"/>
       <c r="H591" s="25"/>
       <c r="I591" s="25"/>
       <c r="J591" s="25"/>
@@ -12116,7 +12186,7 @@
       <c r="D592" s="25"/>
       <c r="E592" s="25"/>
       <c r="F592" s="25"/>
-      <c r="G592" s="25"/>
+      <c r="G592" s="27"/>
       <c r="H592" s="25"/>
       <c r="I592" s="25"/>
       <c r="J592" s="25"/>
@@ -12135,7 +12205,7 @@
       <c r="D593" s="25"/>
       <c r="E593" s="25"/>
       <c r="F593" s="25"/>
-      <c r="G593" s="25"/>
+      <c r="G593" s="27"/>
       <c r="H593" s="25"/>
       <c r="I593" s="25"/>
       <c r="J593" s="25"/>
@@ -12154,7 +12224,7 @@
       <c r="D594" s="25"/>
       <c r="E594" s="25"/>
       <c r="F594" s="25"/>
-      <c r="G594" s="25"/>
+      <c r="G594" s="27"/>
       <c r="H594" s="25"/>
       <c r="I594" s="25"/>
       <c r="J594" s="25"/>
@@ -12173,7 +12243,7 @@
       <c r="D595" s="25"/>
       <c r="E595" s="25"/>
       <c r="F595" s="25"/>
-      <c r="G595" s="25"/>
+      <c r="G595" s="27"/>
       <c r="H595" s="25"/>
       <c r="I595" s="25"/>
       <c r="J595" s="25"/>
@@ -12192,7 +12262,7 @@
       <c r="D596" s="25"/>
       <c r="E596" s="25"/>
       <c r="F596" s="25"/>
-      <c r="G596" s="25"/>
+      <c r="G596" s="27"/>
       <c r="H596" s="25"/>
       <c r="I596" s="25"/>
       <c r="J596" s="25"/>
@@ -12211,7 +12281,7 @@
       <c r="D597" s="25"/>
       <c r="E597" s="25"/>
       <c r="F597" s="25"/>
-      <c r="G597" s="25"/>
+      <c r="G597" s="27"/>
       <c r="H597" s="25"/>
       <c r="I597" s="25"/>
       <c r="J597" s="25"/>
@@ -12230,7 +12300,7 @@
       <c r="D598" s="25"/>
       <c r="E598" s="25"/>
       <c r="F598" s="25"/>
-      <c r="G598" s="25"/>
+      <c r="G598" s="27"/>
       <c r="H598" s="25"/>
       <c r="I598" s="25"/>
       <c r="J598" s="25"/>
@@ -12249,7 +12319,7 @@
       <c r="D599" s="25"/>
       <c r="E599" s="25"/>
       <c r="F599" s="25"/>
-      <c r="G599" s="25"/>
+      <c r="G599" s="27"/>
       <c r="H599" s="25"/>
       <c r="I599" s="25"/>
       <c r="J599" s="25"/>
@@ -12268,7 +12338,7 @@
       <c r="D600" s="25"/>
       <c r="E600" s="25"/>
       <c r="F600" s="25"/>
-      <c r="G600" s="25"/>
+      <c r="G600" s="27"/>
       <c r="H600" s="25"/>
       <c r="I600" s="25"/>
       <c r="J600" s="25"/>
@@ -12287,7 +12357,7 @@
       <c r="D601" s="25"/>
       <c r="E601" s="25"/>
       <c r="F601" s="25"/>
-      <c r="G601" s="25"/>
+      <c r="G601" s="27"/>
       <c r="H601" s="25"/>
       <c r="I601" s="25"/>
       <c r="J601" s="25"/>
@@ -12306,7 +12376,7 @@
       <c r="D602" s="25"/>
       <c r="E602" s="25"/>
       <c r="F602" s="25"/>
-      <c r="G602" s="25"/>
+      <c r="G602" s="27"/>
       <c r="H602" s="25"/>
       <c r="I602" s="25"/>
       <c r="J602" s="25"/>
@@ -12325,7 +12395,7 @@
       <c r="D603" s="25"/>
       <c r="E603" s="25"/>
       <c r="F603" s="25"/>
-      <c r="G603" s="25"/>
+      <c r="G603" s="27"/>
       <c r="H603" s="25"/>
       <c r="I603" s="25"/>
       <c r="J603" s="25"/>
@@ -12344,7 +12414,7 @@
       <c r="D604" s="25"/>
       <c r="E604" s="25"/>
       <c r="F604" s="25"/>
-      <c r="G604" s="25"/>
+      <c r="G604" s="27"/>
       <c r="H604" s="25"/>
       <c r="I604" s="25"/>
       <c r="J604" s="25"/>
@@ -12363,7 +12433,7 @@
       <c r="D605" s="25"/>
       <c r="E605" s="25"/>
       <c r="F605" s="25"/>
-      <c r="G605" s="25"/>
+      <c r="G605" s="27"/>
       <c r="H605" s="25"/>
       <c r="I605" s="25"/>
       <c r="J605" s="25"/>
@@ -12382,7 +12452,7 @@
       <c r="D606" s="25"/>
       <c r="E606" s="25"/>
       <c r="F606" s="25"/>
-      <c r="G606" s="25"/>
+      <c r="G606" s="27"/>
       <c r="H606" s="25"/>
       <c r="I606" s="25"/>
       <c r="J606" s="25"/>
@@ -12401,7 +12471,7 @@
       <c r="D607" s="25"/>
       <c r="E607" s="25"/>
       <c r="F607" s="25"/>
-      <c r="G607" s="25"/>
+      <c r="G607" s="27"/>
       <c r="H607" s="25"/>
       <c r="I607" s="25"/>
       <c r="J607" s="25"/>
@@ -12420,7 +12490,7 @@
       <c r="D608" s="25"/>
       <c r="E608" s="25"/>
       <c r="F608" s="25"/>
-      <c r="G608" s="25"/>
+      <c r="G608" s="27"/>
       <c r="H608" s="25"/>
       <c r="I608" s="25"/>
       <c r="J608" s="25"/>
@@ -12439,7 +12509,7 @@
       <c r="D609" s="25"/>
       <c r="E609" s="25"/>
       <c r="F609" s="25"/>
-      <c r="G609" s="25"/>
+      <c r="G609" s="27"/>
       <c r="H609" s="25"/>
       <c r="I609" s="25"/>
       <c r="J609" s="25"/>
@@ -12458,7 +12528,7 @@
       <c r="D610" s="25"/>
       <c r="E610" s="25"/>
       <c r="F610" s="25"/>
-      <c r="G610" s="25"/>
+      <c r="G610" s="27"/>
       <c r="H610" s="25"/>
       <c r="I610" s="25"/>
       <c r="J610" s="25"/>
@@ -12477,7 +12547,7 @@
       <c r="D611" s="25"/>
       <c r="E611" s="25"/>
       <c r="F611" s="25"/>
-      <c r="G611" s="25"/>
+      <c r="G611" s="27"/>
       <c r="H611" s="25"/>
       <c r="I611" s="25"/>
       <c r="J611" s="25"/>
@@ -12496,7 +12566,7 @@
       <c r="D612" s="25"/>
       <c r="E612" s="25"/>
       <c r="F612" s="25"/>
-      <c r="G612" s="25"/>
+      <c r="G612" s="27"/>
       <c r="H612" s="25"/>
       <c r="I612" s="25"/>
       <c r="J612" s="25"/>
@@ -12515,7 +12585,7 @@
       <c r="D613" s="25"/>
       <c r="E613" s="25"/>
       <c r="F613" s="25"/>
-      <c r="G613" s="25"/>
+      <c r="G613" s="27"/>
       <c r="H613" s="25"/>
       <c r="I613" s="25"/>
       <c r="J613" s="25"/>
@@ -12534,7 +12604,7 @@
       <c r="D614" s="25"/>
       <c r="E614" s="25"/>
       <c r="F614" s="25"/>
-      <c r="G614" s="25"/>
+      <c r="G614" s="27"/>
       <c r="H614" s="25"/>
       <c r="I614" s="25"/>
       <c r="J614" s="25"/>
@@ -12553,7 +12623,7 @@
       <c r="D615" s="25"/>
       <c r="E615" s="25"/>
       <c r="F615" s="25"/>
-      <c r="G615" s="25"/>
+      <c r="G615" s="27"/>
       <c r="H615" s="25"/>
       <c r="I615" s="25"/>
       <c r="J615" s="25"/>
@@ -12572,7 +12642,7 @@
       <c r="D616" s="25"/>
       <c r="E616" s="25"/>
       <c r="F616" s="25"/>
-      <c r="G616" s="25"/>
+      <c r="G616" s="27"/>
       <c r="H616" s="25"/>
       <c r="I616" s="25"/>
       <c r="J616" s="25"/>
@@ -12591,7 +12661,7 @@
       <c r="D617" s="25"/>
       <c r="E617" s="25"/>
       <c r="F617" s="25"/>
-      <c r="G617" s="25"/>
+      <c r="G617" s="27"/>
       <c r="H617" s="25"/>
       <c r="I617" s="25"/>
       <c r="J617" s="25"/>
@@ -12610,7 +12680,7 @@
       <c r="D618" s="25"/>
       <c r="E618" s="25"/>
       <c r="F618" s="25"/>
-      <c r="G618" s="25"/>
+      <c r="G618" s="27"/>
       <c r="H618" s="25"/>
       <c r="I618" s="25"/>
       <c r="J618" s="25"/>
@@ -12629,7 +12699,7 @@
       <c r="D619" s="25"/>
       <c r="E619" s="25"/>
       <c r="F619" s="25"/>
-      <c r="G619" s="25"/>
+      <c r="G619" s="27"/>
       <c r="H619" s="25"/>
       <c r="I619" s="25"/>
       <c r="J619" s="25"/>
@@ -12648,7 +12718,7 @@
       <c r="D620" s="25"/>
       <c r="E620" s="25"/>
       <c r="F620" s="25"/>
-      <c r="G620" s="25"/>
+      <c r="G620" s="27"/>
       <c r="H620" s="25"/>
       <c r="I620" s="25"/>
       <c r="J620" s="25"/>
@@ -12667,7 +12737,7 @@
       <c r="D621" s="25"/>
       <c r="E621" s="25"/>
       <c r="F621" s="25"/>
-      <c r="G621" s="25"/>
+      <c r="G621" s="27"/>
       <c r="H621" s="25"/>
       <c r="I621" s="25"/>
       <c r="J621" s="25"/>
@@ -12686,7 +12756,7 @@
       <c r="D622" s="25"/>
       <c r="E622" s="25"/>
       <c r="F622" s="25"/>
-      <c r="G622" s="25"/>
+      <c r="G622" s="27"/>
       <c r="H622" s="25"/>
       <c r="I622" s="25"/>
       <c r="J622" s="25"/>
@@ -12705,7 +12775,7 @@
       <c r="D623" s="25"/>
       <c r="E623" s="25"/>
       <c r="F623" s="25"/>
-      <c r="G623" s="25"/>
+      <c r="G623" s="27"/>
       <c r="H623" s="25"/>
       <c r="I623" s="25"/>
       <c r="J623" s="25"/>
@@ -12724,7 +12794,7 @@
       <c r="D624" s="25"/>
       <c r="E624" s="25"/>
       <c r="F624" s="25"/>
-      <c r="G624" s="25"/>
+      <c r="G624" s="27"/>
       <c r="H624" s="25"/>
       <c r="I624" s="25"/>
       <c r="J624" s="25"/>
@@ -12743,7 +12813,7 @@
       <c r="D625" s="25"/>
       <c r="E625" s="25"/>
       <c r="F625" s="25"/>
-      <c r="G625" s="25"/>
+      <c r="G625" s="27"/>
       <c r="H625" s="25"/>
       <c r="I625" s="25"/>
       <c r="J625" s="25"/>
@@ -12762,7 +12832,7 @@
       <c r="D626" s="25"/>
       <c r="E626" s="25"/>
       <c r="F626" s="25"/>
-      <c r="G626" s="25"/>
+      <c r="G626" s="27"/>
       <c r="H626" s="25"/>
       <c r="I626" s="25"/>
       <c r="J626" s="25"/>
@@ -12781,7 +12851,7 @@
       <c r="D627" s="25"/>
       <c r="E627" s="25"/>
       <c r="F627" s="25"/>
-      <c r="G627" s="25"/>
+      <c r="G627" s="27"/>
       <c r="H627" s="25"/>
       <c r="I627" s="25"/>
       <c r="J627" s="25"/>
@@ -12800,7 +12870,7 @@
       <c r="D628" s="25"/>
       <c r="E628" s="25"/>
       <c r="F628" s="25"/>
-      <c r="G628" s="25"/>
+      <c r="G628" s="27"/>
       <c r="H628" s="25"/>
       <c r="I628" s="25"/>
       <c r="J628" s="25"/>
@@ -12819,7 +12889,7 @@
       <c r="D629" s="25"/>
       <c r="E629" s="25"/>
       <c r="F629" s="25"/>
-      <c r="G629" s="25"/>
+      <c r="G629" s="27"/>
       <c r="H629" s="25"/>
       <c r="I629" s="25"/>
       <c r="J629" s="25"/>
@@ -12838,7 +12908,7 @@
       <c r="D630" s="25"/>
       <c r="E630" s="25"/>
       <c r="F630" s="25"/>
-      <c r="G630" s="25"/>
+      <c r="G630" s="27"/>
       <c r="H630" s="25"/>
       <c r="I630" s="25"/>
       <c r="J630" s="25"/>
@@ -12857,7 +12927,7 @@
       <c r="D631" s="25"/>
       <c r="E631" s="25"/>
       <c r="F631" s="25"/>
-      <c r="G631" s="25"/>
+      <c r="G631" s="27"/>
       <c r="H631" s="25"/>
       <c r="I631" s="25"/>
       <c r="J631" s="25"/>
@@ -12876,7 +12946,7 @@
       <c r="D632" s="25"/>
       <c r="E632" s="25"/>
       <c r="F632" s="25"/>
-      <c r="G632" s="25"/>
+      <c r="G632" s="27"/>
       <c r="H632" s="25"/>
       <c r="I632" s="25"/>
       <c r="J632" s="25"/>
@@ -12895,7 +12965,7 @@
       <c r="D633" s="25"/>
       <c r="E633" s="25"/>
       <c r="F633" s="25"/>
-      <c r="G633" s="25"/>
+      <c r="G633" s="27"/>
       <c r="H633" s="25"/>
       <c r="I633" s="25"/>
       <c r="J633" s="25"/>
@@ -12914,7 +12984,7 @@
       <c r="D634" s="25"/>
       <c r="E634" s="25"/>
       <c r="F634" s="25"/>
-      <c r="G634" s="25"/>
+      <c r="G634" s="27"/>
       <c r="H634" s="25"/>
       <c r="I634" s="25"/>
       <c r="J634" s="25"/>
@@ -12933,7 +13003,7 @@
       <c r="D635" s="25"/>
       <c r="E635" s="25"/>
       <c r="F635" s="25"/>
-      <c r="G635" s="25"/>
+      <c r="G635" s="27"/>
       <c r="H635" s="25"/>
       <c r="I635" s="25"/>
       <c r="J635" s="25"/>
@@ -12952,7 +13022,7 @@
       <c r="D636" s="25"/>
       <c r="E636" s="25"/>
       <c r="F636" s="25"/>
-      <c r="G636" s="25"/>
+      <c r="G636" s="27"/>
       <c r="H636" s="25"/>
       <c r="I636" s="25"/>
       <c r="J636" s="25"/>
@@ -12971,7 +13041,7 @@
       <c r="D637" s="25"/>
       <c r="E637" s="25"/>
       <c r="F637" s="25"/>
-      <c r="G637" s="25"/>
+      <c r="G637" s="27"/>
       <c r="H637" s="25"/>
       <c r="I637" s="25"/>
       <c r="J637" s="25"/>
@@ -12990,7 +13060,7 @@
       <c r="D638" s="25"/>
       <c r="E638" s="25"/>
       <c r="F638" s="25"/>
-      <c r="G638" s="25"/>
+      <c r="G638" s="27"/>
       <c r="H638" s="25"/>
       <c r="I638" s="25"/>
       <c r="J638" s="25"/>
@@ -13009,7 +13079,7 @@
       <c r="D639" s="25"/>
       <c r="E639" s="25"/>
       <c r="F639" s="25"/>
-      <c r="G639" s="25"/>
+      <c r="G639" s="27"/>
       <c r="H639" s="25"/>
       <c r="I639" s="25"/>
       <c r="J639" s="25"/>
@@ -13028,7 +13098,7 @@
       <c r="D640" s="25"/>
       <c r="E640" s="25"/>
       <c r="F640" s="25"/>
-      <c r="G640" s="25"/>
+      <c r="G640" s="27"/>
       <c r="H640" s="25"/>
       <c r="I640" s="25"/>
       <c r="J640" s="25"/>
@@ -13047,7 +13117,7 @@
       <c r="D641" s="25"/>
       <c r="E641" s="25"/>
       <c r="F641" s="25"/>
-      <c r="G641" s="25"/>
+      <c r="G641" s="27"/>
       <c r="H641" s="25"/>
       <c r="I641" s="25"/>
       <c r="J641" s="25"/>
@@ -13066,7 +13136,7 @@
       <c r="D642" s="25"/>
       <c r="E642" s="25"/>
       <c r="F642" s="25"/>
-      <c r="G642" s="25"/>
+      <c r="G642" s="27"/>
       <c r="H642" s="25"/>
       <c r="I642" s="25"/>
       <c r="J642" s="25"/>
@@ -13085,7 +13155,7 @@
       <c r="D643" s="25"/>
       <c r="E643" s="25"/>
       <c r="F643" s="25"/>
-      <c r="G643" s="25"/>
+      <c r="G643" s="27"/>
       <c r="H643" s="25"/>
       <c r="I643" s="25"/>
       <c r="J643" s="25"/>
@@ -13104,7 +13174,7 @@
       <c r="D644" s="25"/>
       <c r="E644" s="25"/>
       <c r="F644" s="25"/>
-      <c r="G644" s="25"/>
+      <c r="G644" s="27"/>
       <c r="H644" s="25"/>
       <c r="I644" s="25"/>
       <c r="J644" s="25"/>
@@ -13123,7 +13193,7 @@
       <c r="D645" s="25"/>
       <c r="E645" s="25"/>
       <c r="F645" s="25"/>
-      <c r="G645" s="25"/>
+      <c r="G645" s="27"/>
       <c r="H645" s="25"/>
       <c r="I645" s="25"/>
       <c r="J645" s="25"/>
@@ -13142,7 +13212,7 @@
       <c r="D646" s="25"/>
       <c r="E646" s="25"/>
       <c r="F646" s="25"/>
-      <c r="G646" s="25"/>
+      <c r="G646" s="27"/>
       <c r="H646" s="25"/>
       <c r="I646" s="25"/>
       <c r="J646" s="25"/>
@@ -13161,7 +13231,7 @@
       <c r="D647" s="25"/>
       <c r="E647" s="25"/>
       <c r="F647" s="25"/>
-      <c r="G647" s="25"/>
+      <c r="G647" s="27"/>
       <c r="H647" s="25"/>
       <c r="I647" s="25"/>
       <c r="J647" s="25"/>
@@ -13180,7 +13250,7 @@
       <c r="D648" s="25"/>
       <c r="E648" s="25"/>
       <c r="F648" s="25"/>
-      <c r="G648" s="25"/>
+      <c r="G648" s="27"/>
       <c r="H648" s="25"/>
       <c r="I648" s="25"/>
       <c r="J648" s="25"/>
@@ -13199,7 +13269,7 @@
       <c r="D649" s="25"/>
       <c r="E649" s="25"/>
       <c r="F649" s="25"/>
-      <c r="G649" s="25"/>
+      <c r="G649" s="27"/>
       <c r="H649" s="25"/>
       <c r="I649" s="25"/>
       <c r="J649" s="25"/>
@@ -13218,7 +13288,7 @@
       <c r="D650" s="25"/>
       <c r="E650" s="25"/>
       <c r="F650" s="25"/>
-      <c r="G650" s="25"/>
+      <c r="G650" s="27"/>
       <c r="H650" s="25"/>
       <c r="I650" s="25"/>
       <c r="J650" s="25"/>
@@ -13237,7 +13307,7 @@
       <c r="D651" s="25"/>
       <c r="E651" s="25"/>
       <c r="F651" s="25"/>
-      <c r="G651" s="25"/>
+      <c r="G651" s="27"/>
       <c r="H651" s="25"/>
       <c r="I651" s="25"/>
       <c r="J651" s="25"/>
@@ -13256,7 +13326,7 @@
       <c r="D652" s="25"/>
       <c r="E652" s="25"/>
       <c r="F652" s="25"/>
-      <c r="G652" s="25"/>
+      <c r="G652" s="27"/>
       <c r="H652" s="25"/>
       <c r="I652" s="25"/>
       <c r="J652" s="25"/>
@@ -13275,7 +13345,7 @@
       <c r="D653" s="25"/>
       <c r="E653" s="25"/>
       <c r="F653" s="25"/>
-      <c r="G653" s="25"/>
+      <c r="G653" s="27"/>
       <c r="H653" s="25"/>
       <c r="I653" s="25"/>
       <c r="J653" s="25"/>
@@ -13294,7 +13364,7 @@
       <c r="D654" s="25"/>
       <c r="E654" s="25"/>
       <c r="F654" s="25"/>
-      <c r="G654" s="25"/>
+      <c r="G654" s="27"/>
       <c r="H654" s="25"/>
       <c r="I654" s="25"/>
       <c r="J654" s="25"/>
@@ -13313,7 +13383,7 @@
       <c r="D655" s="25"/>
       <c r="E655" s="25"/>
       <c r="F655" s="25"/>
-      <c r="G655" s="25"/>
+      <c r="G655" s="27"/>
       <c r="H655" s="25"/>
       <c r="I655" s="25"/>
       <c r="J655" s="25"/>
@@ -13332,7 +13402,7 @@
       <c r="D656" s="25"/>
       <c r="E656" s="25"/>
       <c r="F656" s="25"/>
-      <c r="G656" s="25"/>
+      <c r="G656" s="27"/>
       <c r="H656" s="25"/>
       <c r="I656" s="25"/>
       <c r="J656" s="25"/>
@@ -13351,7 +13421,7 @@
       <c r="D657" s="25"/>
       <c r="E657" s="25"/>
       <c r="F657" s="25"/>
-      <c r="G657" s="25"/>
+      <c r="G657" s="27"/>
       <c r="H657" s="25"/>
       <c r="I657" s="25"/>
       <c r="J657" s="25"/>
@@ -13370,7 +13440,7 @@
       <c r="D658" s="25"/>
       <c r="E658" s="25"/>
       <c r="F658" s="25"/>
-      <c r="G658" s="25"/>
+      <c r="G658" s="27"/>
       <c r="H658" s="25"/>
       <c r="I658" s="25"/>
       <c r="J658" s="25"/>
@@ -13389,7 +13459,7 @@
       <c r="D659" s="25"/>
       <c r="E659" s="25"/>
       <c r="F659" s="25"/>
-      <c r="G659" s="25"/>
+      <c r="G659" s="27"/>
       <c r="H659" s="25"/>
       <c r="I659" s="25"/>
       <c r="J659" s="25"/>
@@ -13408,7 +13478,7 @@
       <c r="D660" s="25"/>
       <c r="E660" s="25"/>
       <c r="F660" s="25"/>
-      <c r="G660" s="25"/>
+      <c r="G660" s="27"/>
       <c r="H660" s="25"/>
       <c r="I660" s="25"/>
       <c r="J660" s="25"/>
@@ -13427,7 +13497,7 @@
       <c r="D661" s="25"/>
       <c r="E661" s="25"/>
       <c r="F661" s="25"/>
-      <c r="G661" s="25"/>
+      <c r="G661" s="27"/>
       <c r="H661" s="25"/>
       <c r="I661" s="25"/>
       <c r="J661" s="25"/>
@@ -13446,7 +13516,7 @@
       <c r="D662" s="25"/>
       <c r="E662" s="25"/>
       <c r="F662" s="25"/>
-      <c r="G662" s="25"/>
+      <c r="G662" s="27"/>
       <c r="H662" s="25"/>
       <c r="I662" s="25"/>
       <c r="J662" s="25"/>
@@ -13465,7 +13535,7 @@
       <c r="D663" s="25"/>
       <c r="E663" s="25"/>
       <c r="F663" s="25"/>
-      <c r="G663" s="25"/>
+      <c r="G663" s="27"/>
       <c r="H663" s="25"/>
       <c r="I663" s="25"/>
       <c r="J663" s="25"/>
@@ -13484,7 +13554,7 @@
       <c r="D664" s="25"/>
       <c r="E664" s="25"/>
       <c r="F664" s="25"/>
-      <c r="G664" s="25"/>
+      <c r="G664" s="27"/>
       <c r="H664" s="25"/>
       <c r="I664" s="25"/>
       <c r="J664" s="25"/>
@@ -13503,7 +13573,7 @@
       <c r="D665" s="25"/>
       <c r="E665" s="25"/>
       <c r="F665" s="25"/>
-      <c r="G665" s="25"/>
+      <c r="G665" s="27"/>
       <c r="H665" s="25"/>
       <c r="I665" s="25"/>
       <c r="J665" s="25"/>
@@ -13522,7 +13592,7 @@
       <c r="D666" s="25"/>
       <c r="E666" s="25"/>
       <c r="F666" s="25"/>
-      <c r="G666" s="25"/>
+      <c r="G666" s="27"/>
       <c r="H666" s="25"/>
       <c r="I666" s="25"/>
       <c r="J666" s="25"/>
@@ -13541,7 +13611,7 @@
       <c r="D667" s="25"/>
       <c r="E667" s="25"/>
       <c r="F667" s="25"/>
-      <c r="G667" s="25"/>
+      <c r="G667" s="27"/>
       <c r="H667" s="25"/>
       <c r="I667" s="25"/>
       <c r="J667" s="25"/>
@@ -13560,7 +13630,7 @@
       <c r="D668" s="25"/>
       <c r="E668" s="25"/>
       <c r="F668" s="25"/>
-      <c r="G668" s="25"/>
+      <c r="G668" s="27"/>
       <c r="H668" s="25"/>
       <c r="I668" s="25"/>
       <c r="J668" s="25"/>
@@ -13579,7 +13649,7 @@
       <c r="D669" s="25"/>
       <c r="E669" s="25"/>
       <c r="F669" s="25"/>
-      <c r="G669" s="25"/>
+      <c r="G669" s="27"/>
       <c r="H669" s="25"/>
       <c r="I669" s="25"/>
       <c r="J669" s="25"/>
@@ -13598,7 +13668,7 @@
       <c r="D670" s="25"/>
       <c r="E670" s="25"/>
       <c r="F670" s="25"/>
-      <c r="G670" s="25"/>
+      <c r="G670" s="27"/>
       <c r="H670" s="25"/>
       <c r="I670" s="25"/>
       <c r="J670" s="25"/>
@@ -13617,7 +13687,7 @@
       <c r="D671" s="25"/>
       <c r="E671" s="25"/>
       <c r="F671" s="25"/>
-      <c r="G671" s="25"/>
+      <c r="G671" s="27"/>
       <c r="H671" s="25"/>
       <c r="I671" s="25"/>
       <c r="J671" s="25"/>
@@ -13636,7 +13706,7 @@
       <c r="D672" s="25"/>
       <c r="E672" s="25"/>
       <c r="F672" s="25"/>
-      <c r="G672" s="25"/>
+      <c r="G672" s="27"/>
       <c r="H672" s="25"/>
       <c r="I672" s="25"/>
       <c r="J672" s="25"/>
@@ -13655,7 +13725,7 @@
       <c r="D673" s="25"/>
       <c r="E673" s="25"/>
       <c r="F673" s="25"/>
-      <c r="G673" s="25"/>
+      <c r="G673" s="27"/>
       <c r="H673" s="25"/>
       <c r="I673" s="25"/>
       <c r="J673" s="25"/>
@@ -13674,7 +13744,7 @@
       <c r="D674" s="25"/>
       <c r="E674" s="25"/>
       <c r="F674" s="25"/>
-      <c r="G674" s="25"/>
+      <c r="G674" s="27"/>
       <c r="H674" s="25"/>
       <c r="I674" s="25"/>
       <c r="J674" s="25"/>
@@ -13693,7 +13763,7 @@
       <c r="D675" s="25"/>
       <c r="E675" s="25"/>
       <c r="F675" s="25"/>
-      <c r="G675" s="25"/>
+      <c r="G675" s="27"/>
       <c r="H675" s="25"/>
       <c r="I675" s="25"/>
       <c r="J675" s="25"/>
@@ -13712,7 +13782,7 @@
       <c r="D676" s="25"/>
       <c r="E676" s="25"/>
       <c r="F676" s="25"/>
-      <c r="G676" s="25"/>
+      <c r="G676" s="27"/>
       <c r="H676" s="25"/>
       <c r="I676" s="25"/>
       <c r="J676" s="25"/>
@@ -13731,7 +13801,7 @@
       <c r="D677" s="25"/>
       <c r="E677" s="25"/>
       <c r="F677" s="25"/>
-      <c r="G677" s="25"/>
+      <c r="G677" s="27"/>
       <c r="H677" s="25"/>
       <c r="I677" s="25"/>
       <c r="J677" s="25"/>
@@ -13750,7 +13820,7 @@
       <c r="D678" s="25"/>
       <c r="E678" s="25"/>
       <c r="F678" s="25"/>
-      <c r="G678" s="25"/>
+      <c r="G678" s="27"/>
       <c r="H678" s="25"/>
       <c r="I678" s="25"/>
       <c r="J678" s="25"/>
@@ -13769,7 +13839,7 @@
       <c r="D679" s="25"/>
       <c r="E679" s="25"/>
       <c r="F679" s="25"/>
-      <c r="G679" s="25"/>
+      <c r="G679" s="27"/>
       <c r="H679" s="25"/>
       <c r="I679" s="25"/>
       <c r="J679" s="25"/>
@@ -13788,7 +13858,7 @@
       <c r="D680" s="25"/>
       <c r="E680" s="25"/>
       <c r="F680" s="25"/>
-      <c r="G680" s="25"/>
+      <c r="G680" s="27"/>
       <c r="H680" s="25"/>
       <c r="I680" s="25"/>
       <c r="J680" s="25"/>
@@ -13807,7 +13877,7 @@
       <c r="D681" s="25"/>
       <c r="E681" s="25"/>
       <c r="F681" s="25"/>
-      <c r="G681" s="25"/>
+      <c r="G681" s="27"/>
       <c r="H681" s="25"/>
       <c r="I681" s="25"/>
       <c r="J681" s="25"/>
@@ -13826,7 +13896,7 @@
       <c r="D682" s="25"/>
       <c r="E682" s="25"/>
       <c r="F682" s="25"/>
-      <c r="G682" s="25"/>
+      <c r="G682" s="27"/>
       <c r="H682" s="25"/>
       <c r="I682" s="25"/>
       <c r="J682" s="25"/>
@@ -13845,7 +13915,7 @@
       <c r="D683" s="25"/>
       <c r="E683" s="25"/>
       <c r="F683" s="25"/>
-      <c r="G683" s="25"/>
+      <c r="G683" s="27"/>
       <c r="H683" s="25"/>
       <c r="I683" s="25"/>
       <c r="J683" s="25"/>
@@ -13864,7 +13934,7 @@
       <c r="D684" s="25"/>
       <c r="E684" s="25"/>
       <c r="F684" s="25"/>
-      <c r="G684" s="25"/>
+      <c r="G684" s="27"/>
       <c r="H684" s="25"/>
       <c r="I684" s="25"/>
       <c r="J684" s="25"/>
@@ -13883,7 +13953,7 @@
       <c r="D685" s="25"/>
       <c r="E685" s="25"/>
       <c r="F685" s="25"/>
-      <c r="G685" s="25"/>
+      <c r="G685" s="27"/>
       <c r="H685" s="25"/>
       <c r="I685" s="25"/>
       <c r="J685" s="25"/>
@@ -13902,7 +13972,7 @@
       <c r="D686" s="25"/>
       <c r="E686" s="25"/>
       <c r="F686" s="25"/>
-      <c r="G686" s="25"/>
+      <c r="G686" s="27"/>
       <c r="H686" s="25"/>
       <c r="I686" s="25"/>
       <c r="J686" s="25"/>
@@ -13921,7 +13991,7 @@
       <c r="D687" s="25"/>
       <c r="E687" s="25"/>
       <c r="F687" s="25"/>
-      <c r="G687" s="25"/>
+      <c r="G687" s="27"/>
       <c r="H687" s="25"/>
       <c r="I687" s="25"/>
       <c r="J687" s="25"/>
@@ -13940,7 +14010,7 @@
       <c r="D688" s="25"/>
       <c r="E688" s="25"/>
       <c r="F688" s="25"/>
-      <c r="G688" s="25"/>
+      <c r="G688" s="27"/>
       <c r="H688" s="25"/>
       <c r="I688" s="25"/>
       <c r="J688" s="25"/>
@@ -13959,7 +14029,7 @@
       <c r="D689" s="25"/>
       <c r="E689" s="25"/>
       <c r="F689" s="25"/>
-      <c r="G689" s="25"/>
+      <c r="G689" s="27"/>
       <c r="H689" s="25"/>
       <c r="I689" s="25"/>
       <c r="J689" s="25"/>
@@ -13978,7 +14048,7 @@
       <c r="D690" s="25"/>
       <c r="E690" s="25"/>
       <c r="F690" s="25"/>
-      <c r="G690" s="25"/>
+      <c r="G690" s="27"/>
       <c r="H690" s="25"/>
       <c r="I690" s="25"/>
       <c r="J690" s="25"/>
@@ -13997,7 +14067,7 @@
       <c r="D691" s="25"/>
       <c r="E691" s="25"/>
       <c r="F691" s="25"/>
-      <c r="G691" s="25"/>
+      <c r="G691" s="27"/>
       <c r="H691" s="25"/>
       <c r="I691" s="25"/>
       <c r="J691" s="25"/>
@@ -14016,7 +14086,7 @@
       <c r="D692" s="25"/>
       <c r="E692" s="25"/>
       <c r="F692" s="25"/>
-      <c r="G692" s="25"/>
+      <c r="G692" s="27"/>
       <c r="H692" s="25"/>
       <c r="I692" s="25"/>
       <c r="J692" s="25"/>
@@ -14035,7 +14105,7 @@
       <c r="D693" s="25"/>
       <c r="E693" s="25"/>
       <c r="F693" s="25"/>
-      <c r="G693" s="25"/>
+      <c r="G693" s="27"/>
       <c r="H693" s="25"/>
       <c r="I693" s="25"/>
       <c r="J693" s="25"/>
@@ -14054,7 +14124,7 @@
       <c r="D694" s="25"/>
       <c r="E694" s="25"/>
       <c r="F694" s="25"/>
-      <c r="G694" s="25"/>
+      <c r="G694" s="27"/>
       <c r="H694" s="25"/>
       <c r="I694" s="25"/>
       <c r="J694" s="25"/>
@@ -14073,7 +14143,7 @@
       <c r="D695" s="25"/>
       <c r="E695" s="25"/>
       <c r="F695" s="25"/>
-      <c r="G695" s="25"/>
+      <c r="G695" s="27"/>
       <c r="H695" s="25"/>
       <c r="I695" s="25"/>
       <c r="J695" s="25"/>
@@ -14092,7 +14162,7 @@
       <c r="D696" s="25"/>
       <c r="E696" s="25"/>
       <c r="F696" s="25"/>
-      <c r="G696" s="25"/>
+      <c r="G696" s="27"/>
       <c r="H696" s="25"/>
       <c r="I696" s="25"/>
       <c r="J696" s="25"/>
@@ -14111,7 +14181,7 @@
       <c r="D697" s="25"/>
       <c r="E697" s="25"/>
       <c r="F697" s="25"/>
-      <c r="G697" s="25"/>
+      <c r="G697" s="27"/>
       <c r="H697" s="25"/>
       <c r="I697" s="25"/>
       <c r="J697" s="25"/>
@@ -14130,7 +14200,7 @@
       <c r="D698" s="25"/>
       <c r="E698" s="25"/>
       <c r="F698" s="25"/>
-      <c r="G698" s="25"/>
+      <c r="G698" s="27"/>
       <c r="H698" s="25"/>
       <c r="I698" s="25"/>
       <c r="J698" s="25"/>
@@ -14149,7 +14219,7 @@
       <c r="D699" s="25"/>
       <c r="E699" s="25"/>
       <c r="F699" s="25"/>
-      <c r="G699" s="25"/>
+      <c r="G699" s="27"/>
       <c r="H699" s="25"/>
       <c r="I699" s="25"/>
       <c r="J699" s="25"/>
@@ -14168,7 +14238,7 @@
       <c r="D700" s="25"/>
       <c r="E700" s="25"/>
       <c r="F700" s="25"/>
-      <c r="G700" s="25"/>
+      <c r="G700" s="27"/>
       <c r="H700" s="25"/>
       <c r="I700" s="25"/>
       <c r="J700" s="25"/>
@@ -14187,7 +14257,7 @@
       <c r="D701" s="25"/>
       <c r="E701" s="25"/>
       <c r="F701" s="25"/>
-      <c r="G701" s="25"/>
+      <c r="G701" s="27"/>
       <c r="H701" s="25"/>
       <c r="I701" s="25"/>
       <c r="J701" s="25"/>
@@ -14206,7 +14276,7 @@
       <c r="D702" s="25"/>
       <c r="E702" s="25"/>
       <c r="F702" s="25"/>
-      <c r="G702" s="25"/>
+      <c r="G702" s="27"/>
       <c r="H702" s="25"/>
       <c r="I702" s="25"/>
       <c r="J702" s="25"/>
@@ -14225,7 +14295,7 @@
       <c r="D703" s="25"/>
       <c r="E703" s="25"/>
       <c r="F703" s="25"/>
-      <c r="G703" s="25"/>
+      <c r="G703" s="27"/>
       <c r="H703" s="25"/>
       <c r="I703" s="25"/>
       <c r="J703" s="25"/>
@@ -14244,7 +14314,7 @@
       <c r="D704" s="25"/>
       <c r="E704" s="25"/>
       <c r="F704" s="25"/>
-      <c r="G704" s="25"/>
+      <c r="G704" s="27"/>
       <c r="H704" s="25"/>
       <c r="I704" s="25"/>
       <c r="J704" s="25"/>
@@ -14263,7 +14333,7 @@
       <c r="D705" s="25"/>
       <c r="E705" s="25"/>
       <c r="F705" s="25"/>
-      <c r="G705" s="25"/>
+      <c r="G705" s="27"/>
       <c r="H705" s="25"/>
       <c r="I705" s="25"/>
       <c r="J705" s="25"/>
@@ -14282,7 +14352,7 @@
       <c r="D706" s="25"/>
       <c r="E706" s="25"/>
       <c r="F706" s="25"/>
-      <c r="G706" s="25"/>
+      <c r="G706" s="27"/>
       <c r="H706" s="25"/>
       <c r="I706" s="25"/>
       <c r="J706" s="25"/>
@@ -14301,7 +14371,7 @@
       <c r="D707" s="25"/>
       <c r="E707" s="25"/>
       <c r="F707" s="25"/>
-      <c r="G707" s="25"/>
+      <c r="G707" s="27"/>
       <c r="H707" s="25"/>
       <c r="I707" s="25"/>
       <c r="J707" s="25"/>
@@ -14320,7 +14390,7 @@
       <c r="D708" s="25"/>
       <c r="E708" s="25"/>
       <c r="F708" s="25"/>
-      <c r="G708" s="25"/>
+      <c r="G708" s="27"/>
       <c r="H708" s="25"/>
       <c r="I708" s="25"/>
       <c r="J708" s="25"/>
@@ -14339,7 +14409,7 @@
       <c r="D709" s="25"/>
       <c r="E709" s="25"/>
       <c r="F709" s="25"/>
-      <c r="G709" s="25"/>
+      <c r="G709" s="27"/>
       <c r="H709" s="25"/>
       <c r="I709" s="25"/>
       <c r="J709" s="25"/>
@@ -14358,7 +14428,7 @@
       <c r="D710" s="25"/>
       <c r="E710" s="25"/>
       <c r="F710" s="25"/>
-      <c r="G710" s="25"/>
+      <c r="G710" s="27"/>
       <c r="H710" s="25"/>
       <c r="I710" s="25"/>
       <c r="J710" s="25"/>
@@ -14377,7 +14447,7 @@
       <c r="D711" s="25"/>
       <c r="E711" s="25"/>
       <c r="F711" s="25"/>
-      <c r="G711" s="25"/>
+      <c r="G711" s="27"/>
       <c r="H711" s="25"/>
       <c r="I711" s="25"/>
       <c r="J711" s="25"/>
@@ -14396,7 +14466,7 @@
       <c r="D712" s="25"/>
       <c r="E712" s="25"/>
       <c r="F712" s="25"/>
-      <c r="G712" s="25"/>
+      <c r="G712" s="27"/>
       <c r="H712" s="25"/>
       <c r="I712" s="25"/>
       <c r="J712" s="25"/>
@@ -14415,7 +14485,7 @@
       <c r="D713" s="25"/>
       <c r="E713" s="25"/>
       <c r="F713" s="25"/>
-      <c r="G713" s="25"/>
+      <c r="G713" s="27"/>
       <c r="H713" s="25"/>
       <c r="I713" s="25"/>
       <c r="J713" s="25"/>
@@ -14434,7 +14504,7 @@
       <c r="D714" s="25"/>
       <c r="E714" s="25"/>
       <c r="F714" s="25"/>
-      <c r="G714" s="25"/>
+      <c r="G714" s="27"/>
       <c r="H714" s="25"/>
       <c r="I714" s="25"/>
       <c r="J714" s="25"/>
@@ -14453,7 +14523,7 @@
       <c r="D715" s="25"/>
       <c r="E715" s="25"/>
       <c r="F715" s="25"/>
-      <c r="G715" s="25"/>
+      <c r="G715" s="27"/>
       <c r="H715" s="25"/>
       <c r="I715" s="25"/>
       <c r="J715" s="25"/>
@@ -14472,7 +14542,7 @@
       <c r="D716" s="25"/>
       <c r="E716" s="25"/>
       <c r="F716" s="25"/>
-      <c r="G716" s="25"/>
+      <c r="G716" s="27"/>
       <c r="H716" s="25"/>
       <c r="I716" s="25"/>
       <c r="J716" s="25"/>
@@ -14491,7 +14561,7 @@
       <c r="D717" s="25"/>
       <c r="E717" s="25"/>
       <c r="F717" s="25"/>
-      <c r="G717" s="25"/>
+      <c r="G717" s="27"/>
       <c r="H717" s="25"/>
       <c r="I717" s="25"/>
       <c r="J717" s="25"/>
@@ -14510,7 +14580,7 @@
       <c r="D718" s="25"/>
       <c r="E718" s="25"/>
       <c r="F718" s="25"/>
-      <c r="G718" s="25"/>
+      <c r="G718" s="27"/>
       <c r="H718" s="25"/>
       <c r="I718" s="25"/>
       <c r="J718" s="25"/>
@@ -14529,7 +14599,7 @@
       <c r="D719" s="25"/>
       <c r="E719" s="25"/>
       <c r="F719" s="25"/>
-      <c r="G719" s="25"/>
+      <c r="G719" s="27"/>
       <c r="H719" s="25"/>
       <c r="I719" s="25"/>
       <c r="J719" s="25"/>
@@ -14548,7 +14618,7 @@
       <c r="D720" s="25"/>
       <c r="E720" s="25"/>
       <c r="F720" s="25"/>
-      <c r="G720" s="25"/>
+      <c r="G720" s="27"/>
       <c r="H720" s="25"/>
       <c r="I720" s="25"/>
       <c r="J720" s="25"/>
@@ -14567,7 +14637,7 @@
       <c r="D721" s="25"/>
       <c r="E721" s="25"/>
       <c r="F721" s="25"/>
-      <c r="G721" s="25"/>
+      <c r="G721" s="27"/>
       <c r="H721" s="25"/>
       <c r="I721" s="25"/>
       <c r="J721" s="25"/>
@@ -14586,7 +14656,7 @@
       <c r="D722" s="25"/>
       <c r="E722" s="25"/>
       <c r="F722" s="25"/>
-      <c r="G722" s="25"/>
+      <c r="G722" s="27"/>
       <c r="H722" s="25"/>
       <c r="I722" s="25"/>
       <c r="J722" s="25"/>
@@ -14605,7 +14675,7 @@
       <c r="D723" s="25"/>
       <c r="E723" s="25"/>
       <c r="F723" s="25"/>
-      <c r="G723" s="25"/>
+      <c r="G723" s="27"/>
       <c r="H723" s="25"/>
       <c r="I723" s="25"/>
       <c r="J723" s="25"/>
@@ -14624,7 +14694,7 @@
       <c r="D724" s="25"/>
       <c r="E724" s="25"/>
       <c r="F724" s="25"/>
-      <c r="G724" s="25"/>
+      <c r="G724" s="27"/>
       <c r="H724" s="25"/>
       <c r="I724" s="25"/>
       <c r="J724" s="25"/>
@@ -14643,7 +14713,7 @@
       <c r="D725" s="25"/>
       <c r="E725" s="25"/>
       <c r="F725" s="25"/>
-      <c r="G725" s="25"/>
+      <c r="G725" s="27"/>
       <c r="H725" s="25"/>
       <c r="I725" s="25"/>
       <c r="J725" s="25"/>
@@ -14662,7 +14732,7 @@
       <c r="D726" s="25"/>
       <c r="E726" s="25"/>
       <c r="F726" s="25"/>
-      <c r="G726" s="25"/>
+      <c r="G726" s="27"/>
       <c r="H726" s="25"/>
       <c r="I726" s="25"/>
       <c r="J726" s="25"/>
@@ -14681,7 +14751,7 @@
       <c r="D727" s="25"/>
       <c r="E727" s="25"/>
       <c r="F727" s="25"/>
-      <c r="G727" s="25"/>
+      <c r="G727" s="27"/>
       <c r="H727" s="25"/>
       <c r="I727" s="25"/>
       <c r="J727" s="25"/>
@@ -14700,7 +14770,7 @@
       <c r="D728" s="25"/>
       <c r="E728" s="25"/>
       <c r="F728" s="25"/>
-      <c r="G728" s="25"/>
+      <c r="G728" s="27"/>
       <c r="H728" s="25"/>
       <c r="I728" s="25"/>
       <c r="J728" s="25"/>
@@ -14719,7 +14789,7 @@
       <c r="D729" s="25"/>
       <c r="E729" s="25"/>
       <c r="F729" s="25"/>
-      <c r="G729" s="25"/>
+      <c r="G729" s="27"/>
       <c r="H729" s="25"/>
       <c r="I729" s="25"/>
       <c r="J729" s="25"/>
@@ -14738,7 +14808,7 @@
       <c r="D730" s="25"/>
       <c r="E730" s="25"/>
       <c r="F730" s="25"/>
-      <c r="G730" s="25"/>
+      <c r="G730" s="27"/>
       <c r="H730" s="25"/>
       <c r="I730" s="25"/>
       <c r="J730" s="25"/>
@@ -14757,7 +14827,7 @@
       <c r="D731" s="25"/>
       <c r="E731" s="25"/>
       <c r="F731" s="25"/>
-      <c r="G731" s="25"/>
+      <c r="G731" s="27"/>
       <c r="H731" s="25"/>
       <c r="I731" s="25"/>
       <c r="J731" s="25"/>
@@ -14776,7 +14846,7 @@
       <c r="D732" s="25"/>
       <c r="E732" s="25"/>
       <c r="F732" s="25"/>
-      <c r="G732" s="25"/>
+      <c r="G732" s="27"/>
       <c r="H732" s="25"/>
       <c r="I732" s="25"/>
       <c r="J732" s="25"/>
@@ -14795,7 +14865,7 @@
       <c r="D733" s="25"/>
       <c r="E733" s="25"/>
       <c r="F733" s="25"/>
-      <c r="G733" s="25"/>
+      <c r="G733" s="27"/>
       <c r="H733" s="25"/>
       <c r="I733" s="25"/>
       <c r="J733" s="25"/>
@@ -14814,7 +14884,7 @@
       <c r="D734" s="25"/>
       <c r="E734" s="25"/>
       <c r="F734" s="25"/>
-      <c r="G734" s="25"/>
+      <c r="G734" s="27"/>
       <c r="H734" s="25"/>
       <c r="I734" s="25"/>
       <c r="J734" s="25"/>
@@ -14833,7 +14903,7 @@
       <c r="D735" s="25"/>
       <c r="E735" s="25"/>
       <c r="F735" s="25"/>
-      <c r="G735" s="25"/>
+      <c r="G735" s="27"/>
       <c r="H735" s="25"/>
       <c r="I735" s="25"/>
       <c r="J735" s="25"/>
@@ -14852,7 +14922,7 @@
       <c r="D736" s="25"/>
       <c r="E736" s="25"/>
       <c r="F736" s="25"/>
-      <c r="G736" s="25"/>
+      <c r="G736" s="27"/>
       <c r="H736" s="25"/>
       <c r="I736" s="25"/>
       <c r="J736" s="25"/>
@@ -14871,7 +14941,7 @@
       <c r="D737" s="25"/>
       <c r="E737" s="25"/>
       <c r="F737" s="25"/>
-      <c r="G737" s="25"/>
+      <c r="G737" s="27"/>
       <c r="H737" s="25"/>
       <c r="I737" s="25"/>
       <c r="J737" s="25"/>
@@ -14890,7 +14960,7 @@
       <c r="D738" s="25"/>
       <c r="E738" s="25"/>
       <c r="F738" s="25"/>
-      <c r="G738" s="25"/>
+      <c r="G738" s="27"/>
       <c r="H738" s="25"/>
       <c r="I738" s="25"/>
       <c r="J738" s="25"/>
@@ -14909,7 +14979,7 @@
       <c r="D739" s="25"/>
       <c r="E739" s="25"/>
       <c r="F739" s="25"/>
-      <c r="G739" s="25"/>
+      <c r="G739" s="27"/>
       <c r="H739" s="25"/>
       <c r="I739" s="25"/>
       <c r="J739" s="25"/>
@@ -14928,7 +14998,7 @@
       <c r="D740" s="25"/>
       <c r="E740" s="25"/>
       <c r="F740" s="25"/>
-      <c r="G740" s="25"/>
+      <c r="G740" s="27"/>
       <c r="H740" s="25"/>
       <c r="I740" s="25"/>
       <c r="J740" s="25"/>
@@ -14947,7 +15017,7 @@
       <c r="D741" s="25"/>
       <c r="E741" s="25"/>
       <c r="F741" s="25"/>
-      <c r="G741" s="25"/>
+      <c r="G741" s="27"/>
       <c r="H741" s="25"/>
       <c r="I741" s="25"/>
       <c r="J741" s="25"/>
@@ -14966,7 +15036,7 @@
       <c r="D742" s="25"/>
       <c r="E742" s="25"/>
       <c r="F742" s="25"/>
-      <c r="G742" s="25"/>
+      <c r="G742" s="27"/>
       <c r="H742" s="25"/>
       <c r="I742" s="25"/>
       <c r="J742" s="25"/>
@@ -14985,7 +15055,7 @@
       <c r="D743" s="25"/>
       <c r="E743" s="25"/>
       <c r="F743" s="25"/>
-      <c r="G743" s="25"/>
+      <c r="G743" s="27"/>
       <c r="H743" s="25"/>
       <c r="I743" s="25"/>
       <c r="J743" s="25"/>
@@ -15004,7 +15074,7 @@
       <c r="D744" s="25"/>
       <c r="E744" s="25"/>
       <c r="F744" s="25"/>
-      <c r="G744" s="25"/>
+      <c r="G744" s="27"/>
       <c r="H744" s="25"/>
       <c r="I744" s="25"/>
       <c r="J744" s="25"/>
@@ -15023,7 +15093,7 @@
       <c r="D745" s="25"/>
       <c r="E745" s="25"/>
       <c r="F745" s="25"/>
-      <c r="G745" s="25"/>
+      <c r="G745" s="27"/>
       <c r="H745" s="25"/>
       <c r="I745" s="25"/>
       <c r="J745" s="25"/>
@@ -15042,7 +15112,7 @@
       <c r="D746" s="25"/>
       <c r="E746" s="25"/>
       <c r="F746" s="25"/>
-      <c r="G746" s="25"/>
+      <c r="G746" s="27"/>
       <c r="H746" s="25"/>
       <c r="I746" s="25"/>
       <c r="J746" s="25"/>
@@ -15061,7 +15131,7 @@
       <c r="D747" s="25"/>
       <c r="E747" s="25"/>
       <c r="F747" s="25"/>
-      <c r="G747" s="25"/>
+      <c r="G747" s="27"/>
       <c r="H747" s="25"/>
       <c r="I747" s="25"/>
       <c r="J747" s="25"/>
@@ -15080,7 +15150,7 @@
       <c r="D748" s="25"/>
       <c r="E748" s="25"/>
       <c r="F748" s="25"/>
-      <c r="G748" s="25"/>
+      <c r="G748" s="27"/>
       <c r="H748" s="25"/>
       <c r="I748" s="25"/>
       <c r="J748" s="25"/>
@@ -15099,7 +15169,7 @@
       <c r="D749" s="25"/>
       <c r="E749" s="25"/>
       <c r="F749" s="25"/>
-      <c r="G749" s="25"/>
+      <c r="G749" s="27"/>
       <c r="H749" s="25"/>
       <c r="I749" s="25"/>
       <c r="J749" s="25"/>
@@ -15118,7 +15188,7 @@
       <c r="D750" s="25"/>
       <c r="E750" s="25"/>
       <c r="F750" s="25"/>
-      <c r="G750" s="25"/>
+      <c r="G750" s="27"/>
       <c r="H750" s="25"/>
       <c r="I750" s="25"/>
       <c r="J750" s="25"/>
@@ -15137,7 +15207,7 @@
       <c r="D751" s="25"/>
       <c r="E751" s="25"/>
       <c r="F751" s="25"/>
-      <c r="G751" s="25"/>
+      <c r="G751" s="27"/>
       <c r="H751" s="25"/>
       <c r="I751" s="25"/>
       <c r="J751" s="25"/>
@@ -15156,7 +15226,7 @@
       <c r="D752" s="25"/>
       <c r="E752" s="25"/>
       <c r="F752" s="25"/>
-      <c r="G752" s="25"/>
+      <c r="G752" s="27"/>
       <c r="H752" s="25"/>
       <c r="I752" s="25"/>
       <c r="J752" s="25"/>
@@ -15175,7 +15245,7 @@
       <c r="D753" s="25"/>
       <c r="E753" s="25"/>
       <c r="F753" s="25"/>
-      <c r="G753" s="25"/>
+      <c r="G753" s="27"/>
       <c r="H753" s="25"/>
       <c r="I753" s="25"/>
       <c r="J753" s="25"/>
@@ -15194,7 +15264,7 @@
       <c r="D754" s="25"/>
       <c r="E754" s="25"/>
       <c r="F754" s="25"/>
-      <c r="G754" s="25"/>
+      <c r="G754" s="27"/>
       <c r="H754" s="25"/>
       <c r="I754" s="25"/>
       <c r="J754" s="25"/>
@@ -15213,7 +15283,7 @@
       <c r="D755" s="25"/>
       <c r="E755" s="25"/>
       <c r="F755" s="25"/>
-      <c r="G755" s="25"/>
+      <c r="G755" s="27"/>
       <c r="H755" s="25"/>
       <c r="I755" s="25"/>
       <c r="J755" s="25"/>
@@ -15232,7 +15302,7 @@
       <c r="D756" s="25"/>
       <c r="E756" s="25"/>
       <c r="F756" s="25"/>
-      <c r="G756" s="25"/>
+      <c r="G756" s="27"/>
       <c r="H756" s="25"/>
       <c r="I756" s="25"/>
       <c r="J756" s="25"/>
@@ -15251,7 +15321,7 @@
       <c r="D757" s="25"/>
       <c r="E757" s="25"/>
       <c r="F757" s="25"/>
-      <c r="G757" s="25"/>
+      <c r="G757" s="27"/>
       <c r="H757" s="25"/>
       <c r="I757" s="25"/>
       <c r="J757" s="25"/>
@@ -15270,7 +15340,7 @@
       <c r="D758" s="25"/>
       <c r="E758" s="25"/>
       <c r="F758" s="25"/>
-      <c r="G758" s="25"/>
+      <c r="G758" s="27"/>
       <c r="H758" s="25"/>
       <c r="I758" s="25"/>
       <c r="J758" s="25"/>
@@ -15289,7 +15359,7 @@
       <c r="D759" s="25"/>
       <c r="E759" s="25"/>
       <c r="F759" s="25"/>
-      <c r="G759" s="25"/>
+      <c r="G759" s="27"/>
       <c r="H759" s="25"/>
       <c r="I759" s="25"/>
       <c r="J759" s="25"/>
@@ -15308,7 +15378,7 @@
       <c r="D760" s="25"/>
       <c r="E760" s="25"/>
       <c r="F760" s="25"/>
-      <c r="G760" s="25"/>
+      <c r="G760" s="27"/>
       <c r="H760" s="25"/>
       <c r="I760" s="25"/>
       <c r="J760" s="25"/>
@@ -15327,7 +15397,7 @@
       <c r="D761" s="25"/>
       <c r="E761" s="25"/>
       <c r="F761" s="25"/>
-      <c r="G761" s="25"/>
+      <c r="G761" s="27"/>
       <c r="H761" s="25"/>
       <c r="I761" s="25"/>
       <c r="J761" s="25"/>
@@ -15346,7 +15416,7 @@
       <c r="D762" s="25"/>
       <c r="E762" s="25"/>
       <c r="F762" s="25"/>
-      <c r="G762" s="25"/>
+      <c r="G762" s="27"/>
       <c r="H762" s="25"/>
       <c r="I762" s="25"/>
       <c r="J762" s="25"/>
@@ -15365,7 +15435,7 @@
       <c r="D763" s="25"/>
       <c r="E763" s="25"/>
       <c r="F763" s="25"/>
-      <c r="G763" s="25"/>
+      <c r="G763" s="27"/>
       <c r="H763" s="25"/>
       <c r="I763" s="25"/>
       <c r="J763" s="25"/>
@@ -15384,7 +15454,7 @@
       <c r="D764" s="25"/>
       <c r="E764" s="25"/>
       <c r="F764" s="25"/>
-      <c r="G764" s="25"/>
+      <c r="G764" s="27"/>
       <c r="H764" s="25"/>
       <c r="I764" s="25"/>
       <c r="J764" s="25"/>
@@ -15403,7 +15473,7 @@
       <c r="D765" s="25"/>
       <c r="E765" s="25"/>
       <c r="F765" s="25"/>
-      <c r="G765" s="25"/>
+      <c r="G765" s="27"/>
       <c r="H765" s="25"/>
       <c r="I765" s="25"/>
       <c r="J765" s="25"/>
@@ -15422,7 +15492,7 @@
       <c r="D766" s="25"/>
       <c r="E766" s="25"/>
       <c r="F766" s="25"/>
-      <c r="G766" s="25"/>
+      <c r="G766" s="27"/>
       <c r="H766" s="25"/>
       <c r="I766" s="25"/>
       <c r="J766" s="25"/>
@@ -15441,7 +15511,7 @@
       <c r="D767" s="25"/>
       <c r="E767" s="25"/>
       <c r="F767" s="25"/>
-      <c r="G767" s="25"/>
+      <c r="G767" s="27"/>
       <c r="H767" s="25"/>
       <c r="I767" s="25"/>
       <c r="J767" s="25"/>
@@ -15460,7 +15530,7 @@
       <c r="D768" s="25"/>
       <c r="E768" s="25"/>
       <c r="F768" s="25"/>
-      <c r="G768" s="25"/>
+      <c r="G768" s="27"/>
       <c r="H768" s="25"/>
       <c r="I768" s="25"/>
       <c r="J768" s="25"/>
@@ -15479,7 +15549,7 @@
       <c r="D769" s="25"/>
       <c r="E769" s="25"/>
       <c r="F769" s="25"/>
-      <c r="G769" s="25"/>
+      <c r="G769" s="27"/>
       <c r="H769" s="25"/>
       <c r="I769" s="25"/>
       <c r="J769" s="25"/>
@@ -15498,7 +15568,7 @@
       <c r="D770" s="25"/>
       <c r="E770" s="25"/>
       <c r="F770" s="25"/>
-      <c r="G770" s="25"/>
+      <c r="G770" s="27"/>
       <c r="H770" s="25"/>
       <c r="I770" s="25"/>
       <c r="J770" s="25"/>
@@ -15517,7 +15587,7 @@
       <c r="D771" s="25"/>
       <c r="E771" s="25"/>
       <c r="F771" s="25"/>
-      <c r="G771" s="25"/>
+      <c r="G771" s="27"/>
       <c r="H771" s="25"/>
       <c r="I771" s="25"/>
       <c r="J771" s="25"/>
@@ -15536,7 +15606,7 @@
       <c r="D772" s="25"/>
       <c r="E772" s="25"/>
       <c r="F772" s="25"/>
-      <c r="G772" s="25"/>
+      <c r="G772" s="27"/>
       <c r="H772" s="25"/>
       <c r="I772" s="25"/>
       <c r="J772" s="25"/>
@@ -15555,7 +15625,7 @@
       <c r="D773" s="25"/>
       <c r="E773" s="25"/>
       <c r="F773" s="25"/>
-      <c r="G773" s="25"/>
+      <c r="G773" s="27"/>
       <c r="H773" s="25"/>
       <c r="I773" s="25"/>
       <c r="J773" s="25"/>
@@ -15574,7 +15644,7 @@
       <c r="D774" s="25"/>
       <c r="E774" s="25"/>
       <c r="F774" s="25"/>
-      <c r="G774" s="25"/>
+      <c r="G774" s="27"/>
       <c r="H774" s="25"/>
       <c r="I774" s="25"/>
       <c r="J774" s="25"/>
@@ -15593,7 +15663,7 @@
       <c r="D775" s="25"/>
       <c r="E775" s="25"/>
       <c r="F775" s="25"/>
-      <c r="G775" s="25"/>
+      <c r="G775" s="27"/>
       <c r="H775" s="25"/>
       <c r="I775" s="25"/>
       <c r="J775" s="25"/>
@@ -15612,7 +15682,7 @@
       <c r="D776" s="25"/>
       <c r="E776" s="25"/>
       <c r="F776" s="25"/>
-      <c r="G776" s="25"/>
+      <c r="G776" s="27"/>
       <c r="H776" s="25"/>
       <c r="I776" s="25"/>
       <c r="J776" s="25"/>
@@ -15631,7 +15701,7 @@
       <c r="D777" s="25"/>
       <c r="E777" s="25"/>
       <c r="F777" s="25"/>
-      <c r="G777" s="25"/>
+      <c r="G777" s="27"/>
       <c r="H777" s="25"/>
       <c r="I777" s="25"/>
       <c r="J777" s="25"/>
@@ -15650,7 +15720,7 @@
       <c r="D778" s="25"/>
       <c r="E778" s="25"/>
       <c r="F778" s="25"/>
-      <c r="G778" s="25"/>
+      <c r="G778" s="27"/>
       <c r="H778" s="25"/>
       <c r="I778" s="25"/>
       <c r="J778" s="25"/>
@@ -15669,7 +15739,7 @@
       <c r="D779" s="25"/>
       <c r="E779" s="25"/>
       <c r="F779" s="25"/>
-      <c r="G779" s="25"/>
+      <c r="G779" s="27"/>
       <c r="H779" s="25"/>
       <c r="I779" s="25"/>
       <c r="J779" s="25"/>
@@ -15688,7 +15758,7 @@
       <c r="D780" s="25"/>
       <c r="E780" s="25"/>
       <c r="F780" s="25"/>
-      <c r="G780" s="25"/>
+      <c r="G780" s="27"/>
       <c r="H780" s="25"/>
       <c r="I780" s="25"/>
       <c r="J780" s="25"/>
@@ -15707,7 +15777,7 @@
       <c r="D781" s="25"/>
       <c r="E781" s="25"/>
       <c r="F781" s="25"/>
-      <c r="G781" s="25"/>
+      <c r="G781" s="27"/>
       <c r="H781" s="25"/>
       <c r="I781" s="25"/>
       <c r="J781" s="25"/>
@@ -15726,7 +15796,7 @@
       <c r="D782" s="25"/>
       <c r="E782" s="25"/>
       <c r="F782" s="25"/>
-      <c r="G782" s="25"/>
+      <c r="G782" s="27"/>
       <c r="H782" s="25"/>
       <c r="I782" s="25"/>
       <c r="J782" s="25"/>
@@ -15745,7 +15815,7 @@
       <c r="D783" s="25"/>
       <c r="E783" s="25"/>
       <c r="F783" s="25"/>
-      <c r="G783" s="25"/>
+      <c r="G783" s="27"/>
       <c r="H783" s="25"/>
       <c r="I783" s="25"/>
       <c r="J783" s="25"/>
@@ -15764,7 +15834,7 @@
       <c r="D784" s="25"/>
       <c r="E784" s="25"/>
       <c r="F784" s="25"/>
-      <c r="G784" s="25"/>
+      <c r="G784" s="27"/>
       <c r="H784" s="25"/>
       <c r="I784" s="25"/>
       <c r="J784" s="25"/>
@@ -15783,7 +15853,7 @@
       <c r="D785" s="25"/>
       <c r="E785" s="25"/>
       <c r="F785" s="25"/>
-      <c r="G785" s="25"/>
+      <c r="G785" s="27"/>
       <c r="H785" s="25"/>
       <c r="I785" s="25"/>
       <c r="J785" s="25"/>
@@ -15802,7 +15872,7 @@
       <c r="D786" s="25"/>
       <c r="E786" s="25"/>
       <c r="F786" s="25"/>
-      <c r="G786" s="25"/>
+      <c r="G786" s="27"/>
       <c r="H786" s="25"/>
       <c r="I786" s="25"/>
       <c r="J786" s="25"/>
@@ -15821,7 +15891,7 @@
       <c r="D787" s="25"/>
       <c r="E787" s="25"/>
       <c r="F787" s="25"/>
-      <c r="G787" s="25"/>
+      <c r="G787" s="27"/>
       <c r="H787" s="25"/>
       <c r="I787" s="25"/>
       <c r="J787" s="25"/>
@@ -15840,7 +15910,7 @@
       <c r="D788" s="25"/>
       <c r="E788" s="25"/>
       <c r="F788" s="25"/>
-      <c r="G788" s="25"/>
+      <c r="G788" s="27"/>
       <c r="H788" s="25"/>
       <c r="I788" s="25"/>
       <c r="J788" s="25"/>
@@ -15859,7 +15929,7 @@
       <c r="D789" s="25"/>
       <c r="E789" s="25"/>
       <c r="F789" s="25"/>
-      <c r="G789" s="25"/>
+      <c r="G789" s="27"/>
       <c r="H789" s="25"/>
       <c r="I789" s="25"/>
       <c r="J789" s="25"/>
@@ -15878,7 +15948,7 @@
       <c r="D790" s="25"/>
       <c r="E790" s="25"/>
       <c r="F790" s="25"/>
-      <c r="G790" s="25"/>
+      <c r="G790" s="27"/>
       <c r="H790" s="25"/>
       <c r="I790" s="25"/>
       <c r="J790" s="25"/>
@@ -15897,7 +15967,7 @@
       <c r="D791" s="25"/>
       <c r="E791" s="25"/>
       <c r="F791" s="25"/>
-      <c r="G791" s="25"/>
+      <c r="G791" s="27"/>
       <c r="H791" s="25"/>
       <c r="I791" s="25"/>
       <c r="J791" s="25"/>
@@ -15916,7 +15986,7 @@
       <c r="D792" s="25"/>
       <c r="E792" s="25"/>
       <c r="F792" s="25"/>
-      <c r="G792" s="25"/>
+      <c r="G792" s="27"/>
       <c r="H792" s="25"/>
       <c r="I792" s="25"/>
       <c r="J792" s="25"/>
@@ -15935,7 +16005,7 @@
       <c r="D793" s="25"/>
       <c r="E793" s="25"/>
       <c r="F793" s="25"/>
-      <c r="G793" s="25"/>
+      <c r="G793" s="27"/>
       <c r="H793" s="25"/>
       <c r="I793" s="25"/>
       <c r="J793" s="25"/>
@@ -15954,7 +16024,7 @@
       <c r="D794" s="25"/>
       <c r="E794" s="25"/>
       <c r="F794" s="25"/>
-      <c r="G794" s="25"/>
+      <c r="G794" s="27"/>
       <c r="H794" s="25"/>
       <c r="I794" s="25"/>
       <c r="J794" s="25"/>
@@ -15973,7 +16043,7 @@
       <c r="D795" s="25"/>
       <c r="E795" s="25"/>
       <c r="F795" s="25"/>
-      <c r="G795" s="25"/>
+      <c r="G795" s="27"/>
       <c r="H795" s="25"/>
       <c r="I795" s="25"/>
       <c r="J795" s="25"/>
@@ -15992,7 +16062,7 @@
       <c r="D796" s="25"/>
       <c r="E796" s="25"/>
       <c r="F796" s="25"/>
-      <c r="G796" s="25"/>
+      <c r="G796" s="27"/>
       <c r="H796" s="25"/>
       <c r="I796" s="25"/>
       <c r="J796" s="25"/>
@@ -16011,7 +16081,7 @@
       <c r="D797" s="25"/>
       <c r="E797" s="25"/>
       <c r="F797" s="25"/>
-      <c r="G797" s="25"/>
+      <c r="G797" s="27"/>
       <c r="H797" s="25"/>
       <c r="I797" s="25"/>
       <c r="J797" s="25"/>
@@ -16030,7 +16100,7 @@
       <c r="D798" s="25"/>
       <c r="E798" s="25"/>
       <c r="F798" s="25"/>
-      <c r="G798" s="25"/>
+      <c r="G798" s="27"/>
       <c r="H798" s="25"/>
       <c r="I798" s="25"/>
       <c r="J798" s="25"/>
@@ -16049,7 +16119,7 @@
       <c r="D799" s="25"/>
       <c r="E799" s="25"/>
       <c r="F799" s="25"/>
-      <c r="G799" s="25"/>
+      <c r="G799" s="27"/>
       <c r="H799" s="25"/>
       <c r="I799" s="25"/>
       <c r="J799" s="25"/>
@@ -16068,7 +16138,7 @@
       <c r="D800" s="25"/>
       <c r="E800" s="25"/>
       <c r="F800" s="25"/>
-      <c r="G800" s="25"/>
+      <c r="G800" s="27"/>
       <c r="H800" s="25"/>
       <c r="I800" s="25"/>
       <c r="J800" s="25"/>
@@ -16087,7 +16157,7 @@
       <c r="D801" s="25"/>
       <c r="E801" s="25"/>
       <c r="F801" s="25"/>
-      <c r="G801" s="25"/>
+      <c r="G801" s="27"/>
       <c r="H801" s="25"/>
       <c r="I801" s="25"/>
       <c r="J801" s="25"/>
@@ -16106,7 +16176,7 @@
       <c r="D802" s="25"/>
       <c r="E802" s="25"/>
       <c r="F802" s="25"/>
-      <c r="G802" s="25"/>
+      <c r="G802" s="27"/>
       <c r="H802" s="25"/>
       <c r="I802" s="25"/>
       <c r="J802" s="25"/>
@@ -16125,7 +16195,7 @@
       <c r="D803" s="25"/>
       <c r="E803" s="25"/>
       <c r="F803" s="25"/>
-      <c r="G803" s="25"/>
+      <c r="G803" s="27"/>
       <c r="H803" s="25"/>
       <c r="I803" s="25"/>
       <c r="J803" s="25"/>
@@ -16144,7 +16214,7 @@
       <c r="D804" s="25"/>
       <c r="E804" s="25"/>
       <c r="F804" s="25"/>
-      <c r="G804" s="25"/>
+      <c r="G804" s="27"/>
       <c r="H804" s="25"/>
       <c r="I804" s="25"/>
       <c r="J804" s="25"/>
@@ -16163,7 +16233,7 @@
       <c r="D805" s="25"/>
       <c r="E805" s="25"/>
       <c r="F805" s="25"/>
-      <c r="G805" s="25"/>
+      <c r="G805" s="27"/>
       <c r="H805" s="25"/>
       <c r="I805" s="25"/>
       <c r="J805" s="25"/>
@@ -16182,7 +16252,7 @@
       <c r="D806" s="25"/>
       <c r="E806" s="25"/>
       <c r="F806" s="25"/>
-      <c r="G806" s="25"/>
+      <c r="G806" s="27"/>
       <c r="H806" s="25"/>
       <c r="I806" s="25"/>
       <c r="J806" s="25"/>
@@ -16201,7 +16271,7 @@
       <c r="D807" s="25"/>
       <c r="E807" s="25"/>
       <c r="F807" s="25"/>
-      <c r="G807" s="25"/>
+      <c r="G807" s="27"/>
       <c r="H807" s="25"/>
       <c r="I807" s="25"/>
       <c r="J807" s="25"/>
@@ -16220,7 +16290,7 @@
       <c r="D808" s="25"/>
       <c r="E808" s="25"/>
       <c r="F808" s="25"/>
-      <c r="G808" s="25"/>
+      <c r="G808" s="27"/>
       <c r="H808" s="25"/>
       <c r="I808" s="25"/>
       <c r="J808" s="25"/>
@@ -16239,7 +16309,7 @@
       <c r="D809" s="25"/>
       <c r="E809" s="25"/>
       <c r="F809" s="25"/>
-      <c r="G809" s="25"/>
+      <c r="G809" s="27"/>
       <c r="H809" s="25"/>
       <c r="I809" s="25"/>
       <c r="J809" s="25"/>
@@ -16258,7 +16328,7 @@
       <c r="D810" s="25"/>
       <c r="E810" s="25"/>
       <c r="F810" s="25"/>
-      <c r="G810" s="25"/>
+      <c r="G810" s="27"/>
       <c r="H810" s="25"/>
       <c r="I810" s="25"/>
       <c r="J810" s="25"/>
@@ -16277,7 +16347,7 @@
       <c r="D811" s="25"/>
       <c r="E811" s="25"/>
       <c r="F811" s="25"/>
-      <c r="G811" s="25"/>
+      <c r="G811" s="27"/>
       <c r="H811" s="25"/>
       <c r="I811" s="25"/>
       <c r="J811" s="25"/>
@@ -16296,7 +16366,7 @@
       <c r="D812" s="25"/>
       <c r="E812" s="25"/>
       <c r="F812" s="25"/>
-      <c r="G812" s="25"/>
+      <c r="G812" s="27"/>
       <c r="H812" s="25"/>
       <c r="I812" s="25"/>
       <c r="J812" s="25"/>
@@ -16315,7 +16385,7 @@
       <c r="D813" s="25"/>
       <c r="E813" s="25"/>
       <c r="F813" s="25"/>
-      <c r="G813" s="25"/>
+      <c r="G813" s="27"/>
       <c r="H813" s="25"/>
       <c r="I813" s="25"/>
       <c r="J813" s="25"/>
@@ -16334,7 +16404,7 @@
       <c r="D814" s="25"/>
       <c r="E814" s="25"/>
       <c r="F814" s="25"/>
-      <c r="G814" s="25"/>
+      <c r="G814" s="27"/>
       <c r="H814" s="25"/>
       <c r="I814" s="25"/>
       <c r="J814" s="25"/>
@@ -16353,7 +16423,7 @@
       <c r="D815" s="25"/>
       <c r="E815" s="25"/>
       <c r="F815" s="25"/>
-      <c r="G815" s="25"/>
+      <c r="G815" s="27"/>
       <c r="H815" s="25"/>
       <c r="I815" s="25"/>
       <c r="J815" s="25"/>
@@ -16372,7 +16442,7 @@
       <c r="D816" s="25"/>
       <c r="E816" s="25"/>
       <c r="F816" s="25"/>
-      <c r="G816" s="25"/>
+      <c r="G816" s="27"/>
       <c r="H816" s="25"/>
       <c r="I816" s="25"/>
       <c r="J816" s="25"/>
@@ -16391,7 +16461,7 @@
       <c r="D817" s="25"/>
       <c r="E817" s="25"/>
       <c r="F817" s="25"/>
-      <c r="G817" s="25"/>
+      <c r="G817" s="27"/>
       <c r="H817" s="25"/>
       <c r="I817" s="25"/>
       <c r="J817" s="25"/>
@@ -16410,7 +16480,7 @@
       <c r="D818" s="25"/>
       <c r="E818" s="25"/>
       <c r="F818" s="25"/>
-      <c r="G818" s="25"/>
+      <c r="G818" s="27"/>
       <c r="H818" s="25"/>
       <c r="I818" s="25"/>
       <c r="J818" s="25"/>
@@ -16429,7 +16499,7 @@
       <c r="D819" s="25"/>
       <c r="E819" s="25"/>
       <c r="F819" s="25"/>
-      <c r="G819" s="25"/>
+      <c r="G819" s="27"/>
       <c r="H819" s="25"/>
       <c r="I819" s="25"/>
       <c r="J819" s="25"/>
@@ -16448,7 +16518,7 @@
       <c r="D820" s="25"/>
       <c r="E820" s="25"/>
       <c r="F820" s="25"/>
-      <c r="G820" s="25"/>
+      <c r="G820" s="27"/>
       <c r="H820" s="25"/>
       <c r="I820" s="25"/>
       <c r="J820" s="25"/>
@@ -16467,7 +16537,7 @@
       <c r="D821" s="25"/>
       <c r="E821" s="25"/>
       <c r="F821" s="25"/>
-      <c r="G821" s="25"/>
+      <c r="G821" s="27"/>
       <c r="H821" s="25"/>
       <c r="I821" s="25"/>
       <c r="J821" s="25"/>
@@ -16486,7 +16556,7 @@
       <c r="D822" s="25"/>
       <c r="E822" s="25"/>
       <c r="F822" s="25"/>
-      <c r="G822" s="25"/>
+      <c r="G822" s="27"/>
       <c r="H822" s="25"/>
       <c r="I822" s="25"/>
       <c r="J822" s="25"/>
@@ -16505,7 +16575,7 @@
       <c r="D823" s="25"/>
       <c r="E823" s="25"/>
       <c r="F823" s="25"/>
-      <c r="G823" s="25"/>
+      <c r="G823" s="27"/>
       <c r="H823" s="25"/>
       <c r="I823" s="25"/>
       <c r="J823" s="25"/>
@@ -16524,7 +16594,7 @@
       <c r="D824" s="25"/>
       <c r="E824" s="25"/>
       <c r="F824" s="25"/>
-      <c r="G824" s="25"/>
+      <c r="G824" s="27"/>
       <c r="H824" s="25"/>
       <c r="I824" s="25"/>
       <c r="J824" s="25"/>
@@ -16543,7 +16613,7 @@
       <c r="D825" s="25"/>
       <c r="E825" s="25"/>
       <c r="F825" s="25"/>
-      <c r="G825" s="25"/>
+      <c r="G825" s="27"/>
       <c r="H825" s="25"/>
       <c r="I825" s="25"/>
       <c r="J825" s="25"/>
@@ -16562,7 +16632,7 @@
       <c r="D826" s="25"/>
       <c r="E826" s="25"/>
       <c r="F826" s="25"/>
-      <c r="G826" s="25"/>
+      <c r="G826" s="27"/>
       <c r="H826" s="25"/>
       <c r="I826" s="25"/>
       <c r="J826" s="25"/>
@@ -16581,7 +16651,7 @@
       <c r="D827" s="25"/>
       <c r="E827" s="25"/>
       <c r="F827" s="25"/>
-      <c r="G827" s="25"/>
+      <c r="G827" s="27"/>
       <c r="H827" s="25"/>
       <c r="I827" s="25"/>
       <c r="J827" s="25"/>
@@ -16600,7 +16670,7 @@
       <c r="D828" s="25"/>
       <c r="E828" s="25"/>
       <c r="F828" s="25"/>
-      <c r="G828" s="25"/>
+      <c r="G828" s="27"/>
       <c r="H828" s="25"/>
       <c r="I828" s="25"/>
       <c r="J828" s="25"/>
@@ -16619,7 +16689,7 @@
       <c r="D829" s="25"/>
       <c r="E829" s="25"/>
       <c r="F829" s="25"/>
-      <c r="G829" s="25"/>
+      <c r="G829" s="27"/>
       <c r="H829" s="25"/>
       <c r="I829" s="25"/>
       <c r="J829" s="25"/>
@@ -16638,7 +16708,7 @@
       <c r="D830" s="25"/>
       <c r="E830" s="25"/>
       <c r="F830" s="25"/>
-      <c r="G830" s="25"/>
+      <c r="G830" s="27"/>
       <c r="H830" s="25"/>
       <c r="I830" s="25"/>
       <c r="J830" s="25"/>
@@ -16657,7 +16727,7 @@
       <c r="D831" s="25"/>
       <c r="E831" s="25"/>
       <c r="F831" s="25"/>
-      <c r="G831" s="25"/>
+      <c r="G831" s="27"/>
       <c r="H831" s="25"/>
       <c r="I831" s="25"/>
       <c r="J831" s="25"/>
@@ -16676,7 +16746,7 @@
       <c r="D832" s="25"/>
       <c r="E832" s="25"/>
       <c r="F832" s="25"/>
-      <c r="G832" s="25"/>
+      <c r="G832" s="27"/>
       <c r="H832" s="25"/>
       <c r="I832" s="25"/>
       <c r="J832" s="25"/>
@@ -16695,7 +16765,7 @@
       <c r="D833" s="25"/>
       <c r="E833" s="25"/>
       <c r="F833" s="25"/>
-      <c r="G833" s="25"/>
+      <c r="G833" s="27"/>
       <c r="H833" s="25"/>
       <c r="I833" s="25"/>
       <c r="J833" s="25"/>
@@ -16714,7 +16784,7 @@
       <c r="D834" s="25"/>
       <c r="E834" s="25"/>
       <c r="F834" s="25"/>
-      <c r="G834" s="25"/>
+      <c r="G834" s="27"/>
       <c r="H834" s="25"/>
       <c r="I834" s="25"/>
       <c r="J834" s="25"/>
@@ -16733,7 +16803,7 @@
       <c r="D835" s="25"/>
       <c r="E835" s="25"/>
       <c r="F835" s="25"/>
-      <c r="G835" s="25"/>
+      <c r="G835" s="27"/>
       <c r="H835" s="25"/>
       <c r="I835" s="25"/>
       <c r="J835" s="25"/>
@@ -16752,7 +16822,7 @@
       <c r="D836" s="25"/>
       <c r="E836" s="25"/>
       <c r="F836" s="25"/>
-      <c r="G836" s="25"/>
+      <c r="G836" s="27"/>
       <c r="H836" s="25"/>
       <c r="I836" s="25"/>
       <c r="J836" s="25"/>
@@ -16771,7 +16841,7 @@
       <c r="D837" s="25"/>
       <c r="E837" s="25"/>
       <c r="F837" s="25"/>
-      <c r="G837" s="25"/>
+      <c r="G837" s="27"/>
       <c r="H837" s="25"/>
       <c r="I837" s="25"/>
       <c r="J837" s="25"/>
@@ -16790,7 +16860,7 @@
       <c r="D838" s="25"/>
       <c r="E838" s="25"/>
       <c r="F838" s="25"/>
-      <c r="G838" s="25"/>
+      <c r="G838" s="27"/>
       <c r="H838" s="25"/>
       <c r="I838" s="25"/>
       <c r="J838" s="25"/>
@@ -16809,7 +16879,7 @@
       <c r="D839" s="25"/>
       <c r="E839" s="25"/>
       <c r="F839" s="25"/>
-      <c r="G839" s="25"/>
+      <c r="G839" s="27"/>
       <c r="H839" s="25"/>
       <c r="I839" s="25"/>
       <c r="J839" s="25"/>
@@ -16828,7 +16898,7 @@
       <c r="D840" s="25"/>
       <c r="E840" s="25"/>
       <c r="F840" s="25"/>
-      <c r="G840" s="25"/>
+      <c r="G840" s="27"/>
       <c r="H840" s="25"/>
       <c r="I840" s="25"/>
       <c r="J840" s="25"/>
@@ -16847,7 +16917,7 @@
       <c r="D841" s="25"/>
       <c r="E841" s="25"/>
       <c r="F841" s="25"/>
-      <c r="G841" s="25"/>
+      <c r="G841" s="27"/>
       <c r="H841" s="25"/>
       <c r="I841" s="25"/>
       <c r="J841" s="25"/>
@@ -16866,7 +16936,7 @@
       <c r="D842" s="25"/>
       <c r="E842" s="25"/>
       <c r="F842" s="25"/>
-      <c r="G842" s="25"/>
+      <c r="G842" s="27"/>
       <c r="H842" s="25"/>
       <c r="I842" s="25"/>
       <c r="J842" s="25"/>
@@ -16885,7 +16955,7 @@
       <c r="D843" s="25"/>
       <c r="E843" s="25"/>
       <c r="F843" s="25"/>
-      <c r="G843" s="25"/>
+      <c r="G843" s="27"/>
       <c r="H843" s="25"/>
       <c r="I843" s="25"/>
       <c r="J843" s="25"/>
@@ -16904,7 +16974,7 @@
       <c r="D844" s="25"/>
       <c r="E844" s="25"/>
       <c r="F844" s="25"/>
-      <c r="G844" s="25"/>
+      <c r="G844" s="27"/>
       <c r="H844" s="25"/>
       <c r="I844" s="25"/>
       <c r="J844" s="25"/>
@@ -16923,7 +16993,7 @@
       <c r="D845" s="25"/>
       <c r="E845" s="25"/>
       <c r="F845" s="25"/>
-      <c r="G845" s="25"/>
+      <c r="G845" s="27"/>
       <c r="H845" s="25"/>
       <c r="I845" s="25"/>
       <c r="J845" s="25"/>
@@ -16942,7 +17012,7 @@
       <c r="D846" s="25"/>
       <c r="E846" s="25"/>
       <c r="F846" s="25"/>
-      <c r="G846" s="25"/>
+      <c r="G846" s="27"/>
       <c r="H846" s="25"/>
       <c r="I846" s="25"/>
       <c r="J846" s="25"/>
@@ -16961,7 +17031,7 @@
       <c r="D847" s="25"/>
       <c r="E847" s="25"/>
       <c r="F847" s="25"/>
-      <c r="G847" s="25"/>
+      <c r="G847" s="27"/>
       <c r="H847" s="25"/>
       <c r="I847" s="25"/>
       <c r="J847" s="25"/>
@@ -16980,7 +17050,7 @@
       <c r="D848" s="25"/>
       <c r="E848" s="25"/>
       <c r="F848" s="25"/>
-      <c r="G848" s="25"/>
+      <c r="G848" s="27"/>
       <c r="H848" s="25"/>
       <c r="I848" s="25"/>
       <c r="J848" s="25"/>
@@ -16999,7 +17069,7 @@
       <c r="D849" s="25"/>
       <c r="E849" s="25"/>
       <c r="F849" s="25"/>
-      <c r="G849" s="25"/>
+      <c r="G849" s="27"/>
       <c r="H849" s="25"/>
       <c r="I849" s="25"/>
       <c r="J849" s="25"/>
@@ -17018,7 +17088,7 @@
       <c r="D850" s="25"/>
       <c r="E850" s="25"/>
       <c r="F850" s="25"/>
-      <c r="G850" s="25"/>
+      <c r="G850" s="27"/>
       <c r="H850" s="25"/>
       <c r="I850" s="25"/>
       <c r="J850" s="25"/>
@@ -17037,7 +17107,7 @@
       <c r="D851" s="25"/>
       <c r="E851" s="25"/>
       <c r="F851" s="25"/>
-      <c r="G851" s="25"/>
+      <c r="G851" s="27"/>
       <c r="H851" s="25"/>
       <c r="I851" s="25"/>
       <c r="J851" s="25"/>
@@ -17056,7 +17126,7 @@
       <c r="D852" s="25"/>
       <c r="E852" s="25"/>
       <c r="F852" s="25"/>
-      <c r="G852" s="25"/>
+      <c r="G852" s="27"/>
       <c r="H852" s="25"/>
       <c r="I852" s="25"/>
       <c r="J852" s="25"/>
@@ -17075,7 +17145,7 @@
       <c r="D853" s="25"/>
       <c r="E853" s="25"/>
       <c r="F853" s="25"/>
-      <c r="G853" s="25"/>
+      <c r="G853" s="27"/>
       <c r="H853" s="25"/>
       <c r="I853" s="25"/>
       <c r="J853" s="25"/>
@@ -17094,7 +17164,7 @@
       <c r="D854" s="25"/>
       <c r="E854" s="25"/>
       <c r="F854" s="25"/>
-      <c r="G854" s="25"/>
+      <c r="G854" s="27"/>
       <c r="H854" s="25"/>
       <c r="I854" s="25"/>
       <c r="J854" s="25"/>
@@ -17113,7 +17183,7 @@
       <c r="D855" s="25"/>
       <c r="E855" s="25"/>
       <c r="F855" s="25"/>
-      <c r="G855" s="25"/>
+      <c r="G855" s="27"/>
       <c r="H855" s="25"/>
       <c r="I855" s="25"/>
       <c r="J855" s="25"/>
@@ -17132,7 +17202,7 @@
       <c r="D856" s="25"/>
       <c r="E856" s="25"/>
       <c r="F856" s="25"/>
-      <c r="G856" s="25"/>
+      <c r="G856" s="27"/>
       <c r="H856" s="25"/>
       <c r="I856" s="25"/>
       <c r="J856" s="25"/>
@@ -17151,7 +17221,7 @@
       <c r="D857" s="25"/>
       <c r="E857" s="25"/>
       <c r="F857" s="25"/>
-      <c r="G857" s="25"/>
+      <c r="G857" s="27"/>
       <c r="H857" s="25"/>
       <c r="I857" s="25"/>
       <c r="J857" s="25"/>
@@ -17170,7 +17240,7 @@
       <c r="D858" s="25"/>
       <c r="E858" s="25"/>
       <c r="F858" s="25"/>
-      <c r="G858" s="25"/>
+      <c r="G858" s="27"/>
       <c r="H858" s="25"/>
       <c r="I858" s="25"/>
       <c r="J858" s="25"/>
@@ -17189,7 +17259,7 @@
       <c r="D859" s="25"/>
       <c r="E859" s="25"/>
       <c r="F859" s="25"/>
-      <c r="G859" s="25"/>
+      <c r="G859" s="27"/>
       <c r="H859" s="25"/>
       <c r="I859" s="25"/>
       <c r="J859" s="25"/>
@@ -17208,7 +17278,7 @@
       <c r="D860" s="25"/>
       <c r="E860" s="25"/>
       <c r="F860" s="25"/>
-      <c r="G860" s="25"/>
+      <c r="G860" s="27"/>
       <c r="H860" s="25"/>
       <c r="I860" s="25"/>
       <c r="J860" s="25"/>
@@ -17227,7 +17297,7 @@
       <c r="D861" s="25"/>
       <c r="E861" s="25"/>
       <c r="F861" s="25"/>
-      <c r="G861" s="25"/>
+      <c r="G861" s="27"/>
       <c r="H861" s="25"/>
       <c r="I861" s="25"/>
       <c r="J861" s="25"/>
@@ -17246,7 +17316,7 @@
       <c r="D862" s="25"/>
       <c r="E862" s="25"/>
       <c r="F862" s="25"/>
-      <c r="G862" s="25"/>
+      <c r="G862" s="27"/>
       <c r="H862" s="25"/>
       <c r="I862" s="25"/>
       <c r="J862" s="25"/>
@@ -17265,7 +17335,7 @@
       <c r="D863" s="25"/>
       <c r="E863" s="25"/>
       <c r="F863" s="25"/>
-      <c r="G863" s="25"/>
+      <c r="G863" s="27"/>
       <c r="H863" s="25"/>
       <c r="I863" s="25"/>
       <c r="J863" s="25"/>
@@ -17284,7 +17354,7 @@
       <c r="D864" s="25"/>
       <c r="E864" s="25"/>
       <c r="F864" s="25"/>
-      <c r="G864" s="25"/>
+      <c r="G864" s="27"/>
       <c r="H864" s="25"/>
       <c r="I864" s="25"/>
       <c r="J864" s="25"/>
@@ -17303,7 +17373,7 @@
       <c r="D865" s="25"/>
       <c r="E865" s="25"/>
       <c r="F865" s="25"/>
-      <c r="G865" s="25"/>
+      <c r="G865" s="27"/>
       <c r="H865" s="25"/>
       <c r="I865" s="25"/>
       <c r="J865" s="25"/>
@@ -17322,7 +17392,7 @@
       <c r="D866" s="25"/>
       <c r="E866" s="25"/>
       <c r="F866" s="25"/>
-      <c r="G866" s="25"/>
+      <c r="G866" s="27"/>
       <c r="H866" s="25"/>
       <c r="I866" s="25"/>
       <c r="J866" s="25"/>
@@ -17341,7 +17411,7 @@
       <c r="D867" s="25"/>
       <c r="E867" s="25"/>
       <c r="F867" s="25"/>
-      <c r="G867" s="25"/>
+      <c r="G867" s="27"/>
       <c r="H867" s="25"/>
       <c r="I867" s="25"/>
       <c r="J867" s="25"/>
@@ -17360,7 +17430,7 @@
       <c r="D868" s="25"/>
       <c r="E868" s="25"/>
       <c r="F868" s="25"/>
-      <c r="G868" s="25"/>
+      <c r="G868" s="27"/>
       <c r="H868" s="25"/>
       <c r="I868" s="25"/>
       <c r="J868" s="25"/>
@@ -17379,7 +17449,7 @@
       <c r="D869" s="25"/>
       <c r="E869" s="25"/>
       <c r="F869" s="25"/>
-      <c r="G869" s="25"/>
+      <c r="G869" s="27"/>
       <c r="H869" s="25"/>
       <c r="I869" s="25"/>
       <c r="J869" s="25"/>
@@ -17398,7 +17468,7 @@
       <c r="D870" s="25"/>
       <c r="E870" s="25"/>
       <c r="F870" s="25"/>
-      <c r="G870" s="25"/>
+      <c r="G870" s="27"/>
       <c r="H870" s="25"/>
       <c r="I870" s="25"/>
       <c r="J870" s="25"/>
@@ -17417,7 +17487,7 @@
       <c r="D871" s="25"/>
       <c r="E871" s="25"/>
       <c r="F871" s="25"/>
-      <c r="G871" s="25"/>
+      <c r="G871" s="27"/>
       <c r="H871" s="25"/>
       <c r="I871" s="25"/>
       <c r="J871" s="25"/>
@@ -17436,7 +17506,7 @@
       <c r="D872" s="25"/>
       <c r="E872" s="25"/>
       <c r="F872" s="25"/>
-      <c r="G872" s="25"/>
+      <c r="G872" s="27"/>
       <c r="H872" s="25"/>
       <c r="I872" s="25"/>
       <c r="J872" s="25"/>
@@ -17455,7 +17525,7 @@
       <c r="D873" s="25"/>
       <c r="E873" s="25"/>
       <c r="F873" s="25"/>
-      <c r="G873" s="25"/>
+      <c r="G873" s="27"/>
       <c r="H873" s="25"/>
       <c r="I873" s="25"/>
       <c r="J873" s="25"/>
@@ -17474,7 +17544,7 @@
       <c r="D874" s="25"/>
       <c r="E874" s="25"/>
       <c r="F874" s="25"/>
-      <c r="G874" s="25"/>
+      <c r="G874" s="27"/>
       <c r="H874" s="25"/>
       <c r="I874" s="25"/>
       <c r="J874" s="25"/>
@@ -17493,7 +17563,7 @@
       <c r="D875" s="25"/>
       <c r="E875" s="25"/>
       <c r="F875" s="25"/>
-      <c r="G875" s="25"/>
+      <c r="G875" s="27"/>
       <c r="H875" s="25"/>
       <c r="I875" s="25"/>
       <c r="J875" s="25"/>
@@ -17512,7 +17582,7 @@
       <c r="D876" s="25"/>
       <c r="E876" s="25"/>
       <c r="F876" s="25"/>
-      <c r="G876" s="25"/>
+      <c r="G876" s="27"/>
       <c r="H876" s="25"/>
       <c r="I876" s="25"/>
       <c r="J876" s="25"/>
@@ -17531,7 +17601,7 @@
       <c r="D877" s="25"/>
       <c r="E877" s="25"/>
       <c r="F877" s="25"/>
-      <c r="G877" s="25"/>
+      <c r="G877" s="27"/>
       <c r="H877" s="25"/>
       <c r="I877" s="25"/>
       <c r="J877" s="25"/>
@@ -17550,7 +17620,7 @@
       <c r="D878" s="25"/>
       <c r="E878" s="25"/>
       <c r="F878" s="25"/>
-      <c r="G878" s="25"/>
+      <c r="G878" s="27"/>
       <c r="H878" s="25"/>
       <c r="I878" s="25"/>
       <c r="J878" s="25"/>
@@ -17569,7 +17639,7 @@
       <c r="D879" s="25"/>
       <c r="E879" s="25"/>
       <c r="F879" s="25"/>
-      <c r="G879" s="25"/>
+      <c r="G879" s="27"/>
       <c r="H879" s="25"/>
       <c r="I879" s="25"/>
       <c r="J879" s="25"/>
@@ -17588,7 +17658,7 @@
       <c r="D880" s="25"/>
       <c r="E880" s="25"/>
       <c r="F880" s="25"/>
-      <c r="G880" s="25"/>
+      <c r="G880" s="27"/>
       <c r="H880" s="25"/>
       <c r="I880" s="25"/>
       <c r="J880" s="25"/>
@@ -17607,7 +17677,7 @@
       <c r="D881" s="25"/>
       <c r="E881" s="25"/>
       <c r="F881" s="25"/>
-      <c r="G881" s="25"/>
+      <c r="G881" s="27"/>
       <c r="H881" s="25"/>
       <c r="I881" s="25"/>
       <c r="J881" s="25"/>
@@ -17626,7 +17696,7 @@
       <c r="D882" s="25"/>
       <c r="E882" s="25"/>
       <c r="F882" s="25"/>
-      <c r="G882" s="25"/>
+      <c r="G882" s="27"/>
       <c r="H882" s="25"/>
       <c r="I882" s="25"/>
       <c r="J882" s="25"/>
@@ -17645,7 +17715,7 @@
       <c r="D883" s="25"/>
       <c r="E883" s="25"/>
       <c r="F883" s="25"/>
-      <c r="G883" s="25"/>
+      <c r="G883" s="27"/>
       <c r="H883" s="25"/>
       <c r="I883" s="25"/>
       <c r="J883" s="25"/>
@@ -17664,7 +17734,7 @@
       <c r="D884" s="25"/>
       <c r="E884" s="25"/>
       <c r="F884" s="25"/>
-      <c r="G884" s="25"/>
+      <c r="G884" s="27"/>
       <c r="H884" s="25"/>
       <c r="I884" s="25"/>
       <c r="J884" s="25"/>
@@ -17683,7 +17753,7 @@
       <c r="D885" s="25"/>
       <c r="E885" s="25"/>
       <c r="F885" s="25"/>
-      <c r="G885" s="25"/>
+      <c r="G885" s="27"/>
       <c r="H885" s="25"/>
       <c r="I885" s="25"/>
       <c r="J885" s="25"/>
@@ -17702,7 +17772,7 @@
       <c r="D886" s="25"/>
       <c r="E886" s="25"/>
       <c r="F886" s="25"/>
-      <c r="G886" s="25"/>
+      <c r="G886" s="27"/>
       <c r="H886" s="25"/>
       <c r="I886" s="25"/>
       <c r="J886" s="25"/>
@@ -17721,7 +17791,7 @@
       <c r="D887" s="25"/>
       <c r="E887" s="25"/>
       <c r="F887" s="25"/>
-      <c r="G887" s="25"/>
+      <c r="G887" s="27"/>
       <c r="H887" s="25"/>
       <c r="I887" s="25"/>
       <c r="J887" s="25"/>
@@ -17740,7 +17810,7 @@
       <c r="D888" s="25"/>
       <c r="E888" s="25"/>
       <c r="F888" s="25"/>
-      <c r="G888" s="25"/>
+      <c r="G888" s="27"/>
       <c r="H888" s="25"/>
       <c r="I888" s="25"/>
       <c r="J888" s="25"/>
@@ -17759,7 +17829,7 @@
       <c r="D889" s="25"/>
       <c r="E889" s="25"/>
       <c r="F889" s="25"/>
-      <c r="G889" s="25"/>
+      <c r="G889" s="27"/>
       <c r="H889" s="25"/>
       <c r="I889" s="25"/>
       <c r="J889" s="25"/>
@@ -17778,7 +17848,7 @@
       <c r="D890" s="25"/>
       <c r="E890" s="25"/>
       <c r="F890" s="25"/>
-      <c r="G890" s="25"/>
+      <c r="G890" s="27"/>
       <c r="H890" s="25"/>
       <c r="I890" s="25"/>
       <c r="J890" s="25"/>
@@ -17797,7 +17867,7 @@
       <c r="D891" s="25"/>
       <c r="E891" s="25"/>
       <c r="F891" s="25"/>
-      <c r="G891" s="25"/>
+      <c r="G891" s="27"/>
       <c r="H891" s="25"/>
       <c r="I891" s="25"/>
       <c r="J891" s="25"/>
@@ -17816,7 +17886,7 @@
       <c r="D892" s="25"/>
       <c r="E892" s="25"/>
       <c r="F892" s="25"/>
-      <c r="G892" s="25"/>
+      <c r="G892" s="27"/>
       <c r="H892" s="25"/>
       <c r="I892" s="25"/>
       <c r="J892" s="25"/>
@@ -17835,7 +17905,7 @@
       <c r="D893" s="25"/>
       <c r="E893" s="25"/>
       <c r="F893" s="25"/>
-      <c r="G893" s="25"/>
+      <c r="G893" s="27"/>
       <c r="H893" s="25"/>
       <c r="I893" s="25"/>
       <c r="J893" s="25"/>
@@ -17854,7 +17924,7 @@
       <c r="D894" s="25"/>
       <c r="E894" s="25"/>
       <c r="F894" s="25"/>
-      <c r="G894" s="25"/>
+      <c r="G894" s="27"/>
       <c r="H894" s="25"/>
       <c r="I894" s="25"/>
       <c r="J894" s="25"/>
@@ -17873,7 +17943,7 @@
       <c r="D895" s="25"/>
       <c r="E895" s="25"/>
       <c r="F895" s="25"/>
-      <c r="G895" s="25"/>
+      <c r="G895" s="27"/>
       <c r="H895" s="25"/>
       <c r="I895" s="25"/>
       <c r="J895" s="25"/>
@@ -17892,7 +17962,7 @@
       <c r="D896" s="25"/>
       <c r="E896" s="25"/>
       <c r="F896" s="25"/>
-      <c r="G896" s="25"/>
+      <c r="G896" s="27"/>
       <c r="H896" s="25"/>
       <c r="I896" s="25"/>
       <c r="J896" s="25"/>
@@ -17911,7 +17981,7 @@
       <c r="D897" s="25"/>
       <c r="E897" s="25"/>
       <c r="F897" s="25"/>
-      <c r="G897" s="25"/>
+      <c r="G897" s="27"/>
       <c r="H897" s="25"/>
       <c r="I897" s="25"/>
       <c r="J897" s="25"/>
@@ -17930,7 +18000,7 @@
       <c r="D898" s="25"/>
       <c r="E898" s="25"/>
       <c r="F898" s="25"/>
-      <c r="G898" s="25"/>
+      <c r="G898" s="27"/>
       <c r="H898" s="25"/>
       <c r="I898" s="25"/>
       <c r="J898" s="25"/>
@@ -17949,7 +18019,7 @@
       <c r="D899" s="25"/>
       <c r="E899" s="25"/>
       <c r="F899" s="25"/>
-      <c r="G899" s="25"/>
+      <c r="G899" s="27"/>
       <c r="H899" s="25"/>
       <c r="I899" s="25"/>
       <c r="J899" s="25"/>
@@ -17968,7 +18038,7 @@
       <c r="D900" s="25"/>
       <c r="E900" s="25"/>
       <c r="F900" s="25"/>
-      <c r="G900" s="25"/>
+      <c r="G900" s="27"/>
       <c r="H900" s="25"/>
       <c r="I900" s="25"/>
       <c r="J900" s="25"/>
@@ -17987,7 +18057,7 @@
       <c r="D901" s="25"/>
       <c r="E901" s="25"/>
       <c r="F901" s="25"/>
-      <c r="G901" s="25"/>
+      <c r="G901" s="27"/>
       <c r="H901" s="25"/>
       <c r="I901" s="25"/>
       <c r="J901" s="25"/>
@@ -18006,7 +18076,7 @@
       <c r="D902" s="25"/>
       <c r="E902" s="25"/>
       <c r="F902" s="25"/>
-      <c r="G902" s="25"/>
+      <c r="G902" s="27"/>
       <c r="H902" s="25"/>
       <c r="I902" s="25"/>
       <c r="J902" s="25"/>
@@ -18025,7 +18095,7 @@
       <c r="D903" s="25"/>
       <c r="E903" s="25"/>
       <c r="F903" s="25"/>
-      <c r="G903" s="25"/>
+      <c r="G903" s="27"/>
       <c r="H903" s="25"/>
       <c r="I903" s="25"/>
       <c r="J903" s="25"/>
@@ -18044,7 +18114,7 @@
       <c r="D904" s="25"/>
       <c r="E904" s="25"/>
       <c r="F904" s="25"/>
-      <c r="G904" s="25"/>
+      <c r="G904" s="27"/>
       <c r="H904" s="25"/>
       <c r="I904" s="25"/>
       <c r="J904" s="25"/>
@@ -18063,7 +18133,7 @@
       <c r="D905" s="25"/>
       <c r="E905" s="25"/>
       <c r="F905" s="25"/>
-      <c r="G905" s="25"/>
+      <c r="G905" s="27"/>
       <c r="H905" s="25"/>
       <c r="I905" s="25"/>
       <c r="J905" s="25"/>
@@ -18082,7 +18152,7 @@
       <c r="D906" s="25"/>
       <c r="E906" s="25"/>
       <c r="F906" s="25"/>
-      <c r="G906" s="25"/>
+      <c r="G906" s="27"/>
       <c r="H906" s="25"/>
       <c r="I906" s="25"/>
       <c r="J906" s="25"/>
@@ -18101,7 +18171,7 @@
       <c r="D907" s="25"/>
       <c r="E907" s="25"/>
       <c r="F907" s="25"/>
-      <c r="G907" s="25"/>
+      <c r="G907" s="27"/>
       <c r="H907" s="25"/>
       <c r="I907" s="25"/>
       <c r="J907" s="25"/>
@@ -18120,7 +18190,7 @@
       <c r="D908" s="25"/>
       <c r="E908" s="25"/>
       <c r="F908" s="25"/>
-      <c r="G908" s="25"/>
+      <c r="G908" s="27"/>
       <c r="H908" s="25"/>
       <c r="I908" s="25"/>
       <c r="J908" s="25"/>
@@ -18139,7 +18209,7 @@
       <c r="D909" s="25"/>
       <c r="E909" s="25"/>
       <c r="F909" s="25"/>
-      <c r="G909" s="25"/>
+      <c r="G909" s="27"/>
       <c r="H909" s="25"/>
       <c r="I909" s="25"/>
       <c r="J909" s="25"/>
@@ -18158,7 +18228,7 @@
       <c r="D910" s="25"/>
       <c r="E910" s="25"/>
       <c r="F910" s="25"/>
-      <c r="G910" s="25"/>
+      <c r="G910" s="27"/>
       <c r="H910" s="25"/>
       <c r="I910" s="25"/>
       <c r="J910" s="25"/>
@@ -18177,7 +18247,7 @@
       <c r="D911" s="25"/>
       <c r="E911" s="25"/>
       <c r="F911" s="25"/>
-      <c r="G911" s="25"/>
+      <c r="G911" s="27"/>
       <c r="H911" s="25"/>
       <c r="I911" s="25"/>
       <c r="J911" s="25"/>
@@ -18196,7 +18266,7 @@
       <c r="D912" s="25"/>
       <c r="E912" s="25"/>
       <c r="F912" s="25"/>
-      <c r="G912" s="25"/>
+      <c r="G912" s="27"/>
       <c r="H912" s="25"/>
       <c r="I912" s="25"/>
       <c r="J912" s="25"/>
@@ -18215,7 +18285,7 @@
       <c r="D913" s="25"/>
       <c r="E913" s="25"/>
       <c r="F913" s="25"/>
-      <c r="G913" s="25"/>
+      <c r="G913" s="27"/>
       <c r="H913" s="25"/>
       <c r="I913" s="25"/>
       <c r="J913" s="25"/>
@@ -18234,7 +18304,7 @@
       <c r="D914" s="25"/>
       <c r="E914" s="25"/>
       <c r="F914" s="25"/>
-      <c r="G914" s="25"/>
+      <c r="G914" s="27"/>
       <c r="H914" s="25"/>
       <c r="I914" s="25"/>
       <c r="J914" s="25"/>
@@ -18253,7 +18323,7 @@
       <c r="D915" s="25"/>
       <c r="E915" s="25"/>
       <c r="F915" s="25"/>
-      <c r="G915" s="25"/>
+      <c r="G915" s="27"/>
       <c r="H915" s="25"/>
       <c r="I915" s="25"/>
       <c r="J915" s="25"/>
@@ -18272,7 +18342,7 @@
       <c r="D916" s="25"/>
       <c r="E916" s="25"/>
       <c r="F916" s="25"/>
-      <c r="G916" s="25"/>
+      <c r="G916" s="27"/>
       <c r="H916" s="25"/>
       <c r="I916" s="25"/>
       <c r="J916" s="25"/>
@@ -18291,7 +18361,7 @@
       <c r="D917" s="25"/>
       <c r="E917" s="25"/>
       <c r="F917" s="25"/>
-      <c r="G917" s="25"/>
+      <c r="G917" s="27"/>
       <c r="H917" s="25"/>
       <c r="I917" s="25"/>
       <c r="J917" s="25"/>
@@ -18310,7 +18380,7 @@
       <c r="D918" s="25"/>
       <c r="E918" s="25"/>
       <c r="F918" s="25"/>
-      <c r="G918" s="25"/>
+      <c r="G918" s="27"/>
       <c r="H918" s="25"/>
       <c r="I918" s="25"/>
       <c r="J918" s="25"/>
@@ -18329,7 +18399,7 @@
       <c r="D919" s="25"/>
       <c r="E919" s="25"/>
       <c r="F919" s="25"/>
-      <c r="G919" s="25"/>
+      <c r="G919" s="27"/>
       <c r="H919" s="25"/>
       <c r="I919" s="25"/>
       <c r="J919" s="25"/>
@@ -18348,7 +18418,7 @@
       <c r="D920" s="25"/>
       <c r="E920" s="25"/>
       <c r="F920" s="25"/>
-      <c r="G920" s="25"/>
+      <c r="G920" s="27"/>
       <c r="H920" s="25"/>
       <c r="I920" s="25"/>
       <c r="J920" s="25"/>
@@ -18367,7 +18437,7 @@
       <c r="D921" s="25"/>
       <c r="E921" s="25"/>
       <c r="F921" s="25"/>
-      <c r="G921" s="25"/>
+      <c r="G921" s="27"/>
       <c r="H921" s="25"/>
       <c r="I921" s="25"/>
       <c r="J921" s="25"/>
@@ -18386,7 +18456,7 @@
       <c r="D922" s="25"/>
       <c r="E922" s="25"/>
       <c r="F922" s="25"/>
-      <c r="G922" s="25"/>
+      <c r="G922" s="27"/>
       <c r="H922" s="25"/>
       <c r="I922" s="25"/>
       <c r="J922" s="25"/>
@@ -18405,7 +18475,7 @@
       <c r="D923" s="25"/>
       <c r="E923" s="25"/>
       <c r="F923" s="25"/>
-      <c r="G923" s="25"/>
+      <c r="G923" s="27"/>
       <c r="H923" s="25"/>
       <c r="I923" s="25"/>
       <c r="J923" s="25"/>
@@ -18424,7 +18494,7 @@
       <c r="D924" s="25"/>
       <c r="E924" s="25"/>
       <c r="F924" s="25"/>
-      <c r="G924" s="25"/>
+      <c r="G924" s="27"/>
       <c r="H924" s="25"/>
       <c r="I924" s="25"/>
       <c r="J924" s="25"/>
@@ -18443,7 +18513,7 @@
       <c r="D925" s="25"/>
       <c r="E925" s="25"/>
       <c r="F925" s="25"/>
-      <c r="G925" s="25"/>
+      <c r="G925" s="27"/>
       <c r="H925" s="25"/>
       <c r="I925" s="25"/>
       <c r="J925" s="25"/>
@@ -18462,7 +18532,7 @@
       <c r="D926" s="25"/>
       <c r="E926" s="25"/>
       <c r="F926" s="25"/>
-      <c r="G926" s="25"/>
+      <c r="G926" s="27"/>
       <c r="H926" s="25"/>
       <c r="I926" s="25"/>
       <c r="J926" s="25"/>
@@ -18481,7 +18551,7 @@
       <c r="D927" s="25"/>
       <c r="E927" s="25"/>
       <c r="F927" s="25"/>
-      <c r="G927" s="25"/>
+      <c r="G927" s="27"/>
       <c r="H927" s="25"/>
       <c r="I927" s="25"/>
       <c r="J927" s="25"/>
@@ -18500,7 +18570,7 @@
       <c r="D928" s="25"/>
       <c r="E928" s="25"/>
       <c r="F928" s="25"/>
-      <c r="G928" s="25"/>
+      <c r="G928" s="27"/>
       <c r="H928" s="25"/>
       <c r="I928" s="25"/>
       <c r="J928" s="25"/>
@@ -18519,7 +18589,7 @@
       <c r="D929" s="25"/>
       <c r="E929" s="25"/>
       <c r="F929" s="25"/>
-      <c r="G929" s="25"/>
+      <c r="G929" s="27"/>
       <c r="H929" s="25"/>
       <c r="I929" s="25"/>
       <c r="J929" s="25"/>
@@ -18538,7 +18608,7 @@
       <c r="D930" s="25"/>
       <c r="E930" s="25"/>
       <c r="F930" s="25"/>
-      <c r="G930" s="25"/>
+      <c r="G930" s="27"/>
       <c r="H930" s="25"/>
       <c r="I930" s="25"/>
       <c r="J930" s="25"/>
@@ -18557,7 +18627,7 @@
       <c r="D931" s="25"/>
       <c r="E931" s="25"/>
       <c r="F931" s="25"/>
-      <c r="G931" s="25"/>
+      <c r="G931" s="27"/>
       <c r="H931" s="25"/>
       <c r="I931" s="25"/>
       <c r="J931" s="25"/>
@@ -18576,7 +18646,7 @@
       <c r="D932" s="25"/>
       <c r="E932" s="25"/>
       <c r="F932" s="25"/>
-      <c r="G932" s="25"/>
+      <c r="G932" s="27"/>
       <c r="H932" s="25"/>
       <c r="I932" s="25"/>
       <c r="J932" s="25"/>
@@ -18595,7 +18665,7 @@
       <c r="D933" s="25"/>
       <c r="E933" s="25"/>
       <c r="F933" s="25"/>
-      <c r="G933" s="25"/>
+      <c r="G933" s="27"/>
       <c r="H933" s="25"/>
       <c r="I933" s="25"/>
       <c r="J933" s="25"/>
@@ -18614,7 +18684,7 @@
       <c r="D934" s="25"/>
       <c r="E934" s="25"/>
       <c r="F934" s="25"/>
-      <c r="G934" s="25"/>
+      <c r="G934" s="27"/>
       <c r="H934" s="25"/>
       <c r="I934" s="25"/>
       <c r="J934" s="25"/>
@@ -18633,7 +18703,7 @@
       <c r="D935" s="25"/>
       <c r="E935" s="25"/>
       <c r="F935" s="25"/>
-      <c r="G935" s="25"/>
+      <c r="G935" s="27"/>
       <c r="H935" s="25"/>
       <c r="I935" s="25"/>
       <c r="J935" s="25"/>
@@ -18652,7 +18722,7 @@
       <c r="D936" s="25"/>
       <c r="E936" s="25"/>
       <c r="F936" s="25"/>
-      <c r="G936" s="25"/>
+      <c r="G936" s="27"/>
       <c r="H936" s="25"/>
       <c r="I936" s="25"/>
       <c r="J936" s="25"/>
@@ -18671,7 +18741,7 @@
       <c r="D937" s="25"/>
       <c r="E937" s="25"/>
       <c r="F937" s="25"/>
-      <c r="G937" s="25"/>
+      <c r="G937" s="27"/>
       <c r="H937" s="25"/>
       <c r="I937" s="25"/>
       <c r="J937" s="25"/>
@@ -18690,7 +18760,7 @@
       <c r="D938" s="25"/>
       <c r="E938" s="25"/>
       <c r="F938" s="25"/>
-      <c r="G938" s="25"/>
+      <c r="G938" s="27"/>
       <c r="H938" s="25"/>
       <c r="I938" s="25"/>
       <c r="J938" s="25"/>
@@ -18709,7 +18779,7 @@
       <c r="D939" s="25"/>
       <c r="E939" s="25"/>
       <c r="F939" s="25"/>
-      <c r="G939" s="25"/>
+      <c r="G939" s="27"/>
       <c r="H939" s="25"/>
       <c r="I939" s="25"/>
       <c r="J939" s="25"/>
@@ -18728,7 +18798,7 @@
       <c r="D940" s="25"/>
       <c r="E940" s="25"/>
       <c r="F940" s="25"/>
-      <c r="G940" s="25"/>
+      <c r="G940" s="27"/>
       <c r="H940" s="25"/>
       <c r="I940" s="25"/>
       <c r="J940" s="25"/>
@@ -18747,7 +18817,7 @@
       <c r="D941" s="25"/>
       <c r="E941" s="25"/>
       <c r="F941" s="25"/>
-      <c r="G941" s="25"/>
+      <c r="G941" s="27"/>
       <c r="H941" s="25"/>
       <c r="I941" s="25"/>
       <c r="J941" s="25"/>
@@ -18766,7 +18836,7 @@
       <c r="D942" s="25"/>
       <c r="E942" s="25"/>
       <c r="F942" s="25"/>
-      <c r="G942" s="25"/>
+      <c r="G942" s="27"/>
       <c r="H942" s="25"/>
       <c r="I942" s="25"/>
       <c r="J942" s="25"/>
@@ -18785,7 +18855,7 @@
       <c r="D943" s="25"/>
       <c r="E943" s="25"/>
       <c r="F943" s="25"/>
-      <c r="G943" s="25"/>
+      <c r="G943" s="27"/>
       <c r="H943" s="25"/>
       <c r="I943" s="25"/>
       <c r="J943" s="25"/>
@@ -18804,7 +18874,7 @@
       <c r="D944" s="25"/>
       <c r="E944" s="25"/>
       <c r="F944" s="25"/>
-      <c r="G944" s="25"/>
+      <c r="G944" s="27"/>
       <c r="H944" s="25"/>
       <c r="I944" s="25"/>
       <c r="J944" s="25"/>
@@ -18823,7 +18893,7 @@
       <c r="D945" s="25"/>
       <c r="E945" s="25"/>
       <c r="F945" s="25"/>
-      <c r="G945" s="25"/>
+      <c r="G945" s="27"/>
       <c r="H945" s="25"/>
       <c r="I945" s="25"/>
       <c r="J945" s="25"/>
@@ -18842,7 +18912,7 @@
       <c r="D946" s="25"/>
       <c r="E946" s="25"/>
       <c r="F946" s="25"/>
-      <c r="G946" s="25"/>
+      <c r="G946" s="27"/>
       <c r="H946" s="25"/>
       <c r="I946" s="25"/>
       <c r="J946" s="25"/>
@@ -18861,7 +18931,7 @@
       <c r="D947" s="25"/>
       <c r="E947" s="25"/>
       <c r="F947" s="25"/>
-      <c r="G947" s="25"/>
+      <c r="G947" s="27"/>
       <c r="H947" s="25"/>
       <c r="I947" s="25"/>
       <c r="J947" s="25"/>
@@ -18880,7 +18950,7 @@
       <c r="D948" s="25"/>
       <c r="E948" s="25"/>
       <c r="F948" s="25"/>
-      <c r="G948" s="25"/>
+      <c r="G948" s="27"/>
       <c r="H948" s="25"/>
       <c r="I948" s="25"/>
       <c r="J948" s="25"/>
@@ -18899,7 +18969,7 @@
       <c r="D949" s="25"/>
       <c r="E949" s="25"/>
       <c r="F949" s="25"/>
-      <c r="G949" s="25"/>
+      <c r="G949" s="27"/>
       <c r="H949" s="25"/>
       <c r="I949" s="25"/>
       <c r="J949" s="25"/>
@@ -18918,7 +18988,7 @@
       <c r="D950" s="25"/>
       <c r="E950" s="25"/>
       <c r="F950" s="25"/>
-      <c r="G950" s="25"/>
+      <c r="G950" s="27"/>
       <c r="H950" s="25"/>
       <c r="I950" s="25"/>
       <c r="J950" s="25"/>
@@ -18937,7 +19007,7 @@
       <c r="D951" s="25"/>
       <c r="E951" s="25"/>
       <c r="F951" s="25"/>
-      <c r="G951" s="25"/>
+      <c r="G951" s="27"/>
       <c r="H951" s="25"/>
       <c r="I951" s="25"/>
       <c r="J951" s="25"/>
@@ -18956,7 +19026,7 @@
       <c r="D952" s="25"/>
       <c r="E952" s="25"/>
       <c r="F952" s="25"/>
-      <c r="G952" s="25"/>
+      <c r="G952" s="27"/>
       <c r="H952" s="25"/>
       <c r="I952" s="25"/>
       <c r="J952" s="25"/>
@@ -18975,7 +19045,7 @@
       <c r="D953" s="25"/>
       <c r="E953" s="25"/>
       <c r="F953" s="25"/>
-      <c r="G953" s="25"/>
+      <c r="G953" s="27"/>
       <c r="H953" s="25"/>
       <c r="I953" s="25"/>
       <c r="J953" s="25"/>
@@ -18994,7 +19064,7 @@
       <c r="D954" s="25"/>
       <c r="E954" s="25"/>
       <c r="F954" s="25"/>
-      <c r="G954" s="25"/>
+      <c r="G954" s="27"/>
       <c r="H954" s="25"/>
       <c r="I954" s="25"/>
       <c r="J954" s="25"/>
@@ -19013,7 +19083,7 @@
       <c r="D955" s="25"/>
       <c r="E955" s="25"/>
       <c r="F955" s="25"/>
-      <c r="G955" s="25"/>
+      <c r="G955" s="27"/>
       <c r="H955" s="25"/>
       <c r="I955" s="25"/>
       <c r="J955" s="25"/>
@@ -19032,7 +19102,7 @@
       <c r="D956" s="25"/>
       <c r="E956" s="25"/>
       <c r="F956" s="25"/>
-      <c r="G956" s="25"/>
+      <c r="G956" s="27"/>
       <c r="H956" s="25"/>
       <c r="I956" s="25"/>
       <c r="J956" s="25"/>
@@ -19051,7 +19121,7 @@
       <c r="D957" s="25"/>
       <c r="E957" s="25"/>
       <c r="F957" s="25"/>
-      <c r="G957" s="25"/>
+      <c r="G957" s="27"/>
       <c r="H957" s="25"/>
       <c r="I957" s="25"/>
       <c r="J957" s="25"/>
@@ -19070,7 +19140,7 @@
       <c r="D958" s="25"/>
       <c r="E958" s="25"/>
       <c r="F958" s="25"/>
-      <c r="G958" s="25"/>
+      <c r="G958" s="27"/>
       <c r="H958" s="25"/>
       <c r="I958" s="25"/>
       <c r="J958" s="25"/>
@@ -19089,7 +19159,7 @@
       <c r="D959" s="25"/>
       <c r="E959" s="25"/>
       <c r="F959" s="25"/>
-      <c r="G959" s="25"/>
+      <c r="G959" s="27"/>
       <c r="H959" s="25"/>
       <c r="I959" s="25"/>
       <c r="J959" s="25"/>
@@ -19108,7 +19178,7 @@
       <c r="D960" s="25"/>
       <c r="E960" s="25"/>
       <c r="F960" s="25"/>
-      <c r="G960" s="25"/>
+      <c r="G960" s="27"/>
       <c r="H960" s="25"/>
       <c r="I960" s="25"/>
       <c r="J960" s="25"/>
@@ -19127,7 +19197,7 @@
       <c r="D961" s="25"/>
       <c r="E961" s="25"/>
       <c r="F961" s="25"/>
-      <c r="G961" s="25"/>
+      <c r="G961" s="27"/>
       <c r="H961" s="25"/>
       <c r="I961" s="25"/>
       <c r="J961" s="25"/>
@@ -19146,7 +19216,7 @@
       <c r="D962" s="25"/>
       <c r="E962" s="25"/>
       <c r="F962" s="25"/>
-      <c r="G962" s="25"/>
+      <c r="G962" s="27"/>
       <c r="H962" s="25"/>
       <c r="I962" s="25"/>
       <c r="J962" s="25"/>
@@ -19165,7 +19235,7 @@
       <c r="D963" s="25"/>
       <c r="E963" s="25"/>
       <c r="F963" s="25"/>
-      <c r="G963" s="25"/>
+      <c r="G963" s="27"/>
       <c r="H963" s="25"/>
       <c r="I963" s="25"/>
       <c r="J963" s="25"/>
@@ -19184,7 +19254,7 @@
       <c r="D964" s="25"/>
       <c r="E964" s="25"/>
       <c r="F964" s="25"/>
-      <c r="G964" s="25"/>
+      <c r="G964" s="27"/>
       <c r="H964" s="25"/>
       <c r="I964" s="25"/>
       <c r="J964" s="25"/>
@@ -19203,7 +19273,7 @@
       <c r="D965" s="25"/>
       <c r="E965" s="25"/>
       <c r="F965" s="25"/>
-      <c r="G965" s="25"/>
+      <c r="G965" s="27"/>
       <c r="H965" s="25"/>
       <c r="I965" s="25"/>
       <c r="J965" s="25"/>
@@ -19222,7 +19292,7 @@
       <c r="D966" s="25"/>
       <c r="E966" s="25"/>
       <c r="F966" s="25"/>
-      <c r="G966" s="25"/>
+      <c r="G966" s="27"/>
       <c r="H966" s="25"/>
       <c r="I966" s="25"/>
       <c r="J966" s="25"/>
@@ -19241,7 +19311,7 @@
       <c r="D967" s="25"/>
       <c r="E967" s="25"/>
       <c r="F967" s="25"/>
-      <c r="G967" s="25"/>
+      <c r="G967" s="27"/>
       <c r="H967" s="25"/>
       <c r="I967" s="25"/>
       <c r="J967" s="25"/>
@@ -19260,7 +19330,7 @@
       <c r="D968" s="25"/>
       <c r="E968" s="25"/>
       <c r="F968" s="25"/>
-      <c r="G968" s="25"/>
+      <c r="G968" s="27"/>
       <c r="H968" s="25"/>
       <c r="I968" s="25"/>
       <c r="J968" s="25"/>
@@ -19279,7 +19349,7 @@
       <c r="D969" s="25"/>
       <c r="E969" s="25"/>
       <c r="F969" s="25"/>
-      <c r="G969" s="25"/>
+      <c r="G969" s="27"/>
       <c r="H969" s="25"/>
       <c r="I969" s="25"/>
       <c r="J969" s="25"/>
@@ -19298,7 +19368,7 @@
       <c r="D970" s="25"/>
       <c r="E970" s="25"/>
       <c r="F970" s="25"/>
-      <c r="G970" s="25"/>
+      <c r="G970" s="27"/>
       <c r="H970" s="25"/>
       <c r="I970" s="25"/>
       <c r="J970" s="25"/>
@@ -19317,7 +19387,7 @@
       <c r="D971" s="25"/>
       <c r="E971" s="25"/>
       <c r="F971" s="25"/>
-      <c r="G971" s="25"/>
+      <c r="G971" s="27"/>
       <c r="H971" s="25"/>
       <c r="I971" s="25"/>
       <c r="J971" s="25"/>
@@ -19336,7 +19406,7 @@
       <c r="D972" s="25"/>
       <c r="E972" s="25"/>
       <c r="F972" s="25"/>
-      <c r="G972" s="25"/>
+      <c r="G972" s="27"/>
       <c r="H972" s="25"/>
       <c r="I972" s="25"/>
       <c r="J972" s="25"/>
@@ -19355,7 +19425,7 @@
       <c r="D973" s="25"/>
       <c r="E973" s="25"/>
       <c r="F973" s="25"/>
-      <c r="G973" s="25"/>
+      <c r="G973" s="27"/>
       <c r="H973" s="25"/>
       <c r="I973" s="25"/>
       <c r="J973" s="25"/>
@@ -19374,7 +19444,7 @@
       <c r="D974" s="25"/>
       <c r="E974" s="25"/>
       <c r="F974" s="25"/>
-      <c r="G974" s="25"/>
+      <c r="G974" s="27"/>
       <c r="H974" s="25"/>
       <c r="I974" s="25"/>
       <c r="J974" s="25"/>
@@ -19393,7 +19463,7 @@
       <c r="D975" s="25"/>
       <c r="E975" s="25"/>
       <c r="F975" s="25"/>
-      <c r="G975" s="25"/>
+      <c r="G975" s="27"/>
       <c r="H975" s="25"/>
       <c r="I975" s="25"/>
       <c r="J975" s="25"/>
@@ -19412,7 +19482,7 @@
       <c r="D976" s="25"/>
       <c r="E976" s="25"/>
       <c r="F976" s="25"/>
-      <c r="G976" s="25"/>
+      <c r="G976" s="27"/>
       <c r="H976" s="25"/>
       <c r="I976" s="25"/>
       <c r="J976" s="25"/>
@@ -19431,7 +19501,7 @@
       <c r="D977" s="25"/>
       <c r="E977" s="25"/>
       <c r="F977" s="25"/>
-      <c r="G977" s="25"/>
+      <c r="G977" s="27"/>
       <c r="H977" s="25"/>
       <c r="I977" s="25"/>
       <c r="J977" s="25"/>
@@ -19450,7 +19520,7 @@
       <c r="D978" s="25"/>
       <c r="E978" s="25"/>
       <c r="F978" s="25"/>
-      <c r="G978" s="25"/>
+      <c r="G978" s="27"/>
       <c r="H978" s="25"/>
       <c r="I978" s="25"/>
       <c r="J978" s="25"/>
@@ -19469,7 +19539,7 @@
       <c r="D979" s="25"/>
       <c r="E979" s="25"/>
       <c r="F979" s="25"/>
-      <c r="G979" s="25"/>
+      <c r="G979" s="27"/>
       <c r="H979" s="25"/>
       <c r="I979" s="25"/>
       <c r="J979" s="25"/>
@@ -19488,7 +19558,7 @@
       <c r="D980" s="25"/>
       <c r="E980" s="25"/>
       <c r="F980" s="25"/>
-      <c r="G980" s="25"/>
+      <c r="G980" s="27"/>
       <c r="H980" s="25"/>
       <c r="I980" s="25"/>
       <c r="J980" s="25"/>
@@ -19507,7 +19577,7 @@
       <c r="D981" s="25"/>
       <c r="E981" s="25"/>
       <c r="F981" s="25"/>
-      <c r="G981" s="25"/>
+      <c r="G981" s="27"/>
       <c r="H981" s="25"/>
       <c r="I981" s="25"/>
       <c r="J981" s="25"/>
@@ -19526,7 +19596,7 @@
       <c r="D982" s="25"/>
       <c r="E982" s="25"/>
       <c r="F982" s="25"/>
-      <c r="G982" s="25"/>
+      <c r="G982" s="27"/>
       <c r="H982" s="25"/>
       <c r="I982" s="25"/>
       <c r="J982" s="25"/>
@@ -19545,7 +19615,7 @@
       <c r="D983" s="25"/>
       <c r="E983" s="25"/>
       <c r="F983" s="25"/>
-      <c r="G983" s="25"/>
+      <c r="G983" s="27"/>
       <c r="H983" s="25"/>
       <c r="I983" s="25"/>
       <c r="J983" s="25"/>
@@ -19564,7 +19634,7 @@
       <c r="D984" s="25"/>
       <c r="E984" s="25"/>
       <c r="F984" s="25"/>
-      <c r="G984" s="25"/>
+      <c r="G984" s="27"/>
       <c r="H984" s="25"/>
       <c r="I984" s="25"/>
       <c r="J984" s="25"/>
@@ -19583,7 +19653,7 @@
       <c r="D985" s="25"/>
       <c r="E985" s="25"/>
       <c r="F985" s="25"/>
-      <c r="G985" s="25"/>
+      <c r="G985" s="27"/>
       <c r="H985" s="25"/>
       <c r="I985" s="25"/>
       <c r="J985" s="25"/>
@@ -19602,7 +19672,7 @@
       <c r="D986" s="25"/>
       <c r="E986" s="25"/>
       <c r="F986" s="25"/>
-      <c r="G986" s="25"/>
+      <c r="G986" s="27"/>
       <c r="H986" s="25"/>
       <c r="I986" s="25"/>
       <c r="J986" s="25"/>
@@ -19621,7 +19691,7 @@
       <c r="D987" s="25"/>
       <c r="E987" s="25"/>
       <c r="F987" s="25"/>
-      <c r="G987" s="25"/>
+      <c r="G987" s="27"/>
       <c r="H987" s="25"/>
       <c r="I987" s="25"/>
       <c r="J987" s="25"/>
@@ -19640,7 +19710,7 @@
       <c r="D988" s="25"/>
       <c r="E988" s="25"/>
       <c r="F988" s="25"/>
-      <c r="G988" s="25"/>
+      <c r="G988" s="27"/>
       <c r="H988" s="25"/>
       <c r="I988" s="25"/>
       <c r="J988" s="25"/>
@@ -19659,7 +19729,7 @@
       <c r="D989" s="25"/>
       <c r="E989" s="25"/>
       <c r="F989" s="25"/>
-      <c r="G989" s="25"/>
+      <c r="G989" s="27"/>
       <c r="H989" s="25"/>
       <c r="I989" s="25"/>
       <c r="J989" s="25"/>
@@ -19678,7 +19748,7 @@
       <c r="D990" s="25"/>
       <c r="E990" s="25"/>
       <c r="F990" s="25"/>
-      <c r="G990" s="25"/>
+      <c r="G990" s="27"/>
       <c r="H990" s="25"/>
       <c r="I990" s="25"/>
       <c r="J990" s="25"/>
@@ -19697,7 +19767,7 @@
       <c r="D991" s="25"/>
       <c r="E991" s="25"/>
       <c r="F991" s="25"/>
-      <c r="G991" s="25"/>
+      <c r="G991" s="27"/>
       <c r="H991" s="25"/>
       <c r="I991" s="25"/>
       <c r="J991" s="25"/>
@@ -19716,7 +19786,7 @@
       <c r="D992" s="25"/>
       <c r="E992" s="25"/>
       <c r="F992" s="25"/>
-      <c r="G992" s="25"/>
+      <c r="G992" s="27"/>
       <c r="H992" s="25"/>
       <c r="I992" s="25"/>
       <c r="J992" s="25"/>
@@ -19735,7 +19805,7 @@
       <c r="D993" s="25"/>
       <c r="E993" s="25"/>
       <c r="F993" s="25"/>
-      <c r="G993" s="25"/>
+      <c r="G993" s="27"/>
       <c r="H993" s="25"/>
       <c r="I993" s="25"/>
       <c r="J993" s="25"/>
@@ -19754,7 +19824,7 @@
       <c r="D994" s="25"/>
       <c r="E994" s="25"/>
       <c r="F994" s="25"/>
-      <c r="G994" s="25"/>
+      <c r="G994" s="27"/>
       <c r="H994" s="25"/>
       <c r="I994" s="25"/>
       <c r="J994" s="25"/>
@@ -19773,7 +19843,7 @@
       <c r="D995" s="25"/>
       <c r="E995" s="25"/>
       <c r="F995" s="25"/>
-      <c r="G995" s="25"/>
+      <c r="G995" s="27"/>
       <c r="H995" s="25"/>
       <c r="I995" s="25"/>
       <c r="J995" s="25"/>
@@ -19792,7 +19862,7 @@
       <c r="D996" s="25"/>
       <c r="E996" s="25"/>
       <c r="F996" s="25"/>
-      <c r="G996" s="25"/>
+      <c r="G996" s="27"/>
       <c r="H996" s="25"/>
       <c r="I996" s="25"/>
       <c r="J996" s="25"/>
@@ -19811,7 +19881,7 @@
       <c r="D997" s="25"/>
       <c r="E997" s="25"/>
       <c r="F997" s="25"/>
-      <c r="G997" s="25"/>
+      <c r="G997" s="27"/>
       <c r="H997" s="25"/>
       <c r="I997" s="25"/>
       <c r="J997" s="25"/>
@@ -19830,7 +19900,7 @@
       <c r="D998" s="25"/>
       <c r="E998" s="25"/>
       <c r="F998" s="25"/>
-      <c r="G998" s="25"/>
+      <c r="G998" s="27"/>
       <c r="H998" s="25"/>
       <c r="I998" s="25"/>
       <c r="J998" s="25"/>
@@ -19849,7 +19919,7 @@
       <c r="D999" s="25"/>
       <c r="E999" s="25"/>
       <c r="F999" s="25"/>
-      <c r="G999" s="25"/>
+      <c r="G999" s="27"/>
       <c r="H999" s="25"/>
       <c r="I999" s="25"/>
       <c r="J999" s="25"/>
@@ -19868,7 +19938,7 @@
       <c r="D1000" s="25"/>
       <c r="E1000" s="25"/>
       <c r="F1000" s="25"/>
-      <c r="G1000" s="25"/>
+      <c r="G1000" s="27"/>
       <c r="H1000" s="25"/>
       <c r="I1000" s="25"/>
       <c r="J1000" s="25"/>
@@ -19881,9 +19951,13 @@
       <c r="Q1000" s="25"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1000" type="list">
       <formula1>Definitions!$B$2:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1000" type="list">
+      <formula1>Definitions!$C$2:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -19904,11 +19978,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.11"/>
@@ -29981,7 +30055,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="31.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="26.56"/>
@@ -33037,7 +33111,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2091600</xdr:colOff>
+      <xdr:colOff>2091240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1817280" cy="1917720"/>
+          <a:ext cx="1816920" cy="1917360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,7 +1146,7 @@
   </sheetPr>
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1290,7 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1351,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1422,13 +1422,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.44"/>
@@ -1441,6 +1441,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="51.89"/>
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1495,8 +1496,11 @@
       <c r="Q1" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1551,110 +1555,145 @@
     </row>
     <row r="3" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="28"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="28"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="28"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="28"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="28"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="28"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="28"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="28"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G11" s="28"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="28"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="28"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="28"/>
-    </row>
-    <row r="15" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="28"/>
-    </row>
-    <row r="16" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="28"/>
-    </row>
-    <row r="17" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="28"/>
-    </row>
-    <row r="18" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="28"/>
-    </row>
-    <row r="19" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="28"/>
-    </row>
-    <row r="20" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="28"/>
-    </row>
-    <row r="21" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="28"/>
-    </row>
-    <row r="22" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="28"/>
-    </row>
-    <row r="23" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="28"/>
-    </row>
-    <row r="24" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="28"/>
-    </row>
-    <row r="25" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="28"/>
-    </row>
-    <row r="26" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="28"/>
-    </row>
-    <row r="27" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="28"/>
-    </row>
-    <row r="28" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="28"/>
-    </row>
-    <row r="29" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="28"/>
-    </row>
-    <row r="30" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G30" s="28"/>
-    </row>
-    <row r="31" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="28"/>
-    </row>
-    <row r="32" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="28"/>
-    </row>
-    <row r="33" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="28"/>
-    </row>
-    <row r="34" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="28"/>
-    </row>
-    <row r="35" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="28"/>
-    </row>
-    <row r="36" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="28"/>
-    </row>
-    <row r="37" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="28"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -1673,7 +1712,7 @@
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -1692,7 +1731,7 @@
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -1711,7 +1750,7 @@
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -1730,7 +1769,7 @@
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -1749,7 +1788,7 @@
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -1768,7 +1807,7 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -1787,7 +1826,7 @@
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1806,7 +1845,7 @@
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -1825,7 +1864,7 @@
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -1844,7 +1883,7 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -1863,7 +1902,7 @@
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -1882,7 +1921,7 @@
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -1901,7 +1940,7 @@
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -1920,7 +1959,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -1939,7 +1978,7 @@
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -1958,7 +1997,7 @@
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -1977,7 +2016,7 @@
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -1996,7 +2035,7 @@
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
@@ -2015,7 +2054,7 @@
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -2034,7 +2073,7 @@
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -2053,7 +2092,7 @@
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -2072,7 +2111,7 @@
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -2091,7 +2130,7 @@
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -2110,7 +2149,7 @@
       <c r="P61" s="26"/>
       <c r="Q61" s="26"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -2129,7 +2168,7 @@
       <c r="P62" s="26"/>
       <c r="Q62" s="26"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -2148,7 +2187,7 @@
       <c r="P63" s="26"/>
       <c r="Q63" s="26"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -2167,7 +2206,7 @@
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -2186,7 +2225,7 @@
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -2205,7 +2244,7 @@
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -2224,7 +2263,7 @@
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -2243,7 +2282,7 @@
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -2262,7 +2301,7 @@
       <c r="P69" s="26"/>
       <c r="Q69" s="26"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -2281,7 +2320,7 @@
       <c r="P70" s="26"/>
       <c r="Q70" s="26"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -2300,7 +2339,7 @@
       <c r="P71" s="26"/>
       <c r="Q71" s="26"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -2319,7 +2358,7 @@
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -2338,7 +2377,7 @@
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -2357,7 +2396,7 @@
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -2376,7 +2415,7 @@
       <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -2395,7 +2434,7 @@
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -2414,7 +2453,7 @@
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -2433,7 +2472,7 @@
       <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -2452,7 +2491,7 @@
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -2471,7 +2510,7 @@
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -2490,7 +2529,7 @@
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -2509,7 +2548,7 @@
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -2528,7 +2567,7 @@
       <c r="P83" s="26"/>
       <c r="Q83" s="26"/>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -2547,7 +2586,7 @@
       <c r="P84" s="26"/>
       <c r="Q84" s="26"/>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -2566,7 +2605,7 @@
       <c r="P85" s="26"/>
       <c r="Q85" s="26"/>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -2585,7 +2624,7 @@
       <c r="P86" s="26"/>
       <c r="Q86" s="26"/>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -2604,7 +2643,7 @@
       <c r="P87" s="26"/>
       <c r="Q87" s="26"/>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -2623,7 +2662,7 @@
       <c r="P88" s="26"/>
       <c r="Q88" s="26"/>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -2642,7 +2681,7 @@
       <c r="P89" s="26"/>
       <c r="Q89" s="26"/>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -2661,7 +2700,7 @@
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -2680,7 +2719,7 @@
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -2699,7 +2738,7 @@
       <c r="P92" s="26"/>
       <c r="Q92" s="26"/>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -2718,7 +2757,7 @@
       <c r="P93" s="26"/>
       <c r="Q93" s="26"/>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -2737,7 +2776,7 @@
       <c r="P94" s="26"/>
       <c r="Q94" s="26"/>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -2756,7 +2795,7 @@
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -2775,7 +2814,7 @@
       <c r="P96" s="26"/>
       <c r="Q96" s="26"/>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -2794,7 +2833,7 @@
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -2813,7 +2852,7 @@
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -2832,7 +2871,7 @@
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -2851,7 +2890,7 @@
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -2870,7 +2909,7 @@
       <c r="P101" s="26"/>
       <c r="Q101" s="26"/>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -2889,7 +2928,7 @@
       <c r="P102" s="26"/>
       <c r="Q102" s="26"/>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -2908,7 +2947,7 @@
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -2927,7 +2966,7 @@
       <c r="P104" s="26"/>
       <c r="Q104" s="26"/>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
@@ -2946,7 +2985,7 @@
       <c r="P105" s="26"/>
       <c r="Q105" s="26"/>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
@@ -2965,7 +3004,7 @@
       <c r="P106" s="26"/>
       <c r="Q106" s="26"/>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
       <c r="C107" s="26"/>
@@ -2984,7 +3023,7 @@
       <c r="P107" s="26"/>
       <c r="Q107" s="26"/>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
@@ -3003,7 +3042,7 @@
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
@@ -3022,7 +3061,7 @@
       <c r="P109" s="26"/>
       <c r="Q109" s="26"/>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
@@ -3041,7 +3080,7 @@
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
@@ -3060,7 +3099,7 @@
       <c r="P111" s="26"/>
       <c r="Q111" s="26"/>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
@@ -3079,7 +3118,7 @@
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
@@ -3098,7 +3137,7 @@
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
@@ -3117,7 +3156,7 @@
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
@@ -3136,7 +3175,7 @@
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
@@ -3155,7 +3194,7 @@
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
@@ -3174,7 +3213,7 @@
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
@@ -3193,7 +3232,7 @@
       <c r="P118" s="26"/>
       <c r="Q118" s="26"/>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
@@ -3212,7 +3251,7 @@
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
@@ -3231,7 +3270,7 @@
       <c r="P120" s="26"/>
       <c r="Q120" s="26"/>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
       <c r="C121" s="26"/>
@@ -3250,7 +3289,7 @@
       <c r="P121" s="26"/>
       <c r="Q121" s="26"/>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="26"/>
@@ -3269,7 +3308,7 @@
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
@@ -3288,7 +3327,7 @@
       <c r="P123" s="26"/>
       <c r="Q123" s="26"/>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
@@ -3307,7 +3346,7 @@
       <c r="P124" s="26"/>
       <c r="Q124" s="26"/>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
       <c r="C125" s="26"/>
@@ -3326,7 +3365,7 @@
       <c r="P125" s="26"/>
       <c r="Q125" s="26"/>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -3345,7 +3384,7 @@
       <c r="P126" s="26"/>
       <c r="Q126" s="26"/>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -3364,7 +3403,7 @@
       <c r="P127" s="26"/>
       <c r="Q127" s="26"/>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
       <c r="C128" s="26"/>
@@ -3383,7 +3422,7 @@
       <c r="P128" s="26"/>
       <c r="Q128" s="26"/>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
       <c r="C129" s="26"/>
@@ -3402,7 +3441,7 @@
       <c r="P129" s="26"/>
       <c r="Q129" s="26"/>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
       <c r="C130" s="26"/>
@@ -3421,7 +3460,7 @@
       <c r="P130" s="26"/>
       <c r="Q130" s="26"/>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
       <c r="C131" s="26"/>
@@ -3440,7 +3479,7 @@
       <c r="P131" s="26"/>
       <c r="Q131" s="26"/>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
@@ -3459,7 +3498,7 @@
       <c r="P132" s="26"/>
       <c r="Q132" s="26"/>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
@@ -3478,7 +3517,7 @@
       <c r="P133" s="26"/>
       <c r="Q133" s="26"/>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
       <c r="C134" s="26"/>
@@ -3497,7 +3536,7 @@
       <c r="P134" s="26"/>
       <c r="Q134" s="26"/>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
       <c r="C135" s="26"/>
@@ -3516,7 +3555,7 @@
       <c r="P135" s="26"/>
       <c r="Q135" s="26"/>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
       <c r="C136" s="26"/>
@@ -3535,7 +3574,7 @@
       <c r="P136" s="26"/>
       <c r="Q136" s="26"/>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
@@ -3554,7 +3593,7 @@
       <c r="P137" s="26"/>
       <c r="Q137" s="26"/>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
       <c r="C138" s="26"/>
@@ -3573,7 +3612,7 @@
       <c r="P138" s="26"/>
       <c r="Q138" s="26"/>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
       <c r="C139" s="26"/>
@@ -3592,7 +3631,7 @@
       <c r="P139" s="26"/>
       <c r="Q139" s="26"/>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="26"/>
       <c r="B140" s="26"/>
       <c r="C140" s="26"/>
@@ -3611,7 +3650,7 @@
       <c r="P140" s="26"/>
       <c r="Q140" s="26"/>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
       <c r="C141" s="26"/>
@@ -3630,7 +3669,7 @@
       <c r="P141" s="26"/>
       <c r="Q141" s="26"/>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="26"/>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
@@ -3649,7 +3688,7 @@
       <c r="P142" s="26"/>
       <c r="Q142" s="26"/>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
@@ -3668,7 +3707,7 @@
       <c r="P143" s="26"/>
       <c r="Q143" s="26"/>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
@@ -3687,7 +3726,7 @@
       <c r="P144" s="26"/>
       <c r="Q144" s="26"/>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
       <c r="C145" s="26"/>
@@ -3706,7 +3745,7 @@
       <c r="P145" s="26"/>
       <c r="Q145" s="26"/>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
@@ -3725,7 +3764,7 @@
       <c r="P146" s="26"/>
       <c r="Q146" s="26"/>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
@@ -3744,7 +3783,7 @@
       <c r="P147" s="26"/>
       <c r="Q147" s="26"/>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
@@ -3763,7 +3802,7 @@
       <c r="P148" s="26"/>
       <c r="Q148" s="26"/>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
@@ -3782,7 +3821,7 @@
       <c r="P149" s="26"/>
       <c r="Q149" s="26"/>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="26"/>
       <c r="B150" s="26"/>
       <c r="C150" s="26"/>
@@ -3801,7 +3840,7 @@
       <c r="P150" s="26"/>
       <c r="Q150" s="26"/>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="26"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
@@ -3820,7 +3859,7 @@
       <c r="P151" s="26"/>
       <c r="Q151" s="26"/>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
@@ -3839,7 +3878,7 @@
       <c r="P152" s="26"/>
       <c r="Q152" s="26"/>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
       <c r="C153" s="26"/>
@@ -3858,7 +3897,7 @@
       <c r="P153" s="26"/>
       <c r="Q153" s="26"/>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
       <c r="C154" s="26"/>
@@ -3877,7 +3916,7 @@
       <c r="P154" s="26"/>
       <c r="Q154" s="26"/>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="26"/>
       <c r="B155" s="26"/>
       <c r="C155" s="26"/>
@@ -3896,7 +3935,7 @@
       <c r="P155" s="26"/>
       <c r="Q155" s="26"/>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="C156" s="26"/>
@@ -3915,7 +3954,7 @@
       <c r="P156" s="26"/>
       <c r="Q156" s="26"/>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
@@ -3934,7 +3973,7 @@
       <c r="P157" s="26"/>
       <c r="Q157" s="26"/>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
@@ -3953,7 +3992,7 @@
       <c r="P158" s="26"/>
       <c r="Q158" s="26"/>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
       <c r="C159" s="26"/>
@@ -3972,7 +4011,7 @@
       <c r="P159" s="26"/>
       <c r="Q159" s="26"/>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="C160" s="26"/>
@@ -3991,7 +4030,7 @@
       <c r="P160" s="26"/>
       <c r="Q160" s="26"/>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
@@ -4010,7 +4049,7 @@
       <c r="P161" s="26"/>
       <c r="Q161" s="26"/>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="26"/>
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
@@ -4029,7 +4068,7 @@
       <c r="P162" s="26"/>
       <c r="Q162" s="26"/>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
@@ -4048,7 +4087,7 @@
       <c r="P163" s="26"/>
       <c r="Q163" s="26"/>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="26"/>
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
@@ -4067,7 +4106,7 @@
       <c r="P164" s="26"/>
       <c r="Q164" s="26"/>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
@@ -4086,7 +4125,7 @@
       <c r="P165" s="26"/>
       <c r="Q165" s="26"/>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
@@ -4105,7 +4144,7 @@
       <c r="P166" s="26"/>
       <c r="Q166" s="26"/>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="26"/>
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
@@ -4124,7 +4163,7 @@
       <c r="P167" s="26"/>
       <c r="Q167" s="26"/>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="26"/>
       <c r="B168" s="26"/>
       <c r="C168" s="26"/>
@@ -4143,7 +4182,7 @@
       <c r="P168" s="26"/>
       <c r="Q168" s="26"/>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
       <c r="C169" s="26"/>
@@ -4162,7 +4201,7 @@
       <c r="P169" s="26"/>
       <c r="Q169" s="26"/>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
       <c r="C170" s="26"/>
@@ -4181,7 +4220,7 @@
       <c r="P170" s="26"/>
       <c r="Q170" s="26"/>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
       <c r="C171" s="26"/>
@@ -4200,7 +4239,7 @@
       <c r="P171" s="26"/>
       <c r="Q171" s="26"/>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
       <c r="C172" s="26"/>
@@ -4219,7 +4258,7 @@
       <c r="P172" s="26"/>
       <c r="Q172" s="26"/>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
       <c r="C173" s="26"/>
@@ -4238,7 +4277,7 @@
       <c r="P173" s="26"/>
       <c r="Q173" s="26"/>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
       <c r="C174" s="26"/>
@@ -4257,7 +4296,7 @@
       <c r="P174" s="26"/>
       <c r="Q174" s="26"/>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
@@ -4276,7 +4315,7 @@
       <c r="P175" s="26"/>
       <c r="Q175" s="26"/>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
       <c r="C176" s="26"/>
@@ -4295,7 +4334,7 @@
       <c r="P176" s="26"/>
       <c r="Q176" s="26"/>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
       <c r="C177" s="26"/>
@@ -4314,7 +4353,7 @@
       <c r="P177" s="26"/>
       <c r="Q177" s="26"/>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
       <c r="C178" s="26"/>
@@ -4333,7 +4372,7 @@
       <c r="P178" s="26"/>
       <c r="Q178" s="26"/>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="26"/>
       <c r="B179" s="26"/>
       <c r="C179" s="26"/>
@@ -4352,7 +4391,7 @@
       <c r="P179" s="26"/>
       <c r="Q179" s="26"/>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
       <c r="C180" s="26"/>
@@ -4371,7 +4410,7 @@
       <c r="P180" s="26"/>
       <c r="Q180" s="26"/>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="26"/>
       <c r="B181" s="26"/>
       <c r="C181" s="26"/>
@@ -4390,7 +4429,7 @@
       <c r="P181" s="26"/>
       <c r="Q181" s="26"/>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="26"/>
       <c r="B182" s="26"/>
       <c r="C182" s="26"/>
@@ -4409,7 +4448,7 @@
       <c r="P182" s="26"/>
       <c r="Q182" s="26"/>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
       <c r="C183" s="26"/>
@@ -4428,7 +4467,7 @@
       <c r="P183" s="26"/>
       <c r="Q183" s="26"/>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="26"/>
       <c r="B184" s="26"/>
       <c r="C184" s="26"/>
@@ -4447,7 +4486,7 @@
       <c r="P184" s="26"/>
       <c r="Q184" s="26"/>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
       <c r="C185" s="26"/>
@@ -4466,7 +4505,7 @@
       <c r="P185" s="26"/>
       <c r="Q185" s="26"/>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
       <c r="C186" s="26"/>
@@ -4485,7 +4524,7 @@
       <c r="P186" s="26"/>
       <c r="Q186" s="26"/>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
       <c r="C187" s="26"/>
@@ -4504,7 +4543,7 @@
       <c r="P187" s="26"/>
       <c r="Q187" s="26"/>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
       <c r="C188" s="26"/>
@@ -4523,7 +4562,7 @@
       <c r="P188" s="26"/>
       <c r="Q188" s="26"/>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
       <c r="C189" s="26"/>
@@ -4542,7 +4581,7 @@
       <c r="P189" s="26"/>
       <c r="Q189" s="26"/>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
       <c r="C190" s="26"/>
@@ -4561,7 +4600,7 @@
       <c r="P190" s="26"/>
       <c r="Q190" s="26"/>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="26"/>
       <c r="B191" s="26"/>
       <c r="C191" s="26"/>
@@ -4580,7 +4619,7 @@
       <c r="P191" s="26"/>
       <c r="Q191" s="26"/>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
       <c r="C192" s="26"/>
@@ -4599,7 +4638,7 @@
       <c r="P192" s="26"/>
       <c r="Q192" s="26"/>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="26"/>
       <c r="B193" s="26"/>
       <c r="C193" s="26"/>
@@ -4618,7 +4657,7 @@
       <c r="P193" s="26"/>
       <c r="Q193" s="26"/>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
       <c r="C194" s="26"/>
@@ -4637,7 +4676,7 @@
       <c r="P194" s="26"/>
       <c r="Q194" s="26"/>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="26"/>
       <c r="B195" s="26"/>
       <c r="C195" s="26"/>
@@ -4656,7 +4695,7 @@
       <c r="P195" s="26"/>
       <c r="Q195" s="26"/>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="26"/>
       <c r="B196" s="26"/>
       <c r="C196" s="26"/>
@@ -4675,7 +4714,7 @@
       <c r="P196" s="26"/>
       <c r="Q196" s="26"/>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="26"/>
       <c r="B197" s="26"/>
       <c r="C197" s="26"/>
@@ -4694,7 +4733,7 @@
       <c r="P197" s="26"/>
       <c r="Q197" s="26"/>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="26"/>
       <c r="B198" s="26"/>
       <c r="C198" s="26"/>
@@ -4713,7 +4752,7 @@
       <c r="P198" s="26"/>
       <c r="Q198" s="26"/>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
@@ -4732,7 +4771,7 @@
       <c r="P199" s="26"/>
       <c r="Q199" s="26"/>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="26"/>
       <c r="B200" s="26"/>
       <c r="C200" s="26"/>
@@ -4751,7 +4790,7 @@
       <c r="P200" s="26"/>
       <c r="Q200" s="26"/>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="26"/>
       <c r="B201" s="26"/>
       <c r="C201" s="26"/>
@@ -4770,7 +4809,7 @@
       <c r="P201" s="26"/>
       <c r="Q201" s="26"/>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="26"/>
       <c r="B202" s="26"/>
       <c r="C202" s="26"/>
@@ -4789,7 +4828,7 @@
       <c r="P202" s="26"/>
       <c r="Q202" s="26"/>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="26"/>
       <c r="B203" s="26"/>
       <c r="C203" s="26"/>
@@ -4808,7 +4847,7 @@
       <c r="P203" s="26"/>
       <c r="Q203" s="26"/>
     </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="26"/>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
@@ -4827,7 +4866,7 @@
       <c r="P204" s="26"/>
       <c r="Q204" s="26"/>
     </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="26"/>
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
@@ -4846,7 +4885,7 @@
       <c r="P205" s="26"/>
       <c r="Q205" s="26"/>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="26"/>
@@ -4865,7 +4904,7 @@
       <c r="P206" s="26"/>
       <c r="Q206" s="26"/>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="26"/>
@@ -4884,7 +4923,7 @@
       <c r="P207" s="26"/>
       <c r="Q207" s="26"/>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="26"/>
@@ -4903,7 +4942,7 @@
       <c r="P208" s="26"/>
       <c r="Q208" s="26"/>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="26"/>
@@ -4922,7 +4961,7 @@
       <c r="P209" s="26"/>
       <c r="Q209" s="26"/>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
       <c r="C210" s="26"/>
@@ -4941,7 +4980,7 @@
       <c r="P210" s="26"/>
       <c r="Q210" s="26"/>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
       <c r="C211" s="26"/>
@@ -4960,7 +4999,7 @@
       <c r="P211" s="26"/>
       <c r="Q211" s="26"/>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
       <c r="C212" s="26"/>
@@ -4979,7 +5018,7 @@
       <c r="P212" s="26"/>
       <c r="Q212" s="26"/>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
       <c r="C213" s="26"/>
@@ -4998,7 +5037,7 @@
       <c r="P213" s="26"/>
       <c r="Q213" s="26"/>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
       <c r="C214" s="26"/>
@@ -5017,7 +5056,7 @@
       <c r="P214" s="26"/>
       <c r="Q214" s="26"/>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
       <c r="C215" s="26"/>
@@ -5036,7 +5075,7 @@
       <c r="P215" s="26"/>
       <c r="Q215" s="26"/>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
       <c r="C216" s="26"/>
@@ -5055,7 +5094,7 @@
       <c r="P216" s="26"/>
       <c r="Q216" s="26"/>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
       <c r="C217" s="26"/>
@@ -5074,7 +5113,7 @@
       <c r="P217" s="26"/>
       <c r="Q217" s="26"/>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
       <c r="C218" s="26"/>
@@ -5093,7 +5132,7 @@
       <c r="P218" s="26"/>
       <c r="Q218" s="26"/>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
       <c r="C219" s="26"/>
@@ -5112,7 +5151,7 @@
       <c r="P219" s="26"/>
       <c r="Q219" s="26"/>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
       <c r="C220" s="26"/>
@@ -5131,7 +5170,7 @@
       <c r="P220" s="26"/>
       <c r="Q220" s="26"/>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
       <c r="C221" s="26"/>
@@ -5150,7 +5189,7 @@
       <c r="P221" s="26"/>
       <c r="Q221" s="26"/>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
       <c r="C222" s="26"/>
@@ -5169,7 +5208,7 @@
       <c r="P222" s="26"/>
       <c r="Q222" s="26"/>
     </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -5188,7 +5227,7 @@
       <c r="P223" s="26"/>
       <c r="Q223" s="26"/>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -5207,7 +5246,7 @@
       <c r="P224" s="26"/>
       <c r="Q224" s="26"/>
     </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -5226,7 +5265,7 @@
       <c r="P225" s="26"/>
       <c r="Q225" s="26"/>
     </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -5245,7 +5284,7 @@
       <c r="P226" s="26"/>
       <c r="Q226" s="26"/>
     </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -5264,7 +5303,7 @@
       <c r="P227" s="26"/>
       <c r="Q227" s="26"/>
     </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -5283,7 +5322,7 @@
       <c r="P228" s="26"/>
       <c r="Q228" s="26"/>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -5302,7 +5341,7 @@
       <c r="P229" s="26"/>
       <c r="Q229" s="26"/>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -5321,7 +5360,7 @@
       <c r="P230" s="26"/>
       <c r="Q230" s="26"/>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -5340,7 +5379,7 @@
       <c r="P231" s="26"/>
       <c r="Q231" s="26"/>
     </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -5359,7 +5398,7 @@
       <c r="P232" s="26"/>
       <c r="Q232" s="26"/>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -5378,7 +5417,7 @@
       <c r="P233" s="26"/>
       <c r="Q233" s="26"/>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -5397,7 +5436,7 @@
       <c r="P234" s="26"/>
       <c r="Q234" s="26"/>
     </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -5416,7 +5455,7 @@
       <c r="P235" s="26"/>
       <c r="Q235" s="26"/>
     </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -5435,7 +5474,7 @@
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -5454,7 +5493,7 @@
       <c r="P237" s="26"/>
       <c r="Q237" s="26"/>
     </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -5473,7 +5512,7 @@
       <c r="P238" s="26"/>
       <c r="Q238" s="26"/>
     </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -5492,7 +5531,7 @@
       <c r="P239" s="26"/>
       <c r="Q239" s="26"/>
     </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -5511,7 +5550,7 @@
       <c r="P240" s="26"/>
       <c r="Q240" s="26"/>
     </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -5530,7 +5569,7 @@
       <c r="P241" s="26"/>
       <c r="Q241" s="26"/>
     </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -5549,7 +5588,7 @@
       <c r="P242" s="26"/>
       <c r="Q242" s="26"/>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -5568,7 +5607,7 @@
       <c r="P243" s="26"/>
       <c r="Q243" s="26"/>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -5587,7 +5626,7 @@
       <c r="P244" s="26"/>
       <c r="Q244" s="26"/>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -5606,7 +5645,7 @@
       <c r="P245" s="26"/>
       <c r="Q245" s="26"/>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -5625,7 +5664,7 @@
       <c r="P246" s="26"/>
       <c r="Q246" s="26"/>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -5644,7 +5683,7 @@
       <c r="P247" s="26"/>
       <c r="Q247" s="26"/>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -5663,7 +5702,7 @@
       <c r="P248" s="26"/>
       <c r="Q248" s="26"/>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -5682,7 +5721,7 @@
       <c r="P249" s="26"/>
       <c r="Q249" s="26"/>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -5701,7 +5740,7 @@
       <c r="P250" s="26"/>
       <c r="Q250" s="26"/>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -5720,7 +5759,7 @@
       <c r="P251" s="26"/>
       <c r="Q251" s="26"/>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -5739,7 +5778,7 @@
       <c r="P252" s="26"/>
       <c r="Q252" s="26"/>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -5758,7 +5797,7 @@
       <c r="P253" s="26"/>
       <c r="Q253" s="26"/>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -5777,7 +5816,7 @@
       <c r="P254" s="26"/>
       <c r="Q254" s="26"/>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -5796,7 +5835,7 @@
       <c r="P255" s="26"/>
       <c r="Q255" s="26"/>
     </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -5815,7 +5854,7 @@
       <c r="P256" s="26"/>
       <c r="Q256" s="26"/>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -5834,7 +5873,7 @@
       <c r="P257" s="26"/>
       <c r="Q257" s="26"/>
     </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="26"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -5853,7 +5892,7 @@
       <c r="P258" s="26"/>
       <c r="Q258" s="26"/>
     </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="26"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -5872,7 +5911,7 @@
       <c r="P259" s="26"/>
       <c r="Q259" s="26"/>
     </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="26"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -5891,7 +5930,7 @@
       <c r="P260" s="26"/>
       <c r="Q260" s="26"/>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -5910,7 +5949,7 @@
       <c r="P261" s="26"/>
       <c r="Q261" s="26"/>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="26"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -5929,7 +5968,7 @@
       <c r="P262" s="26"/>
       <c r="Q262" s="26"/>
     </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="26"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -5948,7 +5987,7 @@
       <c r="P263" s="26"/>
       <c r="Q263" s="26"/>
     </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="26"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -5967,7 +6006,7 @@
       <c r="P264" s="26"/>
       <c r="Q264" s="26"/>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="26"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -5986,7 +6025,7 @@
       <c r="P265" s="26"/>
       <c r="Q265" s="26"/>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="26"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -6005,7 +6044,7 @@
       <c r="P266" s="26"/>
       <c r="Q266" s="26"/>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="26"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -6024,7 +6063,7 @@
       <c r="P267" s="26"/>
       <c r="Q267" s="26"/>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="26"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -6043,7 +6082,7 @@
       <c r="P268" s="26"/>
       <c r="Q268" s="26"/>
     </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="26"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -6062,7 +6101,7 @@
       <c r="P269" s="26"/>
       <c r="Q269" s="26"/>
     </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="26"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -6081,7 +6120,7 @@
       <c r="P270" s="26"/>
       <c r="Q270" s="26"/>
     </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="26"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -6100,7 +6139,7 @@
       <c r="P271" s="26"/>
       <c r="Q271" s="26"/>
     </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="26"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -6119,7 +6158,7 @@
       <c r="P272" s="26"/>
       <c r="Q272" s="26"/>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="26"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -6138,7 +6177,7 @@
       <c r="P273" s="26"/>
       <c r="Q273" s="26"/>
     </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="26"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -6157,7 +6196,7 @@
       <c r="P274" s="26"/>
       <c r="Q274" s="26"/>
     </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="26"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -6176,7 +6215,7 @@
       <c r="P275" s="26"/>
       <c r="Q275" s="26"/>
     </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="26"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -6195,7 +6234,7 @@
       <c r="P276" s="26"/>
       <c r="Q276" s="26"/>
     </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="26"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -6214,7 +6253,7 @@
       <c r="P277" s="26"/>
       <c r="Q277" s="26"/>
     </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -6233,7 +6272,7 @@
       <c r="P278" s="26"/>
       <c r="Q278" s="26"/>
     </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="26"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -6252,7 +6291,7 @@
       <c r="P279" s="26"/>
       <c r="Q279" s="26"/>
     </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="26"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -6271,7 +6310,7 @@
       <c r="P280" s="26"/>
       <c r="Q280" s="26"/>
     </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="26"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -6290,7 +6329,7 @@
       <c r="P281" s="26"/>
       <c r="Q281" s="26"/>
     </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="26"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -6309,7 +6348,7 @@
       <c r="P282" s="26"/>
       <c r="Q282" s="26"/>
     </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="26"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -6328,7 +6367,7 @@
       <c r="P283" s="26"/>
       <c r="Q283" s="26"/>
     </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="26"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -6347,7 +6386,7 @@
       <c r="P284" s="26"/>
       <c r="Q284" s="26"/>
     </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="26"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -6366,7 +6405,7 @@
       <c r="P285" s="26"/>
       <c r="Q285" s="26"/>
     </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="26"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -6385,7 +6424,7 @@
       <c r="P286" s="26"/>
       <c r="Q286" s="26"/>
     </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="26"/>
       <c r="B287" s="26"/>
       <c r="C287" s="26"/>
@@ -6404,7 +6443,7 @@
       <c r="P287" s="26"/>
       <c r="Q287" s="26"/>
     </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="26"/>
       <c r="B288" s="26"/>
       <c r="C288" s="26"/>
@@ -6423,7 +6462,7 @@
       <c r="P288" s="26"/>
       <c r="Q288" s="26"/>
     </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="26"/>
       <c r="B289" s="26"/>
       <c r="C289" s="26"/>
@@ -6442,7 +6481,7 @@
       <c r="P289" s="26"/>
       <c r="Q289" s="26"/>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="26"/>
       <c r="B290" s="26"/>
       <c r="C290" s="26"/>
@@ -6461,7 +6500,7 @@
       <c r="P290" s="26"/>
       <c r="Q290" s="26"/>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="26"/>
       <c r="B291" s="26"/>
       <c r="C291" s="26"/>
@@ -6480,7 +6519,7 @@
       <c r="P291" s="26"/>
       <c r="Q291" s="26"/>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="26"/>
       <c r="B292" s="26"/>
       <c r="C292" s="26"/>
@@ -6499,7 +6538,7 @@
       <c r="P292" s="26"/>
       <c r="Q292" s="26"/>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="26"/>
       <c r="B293" s="26"/>
       <c r="C293" s="26"/>
@@ -6518,7 +6557,7 @@
       <c r="P293" s="26"/>
       <c r="Q293" s="26"/>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="26"/>
       <c r="B294" s="26"/>
       <c r="C294" s="26"/>
@@ -6537,7 +6576,7 @@
       <c r="P294" s="26"/>
       <c r="Q294" s="26"/>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="26"/>
       <c r="B295" s="26"/>
       <c r="C295" s="26"/>
@@ -6556,7 +6595,7 @@
       <c r="P295" s="26"/>
       <c r="Q295" s="26"/>
     </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="26"/>
       <c r="B296" s="26"/>
       <c r="C296" s="26"/>
@@ -6575,7 +6614,7 @@
       <c r="P296" s="26"/>
       <c r="Q296" s="26"/>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="26"/>
       <c r="B297" s="26"/>
       <c r="C297" s="26"/>
@@ -6594,7 +6633,7 @@
       <c r="P297" s="26"/>
       <c r="Q297" s="26"/>
     </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="26"/>
       <c r="B298" s="26"/>
       <c r="C298" s="26"/>
@@ -6613,7 +6652,7 @@
       <c r="P298" s="26"/>
       <c r="Q298" s="26"/>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="26"/>
       <c r="B299" s="26"/>
       <c r="C299" s="26"/>
@@ -6632,7 +6671,7 @@
       <c r="P299" s="26"/>
       <c r="Q299" s="26"/>
     </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
       <c r="C300" s="26"/>
@@ -6651,7 +6690,7 @@
       <c r="P300" s="26"/>
       <c r="Q300" s="26"/>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="26"/>
       <c r="B301" s="26"/>
       <c r="C301" s="26"/>
@@ -6670,7 +6709,7 @@
       <c r="P301" s="26"/>
       <c r="Q301" s="26"/>
     </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="26"/>
       <c r="B302" s="26"/>
       <c r="C302" s="26"/>
@@ -6689,7 +6728,7 @@
       <c r="P302" s="26"/>
       <c r="Q302" s="26"/>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="26"/>
       <c r="B303" s="26"/>
       <c r="C303" s="26"/>
@@ -6708,7 +6747,7 @@
       <c r="P303" s="26"/>
       <c r="Q303" s="26"/>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="26"/>
       <c r="B304" s="26"/>
       <c r="C304" s="26"/>
@@ -6727,7 +6766,7 @@
       <c r="P304" s="26"/>
       <c r="Q304" s="26"/>
     </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="26"/>
       <c r="B305" s="26"/>
       <c r="C305" s="26"/>
@@ -6746,7 +6785,7 @@
       <c r="P305" s="26"/>
       <c r="Q305" s="26"/>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="26"/>
       <c r="B306" s="26"/>
       <c r="C306" s="26"/>
@@ -6765,7 +6804,7 @@
       <c r="P306" s="26"/>
       <c r="Q306" s="26"/>
     </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="26"/>
       <c r="B307" s="26"/>
       <c r="C307" s="26"/>
@@ -6784,7 +6823,7 @@
       <c r="P307" s="26"/>
       <c r="Q307" s="26"/>
     </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="26"/>
       <c r="B308" s="26"/>
       <c r="C308" s="26"/>
@@ -6803,7 +6842,7 @@
       <c r="P308" s="26"/>
       <c r="Q308" s="26"/>
     </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="26"/>
       <c r="B309" s="26"/>
       <c r="C309" s="26"/>
@@ -6822,7 +6861,7 @@
       <c r="P309" s="26"/>
       <c r="Q309" s="26"/>
     </row>
-    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="26"/>
       <c r="B310" s="26"/>
       <c r="C310" s="26"/>
@@ -6841,7 +6880,7 @@
       <c r="P310" s="26"/>
       <c r="Q310" s="26"/>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="26"/>
       <c r="B311" s="26"/>
       <c r="C311" s="26"/>
@@ -6860,7 +6899,7 @@
       <c r="P311" s="26"/>
       <c r="Q311" s="26"/>
     </row>
-    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="26"/>
       <c r="B312" s="26"/>
       <c r="C312" s="26"/>
@@ -6879,7 +6918,7 @@
       <c r="P312" s="26"/>
       <c r="Q312" s="26"/>
     </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="26"/>
       <c r="B313" s="26"/>
       <c r="C313" s="26"/>
@@ -6898,7 +6937,7 @@
       <c r="P313" s="26"/>
       <c r="Q313" s="26"/>
     </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="26"/>
       <c r="B314" s="26"/>
       <c r="C314" s="26"/>
@@ -6917,7 +6956,7 @@
       <c r="P314" s="26"/>
       <c r="Q314" s="26"/>
     </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="26"/>
       <c r="B315" s="26"/>
       <c r="C315" s="26"/>
@@ -6936,7 +6975,7 @@
       <c r="P315" s="26"/>
       <c r="Q315" s="26"/>
     </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="26"/>
       <c r="B316" s="26"/>
       <c r="C316" s="26"/>
@@ -6955,7 +6994,7 @@
       <c r="P316" s="26"/>
       <c r="Q316" s="26"/>
     </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="26"/>
       <c r="B317" s="26"/>
       <c r="C317" s="26"/>
@@ -6974,7 +7013,7 @@
       <c r="P317" s="26"/>
       <c r="Q317" s="26"/>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="26"/>
       <c r="B318" s="26"/>
       <c r="C318" s="26"/>
@@ -6993,7 +7032,7 @@
       <c r="P318" s="26"/>
       <c r="Q318" s="26"/>
     </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="26"/>
       <c r="B319" s="26"/>
       <c r="C319" s="26"/>
@@ -7012,7 +7051,7 @@
       <c r="P319" s="26"/>
       <c r="Q319" s="26"/>
     </row>
-    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="26"/>
       <c r="B320" s="26"/>
       <c r="C320" s="26"/>
@@ -7031,7 +7070,7 @@
       <c r="P320" s="26"/>
       <c r="Q320" s="26"/>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="26"/>
       <c r="B321" s="26"/>
       <c r="C321" s="26"/>
@@ -7050,7 +7089,7 @@
       <c r="P321" s="26"/>
       <c r="Q321" s="26"/>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="26"/>
       <c r="B322" s="26"/>
       <c r="C322" s="26"/>
@@ -7069,7 +7108,7 @@
       <c r="P322" s="26"/>
       <c r="Q322" s="26"/>
     </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
       <c r="C323" s="26"/>
@@ -7088,7 +7127,7 @@
       <c r="P323" s="26"/>
       <c r="Q323" s="26"/>
     </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="26"/>
       <c r="B324" s="26"/>
       <c r="C324" s="26"/>
@@ -7107,7 +7146,7 @@
       <c r="P324" s="26"/>
       <c r="Q324" s="26"/>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="26"/>
       <c r="B325" s="26"/>
       <c r="C325" s="26"/>
@@ -7126,7 +7165,7 @@
       <c r="P325" s="26"/>
       <c r="Q325" s="26"/>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="26"/>
       <c r="B326" s="26"/>
       <c r="C326" s="26"/>
@@ -7145,7 +7184,7 @@
       <c r="P326" s="26"/>
       <c r="Q326" s="26"/>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="26"/>
       <c r="B327" s="26"/>
       <c r="C327" s="26"/>
@@ -7164,7 +7203,7 @@
       <c r="P327" s="26"/>
       <c r="Q327" s="26"/>
     </row>
-    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="26"/>
       <c r="B328" s="26"/>
       <c r="C328" s="26"/>
@@ -7183,7 +7222,7 @@
       <c r="P328" s="26"/>
       <c r="Q328" s="26"/>
     </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="26"/>
       <c r="B329" s="26"/>
       <c r="C329" s="26"/>
@@ -7202,7 +7241,7 @@
       <c r="P329" s="26"/>
       <c r="Q329" s="26"/>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="26"/>
       <c r="B330" s="26"/>
       <c r="C330" s="26"/>
@@ -7221,7 +7260,7 @@
       <c r="P330" s="26"/>
       <c r="Q330" s="26"/>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="26"/>
       <c r="B331" s="26"/>
       <c r="C331" s="26"/>
@@ -7240,7 +7279,7 @@
       <c r="P331" s="26"/>
       <c r="Q331" s="26"/>
     </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="26"/>
       <c r="B332" s="26"/>
       <c r="C332" s="26"/>
@@ -7259,7 +7298,7 @@
       <c r="P332" s="26"/>
       <c r="Q332" s="26"/>
     </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="26"/>
       <c r="B333" s="26"/>
       <c r="C333" s="26"/>
@@ -7278,7 +7317,7 @@
       <c r="P333" s="26"/>
       <c r="Q333" s="26"/>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="26"/>
       <c r="B334" s="26"/>
       <c r="C334" s="26"/>
@@ -7297,7 +7336,7 @@
       <c r="P334" s="26"/>
       <c r="Q334" s="26"/>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="26"/>
       <c r="B335" s="26"/>
       <c r="C335" s="26"/>
@@ -7316,7 +7355,7 @@
       <c r="P335" s="26"/>
       <c r="Q335" s="26"/>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="26"/>
       <c r="B336" s="26"/>
       <c r="C336" s="26"/>
@@ -7335,7 +7374,7 @@
       <c r="P336" s="26"/>
       <c r="Q336" s="26"/>
     </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="26"/>
       <c r="B337" s="26"/>
       <c r="C337" s="26"/>
@@ -7354,7 +7393,7 @@
       <c r="P337" s="26"/>
       <c r="Q337" s="26"/>
     </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="26"/>
       <c r="B338" s="26"/>
       <c r="C338" s="26"/>
@@ -7373,7 +7412,7 @@
       <c r="P338" s="26"/>
       <c r="Q338" s="26"/>
     </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="26"/>
       <c r="B339" s="26"/>
       <c r="C339" s="26"/>
@@ -7392,7 +7431,7 @@
       <c r="P339" s="26"/>
       <c r="Q339" s="26"/>
     </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="26"/>
       <c r="B340" s="26"/>
       <c r="C340" s="26"/>
@@ -7411,7 +7450,7 @@
       <c r="P340" s="26"/>
       <c r="Q340" s="26"/>
     </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="26"/>
       <c r="B341" s="26"/>
       <c r="C341" s="26"/>
@@ -7430,7 +7469,7 @@
       <c r="P341" s="26"/>
       <c r="Q341" s="26"/>
     </row>
-    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="26"/>
       <c r="B342" s="26"/>
       <c r="C342" s="26"/>
@@ -7449,7 +7488,7 @@
       <c r="P342" s="26"/>
       <c r="Q342" s="26"/>
     </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="26"/>
       <c r="B343" s="26"/>
       <c r="C343" s="26"/>
@@ -7468,7 +7507,7 @@
       <c r="P343" s="26"/>
       <c r="Q343" s="26"/>
     </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="26"/>
       <c r="B344" s="26"/>
       <c r="C344" s="26"/>
@@ -7487,7 +7526,7 @@
       <c r="P344" s="26"/>
       <c r="Q344" s="26"/>
     </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="26"/>
       <c r="B345" s="26"/>
       <c r="C345" s="26"/>
@@ -7506,7 +7545,7 @@
       <c r="P345" s="26"/>
       <c r="Q345" s="26"/>
     </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="26"/>
       <c r="B346" s="26"/>
       <c r="C346" s="26"/>
@@ -7525,7 +7564,7 @@
       <c r="P346" s="26"/>
       <c r="Q346" s="26"/>
     </row>
-    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="26"/>
       <c r="B347" s="26"/>
       <c r="C347" s="26"/>
@@ -7544,7 +7583,7 @@
       <c r="P347" s="26"/>
       <c r="Q347" s="26"/>
     </row>
-    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="26"/>
       <c r="B348" s="26"/>
       <c r="C348" s="26"/>
@@ -7563,7 +7602,7 @@
       <c r="P348" s="26"/>
       <c r="Q348" s="26"/>
     </row>
-    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="26"/>
       <c r="B349" s="26"/>
       <c r="C349" s="26"/>
@@ -7582,7 +7621,7 @@
       <c r="P349" s="26"/>
       <c r="Q349" s="26"/>
     </row>
-    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="26"/>
       <c r="B350" s="26"/>
       <c r="C350" s="26"/>
@@ -7601,7 +7640,7 @@
       <c r="P350" s="26"/>
       <c r="Q350" s="26"/>
     </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="26"/>
       <c r="B351" s="26"/>
       <c r="C351" s="26"/>
@@ -7620,7 +7659,7 @@
       <c r="P351" s="26"/>
       <c r="Q351" s="26"/>
     </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="26"/>
       <c r="B352" s="26"/>
       <c r="C352" s="26"/>
@@ -7639,7 +7678,7 @@
       <c r="P352" s="26"/>
       <c r="Q352" s="26"/>
     </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="26"/>
       <c r="B353" s="26"/>
       <c r="C353" s="26"/>
@@ -7658,7 +7697,7 @@
       <c r="P353" s="26"/>
       <c r="Q353" s="26"/>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="26"/>
       <c r="B354" s="26"/>
       <c r="C354" s="26"/>
@@ -7677,7 +7716,7 @@
       <c r="P354" s="26"/>
       <c r="Q354" s="26"/>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="26"/>
       <c r="B355" s="26"/>
       <c r="C355" s="26"/>
@@ -7696,7 +7735,7 @@
       <c r="P355" s="26"/>
       <c r="Q355" s="26"/>
     </row>
-    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="26"/>
       <c r="B356" s="26"/>
       <c r="C356" s="26"/>
@@ -7715,7 +7754,7 @@
       <c r="P356" s="26"/>
       <c r="Q356" s="26"/>
     </row>
-    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="26"/>
       <c r="B357" s="26"/>
       <c r="C357" s="26"/>
@@ -7734,7 +7773,7 @@
       <c r="P357" s="26"/>
       <c r="Q357" s="26"/>
     </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="26"/>
       <c r="B358" s="26"/>
       <c r="C358" s="26"/>
@@ -7753,7 +7792,7 @@
       <c r="P358" s="26"/>
       <c r="Q358" s="26"/>
     </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="26"/>
       <c r="B359" s="26"/>
       <c r="C359" s="26"/>
@@ -7772,7 +7811,7 @@
       <c r="P359" s="26"/>
       <c r="Q359" s="26"/>
     </row>
-    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="26"/>
       <c r="B360" s="26"/>
       <c r="C360" s="26"/>
@@ -7791,7 +7830,7 @@
       <c r="P360" s="26"/>
       <c r="Q360" s="26"/>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="26"/>
       <c r="B361" s="26"/>
       <c r="C361" s="26"/>
@@ -7810,7 +7849,7 @@
       <c r="P361" s="26"/>
       <c r="Q361" s="26"/>
     </row>
-    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="26"/>
       <c r="B362" s="26"/>
       <c r="C362" s="26"/>
@@ -7829,7 +7868,7 @@
       <c r="P362" s="26"/>
       <c r="Q362" s="26"/>
     </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="26"/>
       <c r="B363" s="26"/>
       <c r="C363" s="26"/>
@@ -7848,7 +7887,7 @@
       <c r="P363" s="26"/>
       <c r="Q363" s="26"/>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="26"/>
       <c r="B364" s="26"/>
       <c r="C364" s="26"/>
@@ -7867,7 +7906,7 @@
       <c r="P364" s="26"/>
       <c r="Q364" s="26"/>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="26"/>
       <c r="B365" s="26"/>
       <c r="C365" s="26"/>
@@ -7886,7 +7925,7 @@
       <c r="P365" s="26"/>
       <c r="Q365" s="26"/>
     </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="26"/>
       <c r="B366" s="26"/>
       <c r="C366" s="26"/>
@@ -7905,7 +7944,7 @@
       <c r="P366" s="26"/>
       <c r="Q366" s="26"/>
     </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="26"/>
       <c r="B367" s="26"/>
       <c r="C367" s="26"/>
@@ -7924,7 +7963,7 @@
       <c r="P367" s="26"/>
       <c r="Q367" s="26"/>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="26"/>
       <c r="B368" s="26"/>
       <c r="C368" s="26"/>
@@ -7943,7 +7982,7 @@
       <c r="P368" s="26"/>
       <c r="Q368" s="26"/>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="26"/>
       <c r="B369" s="26"/>
       <c r="C369" s="26"/>
@@ -7962,7 +8001,7 @@
       <c r="P369" s="26"/>
       <c r="Q369" s="26"/>
     </row>
-    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="26"/>
       <c r="B370" s="26"/>
       <c r="C370" s="26"/>
@@ -7981,7 +8020,7 @@
       <c r="P370" s="26"/>
       <c r="Q370" s="26"/>
     </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="26"/>
       <c r="B371" s="26"/>
       <c r="C371" s="26"/>
@@ -8000,7 +8039,7 @@
       <c r="P371" s="26"/>
       <c r="Q371" s="26"/>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="26"/>
       <c r="B372" s="26"/>
       <c r="C372" s="26"/>
@@ -8019,7 +8058,7 @@
       <c r="P372" s="26"/>
       <c r="Q372" s="26"/>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="26"/>
       <c r="B373" s="26"/>
       <c r="C373" s="26"/>
@@ -8038,7 +8077,7 @@
       <c r="P373" s="26"/>
       <c r="Q373" s="26"/>
     </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="26"/>
       <c r="B374" s="26"/>
       <c r="C374" s="26"/>
@@ -8057,7 +8096,7 @@
       <c r="P374" s="26"/>
       <c r="Q374" s="26"/>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="26"/>
       <c r="B375" s="26"/>
       <c r="C375" s="26"/>
@@ -8076,7 +8115,7 @@
       <c r="P375" s="26"/>
       <c r="Q375" s="26"/>
     </row>
-    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="26"/>
       <c r="B376" s="26"/>
       <c r="C376" s="26"/>
@@ -8095,7 +8134,7 @@
       <c r="P376" s="26"/>
       <c r="Q376" s="26"/>
     </row>
-    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="26"/>
       <c r="B377" s="26"/>
       <c r="C377" s="26"/>
@@ -8114,7 +8153,7 @@
       <c r="P377" s="26"/>
       <c r="Q377" s="26"/>
     </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="26"/>
       <c r="B378" s="26"/>
       <c r="C378" s="26"/>
@@ -8133,7 +8172,7 @@
       <c r="P378" s="26"/>
       <c r="Q378" s="26"/>
     </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="26"/>
       <c r="B379" s="26"/>
       <c r="C379" s="26"/>
@@ -8152,7 +8191,7 @@
       <c r="P379" s="26"/>
       <c r="Q379" s="26"/>
     </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="26"/>
       <c r="B380" s="26"/>
       <c r="C380" s="26"/>
@@ -8171,7 +8210,7 @@
       <c r="P380" s="26"/>
       <c r="Q380" s="26"/>
     </row>
-    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="26"/>
       <c r="B381" s="26"/>
       <c r="C381" s="26"/>
@@ -8190,7 +8229,7 @@
       <c r="P381" s="26"/>
       <c r="Q381" s="26"/>
     </row>
-    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="26"/>
       <c r="B382" s="26"/>
       <c r="C382" s="26"/>
@@ -8209,7 +8248,7 @@
       <c r="P382" s="26"/>
       <c r="Q382" s="26"/>
     </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="26"/>
       <c r="B383" s="26"/>
       <c r="C383" s="26"/>
@@ -8228,7 +8267,7 @@
       <c r="P383" s="26"/>
       <c r="Q383" s="26"/>
     </row>
-    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="26"/>
       <c r="B384" s="26"/>
       <c r="C384" s="26"/>
@@ -8247,7 +8286,7 @@
       <c r="P384" s="26"/>
       <c r="Q384" s="26"/>
     </row>
-    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="26"/>
       <c r="B385" s="26"/>
       <c r="C385" s="26"/>
@@ -8266,7 +8305,7 @@
       <c r="P385" s="26"/>
       <c r="Q385" s="26"/>
     </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="26"/>
       <c r="B386" s="26"/>
       <c r="C386" s="26"/>
@@ -8285,7 +8324,7 @@
       <c r="P386" s="26"/>
       <c r="Q386" s="26"/>
     </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="26"/>
       <c r="B387" s="26"/>
       <c r="C387" s="26"/>
@@ -8304,7 +8343,7 @@
       <c r="P387" s="26"/>
       <c r="Q387" s="26"/>
     </row>
-    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="26"/>
       <c r="B388" s="26"/>
       <c r="C388" s="26"/>
@@ -8323,7 +8362,7 @@
       <c r="P388" s="26"/>
       <c r="Q388" s="26"/>
     </row>
-    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="26"/>
       <c r="B389" s="26"/>
       <c r="C389" s="26"/>
@@ -8342,7 +8381,7 @@
       <c r="P389" s="26"/>
       <c r="Q389" s="26"/>
     </row>
-    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="26"/>
       <c r="B390" s="26"/>
       <c r="C390" s="26"/>
@@ -8361,7 +8400,7 @@
       <c r="P390" s="26"/>
       <c r="Q390" s="26"/>
     </row>
-    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="26"/>
       <c r="B391" s="26"/>
       <c r="C391" s="26"/>
@@ -8380,7 +8419,7 @@
       <c r="P391" s="26"/>
       <c r="Q391" s="26"/>
     </row>
-    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="26"/>
       <c r="B392" s="26"/>
       <c r="C392" s="26"/>
@@ -8399,7 +8438,7 @@
       <c r="P392" s="26"/>
       <c r="Q392" s="26"/>
     </row>
-    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="26"/>
       <c r="B393" s="26"/>
       <c r="C393" s="26"/>
@@ -8418,7 +8457,7 @@
       <c r="P393" s="26"/>
       <c r="Q393" s="26"/>
     </row>
-    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="26"/>
       <c r="B394" s="26"/>
       <c r="C394" s="26"/>
@@ -8437,7 +8476,7 @@
       <c r="P394" s="26"/>
       <c r="Q394" s="26"/>
     </row>
-    <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="26"/>
       <c r="B395" s="26"/>
       <c r="C395" s="26"/>
@@ -8456,7 +8495,7 @@
       <c r="P395" s="26"/>
       <c r="Q395" s="26"/>
     </row>
-    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="26"/>
       <c r="B396" s="26"/>
       <c r="C396" s="26"/>
@@ -8475,7 +8514,7 @@
       <c r="P396" s="26"/>
       <c r="Q396" s="26"/>
     </row>
-    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="26"/>
       <c r="B397" s="26"/>
       <c r="C397" s="26"/>
@@ -8494,7 +8533,7 @@
       <c r="P397" s="26"/>
       <c r="Q397" s="26"/>
     </row>
-    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="26"/>
       <c r="B398" s="26"/>
       <c r="C398" s="26"/>
@@ -8513,7 +8552,7 @@
       <c r="P398" s="26"/>
       <c r="Q398" s="26"/>
     </row>
-    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="26"/>
       <c r="B399" s="26"/>
       <c r="C399" s="26"/>
@@ -8532,7 +8571,7 @@
       <c r="P399" s="26"/>
       <c r="Q399" s="26"/>
     </row>
-    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="26"/>
       <c r="B400" s="26"/>
       <c r="C400" s="26"/>
@@ -8551,7 +8590,7 @@
       <c r="P400" s="26"/>
       <c r="Q400" s="26"/>
     </row>
-    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="26"/>
       <c r="B401" s="26"/>
       <c r="C401" s="26"/>
@@ -8570,7 +8609,7 @@
       <c r="P401" s="26"/>
       <c r="Q401" s="26"/>
     </row>
-    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="26"/>
       <c r="B402" s="26"/>
       <c r="C402" s="26"/>
@@ -8589,7 +8628,7 @@
       <c r="P402" s="26"/>
       <c r="Q402" s="26"/>
     </row>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="26"/>
       <c r="B403" s="26"/>
       <c r="C403" s="26"/>
@@ -8608,7 +8647,7 @@
       <c r="P403" s="26"/>
       <c r="Q403" s="26"/>
     </row>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="26"/>
       <c r="B404" s="26"/>
       <c r="C404" s="26"/>
@@ -8627,7 +8666,7 @@
       <c r="P404" s="26"/>
       <c r="Q404" s="26"/>
     </row>
-    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="26"/>
       <c r="B405" s="26"/>
       <c r="C405" s="26"/>
@@ -8646,7 +8685,7 @@
       <c r="P405" s="26"/>
       <c r="Q405" s="26"/>
     </row>
-    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="26"/>
       <c r="B406" s="26"/>
       <c r="C406" s="26"/>
@@ -8665,7 +8704,7 @@
       <c r="P406" s="26"/>
       <c r="Q406" s="26"/>
     </row>
-    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="26"/>
       <c r="B407" s="26"/>
       <c r="C407" s="26"/>
@@ -8684,7 +8723,7 @@
       <c r="P407" s="26"/>
       <c r="Q407" s="26"/>
     </row>
-    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="26"/>
       <c r="B408" s="26"/>
       <c r="C408" s="26"/>
@@ -8703,7 +8742,7 @@
       <c r="P408" s="26"/>
       <c r="Q408" s="26"/>
     </row>
-    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="26"/>
       <c r="B409" s="26"/>
       <c r="C409" s="26"/>
@@ -8722,7 +8761,7 @@
       <c r="P409" s="26"/>
       <c r="Q409" s="26"/>
     </row>
-    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="26"/>
       <c r="B410" s="26"/>
       <c r="C410" s="26"/>
@@ -8741,7 +8780,7 @@
       <c r="P410" s="26"/>
       <c r="Q410" s="26"/>
     </row>
-    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="26"/>
       <c r="B411" s="26"/>
       <c r="C411" s="26"/>
@@ -8760,7 +8799,7 @@
       <c r="P411" s="26"/>
       <c r="Q411" s="26"/>
     </row>
-    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="26"/>
       <c r="B412" s="26"/>
       <c r="C412" s="26"/>
@@ -8779,7 +8818,7 @@
       <c r="P412" s="26"/>
       <c r="Q412" s="26"/>
     </row>
-    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="26"/>
       <c r="B413" s="26"/>
       <c r="C413" s="26"/>
@@ -8798,7 +8837,7 @@
       <c r="P413" s="26"/>
       <c r="Q413" s="26"/>
     </row>
-    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="26"/>
       <c r="B414" s="26"/>
       <c r="C414" s="26"/>
@@ -8817,7 +8856,7 @@
       <c r="P414" s="26"/>
       <c r="Q414" s="26"/>
     </row>
-    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="26"/>
       <c r="B415" s="26"/>
       <c r="C415" s="26"/>
@@ -8836,7 +8875,7 @@
       <c r="P415" s="26"/>
       <c r="Q415" s="26"/>
     </row>
-    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="26"/>
       <c r="B416" s="26"/>
       <c r="C416" s="26"/>
@@ -8855,7 +8894,7 @@
       <c r="P416" s="26"/>
       <c r="Q416" s="26"/>
     </row>
-    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="26"/>
       <c r="B417" s="26"/>
       <c r="C417" s="26"/>
@@ -8874,7 +8913,7 @@
       <c r="P417" s="26"/>
       <c r="Q417" s="26"/>
     </row>
-    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="26"/>
       <c r="B418" s="26"/>
       <c r="C418" s="26"/>
@@ -8893,7 +8932,7 @@
       <c r="P418" s="26"/>
       <c r="Q418" s="26"/>
     </row>
-    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="26"/>
       <c r="B419" s="26"/>
       <c r="C419" s="26"/>
@@ -8912,7 +8951,7 @@
       <c r="P419" s="26"/>
       <c r="Q419" s="26"/>
     </row>
-    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="26"/>
       <c r="B420" s="26"/>
       <c r="C420" s="26"/>
@@ -8931,7 +8970,7 @@
       <c r="P420" s="26"/>
       <c r="Q420" s="26"/>
     </row>
-    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="26"/>
       <c r="B421" s="26"/>
       <c r="C421" s="26"/>
@@ -8950,7 +8989,7 @@
       <c r="P421" s="26"/>
       <c r="Q421" s="26"/>
     </row>
-    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="26"/>
       <c r="B422" s="26"/>
       <c r="C422" s="26"/>
@@ -8969,7 +9008,7 @@
       <c r="P422" s="26"/>
       <c r="Q422" s="26"/>
     </row>
-    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="26"/>
       <c r="B423" s="26"/>
       <c r="C423" s="26"/>
@@ -8988,7 +9027,7 @@
       <c r="P423" s="26"/>
       <c r="Q423" s="26"/>
     </row>
-    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="26"/>
       <c r="B424" s="26"/>
       <c r="C424" s="26"/>
@@ -9007,7 +9046,7 @@
       <c r="P424" s="26"/>
       <c r="Q424" s="26"/>
     </row>
-    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="26"/>
       <c r="B425" s="26"/>
       <c r="C425" s="26"/>
@@ -9026,7 +9065,7 @@
       <c r="P425" s="26"/>
       <c r="Q425" s="26"/>
     </row>
-    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="26"/>
       <c r="B426" s="26"/>
       <c r="C426" s="26"/>
@@ -9045,7 +9084,7 @@
       <c r="P426" s="26"/>
       <c r="Q426" s="26"/>
     </row>
-    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="26"/>
       <c r="B427" s="26"/>
       <c r="C427" s="26"/>
@@ -9064,7 +9103,7 @@
       <c r="P427" s="26"/>
       <c r="Q427" s="26"/>
     </row>
-    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="26"/>
       <c r="B428" s="26"/>
       <c r="C428" s="26"/>
@@ -9083,7 +9122,7 @@
       <c r="P428" s="26"/>
       <c r="Q428" s="26"/>
     </row>
-    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="26"/>
       <c r="B429" s="26"/>
       <c r="C429" s="26"/>
@@ -9102,7 +9141,7 @@
       <c r="P429" s="26"/>
       <c r="Q429" s="26"/>
     </row>
-    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="26"/>
       <c r="B430" s="26"/>
       <c r="C430" s="26"/>
@@ -9121,7 +9160,7 @@
       <c r="P430" s="26"/>
       <c r="Q430" s="26"/>
     </row>
-    <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="26"/>
       <c r="B431" s="26"/>
       <c r="C431" s="26"/>
@@ -9140,7 +9179,7 @@
       <c r="P431" s="26"/>
       <c r="Q431" s="26"/>
     </row>
-    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="26"/>
       <c r="B432" s="26"/>
       <c r="C432" s="26"/>
@@ -9159,7 +9198,7 @@
       <c r="P432" s="26"/>
       <c r="Q432" s="26"/>
     </row>
-    <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="26"/>
       <c r="B433" s="26"/>
       <c r="C433" s="26"/>
@@ -9178,7 +9217,7 @@
       <c r="P433" s="26"/>
       <c r="Q433" s="26"/>
     </row>
-    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="26"/>
       <c r="B434" s="26"/>
       <c r="C434" s="26"/>
@@ -9197,7 +9236,7 @@
       <c r="P434" s="26"/>
       <c r="Q434" s="26"/>
     </row>
-    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="26"/>
       <c r="B435" s="26"/>
       <c r="C435" s="26"/>
@@ -9216,7 +9255,7 @@
       <c r="P435" s="26"/>
       <c r="Q435" s="26"/>
     </row>
-    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="26"/>
       <c r="B436" s="26"/>
       <c r="C436" s="26"/>
@@ -9235,7 +9274,7 @@
       <c r="P436" s="26"/>
       <c r="Q436" s="26"/>
     </row>
-    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="26"/>
       <c r="B437" s="26"/>
       <c r="C437" s="26"/>
@@ -9254,7 +9293,7 @@
       <c r="P437" s="26"/>
       <c r="Q437" s="26"/>
     </row>
-    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="26"/>
       <c r="B438" s="26"/>
       <c r="C438" s="26"/>
@@ -9273,7 +9312,7 @@
       <c r="P438" s="26"/>
       <c r="Q438" s="26"/>
     </row>
-    <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="26"/>
       <c r="B439" s="26"/>
       <c r="C439" s="26"/>
@@ -9292,7 +9331,7 @@
       <c r="P439" s="26"/>
       <c r="Q439" s="26"/>
     </row>
-    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="26"/>
       <c r="B440" s="26"/>
       <c r="C440" s="26"/>
@@ -9311,7 +9350,7 @@
       <c r="P440" s="26"/>
       <c r="Q440" s="26"/>
     </row>
-    <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="26"/>
       <c r="B441" s="26"/>
       <c r="C441" s="26"/>
@@ -9330,7 +9369,7 @@
       <c r="P441" s="26"/>
       <c r="Q441" s="26"/>
     </row>
-    <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="26"/>
       <c r="B442" s="26"/>
       <c r="C442" s="26"/>
@@ -9349,7 +9388,7 @@
       <c r="P442" s="26"/>
       <c r="Q442" s="26"/>
     </row>
-    <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="26"/>
       <c r="B443" s="26"/>
       <c r="C443" s="26"/>
@@ -9368,7 +9407,7 @@
       <c r="P443" s="26"/>
       <c r="Q443" s="26"/>
     </row>
-    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="26"/>
       <c r="B444" s="26"/>
       <c r="C444" s="26"/>
@@ -9387,7 +9426,7 @@
       <c r="P444" s="26"/>
       <c r="Q444" s="26"/>
     </row>
-    <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="26"/>
       <c r="B445" s="26"/>
       <c r="C445" s="26"/>
@@ -9406,7 +9445,7 @@
       <c r="P445" s="26"/>
       <c r="Q445" s="26"/>
     </row>
-    <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="26"/>
       <c r="B446" s="26"/>
       <c r="C446" s="26"/>
@@ -9425,7 +9464,7 @@
       <c r="P446" s="26"/>
       <c r="Q446" s="26"/>
     </row>
-    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="26"/>
       <c r="B447" s="26"/>
       <c r="C447" s="26"/>
@@ -9444,7 +9483,7 @@
       <c r="P447" s="26"/>
       <c r="Q447" s="26"/>
     </row>
-    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="26"/>
       <c r="B448" s="26"/>
       <c r="C448" s="26"/>
@@ -9463,7 +9502,7 @@
       <c r="P448" s="26"/>
       <c r="Q448" s="26"/>
     </row>
-    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="26"/>
       <c r="B449" s="26"/>
       <c r="C449" s="26"/>
@@ -9482,7 +9521,7 @@
       <c r="P449" s="26"/>
       <c r="Q449" s="26"/>
     </row>
-    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="26"/>
       <c r="B450" s="26"/>
       <c r="C450" s="26"/>
@@ -9501,7 +9540,7 @@
       <c r="P450" s="26"/>
       <c r="Q450" s="26"/>
     </row>
-    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="26"/>
       <c r="B451" s="26"/>
       <c r="C451" s="26"/>
@@ -9520,7 +9559,7 @@
       <c r="P451" s="26"/>
       <c r="Q451" s="26"/>
     </row>
-    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="26"/>
       <c r="B452" s="26"/>
       <c r="C452" s="26"/>
@@ -9539,7 +9578,7 @@
       <c r="P452" s="26"/>
       <c r="Q452" s="26"/>
     </row>
-    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="26"/>
       <c r="B453" s="26"/>
       <c r="C453" s="26"/>
@@ -9558,7 +9597,7 @@
       <c r="P453" s="26"/>
       <c r="Q453" s="26"/>
     </row>
-    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="26"/>
       <c r="B454" s="26"/>
       <c r="C454" s="26"/>
@@ -9577,7 +9616,7 @@
       <c r="P454" s="26"/>
       <c r="Q454" s="26"/>
     </row>
-    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="26"/>
       <c r="B455" s="26"/>
       <c r="C455" s="26"/>
@@ -9596,7 +9635,7 @@
       <c r="P455" s="26"/>
       <c r="Q455" s="26"/>
     </row>
-    <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="26"/>
       <c r="B456" s="26"/>
       <c r="C456" s="26"/>
@@ -9615,7 +9654,7 @@
       <c r="P456" s="26"/>
       <c r="Q456" s="26"/>
     </row>
-    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="26"/>
       <c r="B457" s="26"/>
       <c r="C457" s="26"/>
@@ -9634,7 +9673,7 @@
       <c r="P457" s="26"/>
       <c r="Q457" s="26"/>
     </row>
-    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="26"/>
       <c r="B458" s="26"/>
       <c r="C458" s="26"/>
@@ -9653,7 +9692,7 @@
       <c r="P458" s="26"/>
       <c r="Q458" s="26"/>
     </row>
-    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="26"/>
       <c r="B459" s="26"/>
       <c r="C459" s="26"/>
@@ -9672,7 +9711,7 @@
       <c r="P459" s="26"/>
       <c r="Q459" s="26"/>
     </row>
-    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="26"/>
       <c r="B460" s="26"/>
       <c r="C460" s="26"/>
@@ -9691,7 +9730,7 @@
       <c r="P460" s="26"/>
       <c r="Q460" s="26"/>
     </row>
-    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="26"/>
       <c r="B461" s="26"/>
       <c r="C461" s="26"/>
@@ -9710,7 +9749,7 @@
       <c r="P461" s="26"/>
       <c r="Q461" s="26"/>
     </row>
-    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="26"/>
       <c r="B462" s="26"/>
       <c r="C462" s="26"/>
@@ -9729,7 +9768,7 @@
       <c r="P462" s="26"/>
       <c r="Q462" s="26"/>
     </row>
-    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="26"/>
       <c r="B463" s="26"/>
       <c r="C463" s="26"/>
@@ -9748,7 +9787,7 @@
       <c r="P463" s="26"/>
       <c r="Q463" s="26"/>
     </row>
-    <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="26"/>
       <c r="B464" s="26"/>
       <c r="C464" s="26"/>
@@ -9767,7 +9806,7 @@
       <c r="P464" s="26"/>
       <c r="Q464" s="26"/>
     </row>
-    <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="26"/>
       <c r="B465" s="26"/>
       <c r="C465" s="26"/>
@@ -9786,7 +9825,7 @@
       <c r="P465" s="26"/>
       <c r="Q465" s="26"/>
     </row>
-    <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="26"/>
       <c r="B466" s="26"/>
       <c r="C466" s="26"/>
@@ -9805,7 +9844,7 @@
       <c r="P466" s="26"/>
       <c r="Q466" s="26"/>
     </row>
-    <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="26"/>
       <c r="B467" s="26"/>
       <c r="C467" s="26"/>
@@ -9824,7 +9863,7 @@
       <c r="P467" s="26"/>
       <c r="Q467" s="26"/>
     </row>
-    <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="26"/>
       <c r="B468" s="26"/>
       <c r="C468" s="26"/>
@@ -9843,7 +9882,7 @@
       <c r="P468" s="26"/>
       <c r="Q468" s="26"/>
     </row>
-    <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="26"/>
       <c r="B469" s="26"/>
       <c r="C469" s="26"/>
@@ -9862,7 +9901,7 @@
       <c r="P469" s="26"/>
       <c r="Q469" s="26"/>
     </row>
-    <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="26"/>
       <c r="B470" s="26"/>
       <c r="C470" s="26"/>
@@ -9881,7 +9920,7 @@
       <c r="P470" s="26"/>
       <c r="Q470" s="26"/>
     </row>
-    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="26"/>
       <c r="B471" s="26"/>
       <c r="C471" s="26"/>
@@ -9900,7 +9939,7 @@
       <c r="P471" s="26"/>
       <c r="Q471" s="26"/>
     </row>
-    <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="26"/>
       <c r="B472" s="26"/>
       <c r="C472" s="26"/>
@@ -9919,7 +9958,7 @@
       <c r="P472" s="26"/>
       <c r="Q472" s="26"/>
     </row>
-    <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="26"/>
       <c r="B473" s="26"/>
       <c r="C473" s="26"/>
@@ -9938,7 +9977,7 @@
       <c r="P473" s="26"/>
       <c r="Q473" s="26"/>
     </row>
-    <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="26"/>
       <c r="B474" s="26"/>
       <c r="C474" s="26"/>
@@ -9957,7 +9996,7 @@
       <c r="P474" s="26"/>
       <c r="Q474" s="26"/>
     </row>
-    <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="26"/>
       <c r="B475" s="26"/>
       <c r="C475" s="26"/>
@@ -9976,7 +10015,7 @@
       <c r="P475" s="26"/>
       <c r="Q475" s="26"/>
     </row>
-    <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="26"/>
       <c r="B476" s="26"/>
       <c r="C476" s="26"/>
@@ -9995,7 +10034,7 @@
       <c r="P476" s="26"/>
       <c r="Q476" s="26"/>
     </row>
-    <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="26"/>
       <c r="B477" s="26"/>
       <c r="C477" s="26"/>
@@ -10014,7 +10053,7 @@
       <c r="P477" s="26"/>
       <c r="Q477" s="26"/>
     </row>
-    <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="26"/>
       <c r="B478" s="26"/>
       <c r="C478" s="26"/>
@@ -10033,7 +10072,7 @@
       <c r="P478" s="26"/>
       <c r="Q478" s="26"/>
     </row>
-    <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="26"/>
       <c r="B479" s="26"/>
       <c r="C479" s="26"/>
@@ -10052,7 +10091,7 @@
       <c r="P479" s="26"/>
       <c r="Q479" s="26"/>
     </row>
-    <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="26"/>
       <c r="B480" s="26"/>
       <c r="C480" s="26"/>
@@ -10071,7 +10110,7 @@
       <c r="P480" s="26"/>
       <c r="Q480" s="26"/>
     </row>
-    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="26"/>
       <c r="B481" s="26"/>
       <c r="C481" s="26"/>
@@ -10090,7 +10129,7 @@
       <c r="P481" s="26"/>
       <c r="Q481" s="26"/>
     </row>
-    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="26"/>
       <c r="B482" s="26"/>
       <c r="C482" s="26"/>
@@ -10109,7 +10148,7 @@
       <c r="P482" s="26"/>
       <c r="Q482" s="26"/>
     </row>
-    <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="26"/>
       <c r="B483" s="26"/>
       <c r="C483" s="26"/>
@@ -10128,7 +10167,7 @@
       <c r="P483" s="26"/>
       <c r="Q483" s="26"/>
     </row>
-    <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="26"/>
       <c r="B484" s="26"/>
       <c r="C484" s="26"/>
@@ -10147,7 +10186,7 @@
       <c r="P484" s="26"/>
       <c r="Q484" s="26"/>
     </row>
-    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="26"/>
       <c r="B485" s="26"/>
       <c r="C485" s="26"/>
@@ -10166,7 +10205,7 @@
       <c r="P485" s="26"/>
       <c r="Q485" s="26"/>
     </row>
-    <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="26"/>
       <c r="B486" s="26"/>
       <c r="C486" s="26"/>
@@ -10185,7 +10224,7 @@
       <c r="P486" s="26"/>
       <c r="Q486" s="26"/>
     </row>
-    <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="26"/>
       <c r="B487" s="26"/>
       <c r="C487" s="26"/>
@@ -10204,7 +10243,7 @@
       <c r="P487" s="26"/>
       <c r="Q487" s="26"/>
     </row>
-    <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="26"/>
       <c r="B488" s="26"/>
       <c r="C488" s="26"/>
@@ -10223,7 +10262,7 @@
       <c r="P488" s="26"/>
       <c r="Q488" s="26"/>
     </row>
-    <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="26"/>
       <c r="B489" s="26"/>
       <c r="C489" s="26"/>
@@ -10242,7 +10281,7 @@
       <c r="P489" s="26"/>
       <c r="Q489" s="26"/>
     </row>
-    <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="26"/>
       <c r="B490" s="26"/>
       <c r="C490" s="26"/>
@@ -10261,7 +10300,7 @@
       <c r="P490" s="26"/>
       <c r="Q490" s="26"/>
     </row>
-    <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="26"/>
       <c r="B491" s="26"/>
       <c r="C491" s="26"/>
@@ -10280,7 +10319,7 @@
       <c r="P491" s="26"/>
       <c r="Q491" s="26"/>
     </row>
-    <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="26"/>
       <c r="B492" s="26"/>
       <c r="C492" s="26"/>
@@ -10299,7 +10338,7 @@
       <c r="P492" s="26"/>
       <c r="Q492" s="26"/>
     </row>
-    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="26"/>
       <c r="B493" s="26"/>
       <c r="C493" s="26"/>
@@ -10318,7 +10357,7 @@
       <c r="P493" s="26"/>
       <c r="Q493" s="26"/>
     </row>
-    <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="26"/>
       <c r="B494" s="26"/>
       <c r="C494" s="26"/>
@@ -10337,7 +10376,7 @@
       <c r="P494" s="26"/>
       <c r="Q494" s="26"/>
     </row>
-    <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="26"/>
       <c r="B495" s="26"/>
       <c r="C495" s="26"/>
@@ -10356,7 +10395,7 @@
       <c r="P495" s="26"/>
       <c r="Q495" s="26"/>
     </row>
-    <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="26"/>
       <c r="B496" s="26"/>
       <c r="C496" s="26"/>
@@ -10375,7 +10414,7 @@
       <c r="P496" s="26"/>
       <c r="Q496" s="26"/>
     </row>
-    <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="26"/>
       <c r="B497" s="26"/>
       <c r="C497" s="26"/>
@@ -10394,7 +10433,7 @@
       <c r="P497" s="26"/>
       <c r="Q497" s="26"/>
     </row>
-    <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="26"/>
       <c r="B498" s="26"/>
       <c r="C498" s="26"/>
@@ -10413,7 +10452,7 @@
       <c r="P498" s="26"/>
       <c r="Q498" s="26"/>
     </row>
-    <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="26"/>
       <c r="B499" s="26"/>
       <c r="C499" s="26"/>
@@ -10432,7 +10471,7 @@
       <c r="P499" s="26"/>
       <c r="Q499" s="26"/>
     </row>
-    <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="26"/>
       <c r="B500" s="26"/>
       <c r="C500" s="26"/>
@@ -10451,7 +10490,7 @@
       <c r="P500" s="26"/>
       <c r="Q500" s="26"/>
     </row>
-    <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="26"/>
       <c r="B501" s="26"/>
       <c r="C501" s="26"/>
@@ -10470,7 +10509,7 @@
       <c r="P501" s="26"/>
       <c r="Q501" s="26"/>
     </row>
-    <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="26"/>
       <c r="B502" s="26"/>
       <c r="C502" s="26"/>
@@ -10489,7 +10528,7 @@
       <c r="P502" s="26"/>
       <c r="Q502" s="26"/>
     </row>
-    <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="26"/>
       <c r="B503" s="26"/>
       <c r="C503" s="26"/>
@@ -10508,7 +10547,7 @@
       <c r="P503" s="26"/>
       <c r="Q503" s="26"/>
     </row>
-    <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="26"/>
       <c r="B504" s="26"/>
       <c r="C504" s="26"/>
@@ -10527,7 +10566,7 @@
       <c r="P504" s="26"/>
       <c r="Q504" s="26"/>
     </row>
-    <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="26"/>
       <c r="B505" s="26"/>
       <c r="C505" s="26"/>
@@ -10546,7 +10585,7 @@
       <c r="P505" s="26"/>
       <c r="Q505" s="26"/>
     </row>
-    <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="26"/>
       <c r="B506" s="26"/>
       <c r="C506" s="26"/>
@@ -10565,7 +10604,7 @@
       <c r="P506" s="26"/>
       <c r="Q506" s="26"/>
     </row>
-    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="26"/>
       <c r="B507" s="26"/>
       <c r="C507" s="26"/>
@@ -10584,7 +10623,7 @@
       <c r="P507" s="26"/>
       <c r="Q507" s="26"/>
     </row>
-    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="26"/>
       <c r="B508" s="26"/>
       <c r="C508" s="26"/>
@@ -10603,7 +10642,7 @@
       <c r="P508" s="26"/>
       <c r="Q508" s="26"/>
     </row>
-    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="26"/>
       <c r="B509" s="26"/>
       <c r="C509" s="26"/>
@@ -10622,7 +10661,7 @@
       <c r="P509" s="26"/>
       <c r="Q509" s="26"/>
     </row>
-    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="26"/>
       <c r="B510" s="26"/>
       <c r="C510" s="26"/>
@@ -10641,7 +10680,7 @@
       <c r="P510" s="26"/>
       <c r="Q510" s="26"/>
     </row>
-    <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="26"/>
       <c r="B511" s="26"/>
       <c r="C511" s="26"/>
@@ -10660,7 +10699,7 @@
       <c r="P511" s="26"/>
       <c r="Q511" s="26"/>
     </row>
-    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="26"/>
       <c r="B512" s="26"/>
       <c r="C512" s="26"/>
@@ -10679,7 +10718,7 @@
       <c r="P512" s="26"/>
       <c r="Q512" s="26"/>
     </row>
-    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="26"/>
       <c r="B513" s="26"/>
       <c r="C513" s="26"/>
@@ -10698,7 +10737,7 @@
       <c r="P513" s="26"/>
       <c r="Q513" s="26"/>
     </row>
-    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="26"/>
       <c r="B514" s="26"/>
       <c r="C514" s="26"/>
@@ -10717,7 +10756,7 @@
       <c r="P514" s="26"/>
       <c r="Q514" s="26"/>
     </row>
-    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="26"/>
       <c r="B515" s="26"/>
       <c r="C515" s="26"/>
@@ -10736,7 +10775,7 @@
       <c r="P515" s="26"/>
       <c r="Q515" s="26"/>
     </row>
-    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="26"/>
       <c r="B516" s="26"/>
       <c r="C516" s="26"/>
@@ -10755,7 +10794,7 @@
       <c r="P516" s="26"/>
       <c r="Q516" s="26"/>
     </row>
-    <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="26"/>
       <c r="B517" s="26"/>
       <c r="C517" s="26"/>
@@ -10774,7 +10813,7 @@
       <c r="P517" s="26"/>
       <c r="Q517" s="26"/>
     </row>
-    <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="26"/>
       <c r="B518" s="26"/>
       <c r="C518" s="26"/>
@@ -10793,7 +10832,7 @@
       <c r="P518" s="26"/>
       <c r="Q518" s="26"/>
     </row>
-    <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="26"/>
       <c r="B519" s="26"/>
       <c r="C519" s="26"/>
@@ -10812,7 +10851,7 @@
       <c r="P519" s="26"/>
       <c r="Q519" s="26"/>
     </row>
-    <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="26"/>
       <c r="B520" s="26"/>
       <c r="C520" s="26"/>
@@ -10831,7 +10870,7 @@
       <c r="P520" s="26"/>
       <c r="Q520" s="26"/>
     </row>
-    <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="26"/>
       <c r="B521" s="26"/>
       <c r="C521" s="26"/>
@@ -10850,7 +10889,7 @@
       <c r="P521" s="26"/>
       <c r="Q521" s="26"/>
     </row>
-    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="26"/>
       <c r="B522" s="26"/>
       <c r="C522" s="26"/>
@@ -10869,7 +10908,7 @@
       <c r="P522" s="26"/>
       <c r="Q522" s="26"/>
     </row>
-    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="26"/>
       <c r="B523" s="26"/>
       <c r="C523" s="26"/>
@@ -10888,7 +10927,7 @@
       <c r="P523" s="26"/>
       <c r="Q523" s="26"/>
     </row>
-    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="26"/>
       <c r="B524" s="26"/>
       <c r="C524" s="26"/>
@@ -10907,7 +10946,7 @@
       <c r="P524" s="26"/>
       <c r="Q524" s="26"/>
     </row>
-    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="26"/>
       <c r="B525" s="26"/>
       <c r="C525" s="26"/>
@@ -10926,7 +10965,7 @@
       <c r="P525" s="26"/>
       <c r="Q525" s="26"/>
     </row>
-    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="26"/>
       <c r="B526" s="26"/>
       <c r="C526" s="26"/>
@@ -10945,7 +10984,7 @@
       <c r="P526" s="26"/>
       <c r="Q526" s="26"/>
     </row>
-    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="26"/>
       <c r="B527" s="26"/>
       <c r="C527" s="26"/>
@@ -10964,7 +11003,7 @@
       <c r="P527" s="26"/>
       <c r="Q527" s="26"/>
     </row>
-    <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="26"/>
       <c r="B528" s="26"/>
       <c r="C528" s="26"/>
@@ -10983,7 +11022,7 @@
       <c r="P528" s="26"/>
       <c r="Q528" s="26"/>
     </row>
-    <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="26"/>
       <c r="B529" s="26"/>
       <c r="C529" s="26"/>
@@ -11002,7 +11041,7 @@
       <c r="P529" s="26"/>
       <c r="Q529" s="26"/>
     </row>
-    <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="26"/>
       <c r="B530" s="26"/>
       <c r="C530" s="26"/>
@@ -11021,7 +11060,7 @@
       <c r="P530" s="26"/>
       <c r="Q530" s="26"/>
     </row>
-    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="26"/>
       <c r="B531" s="26"/>
       <c r="C531" s="26"/>
@@ -11040,7 +11079,7 @@
       <c r="P531" s="26"/>
       <c r="Q531" s="26"/>
     </row>
-    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="26"/>
       <c r="B532" s="26"/>
       <c r="C532" s="26"/>
@@ -11059,7 +11098,7 @@
       <c r="P532" s="26"/>
       <c r="Q532" s="26"/>
     </row>
-    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="26"/>
       <c r="B533" s="26"/>
       <c r="C533" s="26"/>
@@ -11078,7 +11117,7 @@
       <c r="P533" s="26"/>
       <c r="Q533" s="26"/>
     </row>
-    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="26"/>
       <c r="B534" s="26"/>
       <c r="C534" s="26"/>
@@ -11097,7 +11136,7 @@
       <c r="P534" s="26"/>
       <c r="Q534" s="26"/>
     </row>
-    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="26"/>
       <c r="B535" s="26"/>
       <c r="C535" s="26"/>
@@ -11116,7 +11155,7 @@
       <c r="P535" s="26"/>
       <c r="Q535" s="26"/>
     </row>
-    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="26"/>
       <c r="B536" s="26"/>
       <c r="C536" s="26"/>
@@ -11135,7 +11174,7 @@
       <c r="P536" s="26"/>
       <c r="Q536" s="26"/>
     </row>
-    <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="26"/>
       <c r="B537" s="26"/>
       <c r="C537" s="26"/>
@@ -11154,7 +11193,7 @@
       <c r="P537" s="26"/>
       <c r="Q537" s="26"/>
     </row>
-    <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="26"/>
       <c r="B538" s="26"/>
       <c r="C538" s="26"/>
@@ -11173,7 +11212,7 @@
       <c r="P538" s="26"/>
       <c r="Q538" s="26"/>
     </row>
-    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="26"/>
       <c r="B539" s="26"/>
       <c r="C539" s="26"/>
@@ -11192,7 +11231,7 @@
       <c r="P539" s="26"/>
       <c r="Q539" s="26"/>
     </row>
-    <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="26"/>
       <c r="B540" s="26"/>
       <c r="C540" s="26"/>
@@ -11211,7 +11250,7 @@
       <c r="P540" s="26"/>
       <c r="Q540" s="26"/>
     </row>
-    <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="26"/>
       <c r="B541" s="26"/>
       <c r="C541" s="26"/>
@@ -11230,7 +11269,7 @@
       <c r="P541" s="26"/>
       <c r="Q541" s="26"/>
     </row>
-    <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="26"/>
       <c r="B542" s="26"/>
       <c r="C542" s="26"/>
@@ -11249,7 +11288,7 @@
       <c r="P542" s="26"/>
       <c r="Q542" s="26"/>
     </row>
-    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="26"/>
       <c r="B543" s="26"/>
       <c r="C543" s="26"/>
@@ -11268,7 +11307,7 @@
       <c r="P543" s="26"/>
       <c r="Q543" s="26"/>
     </row>
-    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="26"/>
       <c r="B544" s="26"/>
       <c r="C544" s="26"/>
@@ -11287,7 +11326,7 @@
       <c r="P544" s="26"/>
       <c r="Q544" s="26"/>
     </row>
-    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="26"/>
       <c r="B545" s="26"/>
       <c r="C545" s="26"/>
@@ -11306,7 +11345,7 @@
       <c r="P545" s="26"/>
       <c r="Q545" s="26"/>
     </row>
-    <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="26"/>
       <c r="B546" s="26"/>
       <c r="C546" s="26"/>
@@ -11325,7 +11364,7 @@
       <c r="P546" s="26"/>
       <c r="Q546" s="26"/>
     </row>
-    <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="26"/>
       <c r="B547" s="26"/>
       <c r="C547" s="26"/>
@@ -11344,7 +11383,7 @@
       <c r="P547" s="26"/>
       <c r="Q547" s="26"/>
     </row>
-    <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="26"/>
       <c r="B548" s="26"/>
       <c r="C548" s="26"/>
@@ -11363,7 +11402,7 @@
       <c r="P548" s="26"/>
       <c r="Q548" s="26"/>
     </row>
-    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="26"/>
       <c r="B549" s="26"/>
       <c r="C549" s="26"/>
@@ -11382,7 +11421,7 @@
       <c r="P549" s="26"/>
       <c r="Q549" s="26"/>
     </row>
-    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="26"/>
       <c r="B550" s="26"/>
       <c r="C550" s="26"/>
@@ -11401,7 +11440,7 @@
       <c r="P550" s="26"/>
       <c r="Q550" s="26"/>
     </row>
-    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="26"/>
       <c r="B551" s="26"/>
       <c r="C551" s="26"/>
@@ -11420,7 +11459,7 @@
       <c r="P551" s="26"/>
       <c r="Q551" s="26"/>
     </row>
-    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="26"/>
       <c r="B552" s="26"/>
       <c r="C552" s="26"/>
@@ -11439,7 +11478,7 @@
       <c r="P552" s="26"/>
       <c r="Q552" s="26"/>
     </row>
-    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="26"/>
       <c r="B553" s="26"/>
       <c r="C553" s="26"/>
@@ -11458,7 +11497,7 @@
       <c r="P553" s="26"/>
       <c r="Q553" s="26"/>
     </row>
-    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="26"/>
       <c r="B554" s="26"/>
       <c r="C554" s="26"/>
@@ -11477,7 +11516,7 @@
       <c r="P554" s="26"/>
       <c r="Q554" s="26"/>
     </row>
-    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="26"/>
       <c r="B555" s="26"/>
       <c r="C555" s="26"/>
@@ -11496,7 +11535,7 @@
       <c r="P555" s="26"/>
       <c r="Q555" s="26"/>
     </row>
-    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="26"/>
       <c r="B556" s="26"/>
       <c r="C556" s="26"/>
@@ -11515,7 +11554,7 @@
       <c r="P556" s="26"/>
       <c r="Q556" s="26"/>
     </row>
-    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="26"/>
       <c r="B557" s="26"/>
       <c r="C557" s="26"/>
@@ -11534,7 +11573,7 @@
       <c r="P557" s="26"/>
       <c r="Q557" s="26"/>
     </row>
-    <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="26"/>
       <c r="B558" s="26"/>
       <c r="C558" s="26"/>
@@ -11553,7 +11592,7 @@
       <c r="P558" s="26"/>
       <c r="Q558" s="26"/>
     </row>
-    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="26"/>
       <c r="B559" s="26"/>
       <c r="C559" s="26"/>
@@ -11572,7 +11611,7 @@
       <c r="P559" s="26"/>
       <c r="Q559" s="26"/>
     </row>
-    <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="26"/>
       <c r="B560" s="26"/>
       <c r="C560" s="26"/>
@@ -11591,7 +11630,7 @@
       <c r="P560" s="26"/>
       <c r="Q560" s="26"/>
     </row>
-    <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="26"/>
       <c r="B561" s="26"/>
       <c r="C561" s="26"/>
@@ -11610,7 +11649,7 @@
       <c r="P561" s="26"/>
       <c r="Q561" s="26"/>
     </row>
-    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="26"/>
       <c r="B562" s="26"/>
       <c r="C562" s="26"/>
@@ -11629,7 +11668,7 @@
       <c r="P562" s="26"/>
       <c r="Q562" s="26"/>
     </row>
-    <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="26"/>
       <c r="B563" s="26"/>
       <c r="C563" s="26"/>
@@ -11648,7 +11687,7 @@
       <c r="P563" s="26"/>
       <c r="Q563" s="26"/>
     </row>
-    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="26"/>
       <c r="B564" s="26"/>
       <c r="C564" s="26"/>
@@ -11667,7 +11706,7 @@
       <c r="P564" s="26"/>
       <c r="Q564" s="26"/>
     </row>
-    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="26"/>
       <c r="B565" s="26"/>
       <c r="C565" s="26"/>
@@ -11686,7 +11725,7 @@
       <c r="P565" s="26"/>
       <c r="Q565" s="26"/>
     </row>
-    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="26"/>
       <c r="B566" s="26"/>
       <c r="C566" s="26"/>
@@ -11705,7 +11744,7 @@
       <c r="P566" s="26"/>
       <c r="Q566" s="26"/>
     </row>
-    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="26"/>
       <c r="B567" s="26"/>
       <c r="C567" s="26"/>
@@ -11724,7 +11763,7 @@
       <c r="P567" s="26"/>
       <c r="Q567" s="26"/>
     </row>
-    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="26"/>
       <c r="B568" s="26"/>
       <c r="C568" s="26"/>
@@ -11743,7 +11782,7 @@
       <c r="P568" s="26"/>
       <c r="Q568" s="26"/>
     </row>
-    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="26"/>
       <c r="B569" s="26"/>
       <c r="C569" s="26"/>
@@ -11762,7 +11801,7 @@
       <c r="P569" s="26"/>
       <c r="Q569" s="26"/>
     </row>
-    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="26"/>
       <c r="B570" s="26"/>
       <c r="C570" s="26"/>
@@ -11781,7 +11820,7 @@
       <c r="P570" s="26"/>
       <c r="Q570" s="26"/>
     </row>
-    <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="26"/>
       <c r="B571" s="26"/>
       <c r="C571" s="26"/>
@@ -11800,7 +11839,7 @@
       <c r="P571" s="26"/>
       <c r="Q571" s="26"/>
     </row>
-    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="26"/>
       <c r="B572" s="26"/>
       <c r="C572" s="26"/>
@@ -11819,7 +11858,7 @@
       <c r="P572" s="26"/>
       <c r="Q572" s="26"/>
     </row>
-    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="26"/>
       <c r="B573" s="26"/>
       <c r="C573" s="26"/>
@@ -11838,7 +11877,7 @@
       <c r="P573" s="26"/>
       <c r="Q573" s="26"/>
     </row>
-    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="26"/>
       <c r="B574" s="26"/>
       <c r="C574" s="26"/>
@@ -11857,7 +11896,7 @@
       <c r="P574" s="26"/>
       <c r="Q574" s="26"/>
     </row>
-    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="26"/>
       <c r="B575" s="26"/>
       <c r="C575" s="26"/>
@@ -11876,7 +11915,7 @@
       <c r="P575" s="26"/>
       <c r="Q575" s="26"/>
     </row>
-    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="26"/>
       <c r="B576" s="26"/>
       <c r="C576" s="26"/>
@@ -11895,7 +11934,7 @@
       <c r="P576" s="26"/>
       <c r="Q576" s="26"/>
     </row>
-    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="26"/>
       <c r="B577" s="26"/>
       <c r="C577" s="26"/>
@@ -11914,7 +11953,7 @@
       <c r="P577" s="26"/>
       <c r="Q577" s="26"/>
     </row>
-    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="26"/>
       <c r="B578" s="26"/>
       <c r="C578" s="26"/>
@@ -11933,7 +11972,7 @@
       <c r="P578" s="26"/>
       <c r="Q578" s="26"/>
     </row>
-    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="26"/>
       <c r="B579" s="26"/>
       <c r="C579" s="26"/>
@@ -11952,7 +11991,7 @@
       <c r="P579" s="26"/>
       <c r="Q579" s="26"/>
     </row>
-    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="26"/>
       <c r="B580" s="26"/>
       <c r="C580" s="26"/>
@@ -11971,7 +12010,7 @@
       <c r="P580" s="26"/>
       <c r="Q580" s="26"/>
     </row>
-    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="26"/>
       <c r="B581" s="26"/>
       <c r="C581" s="26"/>
@@ -11990,7 +12029,7 @@
       <c r="P581" s="26"/>
       <c r="Q581" s="26"/>
     </row>
-    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="26"/>
       <c r="B582" s="26"/>
       <c r="C582" s="26"/>
@@ -12009,7 +12048,7 @@
       <c r="P582" s="26"/>
       <c r="Q582" s="26"/>
     </row>
-    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="26"/>
       <c r="B583" s="26"/>
       <c r="C583" s="26"/>
@@ -12028,7 +12067,7 @@
       <c r="P583" s="26"/>
       <c r="Q583" s="26"/>
     </row>
-    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="26"/>
       <c r="B584" s="26"/>
       <c r="C584" s="26"/>
@@ -12047,7 +12086,7 @@
       <c r="P584" s="26"/>
       <c r="Q584" s="26"/>
     </row>
-    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="26"/>
       <c r="B585" s="26"/>
       <c r="C585" s="26"/>
@@ -12066,7 +12105,7 @@
       <c r="P585" s="26"/>
       <c r="Q585" s="26"/>
     </row>
-    <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="26"/>
       <c r="B586" s="26"/>
       <c r="C586" s="26"/>
@@ -12085,7 +12124,7 @@
       <c r="P586" s="26"/>
       <c r="Q586" s="26"/>
     </row>
-    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="26"/>
       <c r="B587" s="26"/>
       <c r="C587" s="26"/>
@@ -12104,7 +12143,7 @@
       <c r="P587" s="26"/>
       <c r="Q587" s="26"/>
     </row>
-    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="26"/>
       <c r="B588" s="26"/>
       <c r="C588" s="26"/>
@@ -12123,7 +12162,7 @@
       <c r="P588" s="26"/>
       <c r="Q588" s="26"/>
     </row>
-    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="26"/>
       <c r="B589" s="26"/>
       <c r="C589" s="26"/>
@@ -12142,7 +12181,7 @@
       <c r="P589" s="26"/>
       <c r="Q589" s="26"/>
     </row>
-    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="26"/>
       <c r="B590" s="26"/>
       <c r="C590" s="26"/>
@@ -12161,7 +12200,7 @@
       <c r="P590" s="26"/>
       <c r="Q590" s="26"/>
     </row>
-    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="26"/>
       <c r="B591" s="26"/>
       <c r="C591" s="26"/>
@@ -12180,7 +12219,7 @@
       <c r="P591" s="26"/>
       <c r="Q591" s="26"/>
     </row>
-    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="26"/>
       <c r="B592" s="26"/>
       <c r="C592" s="26"/>
@@ -12199,7 +12238,7 @@
       <c r="P592" s="26"/>
       <c r="Q592" s="26"/>
     </row>
-    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="26"/>
       <c r="B593" s="26"/>
       <c r="C593" s="26"/>
@@ -12218,7 +12257,7 @@
       <c r="P593" s="26"/>
       <c r="Q593" s="26"/>
     </row>
-    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="26"/>
       <c r="B594" s="26"/>
       <c r="C594" s="26"/>
@@ -12237,7 +12276,7 @@
       <c r="P594" s="26"/>
       <c r="Q594" s="26"/>
     </row>
-    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="26"/>
       <c r="B595" s="26"/>
       <c r="C595" s="26"/>
@@ -12256,7 +12295,7 @@
       <c r="P595" s="26"/>
       <c r="Q595" s="26"/>
     </row>
-    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="26"/>
       <c r="B596" s="26"/>
       <c r="C596" s="26"/>
@@ -12275,7 +12314,7 @@
       <c r="P596" s="26"/>
       <c r="Q596" s="26"/>
     </row>
-    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="26"/>
       <c r="B597" s="26"/>
       <c r="C597" s="26"/>
@@ -12294,7 +12333,7 @@
       <c r="P597" s="26"/>
       <c r="Q597" s="26"/>
     </row>
-    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="26"/>
       <c r="B598" s="26"/>
       <c r="C598" s="26"/>
@@ -12313,7 +12352,7 @@
       <c r="P598" s="26"/>
       <c r="Q598" s="26"/>
     </row>
-    <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="26"/>
       <c r="B599" s="26"/>
       <c r="C599" s="26"/>
@@ -12332,7 +12371,7 @@
       <c r="P599" s="26"/>
       <c r="Q599" s="26"/>
     </row>
-    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="26"/>
       <c r="B600" s="26"/>
       <c r="C600" s="26"/>
@@ -12351,7 +12390,7 @@
       <c r="P600" s="26"/>
       <c r="Q600" s="26"/>
     </row>
-    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="26"/>
       <c r="B601" s="26"/>
       <c r="C601" s="26"/>
@@ -12370,7 +12409,7 @@
       <c r="P601" s="26"/>
       <c r="Q601" s="26"/>
     </row>
-    <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="26"/>
       <c r="B602" s="26"/>
       <c r="C602" s="26"/>
@@ -12389,7 +12428,7 @@
       <c r="P602" s="26"/>
       <c r="Q602" s="26"/>
     </row>
-    <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="26"/>
       <c r="B603" s="26"/>
       <c r="C603" s="26"/>
@@ -12408,7 +12447,7 @@
       <c r="P603" s="26"/>
       <c r="Q603" s="26"/>
     </row>
-    <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="26"/>
       <c r="B604" s="26"/>
       <c r="C604" s="26"/>
@@ -12427,7 +12466,7 @@
       <c r="P604" s="26"/>
       <c r="Q604" s="26"/>
     </row>
-    <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="26"/>
       <c r="B605" s="26"/>
       <c r="C605" s="26"/>
@@ -12446,7 +12485,7 @@
       <c r="P605" s="26"/>
       <c r="Q605" s="26"/>
     </row>
-    <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="26"/>
       <c r="B606" s="26"/>
       <c r="C606" s="26"/>
@@ -12465,7 +12504,7 @@
       <c r="P606" s="26"/>
       <c r="Q606" s="26"/>
     </row>
-    <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="26"/>
       <c r="B607" s="26"/>
       <c r="C607" s="26"/>
@@ -12484,7 +12523,7 @@
       <c r="P607" s="26"/>
       <c r="Q607" s="26"/>
     </row>
-    <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="26"/>
       <c r="B608" s="26"/>
       <c r="C608" s="26"/>
@@ -12503,7 +12542,7 @@
       <c r="P608" s="26"/>
       <c r="Q608" s="26"/>
     </row>
-    <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="26"/>
       <c r="B609" s="26"/>
       <c r="C609" s="26"/>
@@ -12522,7 +12561,7 @@
       <c r="P609" s="26"/>
       <c r="Q609" s="26"/>
     </row>
-    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="26"/>
       <c r="B610" s="26"/>
       <c r="C610" s="26"/>
@@ -12541,7 +12580,7 @@
       <c r="P610" s="26"/>
       <c r="Q610" s="26"/>
     </row>
-    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="26"/>
       <c r="B611" s="26"/>
       <c r="C611" s="26"/>
@@ -12560,7 +12599,7 @@
       <c r="P611" s="26"/>
       <c r="Q611" s="26"/>
     </row>
-    <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="26"/>
       <c r="B612" s="26"/>
       <c r="C612" s="26"/>
@@ -12579,7 +12618,7 @@
       <c r="P612" s="26"/>
       <c r="Q612" s="26"/>
     </row>
-    <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="26"/>
       <c r="B613" s="26"/>
       <c r="C613" s="26"/>
@@ -12598,7 +12637,7 @@
       <c r="P613" s="26"/>
       <c r="Q613" s="26"/>
     </row>
-    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="26"/>
       <c r="B614" s="26"/>
       <c r="C614" s="26"/>
@@ -12617,7 +12656,7 @@
       <c r="P614" s="26"/>
       <c r="Q614" s="26"/>
     </row>
-    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="26"/>
       <c r="B615" s="26"/>
       <c r="C615" s="26"/>
@@ -12636,7 +12675,7 @@
       <c r="P615" s="26"/>
       <c r="Q615" s="26"/>
     </row>
-    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="26"/>
       <c r="B616" s="26"/>
       <c r="C616" s="26"/>
@@ -12655,7 +12694,7 @@
       <c r="P616" s="26"/>
       <c r="Q616" s="26"/>
     </row>
-    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="26"/>
       <c r="B617" s="26"/>
       <c r="C617" s="26"/>
@@ -12674,7 +12713,7 @@
       <c r="P617" s="26"/>
       <c r="Q617" s="26"/>
     </row>
-    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="26"/>
       <c r="B618" s="26"/>
       <c r="C618" s="26"/>
@@ -12693,7 +12732,7 @@
       <c r="P618" s="26"/>
       <c r="Q618" s="26"/>
     </row>
-    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="26"/>
       <c r="B619" s="26"/>
       <c r="C619" s="26"/>
@@ -12712,7 +12751,7 @@
       <c r="P619" s="26"/>
       <c r="Q619" s="26"/>
     </row>
-    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="26"/>
       <c r="B620" s="26"/>
       <c r="C620" s="26"/>
@@ -12731,7 +12770,7 @@
       <c r="P620" s="26"/>
       <c r="Q620" s="26"/>
     </row>
-    <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="26"/>
       <c r="B621" s="26"/>
       <c r="C621" s="26"/>
@@ -12750,7 +12789,7 @@
       <c r="P621" s="26"/>
       <c r="Q621" s="26"/>
     </row>
-    <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="26"/>
       <c r="B622" s="26"/>
       <c r="C622" s="26"/>
@@ -12769,7 +12808,7 @@
       <c r="P622" s="26"/>
       <c r="Q622" s="26"/>
     </row>
-    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="26"/>
       <c r="B623" s="26"/>
       <c r="C623" s="26"/>
@@ -12788,7 +12827,7 @@
       <c r="P623" s="26"/>
       <c r="Q623" s="26"/>
     </row>
-    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="26"/>
       <c r="B624" s="26"/>
       <c r="C624" s="26"/>
@@ -12807,7 +12846,7 @@
       <c r="P624" s="26"/>
       <c r="Q624" s="26"/>
     </row>
-    <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="26"/>
       <c r="B625" s="26"/>
       <c r="C625" s="26"/>
@@ -12826,7 +12865,7 @@
       <c r="P625" s="26"/>
       <c r="Q625" s="26"/>
     </row>
-    <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="26"/>
       <c r="B626" s="26"/>
       <c r="C626" s="26"/>
@@ -12845,7 +12884,7 @@
       <c r="P626" s="26"/>
       <c r="Q626" s="26"/>
     </row>
-    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="26"/>
       <c r="B627" s="26"/>
       <c r="C627" s="26"/>
@@ -12864,7 +12903,7 @@
       <c r="P627" s="26"/>
       <c r="Q627" s="26"/>
     </row>
-    <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="26"/>
       <c r="B628" s="26"/>
       <c r="C628" s="26"/>
@@ -12883,7 +12922,7 @@
       <c r="P628" s="26"/>
       <c r="Q628" s="26"/>
     </row>
-    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="26"/>
       <c r="B629" s="26"/>
       <c r="C629" s="26"/>
@@ -12902,7 +12941,7 @@
       <c r="P629" s="26"/>
       <c r="Q629" s="26"/>
     </row>
-    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="26"/>
       <c r="B630" s="26"/>
       <c r="C630" s="26"/>
@@ -12921,7 +12960,7 @@
       <c r="P630" s="26"/>
       <c r="Q630" s="26"/>
     </row>
-    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="26"/>
       <c r="B631" s="26"/>
       <c r="C631" s="26"/>
@@ -12940,7 +12979,7 @@
       <c r="P631" s="26"/>
       <c r="Q631" s="26"/>
     </row>
-    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="26"/>
       <c r="B632" s="26"/>
       <c r="C632" s="26"/>
@@ -12959,7 +12998,7 @@
       <c r="P632" s="26"/>
       <c r="Q632" s="26"/>
     </row>
-    <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="26"/>
       <c r="B633" s="26"/>
       <c r="C633" s="26"/>
@@ -12978,7 +13017,7 @@
       <c r="P633" s="26"/>
       <c r="Q633" s="26"/>
     </row>
-    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="26"/>
       <c r="B634" s="26"/>
       <c r="C634" s="26"/>
@@ -12997,7 +13036,7 @@
       <c r="P634" s="26"/>
       <c r="Q634" s="26"/>
     </row>
-    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="26"/>
       <c r="B635" s="26"/>
       <c r="C635" s="26"/>
@@ -13016,7 +13055,7 @@
       <c r="P635" s="26"/>
       <c r="Q635" s="26"/>
     </row>
-    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="26"/>
       <c r="B636" s="26"/>
       <c r="C636" s="26"/>
@@ -13035,7 +13074,7 @@
       <c r="P636" s="26"/>
       <c r="Q636" s="26"/>
     </row>
-    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="26"/>
       <c r="B637" s="26"/>
       <c r="C637" s="26"/>
@@ -13054,7 +13093,7 @@
       <c r="P637" s="26"/>
       <c r="Q637" s="26"/>
     </row>
-    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="26"/>
       <c r="B638" s="26"/>
       <c r="C638" s="26"/>
@@ -13073,7 +13112,7 @@
       <c r="P638" s="26"/>
       <c r="Q638" s="26"/>
     </row>
-    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="26"/>
       <c r="B639" s="26"/>
       <c r="C639" s="26"/>
@@ -13092,7 +13131,7 @@
       <c r="P639" s="26"/>
       <c r="Q639" s="26"/>
     </row>
-    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="26"/>
       <c r="B640" s="26"/>
       <c r="C640" s="26"/>
@@ -13111,7 +13150,7 @@
       <c r="P640" s="26"/>
       <c r="Q640" s="26"/>
     </row>
-    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="26"/>
       <c r="B641" s="26"/>
       <c r="C641" s="26"/>
@@ -13130,7 +13169,7 @@
       <c r="P641" s="26"/>
       <c r="Q641" s="26"/>
     </row>
-    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="26"/>
       <c r="B642" s="26"/>
       <c r="C642" s="26"/>
@@ -13149,7 +13188,7 @@
       <c r="P642" s="26"/>
       <c r="Q642" s="26"/>
     </row>
-    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="26"/>
       <c r="B643" s="26"/>
       <c r="C643" s="26"/>
@@ -13168,7 +13207,7 @@
       <c r="P643" s="26"/>
       <c r="Q643" s="26"/>
     </row>
-    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="26"/>
       <c r="B644" s="26"/>
       <c r="C644" s="26"/>
@@ -13187,7 +13226,7 @@
       <c r="P644" s="26"/>
       <c r="Q644" s="26"/>
     </row>
-    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="26"/>
       <c r="B645" s="26"/>
       <c r="C645" s="26"/>
@@ -13206,7 +13245,7 @@
       <c r="P645" s="26"/>
       <c r="Q645" s="26"/>
     </row>
-    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="26"/>
       <c r="B646" s="26"/>
       <c r="C646" s="26"/>
@@ -13225,7 +13264,7 @@
       <c r="P646" s="26"/>
       <c r="Q646" s="26"/>
     </row>
-    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="26"/>
       <c r="B647" s="26"/>
       <c r="C647" s="26"/>
@@ -13244,7 +13283,7 @@
       <c r="P647" s="26"/>
       <c r="Q647" s="26"/>
     </row>
-    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="26"/>
       <c r="B648" s="26"/>
       <c r="C648" s="26"/>
@@ -13263,7 +13302,7 @@
       <c r="P648" s="26"/>
       <c r="Q648" s="26"/>
     </row>
-    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="26"/>
       <c r="B649" s="26"/>
       <c r="C649" s="26"/>
@@ -13282,7 +13321,7 @@
       <c r="P649" s="26"/>
       <c r="Q649" s="26"/>
     </row>
-    <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="26"/>
       <c r="B650" s="26"/>
       <c r="C650" s="26"/>
@@ -13301,7 +13340,7 @@
       <c r="P650" s="26"/>
       <c r="Q650" s="26"/>
     </row>
-    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="26"/>
       <c r="B651" s="26"/>
       <c r="C651" s="26"/>
@@ -13320,7 +13359,7 @@
       <c r="P651" s="26"/>
       <c r="Q651" s="26"/>
     </row>
-    <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="26"/>
       <c r="B652" s="26"/>
       <c r="C652" s="26"/>
@@ -13339,7 +13378,7 @@
       <c r="P652" s="26"/>
       <c r="Q652" s="26"/>
     </row>
-    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="26"/>
       <c r="B653" s="26"/>
       <c r="C653" s="26"/>
@@ -13358,7 +13397,7 @@
       <c r="P653" s="26"/>
       <c r="Q653" s="26"/>
     </row>
-    <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="26"/>
       <c r="B654" s="26"/>
       <c r="C654" s="26"/>
@@ -13377,7 +13416,7 @@
       <c r="P654" s="26"/>
       <c r="Q654" s="26"/>
     </row>
-    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="26"/>
       <c r="B655" s="26"/>
       <c r="C655" s="26"/>
@@ -13396,7 +13435,7 @@
       <c r="P655" s="26"/>
       <c r="Q655" s="26"/>
     </row>
-    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="26"/>
       <c r="B656" s="26"/>
       <c r="C656" s="26"/>
@@ -13415,7 +13454,7 @@
       <c r="P656" s="26"/>
       <c r="Q656" s="26"/>
     </row>
-    <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="26"/>
       <c r="B657" s="26"/>
       <c r="C657" s="26"/>
@@ -13434,7 +13473,7 @@
       <c r="P657" s="26"/>
       <c r="Q657" s="26"/>
     </row>
-    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="26"/>
       <c r="B658" s="26"/>
       <c r="C658" s="26"/>
@@ -13453,7 +13492,7 @@
       <c r="P658" s="26"/>
       <c r="Q658" s="26"/>
     </row>
-    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="26"/>
       <c r="B659" s="26"/>
       <c r="C659" s="26"/>
@@ -13472,7 +13511,7 @@
       <c r="P659" s="26"/>
       <c r="Q659" s="26"/>
     </row>
-    <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="26"/>
       <c r="B660" s="26"/>
       <c r="C660" s="26"/>
@@ -13491,7 +13530,7 @@
       <c r="P660" s="26"/>
       <c r="Q660" s="26"/>
     </row>
-    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="26"/>
       <c r="B661" s="26"/>
       <c r="C661" s="26"/>
@@ -13510,7 +13549,7 @@
       <c r="P661" s="26"/>
       <c r="Q661" s="26"/>
     </row>
-    <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="26"/>
       <c r="B662" s="26"/>
       <c r="C662" s="26"/>
@@ -13529,7 +13568,7 @@
       <c r="P662" s="26"/>
       <c r="Q662" s="26"/>
     </row>
-    <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="26"/>
       <c r="B663" s="26"/>
       <c r="C663" s="26"/>
@@ -13548,7 +13587,7 @@
       <c r="P663" s="26"/>
       <c r="Q663" s="26"/>
     </row>
-    <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="26"/>
       <c r="B664" s="26"/>
       <c r="C664" s="26"/>
@@ -13567,7 +13606,7 @@
       <c r="P664" s="26"/>
       <c r="Q664" s="26"/>
     </row>
-    <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="26"/>
       <c r="B665" s="26"/>
       <c r="C665" s="26"/>
@@ -13586,7 +13625,7 @@
       <c r="P665" s="26"/>
       <c r="Q665" s="26"/>
     </row>
-    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="26"/>
       <c r="B666" s="26"/>
       <c r="C666" s="26"/>
@@ -13605,7 +13644,7 @@
       <c r="P666" s="26"/>
       <c r="Q666" s="26"/>
     </row>
-    <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="26"/>
       <c r="B667" s="26"/>
       <c r="C667" s="26"/>
@@ -13624,7 +13663,7 @@
       <c r="P667" s="26"/>
       <c r="Q667" s="26"/>
     </row>
-    <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="26"/>
       <c r="B668" s="26"/>
       <c r="C668" s="26"/>
@@ -13643,7 +13682,7 @@
       <c r="P668" s="26"/>
       <c r="Q668" s="26"/>
     </row>
-    <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="26"/>
       <c r="B669" s="26"/>
       <c r="C669" s="26"/>
@@ -13662,7 +13701,7 @@
       <c r="P669" s="26"/>
       <c r="Q669" s="26"/>
     </row>
-    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="26"/>
       <c r="B670" s="26"/>
       <c r="C670" s="26"/>
@@ -13681,7 +13720,7 @@
       <c r="P670" s="26"/>
       <c r="Q670" s="26"/>
     </row>
-    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="26"/>
       <c r="B671" s="26"/>
       <c r="C671" s="26"/>
@@ -13700,7 +13739,7 @@
       <c r="P671" s="26"/>
       <c r="Q671" s="26"/>
     </row>
-    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="26"/>
       <c r="B672" s="26"/>
       <c r="C672" s="26"/>
@@ -13719,7 +13758,7 @@
       <c r="P672" s="26"/>
       <c r="Q672" s="26"/>
     </row>
-    <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="26"/>
       <c r="B673" s="26"/>
       <c r="C673" s="26"/>
@@ -13738,7 +13777,7 @@
       <c r="P673" s="26"/>
       <c r="Q673" s="26"/>
     </row>
-    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="26"/>
       <c r="B674" s="26"/>
       <c r="C674" s="26"/>
@@ -13757,7 +13796,7 @@
       <c r="P674" s="26"/>
       <c r="Q674" s="26"/>
     </row>
-    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="26"/>
       <c r="B675" s="26"/>
       <c r="C675" s="26"/>
@@ -13776,7 +13815,7 @@
       <c r="P675" s="26"/>
       <c r="Q675" s="26"/>
     </row>
-    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="26"/>
       <c r="B676" s="26"/>
       <c r="C676" s="26"/>
@@ -13795,7 +13834,7 @@
       <c r="P676" s="26"/>
       <c r="Q676" s="26"/>
     </row>
-    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="26"/>
       <c r="B677" s="26"/>
       <c r="C677" s="26"/>
@@ -13814,7 +13853,7 @@
       <c r="P677" s="26"/>
       <c r="Q677" s="26"/>
     </row>
-    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="26"/>
       <c r="B678" s="26"/>
       <c r="C678" s="26"/>
@@ -13833,7 +13872,7 @@
       <c r="P678" s="26"/>
       <c r="Q678" s="26"/>
     </row>
-    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="26"/>
       <c r="B679" s="26"/>
       <c r="C679" s="26"/>
@@ -13852,7 +13891,7 @@
       <c r="P679" s="26"/>
       <c r="Q679" s="26"/>
     </row>
-    <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="26"/>
       <c r="B680" s="26"/>
       <c r="C680" s="26"/>
@@ -13871,7 +13910,7 @@
       <c r="P680" s="26"/>
       <c r="Q680" s="26"/>
     </row>
-    <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="26"/>
       <c r="B681" s="26"/>
       <c r="C681" s="26"/>
@@ -13890,7 +13929,7 @@
       <c r="P681" s="26"/>
       <c r="Q681" s="26"/>
     </row>
-    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="26"/>
       <c r="B682" s="26"/>
       <c r="C682" s="26"/>
@@ -13909,7 +13948,7 @@
       <c r="P682" s="26"/>
       <c r="Q682" s="26"/>
     </row>
-    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="26"/>
       <c r="B683" s="26"/>
       <c r="C683" s="26"/>
@@ -13928,7 +13967,7 @@
       <c r="P683" s="26"/>
       <c r="Q683" s="26"/>
     </row>
-    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="26"/>
       <c r="B684" s="26"/>
       <c r="C684" s="26"/>
@@ -13947,7 +13986,7 @@
       <c r="P684" s="26"/>
       <c r="Q684" s="26"/>
     </row>
-    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="26"/>
       <c r="B685" s="26"/>
       <c r="C685" s="26"/>
@@ -13966,7 +14005,7 @@
       <c r="P685" s="26"/>
       <c r="Q685" s="26"/>
     </row>
-    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="26"/>
       <c r="B686" s="26"/>
       <c r="C686" s="26"/>
@@ -13985,7 +14024,7 @@
       <c r="P686" s="26"/>
       <c r="Q686" s="26"/>
     </row>
-    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="26"/>
       <c r="B687" s="26"/>
       <c r="C687" s="26"/>
@@ -14004,7 +14043,7 @@
       <c r="P687" s="26"/>
       <c r="Q687" s="26"/>
     </row>
-    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="26"/>
       <c r="B688" s="26"/>
       <c r="C688" s="26"/>
@@ -14023,7 +14062,7 @@
       <c r="P688" s="26"/>
       <c r="Q688" s="26"/>
     </row>
-    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="26"/>
       <c r="B689" s="26"/>
       <c r="C689" s="26"/>
@@ -14042,7 +14081,7 @@
       <c r="P689" s="26"/>
       <c r="Q689" s="26"/>
     </row>
-    <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="26"/>
       <c r="B690" s="26"/>
       <c r="C690" s="26"/>
@@ -14061,7 +14100,7 @@
       <c r="P690" s="26"/>
       <c r="Q690" s="26"/>
     </row>
-    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="26"/>
       <c r="B691" s="26"/>
       <c r="C691" s="26"/>
@@ -14080,7 +14119,7 @@
       <c r="P691" s="26"/>
       <c r="Q691" s="26"/>
     </row>
-    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="26"/>
       <c r="B692" s="26"/>
       <c r="C692" s="26"/>
@@ -14099,7 +14138,7 @@
       <c r="P692" s="26"/>
       <c r="Q692" s="26"/>
     </row>
-    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="26"/>
       <c r="B693" s="26"/>
       <c r="C693" s="26"/>
@@ -14118,7 +14157,7 @@
       <c r="P693" s="26"/>
       <c r="Q693" s="26"/>
     </row>
-    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="26"/>
       <c r="B694" s="26"/>
       <c r="C694" s="26"/>
@@ -14137,7 +14176,7 @@
       <c r="P694" s="26"/>
       <c r="Q694" s="26"/>
     </row>
-    <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="26"/>
       <c r="B695" s="26"/>
       <c r="C695" s="26"/>
@@ -14156,7 +14195,7 @@
       <c r="P695" s="26"/>
       <c r="Q695" s="26"/>
     </row>
-    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="26"/>
       <c r="B696" s="26"/>
       <c r="C696" s="26"/>
@@ -14175,7 +14214,7 @@
       <c r="P696" s="26"/>
       <c r="Q696" s="26"/>
     </row>
-    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="26"/>
       <c r="B697" s="26"/>
       <c r="C697" s="26"/>
@@ -14194,7 +14233,7 @@
       <c r="P697" s="26"/>
       <c r="Q697" s="26"/>
     </row>
-    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="26"/>
       <c r="B698" s="26"/>
       <c r="C698" s="26"/>
@@ -14213,7 +14252,7 @@
       <c r="P698" s="26"/>
       <c r="Q698" s="26"/>
     </row>
-    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="26"/>
       <c r="B699" s="26"/>
       <c r="C699" s="26"/>
@@ -14232,7 +14271,7 @@
       <c r="P699" s="26"/>
       <c r="Q699" s="26"/>
     </row>
-    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="26"/>
       <c r="B700" s="26"/>
       <c r="C700" s="26"/>
@@ -14251,7 +14290,7 @@
       <c r="P700" s="26"/>
       <c r="Q700" s="26"/>
     </row>
-    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="26"/>
       <c r="B701" s="26"/>
       <c r="C701" s="26"/>
@@ -14270,7 +14309,7 @@
       <c r="P701" s="26"/>
       <c r="Q701" s="26"/>
     </row>
-    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="26"/>
       <c r="B702" s="26"/>
       <c r="C702" s="26"/>
@@ -14289,7 +14328,7 @@
       <c r="P702" s="26"/>
       <c r="Q702" s="26"/>
     </row>
-    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="26"/>
       <c r="B703" s="26"/>
       <c r="C703" s="26"/>
@@ -14308,7 +14347,7 @@
       <c r="P703" s="26"/>
       <c r="Q703" s="26"/>
     </row>
-    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="26"/>
       <c r="B704" s="26"/>
       <c r="C704" s="26"/>
@@ -14327,7 +14366,7 @@
       <c r="P704" s="26"/>
       <c r="Q704" s="26"/>
     </row>
-    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="26"/>
       <c r="B705" s="26"/>
       <c r="C705" s="26"/>
@@ -14346,7 +14385,7 @@
       <c r="P705" s="26"/>
       <c r="Q705" s="26"/>
     </row>
-    <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="26"/>
       <c r="B706" s="26"/>
       <c r="C706" s="26"/>
@@ -14365,7 +14404,7 @@
       <c r="P706" s="26"/>
       <c r="Q706" s="26"/>
     </row>
-    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="26"/>
       <c r="B707" s="26"/>
       <c r="C707" s="26"/>
@@ -14384,7 +14423,7 @@
       <c r="P707" s="26"/>
       <c r="Q707" s="26"/>
     </row>
-    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="26"/>
       <c r="B708" s="26"/>
       <c r="C708" s="26"/>
@@ -14403,7 +14442,7 @@
       <c r="P708" s="26"/>
       <c r="Q708" s="26"/>
     </row>
-    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="26"/>
       <c r="B709" s="26"/>
       <c r="C709" s="26"/>
@@ -14422,7 +14461,7 @@
       <c r="P709" s="26"/>
       <c r="Q709" s="26"/>
     </row>
-    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="26"/>
       <c r="B710" s="26"/>
       <c r="C710" s="26"/>
@@ -14441,7 +14480,7 @@
       <c r="P710" s="26"/>
       <c r="Q710" s="26"/>
     </row>
-    <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="26"/>
       <c r="B711" s="26"/>
       <c r="C711" s="26"/>
@@ -14460,7 +14499,7 @@
       <c r="P711" s="26"/>
       <c r="Q711" s="26"/>
     </row>
-    <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="26"/>
       <c r="B712" s="26"/>
       <c r="C712" s="26"/>
@@ -14479,7 +14518,7 @@
       <c r="P712" s="26"/>
       <c r="Q712" s="26"/>
     </row>
-    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="26"/>
       <c r="B713" s="26"/>
       <c r="C713" s="26"/>
@@ -14498,7 +14537,7 @@
       <c r="P713" s="26"/>
       <c r="Q713" s="26"/>
     </row>
-    <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="26"/>
       <c r="B714" s="26"/>
       <c r="C714" s="26"/>
@@ -14517,7 +14556,7 @@
       <c r="P714" s="26"/>
       <c r="Q714" s="26"/>
     </row>
-    <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="26"/>
       <c r="B715" s="26"/>
       <c r="C715" s="26"/>
@@ -14536,7 +14575,7 @@
       <c r="P715" s="26"/>
       <c r="Q715" s="26"/>
     </row>
-    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="26"/>
       <c r="B716" s="26"/>
       <c r="C716" s="26"/>
@@ -14555,7 +14594,7 @@
       <c r="P716" s="26"/>
       <c r="Q716" s="26"/>
     </row>
-    <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="26"/>
       <c r="B717" s="26"/>
       <c r="C717" s="26"/>
@@ -14574,7 +14613,7 @@
       <c r="P717" s="26"/>
       <c r="Q717" s="26"/>
     </row>
-    <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="26"/>
       <c r="B718" s="26"/>
       <c r="C718" s="26"/>
@@ -14593,7 +14632,7 @@
       <c r="P718" s="26"/>
       <c r="Q718" s="26"/>
     </row>
-    <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="26"/>
       <c r="B719" s="26"/>
       <c r="C719" s="26"/>
@@ -14612,7 +14651,7 @@
       <c r="P719" s="26"/>
       <c r="Q719" s="26"/>
     </row>
-    <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="26"/>
       <c r="B720" s="26"/>
       <c r="C720" s="26"/>
@@ -14631,7 +14670,7 @@
       <c r="P720" s="26"/>
       <c r="Q720" s="26"/>
     </row>
-    <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="26"/>
       <c r="B721" s="26"/>
       <c r="C721" s="26"/>
@@ -14650,7 +14689,7 @@
       <c r="P721" s="26"/>
       <c r="Q721" s="26"/>
     </row>
-    <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="26"/>
       <c r="B722" s="26"/>
       <c r="C722" s="26"/>
@@ -14669,7 +14708,7 @@
       <c r="P722" s="26"/>
       <c r="Q722" s="26"/>
     </row>
-    <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="26"/>
       <c r="B723" s="26"/>
       <c r="C723" s="26"/>
@@ -14688,7 +14727,7 @@
       <c r="P723" s="26"/>
       <c r="Q723" s="26"/>
     </row>
-    <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="26"/>
       <c r="B724" s="26"/>
       <c r="C724" s="26"/>
@@ -14707,7 +14746,7 @@
       <c r="P724" s="26"/>
       <c r="Q724" s="26"/>
     </row>
-    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="26"/>
       <c r="B725" s="26"/>
       <c r="C725" s="26"/>
@@ -14726,7 +14765,7 @@
       <c r="P725" s="26"/>
       <c r="Q725" s="26"/>
     </row>
-    <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="26"/>
       <c r="B726" s="26"/>
       <c r="C726" s="26"/>
@@ -14745,7 +14784,7 @@
       <c r="P726" s="26"/>
       <c r="Q726" s="26"/>
     </row>
-    <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="26"/>
       <c r="B727" s="26"/>
       <c r="C727" s="26"/>
@@ -14764,7 +14803,7 @@
       <c r="P727" s="26"/>
       <c r="Q727" s="26"/>
     </row>
-    <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="26"/>
       <c r="B728" s="26"/>
       <c r="C728" s="26"/>
@@ -14783,7 +14822,7 @@
       <c r="P728" s="26"/>
       <c r="Q728" s="26"/>
     </row>
-    <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="26"/>
       <c r="B729" s="26"/>
       <c r="C729" s="26"/>
@@ -14802,7 +14841,7 @@
       <c r="P729" s="26"/>
       <c r="Q729" s="26"/>
     </row>
-    <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="26"/>
       <c r="B730" s="26"/>
       <c r="C730" s="26"/>
@@ -14821,7 +14860,7 @@
       <c r="P730" s="26"/>
       <c r="Q730" s="26"/>
     </row>
-    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="26"/>
       <c r="B731" s="26"/>
       <c r="C731" s="26"/>
@@ -14840,7 +14879,7 @@
       <c r="P731" s="26"/>
       <c r="Q731" s="26"/>
     </row>
-    <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="26"/>
       <c r="B732" s="26"/>
       <c r="C732" s="26"/>
@@ -14859,7 +14898,7 @@
       <c r="P732" s="26"/>
       <c r="Q732" s="26"/>
     </row>
-    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="26"/>
       <c r="B733" s="26"/>
       <c r="C733" s="26"/>
@@ -14878,7 +14917,7 @@
       <c r="P733" s="26"/>
       <c r="Q733" s="26"/>
     </row>
-    <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="26"/>
       <c r="B734" s="26"/>
       <c r="C734" s="26"/>
@@ -14897,7 +14936,7 @@
       <c r="P734" s="26"/>
       <c r="Q734" s="26"/>
     </row>
-    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="26"/>
       <c r="B735" s="26"/>
       <c r="C735" s="26"/>
@@ -14916,7 +14955,7 @@
       <c r="P735" s="26"/>
       <c r="Q735" s="26"/>
     </row>
-    <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="26"/>
       <c r="B736" s="26"/>
       <c r="C736" s="26"/>
@@ -14935,7 +14974,7 @@
       <c r="P736" s="26"/>
       <c r="Q736" s="26"/>
     </row>
-    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="26"/>
       <c r="B737" s="26"/>
       <c r="C737" s="26"/>
@@ -14954,7 +14993,7 @@
       <c r="P737" s="26"/>
       <c r="Q737" s="26"/>
     </row>
-    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="26"/>
       <c r="B738" s="26"/>
       <c r="C738" s="26"/>
@@ -14973,7 +15012,7 @@
       <c r="P738" s="26"/>
       <c r="Q738" s="26"/>
     </row>
-    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="26"/>
       <c r="B739" s="26"/>
       <c r="C739" s="26"/>
@@ -14992,7 +15031,7 @@
       <c r="P739" s="26"/>
       <c r="Q739" s="26"/>
     </row>
-    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="26"/>
       <c r="B740" s="26"/>
       <c r="C740" s="26"/>
@@ -15011,7 +15050,7 @@
       <c r="P740" s="26"/>
       <c r="Q740" s="26"/>
     </row>
-    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="26"/>
       <c r="B741" s="26"/>
       <c r="C741" s="26"/>
@@ -15030,7 +15069,7 @@
       <c r="P741" s="26"/>
       <c r="Q741" s="26"/>
     </row>
-    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="26"/>
       <c r="B742" s="26"/>
       <c r="C742" s="26"/>
@@ -15049,7 +15088,7 @@
       <c r="P742" s="26"/>
       <c r="Q742" s="26"/>
     </row>
-    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="26"/>
       <c r="B743" s="26"/>
       <c r="C743" s="26"/>
@@ -15068,7 +15107,7 @@
       <c r="P743" s="26"/>
       <c r="Q743" s="26"/>
     </row>
-    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="26"/>
       <c r="B744" s="26"/>
       <c r="C744" s="26"/>
@@ -15087,7 +15126,7 @@
       <c r="P744" s="26"/>
       <c r="Q744" s="26"/>
     </row>
-    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="26"/>
       <c r="B745" s="26"/>
       <c r="C745" s="26"/>
@@ -15106,7 +15145,7 @@
       <c r="P745" s="26"/>
       <c r="Q745" s="26"/>
     </row>
-    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="26"/>
       <c r="B746" s="26"/>
       <c r="C746" s="26"/>
@@ -15125,7 +15164,7 @@
       <c r="P746" s="26"/>
       <c r="Q746" s="26"/>
     </row>
-    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="26"/>
       <c r="B747" s="26"/>
       <c r="C747" s="26"/>
@@ -15144,7 +15183,7 @@
       <c r="P747" s="26"/>
       <c r="Q747" s="26"/>
     </row>
-    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="26"/>
       <c r="B748" s="26"/>
       <c r="C748" s="26"/>
@@ -15163,7 +15202,7 @@
       <c r="P748" s="26"/>
       <c r="Q748" s="26"/>
     </row>
-    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="26"/>
       <c r="B749" s="26"/>
       <c r="C749" s="26"/>
@@ -15182,7 +15221,7 @@
       <c r="P749" s="26"/>
       <c r="Q749" s="26"/>
     </row>
-    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="26"/>
       <c r="B750" s="26"/>
       <c r="C750" s="26"/>
@@ -15201,7 +15240,7 @@
       <c r="P750" s="26"/>
       <c r="Q750" s="26"/>
     </row>
-    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="26"/>
       <c r="B751" s="26"/>
       <c r="C751" s="26"/>
@@ -15220,7 +15259,7 @@
       <c r="P751" s="26"/>
       <c r="Q751" s="26"/>
     </row>
-    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="26"/>
       <c r="B752" s="26"/>
       <c r="C752" s="26"/>
@@ -15239,7 +15278,7 @@
       <c r="P752" s="26"/>
       <c r="Q752" s="26"/>
     </row>
-    <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="26"/>
       <c r="B753" s="26"/>
       <c r="C753" s="26"/>
@@ -15258,7 +15297,7 @@
       <c r="P753" s="26"/>
       <c r="Q753" s="26"/>
     </row>
-    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="26"/>
       <c r="B754" s="26"/>
       <c r="C754" s="26"/>
@@ -15277,7 +15316,7 @@
       <c r="P754" s="26"/>
       <c r="Q754" s="26"/>
     </row>
-    <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="26"/>
       <c r="B755" s="26"/>
       <c r="C755" s="26"/>
@@ -15296,7 +15335,7 @@
       <c r="P755" s="26"/>
       <c r="Q755" s="26"/>
     </row>
-    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="26"/>
       <c r="B756" s="26"/>
       <c r="C756" s="26"/>
@@ -15315,7 +15354,7 @@
       <c r="P756" s="26"/>
       <c r="Q756" s="26"/>
     </row>
-    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="26"/>
       <c r="B757" s="26"/>
       <c r="C757" s="26"/>
@@ -15334,7 +15373,7 @@
       <c r="P757" s="26"/>
       <c r="Q757" s="26"/>
     </row>
-    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="26"/>
       <c r="B758" s="26"/>
       <c r="C758" s="26"/>
@@ -15353,7 +15392,7 @@
       <c r="P758" s="26"/>
       <c r="Q758" s="26"/>
     </row>
-    <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="26"/>
       <c r="B759" s="26"/>
       <c r="C759" s="26"/>
@@ -15372,7 +15411,7 @@
       <c r="P759" s="26"/>
       <c r="Q759" s="26"/>
     </row>
-    <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="26"/>
       <c r="B760" s="26"/>
       <c r="C760" s="26"/>
@@ -15391,7 +15430,7 @@
       <c r="P760" s="26"/>
       <c r="Q760" s="26"/>
     </row>
-    <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="26"/>
       <c r="B761" s="26"/>
       <c r="C761" s="26"/>
@@ -15410,7 +15449,7 @@
       <c r="P761" s="26"/>
       <c r="Q761" s="26"/>
     </row>
-    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="26"/>
       <c r="B762" s="26"/>
       <c r="C762" s="26"/>
@@ -15429,7 +15468,7 @@
       <c r="P762" s="26"/>
       <c r="Q762" s="26"/>
     </row>
-    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="26"/>
       <c r="B763" s="26"/>
       <c r="C763" s="26"/>
@@ -15448,7 +15487,7 @@
       <c r="P763" s="26"/>
       <c r="Q763" s="26"/>
     </row>
-    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="26"/>
       <c r="B764" s="26"/>
       <c r="C764" s="26"/>
@@ -15467,7 +15506,7 @@
       <c r="P764" s="26"/>
       <c r="Q764" s="26"/>
     </row>
-    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="26"/>
       <c r="B765" s="26"/>
       <c r="C765" s="26"/>
@@ -15486,7 +15525,7 @@
       <c r="P765" s="26"/>
       <c r="Q765" s="26"/>
     </row>
-    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="26"/>
       <c r="B766" s="26"/>
       <c r="C766" s="26"/>
@@ -15505,7 +15544,7 @@
       <c r="P766" s="26"/>
       <c r="Q766" s="26"/>
     </row>
-    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="26"/>
       <c r="B767" s="26"/>
       <c r="C767" s="26"/>
@@ -15524,7 +15563,7 @@
       <c r="P767" s="26"/>
       <c r="Q767" s="26"/>
     </row>
-    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="26"/>
       <c r="B768" s="26"/>
       <c r="C768" s="26"/>
@@ -15543,7 +15582,7 @@
       <c r="P768" s="26"/>
       <c r="Q768" s="26"/>
     </row>
-    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="26"/>
       <c r="B769" s="26"/>
       <c r="C769" s="26"/>
@@ -15562,7 +15601,7 @@
       <c r="P769" s="26"/>
       <c r="Q769" s="26"/>
     </row>
-    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="26"/>
       <c r="B770" s="26"/>
       <c r="C770" s="26"/>
@@ -15581,7 +15620,7 @@
       <c r="P770" s="26"/>
       <c r="Q770" s="26"/>
     </row>
-    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="26"/>
       <c r="B771" s="26"/>
       <c r="C771" s="26"/>
@@ -15600,7 +15639,7 @@
       <c r="P771" s="26"/>
       <c r="Q771" s="26"/>
     </row>
-    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="26"/>
       <c r="B772" s="26"/>
       <c r="C772" s="26"/>
@@ -15619,7 +15658,7 @@
       <c r="P772" s="26"/>
       <c r="Q772" s="26"/>
     </row>
-    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="26"/>
       <c r="B773" s="26"/>
       <c r="C773" s="26"/>
@@ -15638,7 +15677,7 @@
       <c r="P773" s="26"/>
       <c r="Q773" s="26"/>
     </row>
-    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="26"/>
       <c r="B774" s="26"/>
       <c r="C774" s="26"/>
@@ -15657,7 +15696,7 @@
       <c r="P774" s="26"/>
       <c r="Q774" s="26"/>
     </row>
-    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="26"/>
       <c r="B775" s="26"/>
       <c r="C775" s="26"/>
@@ -15676,7 +15715,7 @@
       <c r="P775" s="26"/>
       <c r="Q775" s="26"/>
     </row>
-    <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="26"/>
       <c r="B776" s="26"/>
       <c r="C776" s="26"/>
@@ -15695,7 +15734,7 @@
       <c r="P776" s="26"/>
       <c r="Q776" s="26"/>
     </row>
-    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="26"/>
       <c r="B777" s="26"/>
       <c r="C777" s="26"/>
@@ -15714,7 +15753,7 @@
       <c r="P777" s="26"/>
       <c r="Q777" s="26"/>
     </row>
-    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="26"/>
       <c r="B778" s="26"/>
       <c r="C778" s="26"/>
@@ -15733,7 +15772,7 @@
       <c r="P778" s="26"/>
       <c r="Q778" s="26"/>
     </row>
-    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="26"/>
       <c r="B779" s="26"/>
       <c r="C779" s="26"/>
@@ -15752,7 +15791,7 @@
       <c r="P779" s="26"/>
       <c r="Q779" s="26"/>
     </row>
-    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="26"/>
       <c r="B780" s="26"/>
       <c r="C780" s="26"/>
@@ -15771,7 +15810,7 @@
       <c r="P780" s="26"/>
       <c r="Q780" s="26"/>
     </row>
-    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="26"/>
       <c r="B781" s="26"/>
       <c r="C781" s="26"/>
@@ -15790,7 +15829,7 @@
       <c r="P781" s="26"/>
       <c r="Q781" s="26"/>
     </row>
-    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="26"/>
       <c r="B782" s="26"/>
       <c r="C782" s="26"/>
@@ -15809,7 +15848,7 @@
       <c r="P782" s="26"/>
       <c r="Q782" s="26"/>
     </row>
-    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="26"/>
       <c r="B783" s="26"/>
       <c r="C783" s="26"/>
@@ -15828,7 +15867,7 @@
       <c r="P783" s="26"/>
       <c r="Q783" s="26"/>
     </row>
-    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="26"/>
       <c r="B784" s="26"/>
       <c r="C784" s="26"/>
@@ -15847,7 +15886,7 @@
       <c r="P784" s="26"/>
       <c r="Q784" s="26"/>
     </row>
-    <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="26"/>
       <c r="B785" s="26"/>
       <c r="C785" s="26"/>
@@ -15866,7 +15905,7 @@
       <c r="P785" s="26"/>
       <c r="Q785" s="26"/>
     </row>
-    <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="26"/>
       <c r="B786" s="26"/>
       <c r="C786" s="26"/>
@@ -15885,7 +15924,7 @@
       <c r="P786" s="26"/>
       <c r="Q786" s="26"/>
     </row>
-    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="26"/>
       <c r="B787" s="26"/>
       <c r="C787" s="26"/>
@@ -15904,7 +15943,7 @@
       <c r="P787" s="26"/>
       <c r="Q787" s="26"/>
     </row>
-    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="26"/>
       <c r="B788" s="26"/>
       <c r="C788" s="26"/>
@@ -15923,7 +15962,7 @@
       <c r="P788" s="26"/>
       <c r="Q788" s="26"/>
     </row>
-    <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="26"/>
       <c r="B789" s="26"/>
       <c r="C789" s="26"/>
@@ -15942,7 +15981,7 @@
       <c r="P789" s="26"/>
       <c r="Q789" s="26"/>
     </row>
-    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="26"/>
       <c r="B790" s="26"/>
       <c r="C790" s="26"/>
@@ -15961,7 +16000,7 @@
       <c r="P790" s="26"/>
       <c r="Q790" s="26"/>
     </row>
-    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="26"/>
       <c r="B791" s="26"/>
       <c r="C791" s="26"/>
@@ -15980,7 +16019,7 @@
       <c r="P791" s="26"/>
       <c r="Q791" s="26"/>
     </row>
-    <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="26"/>
       <c r="B792" s="26"/>
       <c r="C792" s="26"/>
@@ -15999,7 +16038,7 @@
       <c r="P792" s="26"/>
       <c r="Q792" s="26"/>
     </row>
-    <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="26"/>
       <c r="B793" s="26"/>
       <c r="C793" s="26"/>
@@ -16018,7 +16057,7 @@
       <c r="P793" s="26"/>
       <c r="Q793" s="26"/>
     </row>
-    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="26"/>
       <c r="B794" s="26"/>
       <c r="C794" s="26"/>
@@ -16037,7 +16076,7 @@
       <c r="P794" s="26"/>
       <c r="Q794" s="26"/>
     </row>
-    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="26"/>
       <c r="B795" s="26"/>
       <c r="C795" s="26"/>
@@ -16056,7 +16095,7 @@
       <c r="P795" s="26"/>
       <c r="Q795" s="26"/>
     </row>
-    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="26"/>
       <c r="B796" s="26"/>
       <c r="C796" s="26"/>
@@ -16075,7 +16114,7 @@
       <c r="P796" s="26"/>
       <c r="Q796" s="26"/>
     </row>
-    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="26"/>
       <c r="B797" s="26"/>
       <c r="C797" s="26"/>
@@ -16094,7 +16133,7 @@
       <c r="P797" s="26"/>
       <c r="Q797" s="26"/>
     </row>
-    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="26"/>
       <c r="B798" s="26"/>
       <c r="C798" s="26"/>
@@ -16113,7 +16152,7 @@
       <c r="P798" s="26"/>
       <c r="Q798" s="26"/>
     </row>
-    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="26"/>
       <c r="B799" s="26"/>
       <c r="C799" s="26"/>
@@ -16132,7 +16171,7 @@
       <c r="P799" s="26"/>
       <c r="Q799" s="26"/>
     </row>
-    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="26"/>
       <c r="B800" s="26"/>
       <c r="C800" s="26"/>
@@ -16151,7 +16190,7 @@
       <c r="P800" s="26"/>
       <c r="Q800" s="26"/>
     </row>
-    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="26"/>
       <c r="B801" s="26"/>
       <c r="C801" s="26"/>
@@ -16170,7 +16209,7 @@
       <c r="P801" s="26"/>
       <c r="Q801" s="26"/>
     </row>
-    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="26"/>
       <c r="B802" s="26"/>
       <c r="C802" s="26"/>
@@ -16189,7 +16228,7 @@
       <c r="P802" s="26"/>
       <c r="Q802" s="26"/>
     </row>
-    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="26"/>
       <c r="B803" s="26"/>
       <c r="C803" s="26"/>
@@ -16208,7 +16247,7 @@
       <c r="P803" s="26"/>
       <c r="Q803" s="26"/>
     </row>
-    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="26"/>
       <c r="B804" s="26"/>
       <c r="C804" s="26"/>
@@ -16227,7 +16266,7 @@
       <c r="P804" s="26"/>
       <c r="Q804" s="26"/>
     </row>
-    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="26"/>
       <c r="B805" s="26"/>
       <c r="C805" s="26"/>
@@ -16246,7 +16285,7 @@
       <c r="P805" s="26"/>
       <c r="Q805" s="26"/>
     </row>
-    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="26"/>
       <c r="B806" s="26"/>
       <c r="C806" s="26"/>
@@ -16265,7 +16304,7 @@
       <c r="P806" s="26"/>
       <c r="Q806" s="26"/>
     </row>
-    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="26"/>
       <c r="B807" s="26"/>
       <c r="C807" s="26"/>
@@ -16284,7 +16323,7 @@
       <c r="P807" s="26"/>
       <c r="Q807" s="26"/>
     </row>
-    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="26"/>
       <c r="B808" s="26"/>
       <c r="C808" s="26"/>
@@ -16303,7 +16342,7 @@
       <c r="P808" s="26"/>
       <c r="Q808" s="26"/>
     </row>
-    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="26"/>
       <c r="B809" s="26"/>
       <c r="C809" s="26"/>
@@ -16322,7 +16361,7 @@
       <c r="P809" s="26"/>
       <c r="Q809" s="26"/>
     </row>
-    <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="26"/>
       <c r="B810" s="26"/>
       <c r="C810" s="26"/>
@@ -16341,7 +16380,7 @@
       <c r="P810" s="26"/>
       <c r="Q810" s="26"/>
     </row>
-    <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="26"/>
       <c r="B811" s="26"/>
       <c r="C811" s="26"/>
@@ -16360,7 +16399,7 @@
       <c r="P811" s="26"/>
       <c r="Q811" s="26"/>
     </row>
-    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="26"/>
       <c r="B812" s="26"/>
       <c r="C812" s="26"/>
@@ -16379,7 +16418,7 @@
       <c r="P812" s="26"/>
       <c r="Q812" s="26"/>
     </row>
-    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="26"/>
       <c r="B813" s="26"/>
       <c r="C813" s="26"/>
@@ -16398,7 +16437,7 @@
       <c r="P813" s="26"/>
       <c r="Q813" s="26"/>
     </row>
-    <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="26"/>
       <c r="B814" s="26"/>
       <c r="C814" s="26"/>
@@ -16417,7 +16456,7 @@
       <c r="P814" s="26"/>
       <c r="Q814" s="26"/>
     </row>
-    <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="26"/>
       <c r="B815" s="26"/>
       <c r="C815" s="26"/>
@@ -16436,7 +16475,7 @@
       <c r="P815" s="26"/>
       <c r="Q815" s="26"/>
     </row>
-    <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="26"/>
       <c r="B816" s="26"/>
       <c r="C816" s="26"/>
@@ -16455,7 +16494,7 @@
       <c r="P816" s="26"/>
       <c r="Q816" s="26"/>
     </row>
-    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="26"/>
       <c r="B817" s="26"/>
       <c r="C817" s="26"/>
@@ -16474,7 +16513,7 @@
       <c r="P817" s="26"/>
       <c r="Q817" s="26"/>
     </row>
-    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="26"/>
       <c r="B818" s="26"/>
       <c r="C818" s="26"/>
@@ -16493,7 +16532,7 @@
       <c r="P818" s="26"/>
       <c r="Q818" s="26"/>
     </row>
-    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="26"/>
       <c r="B819" s="26"/>
       <c r="C819" s="26"/>
@@ -16512,7 +16551,7 @@
       <c r="P819" s="26"/>
       <c r="Q819" s="26"/>
     </row>
-    <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="26"/>
       <c r="B820" s="26"/>
       <c r="C820" s="26"/>
@@ -16531,7 +16570,7 @@
       <c r="P820" s="26"/>
       <c r="Q820" s="26"/>
     </row>
-    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="26"/>
       <c r="B821" s="26"/>
       <c r="C821" s="26"/>
@@ -16550,7 +16589,7 @@
       <c r="P821" s="26"/>
       <c r="Q821" s="26"/>
     </row>
-    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="26"/>
       <c r="B822" s="26"/>
       <c r="C822" s="26"/>
@@ -16569,7 +16608,7 @@
       <c r="P822" s="26"/>
       <c r="Q822" s="26"/>
     </row>
-    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="26"/>
       <c r="B823" s="26"/>
       <c r="C823" s="26"/>
@@ -16588,7 +16627,7 @@
       <c r="P823" s="26"/>
       <c r="Q823" s="26"/>
     </row>
-    <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="26"/>
       <c r="B824" s="26"/>
       <c r="C824" s="26"/>
@@ -16607,7 +16646,7 @@
       <c r="P824" s="26"/>
       <c r="Q824" s="26"/>
     </row>
-    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="26"/>
       <c r="B825" s="26"/>
       <c r="C825" s="26"/>
@@ -16626,7 +16665,7 @@
       <c r="P825" s="26"/>
       <c r="Q825" s="26"/>
     </row>
-    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="26"/>
       <c r="B826" s="26"/>
       <c r="C826" s="26"/>
@@ -16645,7 +16684,7 @@
       <c r="P826" s="26"/>
       <c r="Q826" s="26"/>
     </row>
-    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="26"/>
       <c r="B827" s="26"/>
       <c r="C827" s="26"/>
@@ -16664,7 +16703,7 @@
       <c r="P827" s="26"/>
       <c r="Q827" s="26"/>
     </row>
-    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="26"/>
       <c r="B828" s="26"/>
       <c r="C828" s="26"/>
@@ -16683,7 +16722,7 @@
       <c r="P828" s="26"/>
       <c r="Q828" s="26"/>
     </row>
-    <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="26"/>
       <c r="B829" s="26"/>
       <c r="C829" s="26"/>
@@ -16702,7 +16741,7 @@
       <c r="P829" s="26"/>
       <c r="Q829" s="26"/>
     </row>
-    <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="26"/>
       <c r="B830" s="26"/>
       <c r="C830" s="26"/>
@@ -16721,7 +16760,7 @@
       <c r="P830" s="26"/>
       <c r="Q830" s="26"/>
     </row>
-    <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="26"/>
       <c r="B831" s="26"/>
       <c r="C831" s="26"/>
@@ -16740,7 +16779,7 @@
       <c r="P831" s="26"/>
       <c r="Q831" s="26"/>
     </row>
-    <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="26"/>
       <c r="B832" s="26"/>
       <c r="C832" s="26"/>
@@ -16759,7 +16798,7 @@
       <c r="P832" s="26"/>
       <c r="Q832" s="26"/>
     </row>
-    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="26"/>
       <c r="B833" s="26"/>
       <c r="C833" s="26"/>
@@ -16778,7 +16817,7 @@
       <c r="P833" s="26"/>
       <c r="Q833" s="26"/>
     </row>
-    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="26"/>
       <c r="B834" s="26"/>
       <c r="C834" s="26"/>
@@ -16797,7 +16836,7 @@
       <c r="P834" s="26"/>
       <c r="Q834" s="26"/>
     </row>
-    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="26"/>
       <c r="B835" s="26"/>
       <c r="C835" s="26"/>
@@ -16816,7 +16855,7 @@
       <c r="P835" s="26"/>
       <c r="Q835" s="26"/>
     </row>
-    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="26"/>
       <c r="B836" s="26"/>
       <c r="C836" s="26"/>
@@ -16835,7 +16874,7 @@
       <c r="P836" s="26"/>
       <c r="Q836" s="26"/>
     </row>
-    <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="26"/>
       <c r="B837" s="26"/>
       <c r="C837" s="26"/>
@@ -16854,7 +16893,7 @@
       <c r="P837" s="26"/>
       <c r="Q837" s="26"/>
     </row>
-    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="26"/>
       <c r="B838" s="26"/>
       <c r="C838" s="26"/>
@@ -16873,7 +16912,7 @@
       <c r="P838" s="26"/>
       <c r="Q838" s="26"/>
     </row>
-    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="26"/>
       <c r="B839" s="26"/>
       <c r="C839" s="26"/>
@@ -16892,7 +16931,7 @@
       <c r="P839" s="26"/>
       <c r="Q839" s="26"/>
     </row>
-    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="26"/>
       <c r="B840" s="26"/>
       <c r="C840" s="26"/>
@@ -16911,7 +16950,7 @@
       <c r="P840" s="26"/>
       <c r="Q840" s="26"/>
     </row>
-    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="26"/>
       <c r="B841" s="26"/>
       <c r="C841" s="26"/>
@@ -16930,7 +16969,7 @@
       <c r="P841" s="26"/>
       <c r="Q841" s="26"/>
     </row>
-    <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="26"/>
       <c r="B842" s="26"/>
       <c r="C842" s="26"/>
@@ -16949,7 +16988,7 @@
       <c r="P842" s="26"/>
       <c r="Q842" s="26"/>
     </row>
-    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="26"/>
       <c r="B843" s="26"/>
       <c r="C843" s="26"/>
@@ -16968,7 +17007,7 @@
       <c r="P843" s="26"/>
       <c r="Q843" s="26"/>
     </row>
-    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="26"/>
       <c r="B844" s="26"/>
       <c r="C844" s="26"/>
@@ -16987,7 +17026,7 @@
       <c r="P844" s="26"/>
       <c r="Q844" s="26"/>
     </row>
-    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="26"/>
       <c r="B845" s="26"/>
       <c r="C845" s="26"/>
@@ -17006,7 +17045,7 @@
       <c r="P845" s="26"/>
       <c r="Q845" s="26"/>
     </row>
-    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="26"/>
       <c r="B846" s="26"/>
       <c r="C846" s="26"/>
@@ -17025,7 +17064,7 @@
       <c r="P846" s="26"/>
       <c r="Q846" s="26"/>
     </row>
-    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="26"/>
       <c r="B847" s="26"/>
       <c r="C847" s="26"/>
@@ -17044,7 +17083,7 @@
       <c r="P847" s="26"/>
       <c r="Q847" s="26"/>
     </row>
-    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="26"/>
       <c r="B848" s="26"/>
       <c r="C848" s="26"/>
@@ -17063,7 +17102,7 @@
       <c r="P848" s="26"/>
       <c r="Q848" s="26"/>
     </row>
-    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="26"/>
       <c r="B849" s="26"/>
       <c r="C849" s="26"/>
@@ -17082,7 +17121,7 @@
       <c r="P849" s="26"/>
       <c r="Q849" s="26"/>
     </row>
-    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="26"/>
       <c r="B850" s="26"/>
       <c r="C850" s="26"/>
@@ -17101,7 +17140,7 @@
       <c r="P850" s="26"/>
       <c r="Q850" s="26"/>
     </row>
-    <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="26"/>
       <c r="B851" s="26"/>
       <c r="C851" s="26"/>
@@ -17120,7 +17159,7 @@
       <c r="P851" s="26"/>
       <c r="Q851" s="26"/>
     </row>
-    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="26"/>
       <c r="B852" s="26"/>
       <c r="C852" s="26"/>
@@ -17139,7 +17178,7 @@
       <c r="P852" s="26"/>
       <c r="Q852" s="26"/>
     </row>
-    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="26"/>
       <c r="B853" s="26"/>
       <c r="C853" s="26"/>
@@ -17158,7 +17197,7 @@
       <c r="P853" s="26"/>
       <c r="Q853" s="26"/>
     </row>
-    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="26"/>
       <c r="B854" s="26"/>
       <c r="C854" s="26"/>
@@ -17177,7 +17216,7 @@
       <c r="P854" s="26"/>
       <c r="Q854" s="26"/>
     </row>
-    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="26"/>
       <c r="B855" s="26"/>
       <c r="C855" s="26"/>
@@ -17196,7 +17235,7 @@
       <c r="P855" s="26"/>
       <c r="Q855" s="26"/>
     </row>
-    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="26"/>
       <c r="B856" s="26"/>
       <c r="C856" s="26"/>
@@ -17215,7 +17254,7 @@
       <c r="P856" s="26"/>
       <c r="Q856" s="26"/>
     </row>
-    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="26"/>
       <c r="B857" s="26"/>
       <c r="C857" s="26"/>
@@ -17234,7 +17273,7 @@
       <c r="P857" s="26"/>
       <c r="Q857" s="26"/>
     </row>
-    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="26"/>
       <c r="B858" s="26"/>
       <c r="C858" s="26"/>
@@ -17253,7 +17292,7 @@
       <c r="P858" s="26"/>
       <c r="Q858" s="26"/>
     </row>
-    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="26"/>
       <c r="B859" s="26"/>
       <c r="C859" s="26"/>
@@ -17272,7 +17311,7 @@
       <c r="P859" s="26"/>
       <c r="Q859" s="26"/>
     </row>
-    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="26"/>
       <c r="B860" s="26"/>
       <c r="C860" s="26"/>
@@ -17291,7 +17330,7 @@
       <c r="P860" s="26"/>
       <c r="Q860" s="26"/>
     </row>
-    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="26"/>
       <c r="B861" s="26"/>
       <c r="C861" s="26"/>
@@ -17310,7 +17349,7 @@
       <c r="P861" s="26"/>
       <c r="Q861" s="26"/>
     </row>
-    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="26"/>
       <c r="B862" s="26"/>
       <c r="C862" s="26"/>
@@ -17329,7 +17368,7 @@
       <c r="P862" s="26"/>
       <c r="Q862" s="26"/>
     </row>
-    <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="26"/>
       <c r="B863" s="26"/>
       <c r="C863" s="26"/>
@@ -17348,7 +17387,7 @@
       <c r="P863" s="26"/>
       <c r="Q863" s="26"/>
     </row>
-    <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="26"/>
       <c r="B864" s="26"/>
       <c r="C864" s="26"/>
@@ -17367,7 +17406,7 @@
       <c r="P864" s="26"/>
       <c r="Q864" s="26"/>
     </row>
-    <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="26"/>
       <c r="B865" s="26"/>
       <c r="C865" s="26"/>
@@ -17386,7 +17425,7 @@
       <c r="P865" s="26"/>
       <c r="Q865" s="26"/>
     </row>
-    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="26"/>
       <c r="B866" s="26"/>
       <c r="C866" s="26"/>
@@ -17405,7 +17444,7 @@
       <c r="P866" s="26"/>
       <c r="Q866" s="26"/>
     </row>
-    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="26"/>
       <c r="B867" s="26"/>
       <c r="C867" s="26"/>
@@ -17424,7 +17463,7 @@
       <c r="P867" s="26"/>
       <c r="Q867" s="26"/>
     </row>
-    <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="26"/>
       <c r="B868" s="26"/>
       <c r="C868" s="26"/>
@@ -17443,7 +17482,7 @@
       <c r="P868" s="26"/>
       <c r="Q868" s="26"/>
     </row>
-    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="26"/>
       <c r="B869" s="26"/>
       <c r="C869" s="26"/>
@@ -17462,7 +17501,7 @@
       <c r="P869" s="26"/>
       <c r="Q869" s="26"/>
     </row>
-    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="26"/>
       <c r="B870" s="26"/>
       <c r="C870" s="26"/>
@@ -17481,7 +17520,7 @@
       <c r="P870" s="26"/>
       <c r="Q870" s="26"/>
     </row>
-    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="26"/>
       <c r="B871" s="26"/>
       <c r="C871" s="26"/>
@@ -17500,7 +17539,7 @@
       <c r="P871" s="26"/>
       <c r="Q871" s="26"/>
     </row>
-    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="26"/>
       <c r="B872" s="26"/>
       <c r="C872" s="26"/>
@@ -17519,7 +17558,7 @@
       <c r="P872" s="26"/>
       <c r="Q872" s="26"/>
     </row>
-    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="26"/>
       <c r="B873" s="26"/>
       <c r="C873" s="26"/>
@@ -17538,7 +17577,7 @@
       <c r="P873" s="26"/>
       <c r="Q873" s="26"/>
     </row>
-    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="26"/>
       <c r="B874" s="26"/>
       <c r="C874" s="26"/>
@@ -17557,7 +17596,7 @@
       <c r="P874" s="26"/>
       <c r="Q874" s="26"/>
     </row>
-    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="26"/>
       <c r="B875" s="26"/>
       <c r="C875" s="26"/>
@@ -17576,7 +17615,7 @@
       <c r="P875" s="26"/>
       <c r="Q875" s="26"/>
     </row>
-    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="26"/>
       <c r="B876" s="26"/>
       <c r="C876" s="26"/>
@@ -17595,7 +17634,7 @@
       <c r="P876" s="26"/>
       <c r="Q876" s="26"/>
     </row>
-    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="26"/>
       <c r="B877" s="26"/>
       <c r="C877" s="26"/>
@@ -17614,7 +17653,7 @@
       <c r="P877" s="26"/>
       <c r="Q877" s="26"/>
     </row>
-    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="26"/>
       <c r="B878" s="26"/>
       <c r="C878" s="26"/>
@@ -17633,7 +17672,7 @@
       <c r="P878" s="26"/>
       <c r="Q878" s="26"/>
     </row>
-    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="26"/>
       <c r="B879" s="26"/>
       <c r="C879" s="26"/>
@@ -17652,7 +17691,7 @@
       <c r="P879" s="26"/>
       <c r="Q879" s="26"/>
     </row>
-    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="26"/>
       <c r="B880" s="26"/>
       <c r="C880" s="26"/>
@@ -17671,7 +17710,7 @@
       <c r="P880" s="26"/>
       <c r="Q880" s="26"/>
     </row>
-    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="26"/>
       <c r="B881" s="26"/>
       <c r="C881" s="26"/>
@@ -17690,7 +17729,7 @@
       <c r="P881" s="26"/>
       <c r="Q881" s="26"/>
     </row>
-    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="26"/>
       <c r="B882" s="26"/>
       <c r="C882" s="26"/>
@@ -17709,7 +17748,7 @@
       <c r="P882" s="26"/>
       <c r="Q882" s="26"/>
     </row>
-    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="26"/>
       <c r="B883" s="26"/>
       <c r="C883" s="26"/>
@@ -17728,7 +17767,7 @@
       <c r="P883" s="26"/>
       <c r="Q883" s="26"/>
     </row>
-    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="26"/>
       <c r="B884" s="26"/>
       <c r="C884" s="26"/>
@@ -17747,7 +17786,7 @@
       <c r="P884" s="26"/>
       <c r="Q884" s="26"/>
     </row>
-    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="26"/>
       <c r="B885" s="26"/>
       <c r="C885" s="26"/>
@@ -17766,7 +17805,7 @@
       <c r="P885" s="26"/>
       <c r="Q885" s="26"/>
     </row>
-    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="26"/>
       <c r="B886" s="26"/>
       <c r="C886" s="26"/>
@@ -17785,7 +17824,7 @@
       <c r="P886" s="26"/>
       <c r="Q886" s="26"/>
     </row>
-    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="26"/>
       <c r="B887" s="26"/>
       <c r="C887" s="26"/>
@@ -17804,7 +17843,7 @@
       <c r="P887" s="26"/>
       <c r="Q887" s="26"/>
     </row>
-    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="26"/>
       <c r="B888" s="26"/>
       <c r="C888" s="26"/>
@@ -17823,7 +17862,7 @@
       <c r="P888" s="26"/>
       <c r="Q888" s="26"/>
     </row>
-    <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="26"/>
       <c r="B889" s="26"/>
       <c r="C889" s="26"/>
@@ -17842,7 +17881,7 @@
       <c r="P889" s="26"/>
       <c r="Q889" s="26"/>
     </row>
-    <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="26"/>
       <c r="B890" s="26"/>
       <c r="C890" s="26"/>
@@ -17861,7 +17900,7 @@
       <c r="P890" s="26"/>
       <c r="Q890" s="26"/>
     </row>
-    <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="26"/>
       <c r="B891" s="26"/>
       <c r="C891" s="26"/>
@@ -17880,7 +17919,7 @@
       <c r="P891" s="26"/>
       <c r="Q891" s="26"/>
     </row>
-    <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="26"/>
       <c r="B892" s="26"/>
       <c r="C892" s="26"/>
@@ -17899,7 +17938,7 @@
       <c r="P892" s="26"/>
       <c r="Q892" s="26"/>
     </row>
-    <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="26"/>
       <c r="B893" s="26"/>
       <c r="C893" s="26"/>
@@ -17918,7 +17957,7 @@
       <c r="P893" s="26"/>
       <c r="Q893" s="26"/>
     </row>
-    <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="26"/>
       <c r="B894" s="26"/>
       <c r="C894" s="26"/>
@@ -17937,7 +17976,7 @@
       <c r="P894" s="26"/>
       <c r="Q894" s="26"/>
     </row>
-    <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="26"/>
       <c r="B895" s="26"/>
       <c r="C895" s="26"/>
@@ -17956,7 +17995,7 @@
       <c r="P895" s="26"/>
       <c r="Q895" s="26"/>
     </row>
-    <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="26"/>
       <c r="B896" s="26"/>
       <c r="C896" s="26"/>
@@ -17975,7 +18014,7 @@
       <c r="P896" s="26"/>
       <c r="Q896" s="26"/>
     </row>
-    <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="26"/>
       <c r="B897" s="26"/>
       <c r="C897" s="26"/>
@@ -17994,7 +18033,7 @@
       <c r="P897" s="26"/>
       <c r="Q897" s="26"/>
     </row>
-    <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="26"/>
       <c r="B898" s="26"/>
       <c r="C898" s="26"/>
@@ -18013,7 +18052,7 @@
       <c r="P898" s="26"/>
       <c r="Q898" s="26"/>
     </row>
-    <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="26"/>
       <c r="B899" s="26"/>
       <c r="C899" s="26"/>
@@ -18032,7 +18071,7 @@
       <c r="P899" s="26"/>
       <c r="Q899" s="26"/>
     </row>
-    <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="26"/>
       <c r="B900" s="26"/>
       <c r="C900" s="26"/>
@@ -18051,7 +18090,7 @@
       <c r="P900" s="26"/>
       <c r="Q900" s="26"/>
     </row>
-    <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="26"/>
       <c r="B901" s="26"/>
       <c r="C901" s="26"/>
@@ -18070,7 +18109,7 @@
       <c r="P901" s="26"/>
       <c r="Q901" s="26"/>
     </row>
-    <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="26"/>
       <c r="B902" s="26"/>
       <c r="C902" s="26"/>
@@ -18089,7 +18128,7 @@
       <c r="P902" s="26"/>
       <c r="Q902" s="26"/>
     </row>
-    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="26"/>
       <c r="B903" s="26"/>
       <c r="C903" s="26"/>
@@ -18108,7 +18147,7 @@
       <c r="P903" s="26"/>
       <c r="Q903" s="26"/>
     </row>
-    <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="26"/>
       <c r="B904" s="26"/>
       <c r="C904" s="26"/>
@@ -18127,7 +18166,7 @@
       <c r="P904" s="26"/>
       <c r="Q904" s="26"/>
     </row>
-    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="26"/>
       <c r="B905" s="26"/>
       <c r="C905" s="26"/>
@@ -18146,7 +18185,7 @@
       <c r="P905" s="26"/>
       <c r="Q905" s="26"/>
     </row>
-    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="26"/>
       <c r="B906" s="26"/>
       <c r="C906" s="26"/>
@@ -18165,7 +18204,7 @@
       <c r="P906" s="26"/>
       <c r="Q906" s="26"/>
     </row>
-    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="26"/>
       <c r="B907" s="26"/>
       <c r="C907" s="26"/>
@@ -18184,7 +18223,7 @@
       <c r="P907" s="26"/>
       <c r="Q907" s="26"/>
     </row>
-    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="26"/>
       <c r="B908" s="26"/>
       <c r="C908" s="26"/>
@@ -18203,7 +18242,7 @@
       <c r="P908" s="26"/>
       <c r="Q908" s="26"/>
     </row>
-    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="26"/>
       <c r="B909" s="26"/>
       <c r="C909" s="26"/>
@@ -18222,7 +18261,7 @@
       <c r="P909" s="26"/>
       <c r="Q909" s="26"/>
     </row>
-    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="26"/>
       <c r="B910" s="26"/>
       <c r="C910" s="26"/>
@@ -18241,7 +18280,7 @@
       <c r="P910" s="26"/>
       <c r="Q910" s="26"/>
     </row>
-    <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="26"/>
       <c r="B911" s="26"/>
       <c r="C911" s="26"/>
@@ -18260,7 +18299,7 @@
       <c r="P911" s="26"/>
       <c r="Q911" s="26"/>
     </row>
-    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="26"/>
       <c r="B912" s="26"/>
       <c r="C912" s="26"/>
@@ -18279,7 +18318,7 @@
       <c r="P912" s="26"/>
       <c r="Q912" s="26"/>
     </row>
-    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="26"/>
       <c r="B913" s="26"/>
       <c r="C913" s="26"/>
@@ -18298,7 +18337,7 @@
       <c r="P913" s="26"/>
       <c r="Q913" s="26"/>
     </row>
-    <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="26"/>
       <c r="B914" s="26"/>
       <c r="C914" s="26"/>
@@ -18317,7 +18356,7 @@
       <c r="P914" s="26"/>
       <c r="Q914" s="26"/>
     </row>
-    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="26"/>
       <c r="B915" s="26"/>
       <c r="C915" s="26"/>
@@ -18336,7 +18375,7 @@
       <c r="P915" s="26"/>
       <c r="Q915" s="26"/>
     </row>
-    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="26"/>
       <c r="B916" s="26"/>
       <c r="C916" s="26"/>
@@ -18355,7 +18394,7 @@
       <c r="P916" s="26"/>
       <c r="Q916" s="26"/>
     </row>
-    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="26"/>
       <c r="B917" s="26"/>
       <c r="C917" s="26"/>
@@ -18374,7 +18413,7 @@
       <c r="P917" s="26"/>
       <c r="Q917" s="26"/>
     </row>
-    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="26"/>
       <c r="B918" s="26"/>
       <c r="C918" s="26"/>
@@ -18393,7 +18432,7 @@
       <c r="P918" s="26"/>
       <c r="Q918" s="26"/>
     </row>
-    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="26"/>
       <c r="B919" s="26"/>
       <c r="C919" s="26"/>
@@ -18412,7 +18451,7 @@
       <c r="P919" s="26"/>
       <c r="Q919" s="26"/>
     </row>
-    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="26"/>
       <c r="B920" s="26"/>
       <c r="C920" s="26"/>
@@ -18431,7 +18470,7 @@
       <c r="P920" s="26"/>
       <c r="Q920" s="26"/>
     </row>
-    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="26"/>
       <c r="B921" s="26"/>
       <c r="C921" s="26"/>
@@ -18450,7 +18489,7 @@
       <c r="P921" s="26"/>
       <c r="Q921" s="26"/>
     </row>
-    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="26"/>
       <c r="B922" s="26"/>
       <c r="C922" s="26"/>
@@ -18469,7 +18508,7 @@
       <c r="P922" s="26"/>
       <c r="Q922" s="26"/>
     </row>
-    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="26"/>
       <c r="B923" s="26"/>
       <c r="C923" s="26"/>
@@ -18488,7 +18527,7 @@
       <c r="P923" s="26"/>
       <c r="Q923" s="26"/>
     </row>
-    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="26"/>
       <c r="B924" s="26"/>
       <c r="C924" s="26"/>
@@ -18507,7 +18546,7 @@
       <c r="P924" s="26"/>
       <c r="Q924" s="26"/>
     </row>
-    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="26"/>
       <c r="B925" s="26"/>
       <c r="C925" s="26"/>
@@ -18526,7 +18565,7 @@
       <c r="P925" s="26"/>
       <c r="Q925" s="26"/>
     </row>
-    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="26"/>
       <c r="B926" s="26"/>
       <c r="C926" s="26"/>
@@ -18545,7 +18584,7 @@
       <c r="P926" s="26"/>
       <c r="Q926" s="26"/>
     </row>
-    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="26"/>
       <c r="B927" s="26"/>
       <c r="C927" s="26"/>
@@ -18564,7 +18603,7 @@
       <c r="P927" s="26"/>
       <c r="Q927" s="26"/>
     </row>
-    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="26"/>
       <c r="B928" s="26"/>
       <c r="C928" s="26"/>
@@ -18583,7 +18622,7 @@
       <c r="P928" s="26"/>
       <c r="Q928" s="26"/>
     </row>
-    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="26"/>
       <c r="B929" s="26"/>
       <c r="C929" s="26"/>
@@ -18602,7 +18641,7 @@
       <c r="P929" s="26"/>
       <c r="Q929" s="26"/>
     </row>
-    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="26"/>
       <c r="B930" s="26"/>
       <c r="C930" s="26"/>
@@ -18621,7 +18660,7 @@
       <c r="P930" s="26"/>
       <c r="Q930" s="26"/>
     </row>
-    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="26"/>
       <c r="B931" s="26"/>
       <c r="C931" s="26"/>
@@ -18640,7 +18679,7 @@
       <c r="P931" s="26"/>
       <c r="Q931" s="26"/>
     </row>
-    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="26"/>
       <c r="B932" s="26"/>
       <c r="C932" s="26"/>
@@ -18659,7 +18698,7 @@
       <c r="P932" s="26"/>
       <c r="Q932" s="26"/>
     </row>
-    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="26"/>
       <c r="B933" s="26"/>
       <c r="C933" s="26"/>
@@ -18678,7 +18717,7 @@
       <c r="P933" s="26"/>
       <c r="Q933" s="26"/>
     </row>
-    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="26"/>
       <c r="B934" s="26"/>
       <c r="C934" s="26"/>
@@ -18697,7 +18736,7 @@
       <c r="P934" s="26"/>
       <c r="Q934" s="26"/>
     </row>
-    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="26"/>
       <c r="B935" s="26"/>
       <c r="C935" s="26"/>
@@ -18716,7 +18755,7 @@
       <c r="P935" s="26"/>
       <c r="Q935" s="26"/>
     </row>
-    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="26"/>
       <c r="B936" s="26"/>
       <c r="C936" s="26"/>
@@ -18735,7 +18774,7 @@
       <c r="P936" s="26"/>
       <c r="Q936" s="26"/>
     </row>
-    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="26"/>
       <c r="B937" s="26"/>
       <c r="C937" s="26"/>
@@ -18754,7 +18793,7 @@
       <c r="P937" s="26"/>
       <c r="Q937" s="26"/>
     </row>
-    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="26"/>
       <c r="B938" s="26"/>
       <c r="C938" s="26"/>
@@ -18773,7 +18812,7 @@
       <c r="P938" s="26"/>
       <c r="Q938" s="26"/>
     </row>
-    <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="26"/>
       <c r="B939" s="26"/>
       <c r="C939" s="26"/>
@@ -18792,7 +18831,7 @@
       <c r="P939" s="26"/>
       <c r="Q939" s="26"/>
     </row>
-    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="26"/>
       <c r="B940" s="26"/>
       <c r="C940" s="26"/>
@@ -18811,7 +18850,7 @@
       <c r="P940" s="26"/>
       <c r="Q940" s="26"/>
     </row>
-    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="26"/>
       <c r="B941" s="26"/>
       <c r="C941" s="26"/>
@@ -18830,7 +18869,7 @@
       <c r="P941" s="26"/>
       <c r="Q941" s="26"/>
     </row>
-    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="26"/>
       <c r="B942" s="26"/>
       <c r="C942" s="26"/>
@@ -18849,7 +18888,7 @@
       <c r="P942" s="26"/>
       <c r="Q942" s="26"/>
     </row>
-    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="26"/>
       <c r="B943" s="26"/>
       <c r="C943" s="26"/>
@@ -18868,7 +18907,7 @@
       <c r="P943" s="26"/>
       <c r="Q943" s="26"/>
     </row>
-    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="26"/>
       <c r="B944" s="26"/>
       <c r="C944" s="26"/>
@@ -18887,7 +18926,7 @@
       <c r="P944" s="26"/>
       <c r="Q944" s="26"/>
     </row>
-    <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="26"/>
       <c r="B945" s="26"/>
       <c r="C945" s="26"/>
@@ -18906,7 +18945,7 @@
       <c r="P945" s="26"/>
       <c r="Q945" s="26"/>
     </row>
-    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="26"/>
       <c r="B946" s="26"/>
       <c r="C946" s="26"/>
@@ -18925,7 +18964,7 @@
       <c r="P946" s="26"/>
       <c r="Q946" s="26"/>
     </row>
-    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="26"/>
       <c r="B947" s="26"/>
       <c r="C947" s="26"/>
@@ -18944,7 +18983,7 @@
       <c r="P947" s="26"/>
       <c r="Q947" s="26"/>
     </row>
-    <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="26"/>
       <c r="B948" s="26"/>
       <c r="C948" s="26"/>
@@ -18963,7 +19002,7 @@
       <c r="P948" s="26"/>
       <c r="Q948" s="26"/>
     </row>
-    <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="26"/>
       <c r="B949" s="26"/>
       <c r="C949" s="26"/>
@@ -18982,7 +19021,7 @@
       <c r="P949" s="26"/>
       <c r="Q949" s="26"/>
     </row>
-    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="26"/>
       <c r="B950" s="26"/>
       <c r="C950" s="26"/>
@@ -19001,7 +19040,7 @@
       <c r="P950" s="26"/>
       <c r="Q950" s="26"/>
     </row>
-    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="26"/>
       <c r="B951" s="26"/>
       <c r="C951" s="26"/>
@@ -19020,7 +19059,7 @@
       <c r="P951" s="26"/>
       <c r="Q951" s="26"/>
     </row>
-    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="26"/>
       <c r="B952" s="26"/>
       <c r="C952" s="26"/>
@@ -19039,7 +19078,7 @@
       <c r="P952" s="26"/>
       <c r="Q952" s="26"/>
     </row>
-    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="26"/>
       <c r="B953" s="26"/>
       <c r="C953" s="26"/>
@@ -19058,7 +19097,7 @@
       <c r="P953" s="26"/>
       <c r="Q953" s="26"/>
     </row>
-    <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="26"/>
       <c r="B954" s="26"/>
       <c r="C954" s="26"/>
@@ -19077,7 +19116,7 @@
       <c r="P954" s="26"/>
       <c r="Q954" s="26"/>
     </row>
-    <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="26"/>
       <c r="B955" s="26"/>
       <c r="C955" s="26"/>
@@ -19096,7 +19135,7 @@
       <c r="P955" s="26"/>
       <c r="Q955" s="26"/>
     </row>
-    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="26"/>
       <c r="B956" s="26"/>
       <c r="C956" s="26"/>
@@ -19115,7 +19154,7 @@
       <c r="P956" s="26"/>
       <c r="Q956" s="26"/>
     </row>
-    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="26"/>
       <c r="B957" s="26"/>
       <c r="C957" s="26"/>
@@ -19134,7 +19173,7 @@
       <c r="P957" s="26"/>
       <c r="Q957" s="26"/>
     </row>
-    <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="26"/>
       <c r="B958" s="26"/>
       <c r="C958" s="26"/>
@@ -19153,7 +19192,7 @@
       <c r="P958" s="26"/>
       <c r="Q958" s="26"/>
     </row>
-    <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="26"/>
       <c r="B959" s="26"/>
       <c r="C959" s="26"/>
@@ -19172,7 +19211,7 @@
       <c r="P959" s="26"/>
       <c r="Q959" s="26"/>
     </row>
-    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="26"/>
       <c r="B960" s="26"/>
       <c r="C960" s="26"/>
@@ -19191,7 +19230,7 @@
       <c r="P960" s="26"/>
       <c r="Q960" s="26"/>
     </row>
-    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="26"/>
       <c r="B961" s="26"/>
       <c r="C961" s="26"/>
@@ -19210,7 +19249,7 @@
       <c r="P961" s="26"/>
       <c r="Q961" s="26"/>
     </row>
-    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="26"/>
       <c r="B962" s="26"/>
       <c r="C962" s="26"/>
@@ -19229,7 +19268,7 @@
       <c r="P962" s="26"/>
       <c r="Q962" s="26"/>
     </row>
-    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="26"/>
       <c r="B963" s="26"/>
       <c r="C963" s="26"/>
@@ -19248,7 +19287,7 @@
       <c r="P963" s="26"/>
       <c r="Q963" s="26"/>
     </row>
-    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="26"/>
       <c r="B964" s="26"/>
       <c r="C964" s="26"/>
@@ -19267,7 +19306,7 @@
       <c r="P964" s="26"/>
       <c r="Q964" s="26"/>
     </row>
-    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="26"/>
       <c r="B965" s="26"/>
       <c r="C965" s="26"/>
@@ -19286,7 +19325,7 @@
       <c r="P965" s="26"/>
       <c r="Q965" s="26"/>
     </row>
-    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="26"/>
       <c r="B966" s="26"/>
       <c r="C966" s="26"/>
@@ -19305,7 +19344,7 @@
       <c r="P966" s="26"/>
       <c r="Q966" s="26"/>
     </row>
-    <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="26"/>
       <c r="B967" s="26"/>
       <c r="C967" s="26"/>
@@ -19324,7 +19363,7 @@
       <c r="P967" s="26"/>
       <c r="Q967" s="26"/>
     </row>
-    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="26"/>
       <c r="B968" s="26"/>
       <c r="C968" s="26"/>
@@ -19343,7 +19382,7 @@
       <c r="P968" s="26"/>
       <c r="Q968" s="26"/>
     </row>
-    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="26"/>
       <c r="B969" s="26"/>
       <c r="C969" s="26"/>
@@ -19362,7 +19401,7 @@
       <c r="P969" s="26"/>
       <c r="Q969" s="26"/>
     </row>
-    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="26"/>
       <c r="B970" s="26"/>
       <c r="C970" s="26"/>
@@ -19381,7 +19420,7 @@
       <c r="P970" s="26"/>
       <c r="Q970" s="26"/>
     </row>
-    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="26"/>
       <c r="B971" s="26"/>
       <c r="C971" s="26"/>
@@ -19400,7 +19439,7 @@
       <c r="P971" s="26"/>
       <c r="Q971" s="26"/>
     </row>
-    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="26"/>
       <c r="B972" s="26"/>
       <c r="C972" s="26"/>
@@ -19419,7 +19458,7 @@
       <c r="P972" s="26"/>
       <c r="Q972" s="26"/>
     </row>
-    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="26"/>
       <c r="B973" s="26"/>
       <c r="C973" s="26"/>
@@ -19438,7 +19477,7 @@
       <c r="P973" s="26"/>
       <c r="Q973" s="26"/>
     </row>
-    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="26"/>
       <c r="B974" s="26"/>
       <c r="C974" s="26"/>
@@ -19457,7 +19496,7 @@
       <c r="P974" s="26"/>
       <c r="Q974" s="26"/>
     </row>
-    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="26"/>
       <c r="B975" s="26"/>
       <c r="C975" s="26"/>
@@ -19476,7 +19515,7 @@
       <c r="P975" s="26"/>
       <c r="Q975" s="26"/>
     </row>
-    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="26"/>
       <c r="B976" s="26"/>
       <c r="C976" s="26"/>
@@ -19495,7 +19534,7 @@
       <c r="P976" s="26"/>
       <c r="Q976" s="26"/>
     </row>
-    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="26"/>
       <c r="B977" s="26"/>
       <c r="C977" s="26"/>
@@ -19514,7 +19553,7 @@
       <c r="P977" s="26"/>
       <c r="Q977" s="26"/>
     </row>
-    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="26"/>
       <c r="B978" s="26"/>
       <c r="C978" s="26"/>
@@ -19533,7 +19572,7 @@
       <c r="P978" s="26"/>
       <c r="Q978" s="26"/>
     </row>
-    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="26"/>
       <c r="B979" s="26"/>
       <c r="C979" s="26"/>
@@ -19552,7 +19591,7 @@
       <c r="P979" s="26"/>
       <c r="Q979" s="26"/>
     </row>
-    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="26"/>
       <c r="B980" s="26"/>
       <c r="C980" s="26"/>
@@ -19571,7 +19610,7 @@
       <c r="P980" s="26"/>
       <c r="Q980" s="26"/>
     </row>
-    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="26"/>
       <c r="B981" s="26"/>
       <c r="C981" s="26"/>
@@ -19590,7 +19629,7 @@
       <c r="P981" s="26"/>
       <c r="Q981" s="26"/>
     </row>
-    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="26"/>
       <c r="B982" s="26"/>
       <c r="C982" s="26"/>
@@ -19609,7 +19648,7 @@
       <c r="P982" s="26"/>
       <c r="Q982" s="26"/>
     </row>
-    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="26"/>
       <c r="B983" s="26"/>
       <c r="C983" s="26"/>
@@ -19628,7 +19667,7 @@
       <c r="P983" s="26"/>
       <c r="Q983" s="26"/>
     </row>
-    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="26"/>
       <c r="B984" s="26"/>
       <c r="C984" s="26"/>
@@ -19647,7 +19686,7 @@
       <c r="P984" s="26"/>
       <c r="Q984" s="26"/>
     </row>
-    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="26"/>
       <c r="B985" s="26"/>
       <c r="C985" s="26"/>
@@ -19666,7 +19705,7 @@
       <c r="P985" s="26"/>
       <c r="Q985" s="26"/>
     </row>
-    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="26"/>
       <c r="B986" s="26"/>
       <c r="C986" s="26"/>
@@ -19685,7 +19724,7 @@
       <c r="P986" s="26"/>
       <c r="Q986" s="26"/>
     </row>
-    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="26"/>
       <c r="B987" s="26"/>
       <c r="C987" s="26"/>
@@ -19704,7 +19743,7 @@
       <c r="P987" s="26"/>
       <c r="Q987" s="26"/>
     </row>
-    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="26"/>
       <c r="B988" s="26"/>
       <c r="C988" s="26"/>
@@ -19723,7 +19762,7 @@
       <c r="P988" s="26"/>
       <c r="Q988" s="26"/>
     </row>
-    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="26"/>
       <c r="B989" s="26"/>
       <c r="C989" s="26"/>
@@ -19742,7 +19781,7 @@
       <c r="P989" s="26"/>
       <c r="Q989" s="26"/>
     </row>
-    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="26"/>
       <c r="B990" s="26"/>
       <c r="C990" s="26"/>
@@ -19761,7 +19800,7 @@
       <c r="P990" s="26"/>
       <c r="Q990" s="26"/>
     </row>
-    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="26"/>
       <c r="B991" s="26"/>
       <c r="C991" s="26"/>
@@ -19780,7 +19819,7 @@
       <c r="P991" s="26"/>
       <c r="Q991" s="26"/>
     </row>
-    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="26"/>
       <c r="B992" s="26"/>
       <c r="C992" s="26"/>
@@ -19799,7 +19838,7 @@
       <c r="P992" s="26"/>
       <c r="Q992" s="26"/>
     </row>
-    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="26"/>
       <c r="B993" s="26"/>
       <c r="C993" s="26"/>
@@ -19818,7 +19857,7 @@
       <c r="P993" s="26"/>
       <c r="Q993" s="26"/>
     </row>
-    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="26"/>
       <c r="B994" s="26"/>
       <c r="C994" s="26"/>
@@ -19837,7 +19876,7 @@
       <c r="P994" s="26"/>
       <c r="Q994" s="26"/>
     </row>
-    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="26"/>
       <c r="B995" s="26"/>
       <c r="C995" s="26"/>
@@ -19856,7 +19895,7 @@
       <c r="P995" s="26"/>
       <c r="Q995" s="26"/>
     </row>
-    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="26"/>
       <c r="B996" s="26"/>
       <c r="C996" s="26"/>
@@ -19875,7 +19914,7 @@
       <c r="P996" s="26"/>
       <c r="Q996" s="26"/>
     </row>
-    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="26"/>
       <c r="B997" s="26"/>
       <c r="C997" s="26"/>
@@ -19894,7 +19933,7 @@
       <c r="P997" s="26"/>
       <c r="Q997" s="26"/>
     </row>
-    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="26"/>
       <c r="B998" s="26"/>
       <c r="C998" s="26"/>
@@ -19913,7 +19952,7 @@
       <c r="P998" s="26"/>
       <c r="Q998" s="26"/>
     </row>
-    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="26"/>
       <c r="B999" s="26"/>
       <c r="C999" s="26"/>
@@ -19932,7 +19971,7 @@
       <c r="P999" s="26"/>
       <c r="Q999" s="26"/>
     </row>
-    <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="26"/>
       <c r="B1000" s="26"/>
       <c r="C1000" s="26"/>
@@ -19953,12 +19992,12 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1000" type="list">
+      <formula1>Definitions!$C$2:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1000" type="list">
       <formula1>Definitions!$B$2:$B$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1000" type="list">
-      <formula1>Definitions!$C$2:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -19979,8 +20018,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30052,8 +30091,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33108,7 +33147,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="STAT" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="META-Study" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="META-Home" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="META-Room" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="META-Variable" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Definitions" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="INFO" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="STAT" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="META-Study" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="META-Home" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="META-Room" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="META-Variable" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Definitions" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Building volume specific [1/h]</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-family house (MFH)</t>
+    <t xml:space="preserve">Single family house (SFH)</t>
   </si>
   <si>
     <t xml:space="preserve">social housing</t>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t xml:space="preserve">Active tracer gas measurement (in context of study)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single family house (SFH)</t>
   </si>
   <si>
     <r>
@@ -435,6 +432,9 @@
       </rPr>
       <t xml:space="preserve">low-hood / anemometer measurement (in context of study)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-family house (MFH)</t>
   </si>
   <si>
     <t xml:space="preserve">Floor area specific / [m³/hm²]:</t>
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2091240</xdr:colOff>
+      <xdr:colOff>2090520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1816920" cy="1917360"/>
+          <a:ext cx="1816200" cy="1916640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,6 +1139,112 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1146,7 +1252,7 @@
   </sheetPr>
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1396,7 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1457,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1530,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1478,7 +1584,7 @@
       <c r="K1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="27" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -19991,13 +20097,17 @@
       <c r="Q1000" s="26"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1000" type="list">
       <formula1>Definitions!$C$2:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1000" type="list">
       <formula1>Definitions!$B$2:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L1000" type="list">
+      <formula1>Definitions!$D$2:$D$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -20018,7 +20128,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -30091,7 +30201,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -33147,7 +33257,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -33214,25 +33324,25 @@
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K2" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -33245,36 +33355,36 @@
         <v>10000</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K3" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -33287,18 +33397,18 @@
         <v>100</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>113</v>
@@ -33329,7 +33439,7 @@
         <v>1000</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33597,7 +33707,7 @@
         <v>100</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2090520</xdr:colOff>
+      <xdr:colOff>2089800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1816200" cy="1916640"/>
+          <a:ext cx="1815480" cy="1915920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,7 +1584,7 @@
       <c r="K1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -20107,7 +20107,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L1000" type="list">
-      <formula1>Definitions!$D$2:$D$6</formula1>
+      <formula1>Definitions!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="177">
   <si>
     <t xml:space="preserve">IEA EBC Annex86 Dataset</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional information required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed</t>
   </si>
   <si>
     <t xml:space="preserve">Lower bound</t>
@@ -1108,9 +1111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2089800</xdr:colOff>
+      <xdr:colOff>2089080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274320" y="295920"/>
-          <a:ext cx="1815480" cy="1915920"/>
+          <a:ext cx="1814760" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,7 +1255,7 @@
   </sheetPr>
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1533,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -33255,13 +33258,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.98"/>
@@ -33271,7 +33274,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33315,131 +33318,143 @@
       <c r="N1" s="24" t="s">
         <v>90</v>
       </c>
+      <c r="O1" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M2" s="32" t="n">
+      <c r="N2" s="32" t="n">
         <v>10000</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>99</v>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="33" t="n">
+      <c r="N3" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>109</v>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="N4" s="33" t="n">
         <v>1000</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>109</v>
+      <c r="O4" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33447,420 +33462,477 @@
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="33" t="n">
+      <c r="N5" s="33" t="n">
         <v>1000000000</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>125</v>
+      <c r="O5" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="N6" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>133</v>
+      <c r="O6" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="N7" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>133</v>
+      <c r="O7" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="33" t="n">
+      <c r="N8" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>133</v>
+      <c r="O8" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K9" s="31" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="L9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="33" t="n">
+      <c r="N10" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>133</v>
+      <c r="O10" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="33" t="n">
+      <c r="N11" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>133</v>
+      <c r="O11" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K12" s="31" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="33" t="n">
+      <c r="N12" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>133</v>
+      <c r="O12" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K13" s="31" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="33" t="n">
+      <c r="N13" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>133</v>
+      <c r="O13" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="33" t="n">
+      <c r="N14" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>109</v>
+      <c r="O14" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>161</v>
+      <c r="O15" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K16" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="33" t="n">
+      <c r="N16" s="33" t="n">
         <v>10000</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>163</v>
+      <c r="O16" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="33" t="n">
+      <c r="N17" s="33" t="n">
         <v>1000000000</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>165</v>
+      <c r="O17" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="33" t="n">
+      <c r="N18" s="33" t="n">
         <v>1000000000</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>167</v>
+      <c r="O18" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="31" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="L19" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="n">
         <v>-50</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>169</v>
+      <c r="O20" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K21" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>171</v>
+      <c r="O21" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K22" s="31" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>173</v>
+      <c r="O22" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K23" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="N23" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>175</v>
+      <c r="O23" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -33884,6 +33956,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L23" type="list">
+      <formula1>"1,10,100"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
